--- a/SP_Sklad/TempLate/WayBill_Out.xlsx
+++ b/SP_Sklad/TempLate/WayBill_Out.xlsx
@@ -11,8 +11,9 @@
     <sheet name="Посвідчення якості" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="Posvitcheny">'Посвідчення якості'!$A$14:$N$15</definedName>
     <definedName name="range1">Накладна!$A$20:$P$21</definedName>
-    <definedName name="range2">'Посвідчення якості'!$A$14:$N$15</definedName>
+    <definedName name="range2">'Посвідчення якості'!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Накладна!$A$1:$P$30</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -880,6 +881,27 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -934,89 +956,68 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1390,9 +1391,7 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A2:Q107"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1416,15 +1415,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
       <c r="I2" s="31" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
@@ -1433,14 +1432,14 @@
         <v>4</v>
       </c>
       <c r="K2" s="27"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
       <c r="N2" s="43"/>
-      <c r="O2" s="70" t="e">
+      <c r="O2" s="77" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="P2" s="70"/>
+      <c r="P2" s="77"/>
       <c r="Q2" s="51"/>
     </row>
     <row r="4" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1461,17 +1460,14 @@
     <row r="5" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B5" s="47"/>
       <c r="D5" s="11" t="e">
-        <f>CONCATENATE(IF(WayBillList_EntOKPO&lt;&gt;"","ЗКПО ",""),WayBillList_EntOKPO,", тел.",WayBillList_EntKaPhone)</f>
+        <f>CONCATENATE(IF(WayBillList_EntOKPO&lt;&gt;"","ЗКПО "&amp;WayBillList_EntOKPO&amp;", ",""),"тел. ",WayBillList_EntKaPhone)</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B6" s="47" t="e">
-        <f>EntAccount_ACCNUM</f>
-        <v>#NAME?</v>
-      </c>
+      <c r="B6" s="47"/>
       <c r="D6" s="11" t="e">
-        <f>IF(B6&lt;&gt;"",CONCATENATE("Р/р ",B6," в ",EntAccount_BANKSNAME, ", МФО ",EntAccount_MFO),"")</f>
+        <f>IF(EntAccount_AccNum&lt;&gt;"",CONCATENATE("Р/р ",EntAccount_AccNum," в ",EntAccount_BankName, ", МФО ",EntAccount_MFO),"")</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -1485,24 +1481,21 @@
         <v>#NAME?</v>
       </c>
       <c r="D7" s="11" t="e">
-        <f>IF(B7&lt;&gt;"",CONCATENATE("ІПН ",B7,", номер свідотцтва ",C7),"")</f>
+        <f>IF(B7&lt;&gt;"",CONCATENATE("ІПН ",B7,", номер свідотцтва ",WayBillList_EntCertNum),"")</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="8" spans="2:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="60" t="e">
-        <f>WayBillList_AddressSEL</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D8" s="72" t="e">
-        <f>"Адреса: "&amp;B8</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
+      <c r="B8" s="60"/>
+      <c r="D8" s="79" t="e">
+        <f>"Адреса: "&amp;WayBillList_AddressSel</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
     </row>
     <row r="11" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="25" t="s">
@@ -1520,20 +1513,17 @@
       <c r="I11" s="26"/>
     </row>
     <row r="12" spans="2:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="59" t="e">
-        <f>WayBillList_AddressBUY</f>
-        <v>#NAME?</v>
-      </c>
+      <c r="B12" s="59"/>
       <c r="C12" s="22"/>
-      <c r="D12" s="73" t="e">
-        <f>CONCATENATE("Адреса: ",B12)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
+      <c r="D12" s="80" t="e">
+        <f>CONCATENATE("Адреса: ",WayBillList_AddressBuy)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
     </row>
     <row r="14" spans="2:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="21"/>
@@ -1586,11 +1576,11 @@
       <c r="E16" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="71" t="e">
+      <c r="F16" s="78" t="e">
         <f>IF(WayBillList_AttDate&gt;0,WayBillList_AttDate,"")</f>
         <v>#NAME?</v>
       </c>
-      <c r="G16" s="71"/>
+      <c r="G16" s="78"/>
       <c r="H16" s="12"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
@@ -1602,28 +1592,28 @@
       <c r="P16" s="10"/>
     </row>
     <row r="17" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="64" t="e">
+      <c r="B17" s="71" t="e">
         <f>CONCATENATE("Підстава: ",WayBillList_Reason)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="64"/>
-      <c r="P17" s="64"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="71"/>
     </row>
     <row r="18" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -1636,13 +1626,13 @@
       <c r="B19" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="75" t="s">
+      <c r="C19" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="77"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="84"/>
       <c r="H19" s="7" t="s">
         <v>6</v>
       </c>
@@ -1676,14 +1666,14 @@
         <f>range1_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C20" s="78" t="e">
+      <c r="C20" s="85" t="e">
         <f>range1_MATNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="80"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="87"/>
       <c r="H20" s="8" t="e">
         <f>range1_MSRNAME</f>
         <v>#NAME?</v>
@@ -1729,11 +1719,11 @@
       <c r="F21" s="18"/>
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
-      <c r="I21" s="65" t="e">
+      <c r="I21" s="72" t="e">
         <f>IF(B22&gt;0,"Всього без ПДВ","Всього")</f>
         <v>#NAME?</v>
       </c>
-      <c r="J21" s="66"/>
+      <c r="J21" s="73"/>
       <c r="K21" s="45"/>
       <c r="L21" s="33"/>
       <c r="M21" s="36" t="s">
@@ -1763,11 +1753,11 @@
       <c r="F22" s="22"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="67" t="e">
+      <c r="I22" s="74" t="e">
         <f>IF(B22&gt;0,CONCATENATE("Всього ПДВ "&amp;WayBillList_NDS&amp;"%"),"Всього без знижки")</f>
         <v>#NAME?</v>
       </c>
-      <c r="J22" s="68"/>
+      <c r="J22" s="75"/>
       <c r="K22" s="46"/>
       <c r="L22" s="33"/>
       <c r="M22" s="33"/>
@@ -1783,12 +1773,12 @@
         <f>O21+P21</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H23" s="85" t="e">
+      <c r="H23" s="67" t="e">
         <f>IF(B22&gt;0,"Разом, в т.ч ПДВ:","Всього до сплати")</f>
         <v>#NAME?</v>
       </c>
-      <c r="I23" s="85"/>
-      <c r="J23" s="86"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="68"/>
       <c r="K23" s="46"/>
       <c r="L23" s="33"/>
       <c r="M23" s="33"/>
@@ -1800,12 +1790,12 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="81"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -1915,28 +1905,28 @@
     </row>
     <row r="30" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
-      <c r="B30" s="82" t="s">
+      <c r="B30" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="82"/>
-      <c r="D30" s="84" t="e">
+      <c r="C30" s="64"/>
+      <c r="D30" s="66" t="e">
         <f>IF(B28 &lt; 0,C28," ")</f>
         <v>#NAME?</v>
       </c>
-      <c r="E30" s="84"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="87" t="s">
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="87"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="83"/>
-      <c r="L30" s="83"/>
-      <c r="M30" s="83"/>
-      <c r="N30" s="83"/>
-      <c r="O30" s="83"/>
-      <c r="P30" s="83"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="65"/>
+      <c r="M30" s="65"/>
+      <c r="N30" s="65"/>
+      <c r="O30" s="65"/>
+      <c r="P30" s="65"/>
     </row>
     <row r="31" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="5"/>
@@ -3249,12 +3239,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H30:I30"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B17:P17"/>
     <mergeCell ref="I21:J21"/>
@@ -3267,6 +3251,12 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="C20:G20"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H30:I30"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -3278,15 +3268,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:N52"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:N7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="1.140625" customWidth="1"/>
     <col min="2" max="2" width="4.85546875" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" customWidth="1"/>
@@ -3303,35 +3293,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
     </row>
     <row r="2" spans="2:14" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
       <c r="L2" s="38" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
@@ -3340,21 +3330,21 @@
       <c r="N2" s="39"/>
     </row>
     <row r="3" spans="2:14" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="106"/>
     </row>
     <row r="4" spans="2:14" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="53"/>
@@ -3435,11 +3425,11 @@
       <c r="D8" s="91"/>
       <c r="E8" s="91"/>
       <c r="F8" s="91"/>
-      <c r="G8" s="108" t="e">
+      <c r="G8" s="98" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="H8" s="108"/>
+      <c r="H8" s="98"/>
       <c r="I8" s="91" t="s">
         <v>34</v>
       </c>
@@ -3462,11 +3452,11 @@
       <c r="F9" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="89" t="e">
+      <c r="G9" s="105" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="H9" s="89"/>
+      <c r="H9" s="105"/>
       <c r="I9" s="39" t="s">
         <v>37</v>
       </c>
@@ -3493,65 +3483,65 @@
     </row>
     <row r="11" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="2:14" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="92" t="s">
+      <c r="B12" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="94" t="s">
+      <c r="C12" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="92" t="s">
+      <c r="D12" s="107"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="92" t="s">
+      <c r="H12" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="92" t="s">
+      <c r="I12" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="92" t="s">
+      <c r="J12" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="92" t="s">
+      <c r="K12" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="92" t="s">
+      <c r="L12" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="M12" s="94" t="s">
+      <c r="M12" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="N12" s="96"/>
+      <c r="N12" s="102"/>
     </row>
     <row r="13" spans="2:14" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="93"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="97"/>
-      <c r="N13" s="99"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="100"/>
+      <c r="M13" s="103"/>
+      <c r="N13" s="104"/>
     </row>
     <row r="14" spans="2:14" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="40" t="e">
         <f>Posvitcheny_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C14" s="103" t="e">
+      <c r="C14" s="93" t="e">
         <f>Posvitcheny_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="105"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="95"/>
       <c r="G14" s="41" t="e">
         <f>Posvitcheny_AMOUNT</f>
         <v>#NAME?</v>
@@ -3576,11 +3566,11 @@
         <f>Posvitcheny_CF4</f>
         <v>#NAME?</v>
       </c>
-      <c r="M14" s="106" t="e">
+      <c r="M14" s="96" t="e">
         <f>Posvitcheny_CF5</f>
         <v>#NAME?</v>
       </c>
-      <c r="N14" s="107"/>
+      <c r="N14" s="97"/>
     </row>
     <row r="15" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
@@ -3604,19 +3594,19 @@
       <c r="C17" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="88" t="s">
+      <c r="D17" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="88"/>
-      <c r="N17" s="88"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D18" s="56" t="s">
@@ -3669,78 +3659,78 @@
       <c r="C21" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="88" t="s">
+      <c r="D21" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="88"/>
-      <c r="L21" s="88"/>
-      <c r="M21" s="88"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="D22" s="88" t="s">
+      <c r="D22" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="88"/>
-      <c r="M22" s="88"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="92"/>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="88" t="s">
+      <c r="D23" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="88"/>
-      <c r="K23" s="88"/>
-      <c r="L23" s="88"/>
-      <c r="M23" s="88"/>
-      <c r="N23" s="88"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="92"/>
+      <c r="K23" s="92"/>
+      <c r="L23" s="92"/>
+      <c r="M23" s="92"/>
+      <c r="N23" s="92"/>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="88" t="s">
+      <c r="D24" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="88"/>
-      <c r="L24" s="88"/>
-      <c r="M24" s="88"/>
-      <c r="N24" s="88"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="92"/>
+      <c r="K24" s="92"/>
+      <c r="L24" s="92"/>
+      <c r="M24" s="92"/>
+      <c r="N24" s="92"/>
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C27" s="88" t="s">
+      <c r="C27" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="88"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="88"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="92"/>
       <c r="K27" t="s">
         <v>54</v>
       </c>
@@ -3766,25 +3756,8 @@
     <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="C4:N4"/>
-    <mergeCell ref="C5:N5"/>
-    <mergeCell ref="D24:N24"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:N8"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:N13"/>
     <mergeCell ref="C27:H27"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="B3:N3"/>
@@ -3800,6 +3773,19 @@
     <mergeCell ref="C12:F13"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="H12:H13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="C4:N4"/>
+    <mergeCell ref="C5:N5"/>
+    <mergeCell ref="D24:N24"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:N8"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="M14:N14"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SP_Sklad/TempLate/WayBill_Out.xlsx
+++ b/SP_Sklad/TempLate/WayBill_Out.xlsx
@@ -733,7 +733,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -872,9 +872,6 @@
     <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -971,6 +968,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -979,45 +1015,6 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1389,9 +1386,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A2:Q107"/>
+  <dimension ref="A2:Q30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1415,15 +1414,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
       <c r="I2" s="31" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
@@ -1432,14 +1431,14 @@
         <v>4</v>
       </c>
       <c r="K2" s="27"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
       <c r="N2" s="43"/>
-      <c r="O2" s="77" t="e">
+      <c r="O2" s="76" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="P2" s="77"/>
+      <c r="P2" s="76"/>
       <c r="Q2" s="51"/>
     </row>
     <row r="4" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1476,7 +1475,7 @@
         <f>WayBillList_EntINN</f>
         <v>#NAME?</v>
       </c>
-      <c r="C7" s="61" t="e">
+      <c r="C7" s="60" t="e">
         <f>WayBillList_EntCertNum</f>
         <v>#NAME?</v>
       </c>
@@ -1486,16 +1485,16 @@
       </c>
     </row>
     <row r="8" spans="2:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="60"/>
-      <c r="D8" s="79" t="e">
+      <c r="B8" s="59"/>
+      <c r="D8" s="78" t="e">
         <f>"Адреса: "&amp;WayBillList_AddressSel</f>
         <v>#NAME?</v>
       </c>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
     </row>
     <row r="11" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="25" t="s">
@@ -1513,17 +1512,17 @@
       <c r="I11" s="26"/>
     </row>
     <row r="12" spans="2:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="59"/>
+      <c r="B12" s="58"/>
       <c r="C12" s="22"/>
-      <c r="D12" s="80" t="e">
+      <c r="D12" s="79" t="e">
         <f>CONCATENATE("Адреса: ",WayBillList_AddressBuy)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
     </row>
     <row r="14" spans="2:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="21"/>
@@ -1576,11 +1575,11 @@
       <c r="E16" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="78" t="e">
+      <c r="F16" s="77" t="e">
         <f>IF(WayBillList_AttDate&gt;0,WayBillList_AttDate,"")</f>
         <v>#NAME?</v>
       </c>
-      <c r="G16" s="78"/>
+      <c r="G16" s="77"/>
       <c r="H16" s="12"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
@@ -1592,28 +1591,28 @@
       <c r="P16" s="10"/>
     </row>
     <row r="17" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="71" t="e">
+      <c r="B17" s="70" t="e">
         <f>CONCATENATE("Підстава: ",WayBillList_Reason)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="71"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="70"/>
     </row>
     <row r="18" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -1626,13 +1625,13 @@
       <c r="B19" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="82" t="s">
+      <c r="C19" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="84"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="83"/>
       <c r="H19" s="7" t="s">
         <v>6</v>
       </c>
@@ -1666,14 +1665,14 @@
         <f>range1_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C20" s="85" t="e">
+      <c r="C20" s="84" t="e">
         <f>range1_MATNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="87"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="86"/>
       <c r="H20" s="8" t="e">
         <f>range1_MSRNAME</f>
         <v>#NAME?</v>
@@ -1719,11 +1718,11 @@
       <c r="F21" s="18"/>
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
-      <c r="I21" s="72" t="e">
+      <c r="I21" s="71" t="e">
         <f>IF(B22&gt;0,"Всього без ПДВ","Всього")</f>
         <v>#NAME?</v>
       </c>
-      <c r="J21" s="73"/>
+      <c r="J21" s="72"/>
       <c r="K21" s="45"/>
       <c r="L21" s="33"/>
       <c r="M21" s="36" t="s">
@@ -1753,11 +1752,11 @@
       <c r="F22" s="22"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="74" t="e">
+      <c r="I22" s="73" t="e">
         <f>IF(B22&gt;0,CONCATENATE("Всього ПДВ "&amp;WayBillList_NDS&amp;"%"),"Всього без знижки")</f>
         <v>#NAME?</v>
       </c>
-      <c r="J22" s="75"/>
+      <c r="J22" s="74"/>
       <c r="K22" s="46"/>
       <c r="L22" s="33"/>
       <c r="M22" s="33"/>
@@ -1773,12 +1772,12 @@
         <f>O21+P21</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H23" s="67" t="e">
+      <c r="H23" s="66" t="e">
         <f>IF(B22&gt;0,"Разом, в т.ч ПДВ:","Всього до сплати")</f>
         <v>#NAME?</v>
       </c>
-      <c r="I23" s="67"/>
-      <c r="J23" s="68"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="67"/>
       <c r="K23" s="46"/>
       <c r="L23" s="33"/>
       <c r="M23" s="33"/>
@@ -1790,12 +1789,12 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="63"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -1863,11 +1862,11 @@
       <c r="P27" s="3"/>
     </row>
     <row r="28" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="62" t="e">
+      <c r="B28" s="61" t="e">
         <f>WayBillList_WTYPE</f>
         <v>#NAME?</v>
       </c>
-      <c r="C28" s="62" t="e">
+      <c r="C28" s="61" t="e">
         <f>WayBillList_PERSONNAME</f>
         <v>#NAME?</v>
       </c>
@@ -1905,1337 +1904,28 @@
     </row>
     <row r="30" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
-      <c r="B30" s="64" t="s">
+      <c r="B30" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="64"/>
-      <c r="D30" s="66" t="e">
+      <c r="C30" s="63"/>
+      <c r="D30" s="65" t="e">
         <f>IF(B28 &lt; 0,C28," ")</f>
         <v>#NAME?</v>
       </c>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="69" t="s">
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="69"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="65"/>
-      <c r="M30" s="65"/>
-      <c r="N30" s="65"/>
-      <c r="O30" s="65"/>
-      <c r="P30" s="65"/>
-    </row>
-    <row r="31" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-    </row>
-    <row r="32" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-    </row>
-    <row r="33" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-    </row>
-    <row r="34" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-    </row>
-    <row r="35" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-    </row>
-    <row r="36" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-    </row>
-    <row r="37" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-    </row>
-    <row r="38" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-    </row>
-    <row r="39" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-    </row>
-    <row r="40" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-    </row>
-    <row r="41" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-    </row>
-    <row r="42" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-    </row>
-    <row r="43" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-    </row>
-    <row r="44" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-    </row>
-    <row r="45" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-    </row>
-    <row r="46" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
-    </row>
-    <row r="47" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
-    </row>
-    <row r="48" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
-    </row>
-    <row r="49" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
-      <c r="P49" s="5"/>
-    </row>
-    <row r="50" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
-    </row>
-    <row r="51" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
-    </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5"/>
-    </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
-    </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
-    </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
-    </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5"/>
-      <c r="P56" s="5"/>
-    </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="5"/>
-      <c r="P57" s="5"/>
-    </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="5"/>
-      <c r="P58" s="5"/>
-    </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="5"/>
-      <c r="O59" s="5"/>
-      <c r="P59" s="5"/>
-    </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
-      <c r="N60" s="5"/>
-      <c r="O60" s="5"/>
-      <c r="P60" s="5"/>
-    </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="5"/>
-      <c r="N61" s="5"/>
-      <c r="O61" s="5"/>
-      <c r="P61" s="5"/>
-    </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="5"/>
-      <c r="O62" s="5"/>
-      <c r="P62" s="5"/>
-    </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="5"/>
-      <c r="M63" s="5"/>
-      <c r="N63" s="5"/>
-      <c r="O63" s="5"/>
-      <c r="P63" s="5"/>
-    </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="5"/>
-      <c r="O64" s="5"/>
-      <c r="P64" s="5"/>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
-      <c r="L65" s="5"/>
-      <c r="M65" s="5"/>
-      <c r="N65" s="5"/>
-      <c r="O65" s="5"/>
-      <c r="P65" s="5"/>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
-      <c r="N66" s="5"/>
-      <c r="O66" s="5"/>
-      <c r="P66" s="5"/>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
-      <c r="N67" s="5"/>
-      <c r="O67" s="5"/>
-      <c r="P67" s="5"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
-      <c r="L68" s="5"/>
-      <c r="M68" s="5"/>
-      <c r="N68" s="5"/>
-      <c r="O68" s="5"/>
-      <c r="P68" s="5"/>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
-      <c r="L69" s="5"/>
-      <c r="M69" s="5"/>
-      <c r="N69" s="5"/>
-      <c r="O69" s="5"/>
-      <c r="P69" s="5"/>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
-      <c r="L70" s="5"/>
-      <c r="M70" s="5"/>
-      <c r="N70" s="5"/>
-      <c r="O70" s="5"/>
-      <c r="P70" s="5"/>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
-      <c r="L71" s="5"/>
-      <c r="M71" s="5"/>
-      <c r="N71" s="5"/>
-      <c r="O71" s="5"/>
-      <c r="P71" s="5"/>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
-      <c r="L72" s="5"/>
-      <c r="M72" s="5"/>
-      <c r="N72" s="5"/>
-      <c r="O72" s="5"/>
-      <c r="P72" s="5"/>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
-      <c r="K73" s="5"/>
-      <c r="L73" s="5"/>
-      <c r="M73" s="5"/>
-      <c r="N73" s="5"/>
-      <c r="O73" s="5"/>
-      <c r="P73" s="5"/>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
-      <c r="K74" s="5"/>
-      <c r="L74" s="5"/>
-      <c r="M74" s="5"/>
-      <c r="N74" s="5"/>
-      <c r="O74" s="5"/>
-      <c r="P74" s="5"/>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
-      <c r="K75" s="5"/>
-      <c r="L75" s="5"/>
-      <c r="M75" s="5"/>
-      <c r="N75" s="5"/>
-      <c r="O75" s="5"/>
-      <c r="P75" s="5"/>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
-      <c r="K76" s="5"/>
-      <c r="L76" s="5"/>
-      <c r="M76" s="5"/>
-      <c r="N76" s="5"/>
-      <c r="O76" s="5"/>
-      <c r="P76" s="5"/>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
-      <c r="K77" s="5"/>
-      <c r="L77" s="5"/>
-      <c r="M77" s="5"/>
-      <c r="N77" s="5"/>
-      <c r="O77" s="5"/>
-      <c r="P77" s="5"/>
-    </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
-      <c r="K78" s="5"/>
-      <c r="L78" s="5"/>
-      <c r="M78" s="5"/>
-      <c r="N78" s="5"/>
-      <c r="O78" s="5"/>
-      <c r="P78" s="5"/>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5"/>
-      <c r="K79" s="5"/>
-      <c r="L79" s="5"/>
-      <c r="M79" s="5"/>
-      <c r="N79" s="5"/>
-      <c r="O79" s="5"/>
-      <c r="P79" s="5"/>
-    </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5"/>
-      <c r="K80" s="5"/>
-      <c r="L80" s="5"/>
-      <c r="M80" s="5"/>
-      <c r="N80" s="5"/>
-      <c r="O80" s="5"/>
-      <c r="P80" s="5"/>
-    </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5"/>
-      <c r="K81" s="5"/>
-      <c r="L81" s="5"/>
-      <c r="M81" s="5"/>
-      <c r="N81" s="5"/>
-      <c r="O81" s="5"/>
-      <c r="P81" s="5"/>
-    </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
-      <c r="K82" s="5"/>
-      <c r="L82" s="5"/>
-      <c r="M82" s="5"/>
-      <c r="N82" s="5"/>
-      <c r="O82" s="5"/>
-      <c r="P82" s="5"/>
-    </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
-      <c r="K83" s="5"/>
-      <c r="L83" s="5"/>
-      <c r="M83" s="5"/>
-      <c r="N83" s="5"/>
-      <c r="O83" s="5"/>
-      <c r="P83" s="5"/>
-    </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
-      <c r="J84" s="5"/>
-      <c r="K84" s="5"/>
-      <c r="L84" s="5"/>
-      <c r="M84" s="5"/>
-      <c r="N84" s="5"/>
-      <c r="O84" s="5"/>
-      <c r="P84" s="5"/>
-    </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5"/>
-      <c r="J85" s="5"/>
-      <c r="K85" s="5"/>
-      <c r="L85" s="5"/>
-      <c r="M85" s="5"/>
-      <c r="N85" s="5"/>
-      <c r="O85" s="5"/>
-      <c r="P85" s="5"/>
-    </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5"/>
-      <c r="K86" s="5"/>
-      <c r="L86" s="5"/>
-      <c r="M86" s="5"/>
-      <c r="N86" s="5"/>
-      <c r="O86" s="5"/>
-      <c r="P86" s="5"/>
-    </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5"/>
-      <c r="K87" s="5"/>
-      <c r="L87" s="5"/>
-      <c r="M87" s="5"/>
-      <c r="N87" s="5"/>
-      <c r="O87" s="5"/>
-      <c r="P87" s="5"/>
-    </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5"/>
-      <c r="K88" s="5"/>
-      <c r="L88" s="5"/>
-      <c r="M88" s="5"/>
-      <c r="N88" s="5"/>
-      <c r="O88" s="5"/>
-      <c r="P88" s="5"/>
-    </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
-      <c r="J89" s="5"/>
-      <c r="K89" s="5"/>
-      <c r="L89" s="5"/>
-      <c r="M89" s="5"/>
-      <c r="N89" s="5"/>
-      <c r="O89" s="5"/>
-      <c r="P89" s="5"/>
-    </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5"/>
-      <c r="K90" s="5"/>
-      <c r="L90" s="5"/>
-      <c r="M90" s="5"/>
-      <c r="N90" s="5"/>
-      <c r="O90" s="5"/>
-      <c r="P90" s="5"/>
-    </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="5"/>
-      <c r="H91" s="5"/>
-      <c r="I91" s="5"/>
-      <c r="J91" s="5"/>
-      <c r="K91" s="5"/>
-      <c r="L91" s="5"/>
-      <c r="M91" s="5"/>
-      <c r="N91" s="5"/>
-      <c r="O91" s="5"/>
-      <c r="P91" s="5"/>
-    </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
-      <c r="I92" s="5"/>
-      <c r="J92" s="5"/>
-      <c r="K92" s="5"/>
-      <c r="L92" s="5"/>
-      <c r="M92" s="5"/>
-      <c r="N92" s="5"/>
-      <c r="O92" s="5"/>
-      <c r="P92" s="5"/>
-    </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5"/>
-      <c r="J93" s="5"/>
-      <c r="K93" s="5"/>
-      <c r="L93" s="5"/>
-      <c r="M93" s="5"/>
-      <c r="N93" s="5"/>
-      <c r="O93" s="5"/>
-      <c r="P93" s="5"/>
-    </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
-      <c r="I94" s="5"/>
-      <c r="J94" s="5"/>
-      <c r="K94" s="5"/>
-      <c r="L94" s="5"/>
-      <c r="M94" s="5"/>
-      <c r="N94" s="5"/>
-      <c r="O94" s="5"/>
-      <c r="P94" s="5"/>
-    </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="5"/>
-      <c r="K95" s="5"/>
-      <c r="L95" s="5"/>
-      <c r="M95" s="5"/>
-      <c r="N95" s="5"/>
-      <c r="O95" s="5"/>
-      <c r="P95" s="5"/>
-    </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
-      <c r="I96" s="5"/>
-      <c r="J96" s="5"/>
-      <c r="K96" s="5"/>
-      <c r="L96" s="5"/>
-      <c r="M96" s="5"/>
-      <c r="N96" s="5"/>
-      <c r="O96" s="5"/>
-      <c r="P96" s="5"/>
-    </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
-      <c r="I97" s="5"/>
-      <c r="J97" s="5"/>
-      <c r="K97" s="5"/>
-      <c r="L97" s="5"/>
-      <c r="M97" s="5"/>
-      <c r="N97" s="5"/>
-      <c r="O97" s="5"/>
-      <c r="P97" s="5"/>
-    </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="5"/>
-      <c r="J98" s="5"/>
-      <c r="K98" s="5"/>
-      <c r="L98" s="5"/>
-      <c r="M98" s="5"/>
-      <c r="N98" s="5"/>
-      <c r="O98" s="5"/>
-      <c r="P98" s="5"/>
-    </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B99" s="5"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="5"/>
-      <c r="H99" s="5"/>
-      <c r="I99" s="5"/>
-      <c r="J99" s="5"/>
-      <c r="K99" s="5"/>
-      <c r="L99" s="5"/>
-      <c r="M99" s="5"/>
-      <c r="N99" s="5"/>
-      <c r="O99" s="5"/>
-      <c r="P99" s="5"/>
-    </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
-      <c r="I100" s="5"/>
-      <c r="J100" s="5"/>
-      <c r="K100" s="5"/>
-      <c r="L100" s="5"/>
-      <c r="M100" s="5"/>
-      <c r="N100" s="5"/>
-      <c r="O100" s="5"/>
-      <c r="P100" s="5"/>
-    </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
-      <c r="I101" s="5"/>
-      <c r="J101" s="5"/>
-      <c r="K101" s="5"/>
-      <c r="L101" s="5"/>
-      <c r="M101" s="5"/>
-      <c r="N101" s="5"/>
-      <c r="O101" s="5"/>
-      <c r="P101" s="5"/>
-    </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="5"/>
-      <c r="I102" s="5"/>
-      <c r="J102" s="5"/>
-      <c r="K102" s="5"/>
-      <c r="L102" s="5"/>
-      <c r="M102" s="5"/>
-      <c r="N102" s="5"/>
-      <c r="O102" s="5"/>
-      <c r="P102" s="5"/>
-    </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="5"/>
-      <c r="H103" s="5"/>
-      <c r="I103" s="5"/>
-      <c r="J103" s="5"/>
-      <c r="K103" s="5"/>
-      <c r="L103" s="5"/>
-      <c r="M103" s="5"/>
-      <c r="N103" s="5"/>
-      <c r="O103" s="5"/>
-      <c r="P103" s="5"/>
-    </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B104" s="5"/>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5"/>
-      <c r="H104" s="5"/>
-      <c r="I104" s="5"/>
-      <c r="J104" s="5"/>
-      <c r="K104" s="5"/>
-      <c r="L104" s="5"/>
-      <c r="M104" s="5"/>
-      <c r="N104" s="5"/>
-      <c r="O104" s="5"/>
-      <c r="P104" s="5"/>
-    </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B105" s="5"/>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
-      <c r="G105" s="5"/>
-      <c r="H105" s="5"/>
-      <c r="I105" s="5"/>
-      <c r="J105" s="5"/>
-      <c r="K105" s="5"/>
-      <c r="L105" s="5"/>
-      <c r="M105" s="5"/>
-      <c r="N105" s="5"/>
-      <c r="O105" s="5"/>
-      <c r="P105" s="5"/>
-    </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B106" s="5"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5"/>
-      <c r="G106" s="5"/>
-      <c r="H106" s="5"/>
-      <c r="I106" s="5"/>
-      <c r="J106" s="5"/>
-      <c r="K106" s="5"/>
-      <c r="L106" s="5"/>
-      <c r="M106" s="5"/>
-      <c r="N106" s="5"/>
-      <c r="O106" s="5"/>
-      <c r="P106" s="5"/>
-    </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B107" s="5"/>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5"/>
-      <c r="G107" s="5"/>
-      <c r="H107" s="5"/>
-      <c r="I107" s="5"/>
-      <c r="J107" s="5"/>
-      <c r="K107" s="5"/>
-      <c r="L107" s="5"/>
-      <c r="M107" s="5"/>
-      <c r="N107" s="5"/>
-      <c r="O107" s="5"/>
-      <c r="P107" s="5"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="64"/>
+      <c r="O30" s="64"/>
+      <c r="P30" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -3268,7 +1958,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:N48"/>
+  <dimension ref="B1:N48"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
@@ -3293,35 +1983,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
     </row>
     <row r="2" spans="2:14" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
       <c r="L2" s="38" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
@@ -3330,72 +2020,72 @@
       <c r="N2" s="39"/>
     </row>
     <row r="3" spans="2:14" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="106"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
     </row>
     <row r="4" spans="2:14" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="53"/>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
     </row>
     <row r="5" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="53"/>
-      <c r="C5" s="91" t="s">
+      <c r="C5" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
     </row>
     <row r="6" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="53"/>
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="91"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
     </row>
     <row r="7" spans="2:14" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="53"/>
@@ -3404,40 +2094,40 @@
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="39"/>
-      <c r="F7" s="91" t="e">
+      <c r="F7" s="90" t="e">
         <f>WayBillList_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="90"/>
     </row>
     <row r="8" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="52"/>
-      <c r="C8" s="91" t="s">
+      <c r="C8" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="98" t="e">
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="92" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="H8" s="98"/>
-      <c r="I8" s="91" t="s">
+      <c r="H8" s="92"/>
+      <c r="I8" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="91"/>
-      <c r="K8" s="91"/>
-      <c r="L8" s="91"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="91"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="90"/>
+      <c r="N8" s="90"/>
     </row>
     <row r="9" spans="2:14" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="52"/>
@@ -3452,11 +2142,11 @@
       <c r="F9" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="105" t="e">
+      <c r="G9" s="101" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="H9" s="105"/>
+      <c r="H9" s="101"/>
       <c r="I9" s="39" t="s">
         <v>37</v>
       </c>
@@ -3483,65 +2173,65 @@
     </row>
     <row r="11" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="2:14" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="99" t="s">
+      <c r="B12" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="101" t="s">
+      <c r="C12" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="99" t="s">
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="99" t="s">
+      <c r="H12" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="99" t="s">
+      <c r="I12" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="99" t="s">
+      <c r="J12" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="99" t="s">
+      <c r="K12" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="99" t="s">
+      <c r="L12" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="M12" s="101" t="s">
+      <c r="M12" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="N12" s="102"/>
+      <c r="N12" s="96"/>
     </row>
     <row r="13" spans="2:14" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="100"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="103"/>
-      <c r="N13" s="104"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="97"/>
+      <c r="N13" s="98"/>
     </row>
     <row r="14" spans="2:14" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="40" t="e">
         <f>Posvitcheny_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C14" s="93" t="e">
+      <c r="C14" s="105" t="e">
         <f>Posvitcheny_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D14" s="94"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="95"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="107"/>
       <c r="G14" s="41" t="e">
         <f>Posvitcheny_AMOUNT</f>
         <v>#NAME?</v>
@@ -3566,11 +2256,11 @@
         <f>Posvitcheny_CF4</f>
         <v>#NAME?</v>
       </c>
-      <c r="M14" s="96" t="e">
+      <c r="M14" s="99" t="e">
         <f>Posvitcheny_CF5</f>
         <v>#NAME?</v>
       </c>
-      <c r="N14" s="97"/>
+      <c r="N14" s="100"/>
     </row>
     <row r="15" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
@@ -3594,19 +2284,19 @@
       <c r="C17" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="92" t="s">
+      <c r="D17" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="92"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="92"/>
-      <c r="N17" s="92"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="91"/>
+      <c r="L17" s="91"/>
+      <c r="M17" s="91"/>
+      <c r="N17" s="91"/>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D18" s="56" t="s">
@@ -3659,78 +2349,78 @@
       <c r="C21" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="92" t="s">
+      <c r="D21" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="D22" s="92" t="s">
+      <c r="D22" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="92"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="92"/>
-      <c r="K22" s="92"/>
-      <c r="L22" s="92"/>
-      <c r="M22" s="92"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="91"/>
+      <c r="L22" s="91"/>
+      <c r="M22" s="91"/>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="92" t="s">
+      <c r="D23" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="92"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="92"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="92"/>
-      <c r="J23" s="92"/>
-      <c r="K23" s="92"/>
-      <c r="L23" s="92"/>
-      <c r="M23" s="92"/>
-      <c r="N23" s="92"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="91"/>
+      <c r="J23" s="91"/>
+      <c r="K23" s="91"/>
+      <c r="L23" s="91"/>
+      <c r="M23" s="91"/>
+      <c r="N23" s="91"/>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="92" t="s">
+      <c r="D24" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="92"/>
-      <c r="J24" s="92"/>
-      <c r="K24" s="92"/>
-      <c r="L24" s="92"/>
-      <c r="M24" s="92"/>
-      <c r="N24" s="92"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="91"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="91"/>
+      <c r="L24" s="91"/>
+      <c r="M24" s="91"/>
+      <c r="N24" s="91"/>
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C27" s="92" t="s">
+      <c r="C27" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="92"/>
-      <c r="H27" s="92"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="91"/>
       <c r="K27" t="s">
         <v>54</v>
       </c>

--- a/SP_Sklad/TempLate/WayBill_Out.xlsx
+++ b/SP_Sklad/TempLate/WayBill_Out.xlsx
@@ -878,6 +878,57 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -899,59 +950,50 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -962,32 +1004,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -995,26 +1013,8 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1388,9 +1388,7 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A2:Q30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1414,15 +1412,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
       <c r="I2" s="31" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
@@ -1431,14 +1429,14 @@
         <v>4</v>
       </c>
       <c r="K2" s="27"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
       <c r="N2" s="43"/>
-      <c r="O2" s="76" t="e">
+      <c r="O2" s="69" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="P2" s="76"/>
+      <c r="P2" s="69"/>
       <c r="Q2" s="51"/>
     </row>
     <row r="4" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1486,15 +1484,15 @@
     </row>
     <row r="8" spans="2:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="59"/>
-      <c r="D8" s="78" t="e">
+      <c r="D8" s="107" t="e">
         <f>"Адреса: "&amp;WayBillList_AddressSel</f>
         <v>#NAME?</v>
       </c>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
     </row>
     <row r="11" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="25" t="s">
@@ -1514,15 +1512,15 @@
     <row r="12" spans="2:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="58"/>
       <c r="C12" s="22"/>
-      <c r="D12" s="79" t="e">
+      <c r="D12" s="71" t="e">
         <f>CONCATENATE("Адреса: ",WayBillList_AddressBuy)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
     </row>
     <row r="14" spans="2:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="21"/>
@@ -1575,11 +1573,11 @@
       <c r="E16" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="77" t="e">
+      <c r="F16" s="70" t="e">
         <f>IF(WayBillList_AttDate&gt;0,WayBillList_AttDate,"")</f>
         <v>#NAME?</v>
       </c>
-      <c r="G16" s="77"/>
+      <c r="G16" s="70"/>
       <c r="H16" s="12"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
@@ -1591,28 +1589,28 @@
       <c r="P16" s="10"/>
     </row>
     <row r="17" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="70" t="e">
+      <c r="B17" s="63" t="e">
         <f>CONCATENATE("Підстава: ",WayBillList_Reason)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="70"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="63"/>
     </row>
     <row r="18" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -1625,13 +1623,13 @@
       <c r="B19" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="81" t="s">
+      <c r="C19" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="83"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="75"/>
       <c r="H19" s="7" t="s">
         <v>6</v>
       </c>
@@ -1665,14 +1663,14 @@
         <f>range1_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C20" s="84" t="e">
+      <c r="C20" s="76" t="e">
         <f>range1_MATNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D20" s="85"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="86"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="78"/>
       <c r="H20" s="8" t="e">
         <f>range1_MSRNAME</f>
         <v>#NAME?</v>
@@ -1718,11 +1716,11 @@
       <c r="F21" s="18"/>
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
-      <c r="I21" s="71" t="e">
+      <c r="I21" s="64" t="e">
         <f>IF(B22&gt;0,"Всього без ПДВ","Всього")</f>
         <v>#NAME?</v>
       </c>
-      <c r="J21" s="72"/>
+      <c r="J21" s="65"/>
       <c r="K21" s="45"/>
       <c r="L21" s="33"/>
       <c r="M21" s="36" t="s">
@@ -1752,11 +1750,11 @@
       <c r="F22" s="22"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="73" t="e">
+      <c r="I22" s="66" t="e">
         <f>IF(B22&gt;0,CONCATENATE("Всього ПДВ "&amp;WayBillList_NDS&amp;"%"),"Всього без знижки")</f>
         <v>#NAME?</v>
       </c>
-      <c r="J22" s="74"/>
+      <c r="J22" s="67"/>
       <c r="K22" s="46"/>
       <c r="L22" s="33"/>
       <c r="M22" s="33"/>
@@ -1772,12 +1770,12 @@
         <f>O21+P21</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H23" s="66" t="e">
+      <c r="H23" s="83" t="e">
         <f>IF(B22&gt;0,"Разом, в т.ч ПДВ:","Всього до сплати")</f>
         <v>#NAME?</v>
       </c>
-      <c r="I23" s="66"/>
-      <c r="J23" s="67"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="84"/>
       <c r="K23" s="46"/>
       <c r="L23" s="33"/>
       <c r="M23" s="33"/>
@@ -1789,12 +1787,12 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -1904,31 +1902,37 @@
     </row>
     <row r="30" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
-      <c r="B30" s="63" t="s">
+      <c r="B30" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="63"/>
-      <c r="D30" s="65" t="e">
+      <c r="C30" s="80"/>
+      <c r="D30" s="82" t="e">
         <f>IF(B28 &lt; 0,C28," ")</f>
         <v>#NAME?</v>
       </c>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="68" t="s">
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="68"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="64"/>
-      <c r="M30" s="64"/>
-      <c r="N30" s="64"/>
-      <c r="O30" s="64"/>
-      <c r="P30" s="64"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="81"/>
+      <c r="K30" s="81"/>
+      <c r="L30" s="81"/>
+      <c r="M30" s="81"/>
+      <c r="N30" s="81"/>
+      <c r="O30" s="81"/>
+      <c r="P30" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H30:I30"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B17:P17"/>
     <mergeCell ref="I21:J21"/>
@@ -1941,12 +1945,6 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="C20:G20"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H30:I30"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -1983,35 +1981,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
     </row>
     <row r="2" spans="2:14" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
       <c r="L2" s="38" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
@@ -2020,72 +2018,72 @@
       <c r="N2" s="39"/>
     </row>
     <row r="3" spans="2:14" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="102"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
     </row>
     <row r="4" spans="2:14" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="53"/>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
     </row>
     <row r="5" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="53"/>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
     </row>
     <row r="6" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="53"/>
-      <c r="C6" s="90" t="s">
+      <c r="C6" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="89"/>
     </row>
     <row r="7" spans="2:14" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="53"/>
@@ -2094,40 +2092,40 @@
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="39"/>
-      <c r="F7" s="90" t="e">
+      <c r="F7" s="89" t="e">
         <f>WayBillList_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="89"/>
     </row>
     <row r="8" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="52"/>
-      <c r="C8" s="90" t="s">
+      <c r="C8" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="92" t="e">
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="104" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="H8" s="92"/>
-      <c r="I8" s="90" t="s">
+      <c r="H8" s="104"/>
+      <c r="I8" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="90"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="90"/>
-      <c r="N8" s="90"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
     </row>
     <row r="9" spans="2:14" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="52"/>
@@ -2142,11 +2140,11 @@
       <c r="F9" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="101" t="e">
+      <c r="G9" s="87" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="H9" s="101"/>
+      <c r="H9" s="87"/>
       <c r="I9" s="39" t="s">
         <v>37</v>
       </c>
@@ -2173,65 +2171,65 @@
     </row>
     <row r="11" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="2:14" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="93" t="s">
+      <c r="B12" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="95" t="s">
+      <c r="C12" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="93" t="s">
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="93" t="s">
+      <c r="H12" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="93" t="s">
+      <c r="I12" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="93" t="s">
+      <c r="J12" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="93" t="s">
+      <c r="K12" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="93" t="s">
+      <c r="L12" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="M12" s="95" t="s">
+      <c r="M12" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="N12" s="96"/>
+      <c r="N12" s="94"/>
     </row>
     <row r="13" spans="2:14" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="94"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="97"/>
-      <c r="N13" s="98"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="97"/>
     </row>
     <row r="14" spans="2:14" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="40" t="e">
         <f>Posvitcheny_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C14" s="105" t="e">
+      <c r="C14" s="98" t="e">
         <f>Posvitcheny_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="107"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="100"/>
       <c r="G14" s="41" t="e">
         <f>Posvitcheny_AMOUNT</f>
         <v>#NAME?</v>
@@ -2256,11 +2254,11 @@
         <f>Posvitcheny_CF4</f>
         <v>#NAME?</v>
       </c>
-      <c r="M14" s="99" t="e">
+      <c r="M14" s="105" t="e">
         <f>Posvitcheny_CF5</f>
         <v>#NAME?</v>
       </c>
-      <c r="N14" s="100"/>
+      <c r="N14" s="106"/>
     </row>
     <row r="15" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
@@ -2284,19 +2282,19 @@
       <c r="C17" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="91" t="s">
+      <c r="D17" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="91"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="91"/>
-      <c r="N17" s="91"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="86"/>
+      <c r="N17" s="86"/>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D18" s="56" t="s">
@@ -2349,78 +2347,78 @@
       <c r="C21" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="91" t="s">
+      <c r="D21" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="86"/>
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="D22" s="91" t="s">
+      <c r="D22" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="91"/>
-      <c r="F22" s="91"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="91"/>
-      <c r="J22" s="91"/>
-      <c r="K22" s="91"/>
-      <c r="L22" s="91"/>
-      <c r="M22" s="91"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="86"/>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="91" t="s">
+      <c r="D23" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="91"/>
-      <c r="F23" s="91"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="91"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="91"/>
-      <c r="L23" s="91"/>
-      <c r="M23" s="91"/>
-      <c r="N23" s="91"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86"/>
+      <c r="N23" s="86"/>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="91" t="s">
+      <c r="D24" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="91"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="91"/>
-      <c r="I24" s="91"/>
-      <c r="J24" s="91"/>
-      <c r="K24" s="91"/>
-      <c r="L24" s="91"/>
-      <c r="M24" s="91"/>
-      <c r="N24" s="91"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="86"/>
+      <c r="N24" s="86"/>
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C27" s="91" t="s">
+      <c r="C27" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="91"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="91"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="86"/>
       <c r="K27" t="s">
         <v>54</v>
       </c>
@@ -2448,6 +2446,18 @@
     <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="C4:N4"/>
+    <mergeCell ref="C5:N5"/>
+    <mergeCell ref="D24:N24"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:N8"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="M14:N14"/>
     <mergeCell ref="C27:H27"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="B3:N3"/>
@@ -2464,18 +2474,6 @@
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="C14:F14"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="C4:N4"/>
-    <mergeCell ref="C5:N5"/>
-    <mergeCell ref="D24:N24"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:N8"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="M14:N14"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SP_Sklad/TempLate/WayBill_Out.xlsx
+++ b/SP_Sklad/TempLate/WayBill_Out.xlsx
@@ -12,16 +12,16 @@
   </sheets>
   <definedNames>
     <definedName name="Posvitcheny">'Посвідчення якості'!$A$14:$N$15</definedName>
-    <definedName name="range1">Накладна!$A$20:$P$21</definedName>
+    <definedName name="range1">Накладна!$A$20:$Q$21</definedName>
     <definedName name="range2">'Посвідчення якості'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Накладна!$A$1:$P$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Накладна!$A$1:$Q$30</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>sum</t>
   </si>
@@ -110,15 +110,6 @@
     <t>на готову м'ясну продукцію</t>
   </si>
   <si>
-    <t>Наймену підприємства-виробника: ФОП Дорогін А.А. Житомирська обл.</t>
-  </si>
-  <si>
-    <t>Брусилівський р-н. смт Брусилів вул Короленка 108</t>
-  </si>
-  <si>
-    <t>Віправник: ФОП Дорогін А.А.</t>
-  </si>
-  <si>
     <t>Товароотримувач:</t>
   </si>
   <si>
@@ -137,55 +128,16 @@
     <t>для реалізації</t>
   </si>
   <si>
-    <t>1.</t>
-  </si>
-  <si>
-    <t>Партія продукції співпадає з датою виготовлення.</t>
-  </si>
-  <si>
-    <t>2.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Продукція без ГМО. Протокол випробовувань №2021/406-2024/409 від 19.09.2011 виданий Житомирським </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> науково-виробничим </t>
-  </si>
-  <si>
-    <t>центром стандартизації метрології та сертифікації.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Свідоцтво про атестацію №2Н 482 від 19.10.2009р.дійсне до 18.10.2012р.</t>
-  </si>
-  <si>
-    <t>Персональний контроль (реєстраційний) №22840000000000118 від 07.04.2005р.</t>
-  </si>
-  <si>
-    <t>3.</t>
-  </si>
-  <si>
-    <t>Екплуатаційний дозвіл виданий Головним держ.інспектором вет.медицини в Брусилівському районі</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> №06-23-03 Мt від 18.02.2011р.</t>
-  </si>
-  <si>
-    <t>4.</t>
-  </si>
-  <si>
-    <t>Ветеринарне свідоцтво Д-06№          від                             2012р.</t>
-  </si>
-  <si>
-    <t>5.</t>
-  </si>
-  <si>
-    <t>Експертний висновок №001126n/1/12-001126n/3/12 від  07.09.2012р виданий Житомирською ОДЛВМ.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            М.П.                                  Головний технолог</t>
-  </si>
-  <si>
     <t>Помилуйко О.В.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наймену підприємства-виробника: </t>
+  </si>
+  <si>
+    <t>Віправник:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            М.П.                            Головний технолог</t>
   </si>
 </sst>
 </file>
@@ -193,9 +145,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yy\ h:mm;@"/>
-    <numFmt numFmtId="166" formatCode="dd"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy\ h:mm;@"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -551,17 +503,6 @@
     </border>
     <border>
       <left/>
-      <right style="hair">
-        <color indexed="55"/>
-      </right>
-      <top style="hair">
-        <color indexed="55"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -729,11 +670,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="55"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -777,7 +727,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -788,7 +737,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -824,9 +773,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -855,20 +801,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -884,11 +818,48 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -899,13 +870,16 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -914,44 +888,65 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -959,32 +954,14 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -992,29 +969,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1093,6 +1052,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1386,7 +1348,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A2:Q30"/>
+  <dimension ref="A2:R30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1398,82 +1360,85 @@
     <col min="4" max="4" width="9" style="1" customWidth="1"/>
     <col min="5" max="5" width="6" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="7.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="7.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="14" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+    <row r="2" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="31" t="e">
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="30" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="K2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="69" t="e">
+      <c r="L2" s="26"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="76" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="51"/>
-    </row>
-    <row r="4" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="25" t="s">
+      <c r="Q2" s="76"/>
+      <c r="R2" s="49"/>
+    </row>
+    <row r="4" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="37" t="e">
+      <c r="C4" s="25"/>
+      <c r="D4" s="36" t="e">
         <f>WayBillList_EntKaFullName</f>
         <v>#NAME?</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B5" s="47"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B5" s="45"/>
       <c r="D5" s="11" t="e">
         <f>CONCATENATE(IF(WayBillList_EntOKPO&lt;&gt;"","ЗКПО "&amp;WayBillList_EntOKPO&amp;", ",""),"тел. ",WayBillList_EntKaPhone)</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B6" s="47"/>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B6" s="45"/>
       <c r="D6" s="11" t="e">
         <f>IF(EntAccount_AccNum&lt;&gt;"",CONCATENATE("Р/р ",EntAccount_AccNum," в ",EntAccount_BankName, ", МФО ",EntAccount_MFO),"")</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B7" s="47" t="e">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B7" s="45" t="e">
         <f>WayBillList_EntINN</f>
         <v>#NAME?</v>
       </c>
-      <c r="C7" s="60" t="e">
+      <c r="C7" s="54" t="e">
         <f>WayBillList_EntCertNum</f>
         <v>#NAME?</v>
       </c>
@@ -1482,55 +1447,58 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="59"/>
-      <c r="D8" s="107" t="e">
+    <row r="8" spans="2:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="53"/>
+      <c r="D8" s="78" t="e">
         <f>"Адреса: "&amp;WayBillList_AddressSel</f>
         <v>#NAME?</v>
       </c>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-    </row>
-    <row r="11" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="25" t="s">
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+    </row>
+    <row r="11" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="37" t="e">
+      <c r="C11" s="25"/>
+      <c r="D11" s="36" t="e">
         <f>WayBillList_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-    </row>
-    <row r="12" spans="2:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="58"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="71" t="e">
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+    </row>
+    <row r="12" spans="2:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="52"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="79" t="e">
         <f>CONCATENATE("Адреса: ",WayBillList_AddressBuy)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-    </row>
-    <row r="14" spans="2:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="21"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+    </row>
+    <row r="14" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="20"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
-      <c r="I14" s="10"/>
+      <c r="I14" s="9"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
@@ -1538,21 +1506,22 @@
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
-    </row>
-    <row r="15" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q14" s="10"/>
+    </row>
+    <row r="15" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="15"/>
-      <c r="D15" s="23" t="e">
+      <c r="D15" s="22" t="e">
         <f>WayBillList_RECEIVED</f>
         <v>#NAME?</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
-      <c r="I15" s="16"/>
+      <c r="I15" s="15"/>
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
@@ -1560,26 +1529,27 @@
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
       <c r="P15" s="16"/>
-    </row>
-    <row r="16" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q15" s="16"/>
+    </row>
+    <row r="16" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="12"/>
-      <c r="D16" s="28" t="e">
+      <c r="D16" s="27" t="e">
         <f>WayBillList_ATTNUM</f>
         <v>#NAME?</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="70" t="e">
+      <c r="F16" s="77" t="e">
         <f>IF(WayBillList_AttDate&gt;0,WayBillList_AttDate,"")</f>
         <v>#NAME?</v>
       </c>
-      <c r="G16" s="70"/>
+      <c r="G16" s="77"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="10"/>
+      <c r="I16" s="12"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
@@ -1587,212 +1557,227 @@
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
-    </row>
-    <row r="17" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="63" t="e">
+      <c r="Q16" s="10"/>
+    </row>
+    <row r="17" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="72" t="e">
         <f>CONCATENATE("Підстава: ",WayBillList_Reason)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="63"/>
-      <c r="O17" s="63"/>
-      <c r="P17" s="63"/>
-    </row>
-    <row r="18" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="I18" s="2"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="72"/>
+      <c r="P17" s="72"/>
+      <c r="Q17" s="72"/>
+    </row>
+    <row r="18" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
-    </row>
-    <row r="19" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="75"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="83"/>
       <c r="H19" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="7"/>
+      <c r="J19" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J19" s="6" t="e">
+      <c r="K19" s="6" t="e">
         <f>IF(B22&gt;0,"Ціна без ПДВ","Ціна без знижки")</f>
         <v>#NAME?</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="L19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6" t="s">
+      <c r="M19" s="6"/>
+      <c r="N19" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="O19" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="P19" s="13" t="e">
+      <c r="P19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q19" s="13" t="e">
         <f>IF(B22&gt;0,"Сума без ПДВ","Сума зі знижкою")</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="8" t="e">
         <f>range1_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C20" s="76" t="e">
+      <c r="C20" s="84" t="e">
         <f>range1_MATNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="78"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="86"/>
       <c r="H20" s="8" t="e">
         <f>range1_MSRNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="I20" s="30" t="e">
+      <c r="I20" s="8" t="e">
+        <f>IF(H20="кг.",J20,0)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J20" s="29" t="e">
         <f>range1_AMOUNT</f>
         <v>#NAME?</v>
       </c>
-      <c r="J20" s="20" t="e">
-        <f>K20+N20</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K20" s="20" t="e">
+      <c r="K20" s="19" t="e">
+        <f>L20+O20</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L20" s="19" t="e">
         <f>range1_PRICE</f>
         <v>#NAME?</v>
       </c>
-      <c r="L20" s="24" t="e">
+      <c r="M20" s="23" t="e">
         <f>range1_NDS</f>
         <v>#NAME?</v>
       </c>
-      <c r="M20" s="24" t="e">
+      <c r="N20" s="23" t="e">
         <f>range1_SumNDS</f>
         <v>#NAME?</v>
       </c>
-      <c r="N20" s="20" t="e">
+      <c r="O20" s="19" t="e">
         <f>range1_DISCOUNTPRICE</f>
         <v>#NAME?</v>
       </c>
-      <c r="O20" s="20" t="e">
-        <f>I20*N20</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P20" s="20" t="e">
-        <f>ROUND(I20*(J20-N20),2)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P20" s="19" t="e">
+        <f>J20*O20</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q20" s="19" t="e">
+        <f>ROUND(J20*(K20-O20),2)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="17"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="64" t="e">
+      <c r="F21" s="87" t="e">
         <f>IF(B22&gt;0,"Всього без ПДВ","Всього")</f>
         <v>#NAME?</v>
       </c>
-      <c r="J21" s="65"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="36" t="s">
+      <c r="G21" s="87"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="N21" s="44" t="s">
+      <c r="J21" s="60" t="str">
+        <f>I21</f>
+        <v>sum</v>
+      </c>
+      <c r="K21" s="59"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="O21" s="44" t="s">
+      <c r="O21" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="P21" s="34" t="s">
+      <c r="P21" s="42" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="50" t="e">
+      <c r="Q21" s="33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="48" t="e">
         <f>WayBillList_NDS</f>
         <v>#NAME?</v>
       </c>
-      <c r="C22" s="57" t="e">
-        <f>ROUND(P21*B22/100,2)</f>
+      <c r="C22" s="51" t="e">
+        <f>ROUND(Q21*B22/100,2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="66" t="e">
+      <c r="I22" s="3"/>
+      <c r="J22" s="73" t="e">
         <f>IF(B22&gt;0,CONCATENATE("Всього ПДВ "&amp;WayBillList_NDS&amp;"%"),"Всього без знижки")</f>
         <v>#NAME?</v>
       </c>
-      <c r="J22" s="67"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="35" t="e">
-        <f>IF(B22&gt;0,C22,O21+P21)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="48" t="e">
-        <f>O21+P21</f>
+      <c r="K22" s="74"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="34" t="e">
+        <f>IF(B22&gt;0,C22,P21+Q21)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="46" t="e">
+        <f>P21+Q21</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H23" s="83" t="e">
+      <c r="H23" s="68" t="e">
         <f>IF(B22&gt;0,"Разом, в т.ч ПДВ:","Всього до сплати")</f>
         <v>#NAME?</v>
       </c>
-      <c r="I23" s="83"/>
-      <c r="J23" s="84"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="49" t="e">
-        <f>IF(B22&gt;0,P21+P22,P21)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="79"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="47" t="e">
+        <f>IF(B22&gt;0,Q21+Q22,Q21)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -1802,21 +1787,22 @@
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
-    </row>
-    <row r="25" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="29" t="s">
+      <c r="Q24" s="3"/>
+    </row>
+    <row r="25" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="23" t="e">
+      <c r="C25" s="27"/>
+      <c r="D25" s="22" t="e">
         <f>WayBillList_www</f>
         <v>#NAME?</v>
       </c>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
+      <c r="I25" s="57"/>
       <c r="J25" s="14"/>
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
@@ -1824,14 +1810,15 @@
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
       <c r="P25" s="14"/>
-    </row>
-    <row r="26" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
+      <c r="Q25" s="14"/>
+    </row>
+    <row r="26" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -1841,14 +1828,15 @@
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
-    </row>
-    <row r="27" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
+      <c r="Q26" s="3"/>
+    </row>
+    <row r="27" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
@@ -1858,20 +1846,21 @@
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
-    </row>
-    <row r="28" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="61" t="e">
+      <c r="Q27" s="3"/>
+    </row>
+    <row r="28" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="55" t="e">
         <f>WayBillList_WTYPE</f>
         <v>#NAME?</v>
       </c>
-      <c r="C28" s="61" t="e">
+      <c r="C28" s="55" t="e">
         <f>WayBillList_PERSONNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
@@ -1881,8 +1870,9 @@
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
-    </row>
-    <row r="29" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3"/>
+    </row>
+    <row r="29" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1899,52 +1889,54 @@
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
-    </row>
-    <row r="30" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q29" s="5"/>
+    </row>
+    <row r="30" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
-      <c r="B30" s="80" t="s">
+      <c r="B30" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="80"/>
-      <c r="D30" s="82" t="e">
+      <c r="C30" s="65"/>
+      <c r="D30" s="67" t="e">
         <f>IF(B28 &lt; 0,C28," ")</f>
         <v>#NAME?</v>
       </c>
-      <c r="E30" s="82"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="85" t="s">
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="85"/>
-      <c r="J30" s="81"/>
-      <c r="K30" s="81"/>
-      <c r="L30" s="81"/>
-      <c r="M30" s="81"/>
-      <c r="N30" s="81"/>
-      <c r="O30" s="81"/>
-      <c r="P30" s="81"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="66"/>
+      <c r="M30" s="66"/>
+      <c r="N30" s="66"/>
+      <c r="O30" s="66"/>
+      <c r="P30" s="66"/>
+      <c r="Q30" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H30:I30"/>
     <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B17:P17"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="B17:Q17"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="F16:G16"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D12:J12"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="C20:G20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="H30:J30"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -1958,471 +1950,366 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="B1:N48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
-    </sheetView>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.140625" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" customWidth="1"/>
     <col min="7" max="7" width="7" customWidth="1"/>
     <col min="8" max="8" width="6.85546875" customWidth="1"/>
     <col min="9" max="9" width="8.5703125" customWidth="1"/>
     <col min="10" max="10" width="9.28515625" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" customWidth="1"/>
     <col min="13" max="13" width="19.28515625" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
     </row>
     <row r="2" spans="2:14" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="38" t="e">
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="61" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
     </row>
     <row r="3" spans="2:14" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
     </row>
     <row r="4" spans="2:14" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="53"/>
-      <c r="C4" s="89" t="s">
+      <c r="B4" s="63"/>
+      <c r="C4" s="92" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92" t="e">
+        <f>WayBillList_EntKaFullName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+    </row>
+    <row r="5" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="63"/>
+      <c r="C5" s="92" t="e">
+        <f>WayBillList_AddressSel</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+    </row>
+    <row r="6" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="63"/>
+      <c r="C6" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92" t="e">
+        <f>WayBillList_EntKaFullName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="92"/>
+    </row>
+    <row r="7" spans="2:14" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="63"/>
+      <c r="C7" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-    </row>
-    <row r="5" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="53"/>
-      <c r="C5" s="89" t="s">
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="92" t="e">
+        <f>WayBillList_NAME</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="92"/>
+    </row>
+    <row r="8" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="62"/>
+      <c r="C8" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-    </row>
-    <row r="6" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="53"/>
-      <c r="C6" s="89" t="s">
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="93" t="e">
+        <f>WayBillList_ONDATE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H8" s="93"/>
+      <c r="I8" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="89"/>
-    </row>
-    <row r="7" spans="2:14" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="53"/>
-      <c r="C7" s="39" t="s">
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="92"/>
+    </row>
+    <row r="9" spans="2:14" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="62"/>
+      <c r="C9" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="89" t="e">
-        <f>WayBillList_NAME</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="89"/>
-    </row>
-    <row r="8" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="52"/>
-      <c r="C8" s="89" t="s">
+      <c r="D9" s="61"/>
+      <c r="E9" s="61" t="e">
+        <f>WayBillList_NUM</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F9" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="104" t="e">
+      <c r="G9" s="102" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="H8" s="104"/>
-      <c r="I8" s="89" t="s">
+      <c r="H9" s="102"/>
+      <c r="I9" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="89"/>
-    </row>
-    <row r="9" spans="2:14" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="52"/>
-      <c r="C9" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38" t="e">
-        <f>WayBillList_NUM</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="87" t="e">
-        <f>WayBillList_ONDATE</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H9" s="87"/>
-      <c r="I9" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
     </row>
     <row r="10" spans="2:14" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="52"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
     </row>
     <row r="11" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="2:14" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="90" t="s">
+      <c r="B12" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="92" t="s">
+      <c r="C12" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="90" t="s">
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="90" t="s">
+      <c r="H12" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="90" t="s">
+      <c r="I12" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="90" t="s">
+      <c r="J12" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="90" t="s">
+      <c r="K12" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="90" t="s">
+      <c r="L12" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="M12" s="92" t="s">
+      <c r="M12" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="N12" s="94"/>
+      <c r="N12" s="97"/>
     </row>
     <row r="13" spans="2:14" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="91"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="91"/>
-      <c r="M13" s="95"/>
-      <c r="N13" s="97"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="98"/>
+      <c r="N13" s="99"/>
     </row>
     <row r="14" spans="2:14" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="40" t="e">
+      <c r="B14" s="38" t="e">
         <f>Posvitcheny_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C14" s="98" t="e">
+      <c r="C14" s="106" t="e">
         <f>Posvitcheny_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="41" t="e">
+      <c r="D14" s="107"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="39" t="e">
         <f>Posvitcheny_AMOUNT</f>
         <v>#NAME?</v>
       </c>
-      <c r="H14" s="41" t="e">
+      <c r="H14" s="39" t="e">
         <f>Posvitcheny_CF1</f>
         <v>#NAME?</v>
       </c>
-      <c r="I14" s="41" t="e">
+      <c r="I14" s="39" t="e">
         <f>Posvitcheny_CF2</f>
         <v>#NAME?</v>
       </c>
-      <c r="J14" s="42" t="e">
+      <c r="J14" s="40" t="e">
         <f>Posvitcheny_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="K14" s="41" t="e">
+      <c r="K14" s="39" t="e">
         <f>Posvitcheny_CF3</f>
         <v>#NAME?</v>
       </c>
-      <c r="L14" s="41" t="e">
+      <c r="L14" s="39" t="e">
         <f>Posvitcheny_CF4</f>
         <v>#NAME?</v>
       </c>
-      <c r="M14" s="105" t="e">
+      <c r="M14" s="100" t="e">
         <f>Posvitcheny_CF5</f>
         <v>#NAME?</v>
       </c>
-      <c r="N14" s="106"/>
+      <c r="N14" s="101"/>
     </row>
     <row r="15" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C16" s="54" t="s">
+    <row r="16" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="3:14" ht="290.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="109" t="e">
+        <f>WayBillList_Declaration</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D17" s="109"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="109"/>
+      <c r="L17" s="109"/>
+      <c r="M17" s="109"/>
+      <c r="N17" s="109"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="110"/>
+      <c r="J18" s="110"/>
+      <c r="K18" s="110"/>
+      <c r="L18" s="110"/>
+      <c r="M18" s="110"/>
+      <c r="N18" s="50"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C20" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="86" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="86"/>
-      <c r="N17" s="86"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="D18" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="D19" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="D20" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="86" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="86"/>
-      <c r="M21" s="86"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="D22" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="86"/>
-      <c r="K22" s="86"/>
-      <c r="L22" s="86"/>
-      <c r="M22" s="86"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="86" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="86"/>
-      <c r="M23" s="86"/>
-      <c r="N23" s="86"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="86" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="86"/>
-      <c r="M24" s="86"/>
-      <c r="N24" s="86"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C27" s="86" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="86"/>
-      <c r="K27" t="s">
-        <v>54</v>
-      </c>
-    </row>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="88"/>
+      <c r="K20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="3:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="3:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="3:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="3:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="3:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="3:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="3:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="3:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="30" spans="3:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2445,12 +2332,24 @@
     <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="26">
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="I4:N4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:N6"/>
+    <mergeCell ref="C17:N17"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="F7:N7"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C20:H20"/>
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="B2:K2"/>
-    <mergeCell ref="C4:N4"/>
     <mergeCell ref="C5:N5"/>
-    <mergeCell ref="D24:N24"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:N8"/>
     <mergeCell ref="J12:J13"/>
@@ -2458,22 +2357,8 @@
     <mergeCell ref="L12:L13"/>
     <mergeCell ref="M12:N13"/>
     <mergeCell ref="M14:N14"/>
-    <mergeCell ref="C27:H27"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="B3:N3"/>
-    <mergeCell ref="D17:N17"/>
-    <mergeCell ref="D21:M21"/>
-    <mergeCell ref="C6:N6"/>
-    <mergeCell ref="F7:N7"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="D22:M22"/>
-    <mergeCell ref="D23:N23"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="C14:F14"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SP_Sklad/TempLate/WayBill_Out.xlsx
+++ b/SP_Sklad/TempLate/WayBill_Out.xlsx
@@ -32,9 +32,6 @@
     <t>№</t>
   </si>
   <si>
-    <t>Назва і сорт товара</t>
-  </si>
-  <si>
     <t xml:space="preserve">від </t>
   </si>
   <si>
@@ -138,6 +135,9 @@
   </si>
   <si>
     <t xml:space="preserve">            М.П.                            Головний технолог</t>
+  </si>
+  <si>
+    <t>Назва товара</t>
   </si>
 </sst>
 </file>
@@ -834,6 +834,60 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -855,56 +909,44 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -918,29 +960,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -953,27 +974,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1350,7 +1350,9 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A2:R30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:G20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1375,37 +1377,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
+      <c r="B2" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
       <c r="I2" s="56"/>
       <c r="J2" s="30" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L2" s="26"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
       <c r="O2" s="41"/>
-      <c r="P2" s="76" t="e">
+      <c r="P2" s="70" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="Q2" s="76"/>
+      <c r="Q2" s="70"/>
       <c r="R2" s="49"/>
     </row>
     <row r="4" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="36" t="e">
@@ -1449,20 +1451,20 @@
     </row>
     <row r="8" spans="2:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="53"/>
-      <c r="D8" s="78" t="e">
+      <c r="D8" s="72" t="e">
         <f>"Адреса: "&amp;WayBillList_AddressSel</f>
         <v>#NAME?</v>
       </c>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
     </row>
     <row r="11" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="36" t="e">
@@ -1479,16 +1481,16 @@
     <row r="12" spans="2:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="52"/>
       <c r="C12" s="21"/>
-      <c r="D12" s="79" t="e">
+      <c r="D12" s="73" t="e">
         <f>CONCATENATE("Адреса: ",WayBillList_AddressBuy)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
     </row>
     <row r="14" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="20"/>
@@ -1533,7 +1535,7 @@
     </row>
     <row r="16" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="27" t="e">
@@ -1541,13 +1543,13 @@
         <v>#NAME?</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="77" t="e">
+        <v>3</v>
+      </c>
+      <c r="F16" s="71" t="e">
         <f>IF(WayBillList_AttDate&gt;0,WayBillList_AttDate,"")</f>
         <v>#NAME?</v>
       </c>
-      <c r="G16" s="77"/>
+      <c r="G16" s="71"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="10"/>
@@ -1560,29 +1562,29 @@
       <c r="Q16" s="10"/>
     </row>
     <row r="17" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="72" t="e">
+      <c r="B17" s="66" t="e">
         <f>CONCATENATE("Підстава: ",WayBillList_Reason)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="72"/>
-      <c r="N17" s="72"/>
-      <c r="O17" s="72"/>
-      <c r="P17" s="72"/>
-      <c r="Q17" s="72"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="66"/>
+      <c r="Q17" s="66"/>
     </row>
     <row r="18" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -1595,36 +1597,36 @@
       <c r="B19" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="81" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="83"/>
+      <c r="C19" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="77"/>
       <c r="H19" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K19" s="6" t="e">
         <f>IF(B22&gt;0,"Ціна без ПДВ","Ціна без знижки")</f>
         <v>#NAME?</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M19" s="6"/>
       <c r="N19" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P19" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q19" s="13" t="e">
         <f>IF(B22&gt;0,"Сума без ПДВ","Сума зі знижкою")</f>
@@ -1636,14 +1638,14 @@
         <f>range1_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C20" s="84" t="e">
+      <c r="C20" s="78" t="e">
         <f>range1_MATNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D20" s="85"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="86"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="80"/>
       <c r="H20" s="8" t="e">
         <f>range1_MSRNAME</f>
         <v>#NAME?</v>
@@ -1690,12 +1692,12 @@
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
-      <c r="F21" s="87" t="e">
+      <c r="F21" s="81" t="e">
         <f>IF(B22&gt;0,"Всього без ПДВ","Всього")</f>
         <v>#NAME?</v>
       </c>
-      <c r="G21" s="87"/>
-      <c r="H21" s="87"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
       <c r="I21" s="58" t="s">
         <v>0</v>
       </c>
@@ -1734,11 +1736,11 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="73" t="e">
+      <c r="J22" s="67" t="e">
         <f>IF(B22&gt;0,CONCATENATE("Всього ПДВ "&amp;WayBillList_NDS&amp;"%"),"Всього без знижки")</f>
         <v>#NAME?</v>
       </c>
-      <c r="K22" s="74"/>
+      <c r="K22" s="68"/>
       <c r="L22" s="44"/>
       <c r="M22" s="32"/>
       <c r="N22" s="32"/>
@@ -1754,13 +1756,13 @@
         <f>P21+Q21</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H23" s="68" t="e">
+      <c r="H23" s="86" t="e">
         <f>IF(B22&gt;0,"Разом, в т.ч ПДВ:","Всього до сплати")</f>
         <v>#NAME?</v>
       </c>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="69"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="87"/>
       <c r="L23" s="44"/>
       <c r="M23" s="32"/>
       <c r="N23" s="32"/>
@@ -1772,12 +1774,12 @@
       </c>
     </row>
     <row r="24" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -1791,7 +1793,7 @@
     </row>
     <row r="25" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" s="27"/>
       <c r="D25" s="22" t="e">
@@ -1893,32 +1895,38 @@
     </row>
     <row r="30" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
-      <c r="B30" s="65" t="s">
+      <c r="B30" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="83"/>
+      <c r="D30" s="85" t="e">
+        <f>IF(B28 &lt; 0,C28," ")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="65"/>
-      <c r="D30" s="67" t="e">
-        <f>IF(B28 &lt; 0,C28," ")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="70" t="s">
-        <v>10</v>
-      </c>
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="66"/>
-      <c r="M30" s="66"/>
-      <c r="N30" s="66"/>
-      <c r="O30" s="66"/>
-      <c r="P30" s="66"/>
-      <c r="Q30" s="66"/>
+      <c r="I30" s="88"/>
+      <c r="J30" s="88"/>
+      <c r="K30" s="84"/>
+      <c r="L30" s="84"/>
+      <c r="M30" s="84"/>
+      <c r="N30" s="84"/>
+      <c r="O30" s="84"/>
+      <c r="P30" s="84"/>
+      <c r="Q30" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="H30:J30"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B17:Q17"/>
     <mergeCell ref="J22:K22"/>
@@ -1931,12 +1939,6 @@
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="F21:H21"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="K30:Q30"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="H30:J30"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -1971,35 +1973,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="103" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+    </row>
+    <row r="2" spans="2:14" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-    </row>
-    <row r="2" spans="2:14" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="91" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
       <c r="L2" s="61" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
@@ -2008,126 +2010,126 @@
       <c r="N2" s="37"/>
     </row>
     <row r="3" spans="2:14" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="103" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
+      <c r="B3" s="110" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
     </row>
     <row r="4" spans="2:14" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="63"/>
-      <c r="C4" s="92" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92" t="e">
+      <c r="C4" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89" t="e">
         <f>WayBillList_EntKaFullName</f>
         <v>#NAME?</v>
       </c>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
     </row>
     <row r="5" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="63"/>
-      <c r="C5" s="92" t="e">
+      <c r="C5" s="89" t="e">
         <f>WayBillList_AddressSel</f>
         <v>#NAME?</v>
       </c>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
     </row>
     <row r="6" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="63"/>
-      <c r="C6" s="92" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92" t="e">
+      <c r="C6" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89" t="e">
         <f>WayBillList_EntKaFullName</f>
         <v>#NAME?</v>
       </c>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="89"/>
     </row>
     <row r="7" spans="2:14" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="63"/>
       <c r="C7" s="37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="37"/>
       <c r="E7" s="37"/>
-      <c r="F7" s="92" t="e">
+      <c r="F7" s="89" t="e">
         <f>WayBillList_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="92"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="89"/>
     </row>
     <row r="8" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="62"/>
-      <c r="C8" s="92" t="s">
+      <c r="C8" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="106" t="e">
+        <f>WayBillList_ONDATE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H8" s="106"/>
+      <c r="I8" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="93" t="e">
-        <f>WayBillList_ONDATE</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H8" s="93"/>
-      <c r="I8" s="92" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
     </row>
     <row r="9" spans="2:14" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="62"/>
       <c r="C9" s="61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="61"/>
       <c r="E9" s="61" t="e">
@@ -2135,15 +2137,15 @@
         <v>#NAME?</v>
       </c>
       <c r="F9" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="109" t="e">
+        <f>WayBillList_ONDATE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H9" s="109"/>
+      <c r="I9" s="37" t="s">
         <v>33</v>
-      </c>
-      <c r="G9" s="102" t="e">
-        <f>WayBillList_ONDATE</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H9" s="102"/>
-      <c r="I9" s="37" t="s">
-        <v>34</v>
       </c>
       <c r="J9" s="37"/>
       <c r="K9" s="37"/>
@@ -2168,65 +2170,65 @@
     </row>
     <row r="11" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="2:14" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="94" t="s">
+      <c r="B12" s="91" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="96" t="s">
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="104"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="94" t="s">
+      <c r="H12" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="94" t="s">
+      <c r="I12" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="94" t="s">
+      <c r="J12" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="94" t="s">
+      <c r="K12" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="94" t="s">
+      <c r="L12" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="94" t="s">
+      <c r="M12" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="M12" s="96" t="s">
-        <v>23</v>
-      </c>
-      <c r="N12" s="97"/>
+      <c r="N12" s="95"/>
     </row>
     <row r="13" spans="2:14" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="95"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="98"/>
-      <c r="N13" s="99"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="96"/>
+      <c r="N13" s="98"/>
     </row>
     <row r="14" spans="2:14" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="38" t="e">
         <f>Posvitcheny_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C14" s="106" t="e">
+      <c r="C14" s="99" t="e">
         <f>Posvitcheny_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="108"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="101"/>
       <c r="G14" s="39" t="e">
         <f>Posvitcheny_AMOUNT</f>
         <v>#NAME?</v>
@@ -2251,56 +2253,56 @@
         <f>Posvitcheny_CF4</f>
         <v>#NAME?</v>
       </c>
-      <c r="M14" s="100" t="e">
+      <c r="M14" s="107" t="e">
         <f>Posvitcheny_CF5</f>
         <v>#NAME?</v>
       </c>
-      <c r="N14" s="101"/>
+      <c r="N14" s="108"/>
     </row>
     <row r="15" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="3:14" ht="290.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="109" t="e">
+      <c r="C17" s="90" t="e">
         <f>WayBillList_Declaration</f>
         <v>#NAME?</v>
       </c>
-      <c r="D17" s="109"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="109"/>
-      <c r="H17" s="109"/>
-      <c r="I17" s="109"/>
-      <c r="J17" s="109"/>
-      <c r="K17" s="109"/>
-      <c r="L17" s="109"/>
-      <c r="M17" s="109"/>
-      <c r="N17" s="109"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="90"/>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="110"/>
-      <c r="H18" s="110"/>
-      <c r="I18" s="110"/>
-      <c r="J18" s="110"/>
-      <c r="K18" s="110"/>
-      <c r="L18" s="110"/>
-      <c r="M18" s="110"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="64"/>
       <c r="N18" s="50"/>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C20" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="88"/>
+      <c r="C20" s="102" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="102"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="102"/>
       <c r="K20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="3:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2333,19 +2335,6 @@
     <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="I4:N4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:N6"/>
-    <mergeCell ref="C17:N17"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="F7:N7"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="C8:F8"/>
     <mergeCell ref="C20:H20"/>
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="B2:K2"/>
@@ -2359,6 +2348,19 @@
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="B3:N3"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="I4:N4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:N6"/>
+    <mergeCell ref="C17:N17"/>
+    <mergeCell ref="F7:N7"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="C8:F8"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SP_Sklad/TempLate/WayBill_Out.xlsx
+++ b/SP_Sklad/TempLate/WayBill_Out.xlsx
@@ -9,9 +9,11 @@
   <sheets>
     <sheet name="Накладна" sheetId="1" r:id="rId1"/>
     <sheet name="Посвідчення якості" sheetId="2" r:id="rId2"/>
+    <sheet name="Інвентаризація ОЗ" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="Posvitcheny">'Посвідчення якості'!$A$14:$N$15</definedName>
+    <definedName name="range_oz">'Інвентаризація ОЗ'!$A$8:$M$9</definedName>
     <definedName name="range1">Накладна!$A$20:$Q$21</definedName>
     <definedName name="range2">'Посвідчення якості'!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Накладна!$A$1:$Q$30</definedName>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
   <si>
     <t>sum</t>
   </si>
@@ -138,6 +140,48 @@
   </si>
   <si>
     <t>Назва товара</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ІНВЕНТАРИЗАЦІЙНИЙ ОПИС ОСНОВНИХ ЗАСОБІВ № </t>
+  </si>
+  <si>
+    <t>ВІДРИВНИЙ ТАЛОН №</t>
+  </si>
+  <si>
+    <t>Місце знаходження</t>
+  </si>
+  <si>
+    <t>Інвентраризація на</t>
+  </si>
+  <si>
+    <t>Інв. №</t>
+  </si>
+  <si>
+    <t>Найменування ОЗ</t>
+  </si>
+  <si>
+    <t>Значиться по бух. обліку</t>
+  </si>
+  <si>
+    <t>Назва</t>
+  </si>
+  <si>
+    <t>Фактично виявлено, к-сть</t>
+  </si>
+  <si>
+    <t>Результат (+ надл. - нед.), к-сть</t>
+  </si>
+  <si>
+    <t>Вартість</t>
+  </si>
+  <si>
+    <t>Всього</t>
+  </si>
+  <si>
+    <t>Матеріально відповідальне лице</t>
+  </si>
+  <si>
+    <t>Підпис  ________________  "_____"_______________20_____р.</t>
   </si>
 </sst>
 </file>
@@ -149,7 +193,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -328,6 +372,24 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -343,7 +405,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -679,11 +741,263 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="55"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="55"/>
+      </right>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="55"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="55"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="55"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="55"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="55"/>
+      </left>
+      <right style="thin">
+        <color indexed="55"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="55"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="55"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="55"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="55"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="55"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="55"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -837,6 +1151,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -888,57 +1277,63 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -948,32 +1343,65 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1350,13 +1778,13 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A2:R30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:G20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="0.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" customWidth="1"/>
@@ -1377,15 +1805,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
       <c r="I2" s="56"/>
       <c r="J2" s="30" t="e">
         <f>WayBillList_NUM</f>
@@ -1395,14 +1823,14 @@
         <v>3</v>
       </c>
       <c r="L2" s="26"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
       <c r="O2" s="41"/>
-      <c r="P2" s="70" t="e">
+      <c r="P2" s="105" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="Q2" s="70"/>
+      <c r="Q2" s="105"/>
       <c r="R2" s="49"/>
     </row>
     <row r="4" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1451,16 +1879,16 @@
     </row>
     <row r="8" spans="2:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="53"/>
-      <c r="D8" s="72" t="e">
+      <c r="D8" s="107" t="e">
         <f>"Адреса: "&amp;WayBillList_AddressSel</f>
         <v>#NAME?</v>
       </c>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
     </row>
     <row r="11" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="24" t="s">
@@ -1481,16 +1909,16 @@
     <row r="12" spans="2:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="52"/>
       <c r="C12" s="21"/>
-      <c r="D12" s="73" t="e">
+      <c r="D12" s="108" t="e">
         <f>CONCATENATE("Адреса: ",WayBillList_AddressBuy)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="108"/>
     </row>
     <row r="14" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="20"/>
@@ -1545,11 +1973,11 @@
       <c r="E16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="71" t="e">
+      <c r="F16" s="106" t="e">
         <f>IF(WayBillList_AttDate&gt;0,WayBillList_AttDate,"")</f>
         <v>#NAME?</v>
       </c>
-      <c r="G16" s="71"/>
+      <c r="G16" s="106"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="10"/>
@@ -1562,29 +1990,29 @@
       <c r="Q16" s="10"/>
     </row>
     <row r="17" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="66" t="e">
+      <c r="B17" s="101" t="e">
         <f>CONCATENATE("Підстава: ",WayBillList_Reason)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="66"/>
-      <c r="Q17" s="66"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="101"/>
+      <c r="K17" s="101"/>
+      <c r="L17" s="101"/>
+      <c r="M17" s="101"/>
+      <c r="N17" s="101"/>
+      <c r="O17" s="101"/>
+      <c r="P17" s="101"/>
+      <c r="Q17" s="101"/>
     </row>
     <row r="18" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="109"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -1597,13 +2025,13 @@
       <c r="B19" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="75" t="s">
+      <c r="C19" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="77"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="112"/>
       <c r="H19" s="7" t="s">
         <v>5</v>
       </c>
@@ -1638,14 +2066,14 @@
         <f>range1_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C20" s="78" t="e">
+      <c r="C20" s="113" t="e">
         <f>range1_MATNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="80"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="115"/>
       <c r="H20" s="8" t="e">
         <f>range1_MSRNAME</f>
         <v>#NAME?</v>
@@ -1692,12 +2120,12 @@
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
-      <c r="F21" s="81" t="e">
+      <c r="F21" s="116" t="e">
         <f>IF(B22&gt;0,"Всього без ПДВ","Всього")</f>
         <v>#NAME?</v>
       </c>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
       <c r="I21" s="58" t="s">
         <v>0</v>
       </c>
@@ -1736,11 +2164,11 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="67" t="e">
+      <c r="J22" s="102" t="e">
         <f>IF(B22&gt;0,CONCATENATE("Всього ПДВ "&amp;WayBillList_NDS&amp;"%"),"Всього без знижки")</f>
         <v>#NAME?</v>
       </c>
-      <c r="K22" s="68"/>
+      <c r="K22" s="103"/>
       <c r="L22" s="44"/>
       <c r="M22" s="32"/>
       <c r="N22" s="32"/>
@@ -1756,13 +2184,13 @@
         <f>P21+Q21</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H23" s="86" t="e">
+      <c r="H23" s="97" t="e">
         <f>IF(B22&gt;0,"Разом, в т.ч ПДВ:","Всього до сплати")</f>
         <v>#NAME?</v>
       </c>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="87"/>
+      <c r="I23" s="97"/>
+      <c r="J23" s="97"/>
+      <c r="K23" s="98"/>
       <c r="L23" s="44"/>
       <c r="M23" s="32"/>
       <c r="N23" s="32"/>
@@ -1774,12 +2202,12 @@
       </c>
     </row>
     <row r="24" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -1895,38 +2323,32 @@
     </row>
     <row r="30" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
-      <c r="B30" s="83" t="s">
+      <c r="B30" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="83"/>
-      <c r="D30" s="85" t="e">
+      <c r="C30" s="94"/>
+      <c r="D30" s="96" t="e">
         <f>IF(B28 &lt; 0,C28," ")</f>
         <v>#NAME?</v>
       </c>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="88" t="s">
+      <c r="E30" s="96"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="96"/>
+      <c r="H30" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="I30" s="88"/>
-      <c r="J30" s="88"/>
-      <c r="K30" s="84"/>
-      <c r="L30" s="84"/>
-      <c r="M30" s="84"/>
-      <c r="N30" s="84"/>
-      <c r="O30" s="84"/>
-      <c r="P30" s="84"/>
-      <c r="Q30" s="84"/>
+      <c r="I30" s="99"/>
+      <c r="J30" s="99"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="95"/>
+      <c r="P30" s="95"/>
+      <c r="Q30" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="K30:Q30"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="H30:J30"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B17:Q17"/>
     <mergeCell ref="J22:K22"/>
@@ -1939,6 +2361,12 @@
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="F21:H21"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="H30:J30"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -1952,7 +2380,9 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="B1:N48"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1973,35 +2403,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
     </row>
     <row r="2" spans="2:14" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
       <c r="L2" s="61" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
@@ -2010,79 +2440,79 @@
       <c r="N2" s="37"/>
     </row>
     <row r="3" spans="2:14" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="130" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="110"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="130"/>
+      <c r="N3" s="130"/>
     </row>
     <row r="4" spans="2:14" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="63"/>
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89" t="e">
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128" t="e">
         <f>WayBillList_EntKaFullName</f>
         <v>#NAME?</v>
       </c>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="128"/>
+      <c r="N4" s="128"/>
     </row>
     <row r="5" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="63"/>
-      <c r="C5" s="89" t="e">
+      <c r="C5" s="128" t="e">
         <f>WayBillList_AddressSel</f>
         <v>#NAME?</v>
       </c>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="128"/>
+      <c r="K5" s="128"/>
+      <c r="L5" s="128"/>
+      <c r="M5" s="128"/>
+      <c r="N5" s="128"/>
     </row>
     <row r="6" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="63"/>
-      <c r="C6" s="89" t="s">
+      <c r="C6" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89" t="e">
+      <c r="D6" s="128"/>
+      <c r="E6" s="128" t="e">
         <f>WayBillList_EntKaFullName</f>
         <v>#NAME?</v>
       </c>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="89"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="128"/>
+      <c r="K6" s="128"/>
+      <c r="L6" s="128"/>
+      <c r="M6" s="128"/>
+      <c r="N6" s="128"/>
     </row>
     <row r="7" spans="2:14" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="63"/>
@@ -2091,40 +2521,40 @@
       </c>
       <c r="D7" s="37"/>
       <c r="E7" s="37"/>
-      <c r="F7" s="89" t="e">
+      <c r="F7" s="128" t="e">
         <f>WayBillList_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="89"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="128"/>
+      <c r="L7" s="128"/>
+      <c r="M7" s="128"/>
+      <c r="N7" s="128"/>
     </row>
     <row r="8" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="62"/>
-      <c r="C8" s="89" t="s">
+      <c r="C8" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="106" t="e">
+      <c r="D8" s="128"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="129" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="H8" s="106"/>
-      <c r="I8" s="89" t="s">
+      <c r="H8" s="129"/>
+      <c r="I8" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="89"/>
+      <c r="J8" s="128"/>
+      <c r="K8" s="128"/>
+      <c r="L8" s="128"/>
+      <c r="M8" s="128"/>
+      <c r="N8" s="128"/>
     </row>
     <row r="9" spans="2:14" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="62"/>
@@ -2139,11 +2569,11 @@
       <c r="F9" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="109" t="e">
+      <c r="G9" s="131" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="H9" s="109"/>
+      <c r="H9" s="131"/>
       <c r="I9" s="37" t="s">
         <v>33</v>
       </c>
@@ -2170,65 +2600,65 @@
     </row>
     <row r="11" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="2:14" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="91" t="s">
+      <c r="B12" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="93" t="s">
+      <c r="C12" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="91" t="s">
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="91" t="s">
+      <c r="H12" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="91" t="s">
+      <c r="I12" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="91" t="s">
+      <c r="J12" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="91" t="s">
+      <c r="K12" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="91" t="s">
+      <c r="L12" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="M12" s="93" t="s">
+      <c r="M12" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="N12" s="95"/>
+      <c r="N12" s="121"/>
     </row>
     <row r="13" spans="2:14" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="92"/>
-      <c r="C13" s="96"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="96"/>
-      <c r="N13" s="98"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="118"/>
+      <c r="J13" s="118"/>
+      <c r="K13" s="118"/>
+      <c r="L13" s="118"/>
+      <c r="M13" s="122"/>
+      <c r="N13" s="124"/>
     </row>
     <row r="14" spans="2:14" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="38" t="e">
         <f>Posvitcheny_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C14" s="99" t="e">
+      <c r="C14" s="136" t="e">
         <f>Posvitcheny_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="101"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="138"/>
       <c r="G14" s="39" t="e">
         <f>Posvitcheny_AMOUNT</f>
         <v>#NAME?</v>
@@ -2253,30 +2683,30 @@
         <f>Posvitcheny_CF4</f>
         <v>#NAME?</v>
       </c>
-      <c r="M14" s="107" t="e">
+      <c r="M14" s="133" t="e">
         <f>Posvitcheny_CF5</f>
         <v>#NAME?</v>
       </c>
-      <c r="N14" s="108"/>
+      <c r="N14" s="134"/>
     </row>
     <row r="15" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="3:14" ht="290.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="90" t="e">
+      <c r="C17" s="135" t="e">
         <f>WayBillList_Declaration</f>
         <v>#NAME?</v>
       </c>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="90"/>
-      <c r="M17" s="90"/>
-      <c r="N17" s="90"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="135"/>
+      <c r="F17" s="135"/>
+      <c r="G17" s="135"/>
+      <c r="H17" s="135"/>
+      <c r="I17" s="135"/>
+      <c r="J17" s="135"/>
+      <c r="K17" s="135"/>
+      <c r="L17" s="135"/>
+      <c r="M17" s="135"/>
+      <c r="N17" s="135"/>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="64"/>
@@ -2293,14 +2723,14 @@
       <c r="N18" s="50"/>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C20" s="102" t="s">
+      <c r="C20" s="132" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="102"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="102"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="132"/>
+      <c r="G20" s="132"/>
+      <c r="H20" s="132"/>
       <c r="K20" t="s">
         <v>34</v>
       </c>
@@ -2336,34 +2766,1092 @@
   </sheetData>
   <mergeCells count="26">
     <mergeCell ref="C20:H20"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="C17:N17"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:F13"/>
+    <mergeCell ref="G12:G13"/>
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="C5:N5"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:N8"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="G9:H9"/>
     <mergeCell ref="B3:N3"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="C14:F14"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="I4:N4"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:N6"/>
-    <mergeCell ref="C17:N17"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="F7:N7"/>
-    <mergeCell ref="I12:I13"/>
     <mergeCell ref="C8:F8"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:M11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="0.7109375" customWidth="1"/>
+    <col min="2" max="2" width="5" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="2.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="1.140625" customWidth="1"/>
+    <col min="10" max="10" width="25.85546875" customWidth="1"/>
+    <col min="11" max="11" width="0.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" customWidth="1"/>
+    <col min="257" max="257" width="1.28515625" customWidth="1"/>
+    <col min="258" max="258" width="5" customWidth="1"/>
+    <col min="259" max="259" width="11.140625" customWidth="1"/>
+    <col min="260" max="260" width="2.42578125" customWidth="1"/>
+    <col min="261" max="261" width="14.28515625" customWidth="1"/>
+    <col min="262" max="262" width="15.5703125" customWidth="1"/>
+    <col min="263" max="263" width="12.42578125" customWidth="1"/>
+    <col min="264" max="264" width="17.140625" customWidth="1"/>
+    <col min="265" max="265" width="1.140625" customWidth="1"/>
+    <col min="266" max="266" width="22.140625" customWidth="1"/>
+    <col min="267" max="267" width="4.5703125" customWidth="1"/>
+    <col min="268" max="268" width="10.140625" customWidth="1"/>
+    <col min="269" max="269" width="14.7109375" customWidth="1"/>
+    <col min="513" max="513" width="1.28515625" customWidth="1"/>
+    <col min="514" max="514" width="5" customWidth="1"/>
+    <col min="515" max="515" width="11.140625" customWidth="1"/>
+    <col min="516" max="516" width="2.42578125" customWidth="1"/>
+    <col min="517" max="517" width="14.28515625" customWidth="1"/>
+    <col min="518" max="518" width="15.5703125" customWidth="1"/>
+    <col min="519" max="519" width="12.42578125" customWidth="1"/>
+    <col min="520" max="520" width="17.140625" customWidth="1"/>
+    <col min="521" max="521" width="1.140625" customWidth="1"/>
+    <col min="522" max="522" width="22.140625" customWidth="1"/>
+    <col min="523" max="523" width="4.5703125" customWidth="1"/>
+    <col min="524" max="524" width="10.140625" customWidth="1"/>
+    <col min="525" max="525" width="14.7109375" customWidth="1"/>
+    <col min="769" max="769" width="1.28515625" customWidth="1"/>
+    <col min="770" max="770" width="5" customWidth="1"/>
+    <col min="771" max="771" width="11.140625" customWidth="1"/>
+    <col min="772" max="772" width="2.42578125" customWidth="1"/>
+    <col min="773" max="773" width="14.28515625" customWidth="1"/>
+    <col min="774" max="774" width="15.5703125" customWidth="1"/>
+    <col min="775" max="775" width="12.42578125" customWidth="1"/>
+    <col min="776" max="776" width="17.140625" customWidth="1"/>
+    <col min="777" max="777" width="1.140625" customWidth="1"/>
+    <col min="778" max="778" width="22.140625" customWidth="1"/>
+    <col min="779" max="779" width="4.5703125" customWidth="1"/>
+    <col min="780" max="780" width="10.140625" customWidth="1"/>
+    <col min="781" max="781" width="14.7109375" customWidth="1"/>
+    <col min="1025" max="1025" width="1.28515625" customWidth="1"/>
+    <col min="1026" max="1026" width="5" customWidth="1"/>
+    <col min="1027" max="1027" width="11.140625" customWidth="1"/>
+    <col min="1028" max="1028" width="2.42578125" customWidth="1"/>
+    <col min="1029" max="1029" width="14.28515625" customWidth="1"/>
+    <col min="1030" max="1030" width="15.5703125" customWidth="1"/>
+    <col min="1031" max="1031" width="12.42578125" customWidth="1"/>
+    <col min="1032" max="1032" width="17.140625" customWidth="1"/>
+    <col min="1033" max="1033" width="1.140625" customWidth="1"/>
+    <col min="1034" max="1034" width="22.140625" customWidth="1"/>
+    <col min="1035" max="1035" width="4.5703125" customWidth="1"/>
+    <col min="1036" max="1036" width="10.140625" customWidth="1"/>
+    <col min="1037" max="1037" width="14.7109375" customWidth="1"/>
+    <col min="1281" max="1281" width="1.28515625" customWidth="1"/>
+    <col min="1282" max="1282" width="5" customWidth="1"/>
+    <col min="1283" max="1283" width="11.140625" customWidth="1"/>
+    <col min="1284" max="1284" width="2.42578125" customWidth="1"/>
+    <col min="1285" max="1285" width="14.28515625" customWidth="1"/>
+    <col min="1286" max="1286" width="15.5703125" customWidth="1"/>
+    <col min="1287" max="1287" width="12.42578125" customWidth="1"/>
+    <col min="1288" max="1288" width="17.140625" customWidth="1"/>
+    <col min="1289" max="1289" width="1.140625" customWidth="1"/>
+    <col min="1290" max="1290" width="22.140625" customWidth="1"/>
+    <col min="1291" max="1291" width="4.5703125" customWidth="1"/>
+    <col min="1292" max="1292" width="10.140625" customWidth="1"/>
+    <col min="1293" max="1293" width="14.7109375" customWidth="1"/>
+    <col min="1537" max="1537" width="1.28515625" customWidth="1"/>
+    <col min="1538" max="1538" width="5" customWidth="1"/>
+    <col min="1539" max="1539" width="11.140625" customWidth="1"/>
+    <col min="1540" max="1540" width="2.42578125" customWidth="1"/>
+    <col min="1541" max="1541" width="14.28515625" customWidth="1"/>
+    <col min="1542" max="1542" width="15.5703125" customWidth="1"/>
+    <col min="1543" max="1543" width="12.42578125" customWidth="1"/>
+    <col min="1544" max="1544" width="17.140625" customWidth="1"/>
+    <col min="1545" max="1545" width="1.140625" customWidth="1"/>
+    <col min="1546" max="1546" width="22.140625" customWidth="1"/>
+    <col min="1547" max="1547" width="4.5703125" customWidth="1"/>
+    <col min="1548" max="1548" width="10.140625" customWidth="1"/>
+    <col min="1549" max="1549" width="14.7109375" customWidth="1"/>
+    <col min="1793" max="1793" width="1.28515625" customWidth="1"/>
+    <col min="1794" max="1794" width="5" customWidth="1"/>
+    <col min="1795" max="1795" width="11.140625" customWidth="1"/>
+    <col min="1796" max="1796" width="2.42578125" customWidth="1"/>
+    <col min="1797" max="1797" width="14.28515625" customWidth="1"/>
+    <col min="1798" max="1798" width="15.5703125" customWidth="1"/>
+    <col min="1799" max="1799" width="12.42578125" customWidth="1"/>
+    <col min="1800" max="1800" width="17.140625" customWidth="1"/>
+    <col min="1801" max="1801" width="1.140625" customWidth="1"/>
+    <col min="1802" max="1802" width="22.140625" customWidth="1"/>
+    <col min="1803" max="1803" width="4.5703125" customWidth="1"/>
+    <col min="1804" max="1804" width="10.140625" customWidth="1"/>
+    <col min="1805" max="1805" width="14.7109375" customWidth="1"/>
+    <col min="2049" max="2049" width="1.28515625" customWidth="1"/>
+    <col min="2050" max="2050" width="5" customWidth="1"/>
+    <col min="2051" max="2051" width="11.140625" customWidth="1"/>
+    <col min="2052" max="2052" width="2.42578125" customWidth="1"/>
+    <col min="2053" max="2053" width="14.28515625" customWidth="1"/>
+    <col min="2054" max="2054" width="15.5703125" customWidth="1"/>
+    <col min="2055" max="2055" width="12.42578125" customWidth="1"/>
+    <col min="2056" max="2056" width="17.140625" customWidth="1"/>
+    <col min="2057" max="2057" width="1.140625" customWidth="1"/>
+    <col min="2058" max="2058" width="22.140625" customWidth="1"/>
+    <col min="2059" max="2059" width="4.5703125" customWidth="1"/>
+    <col min="2060" max="2060" width="10.140625" customWidth="1"/>
+    <col min="2061" max="2061" width="14.7109375" customWidth="1"/>
+    <col min="2305" max="2305" width="1.28515625" customWidth="1"/>
+    <col min="2306" max="2306" width="5" customWidth="1"/>
+    <col min="2307" max="2307" width="11.140625" customWidth="1"/>
+    <col min="2308" max="2308" width="2.42578125" customWidth="1"/>
+    <col min="2309" max="2309" width="14.28515625" customWidth="1"/>
+    <col min="2310" max="2310" width="15.5703125" customWidth="1"/>
+    <col min="2311" max="2311" width="12.42578125" customWidth="1"/>
+    <col min="2312" max="2312" width="17.140625" customWidth="1"/>
+    <col min="2313" max="2313" width="1.140625" customWidth="1"/>
+    <col min="2314" max="2314" width="22.140625" customWidth="1"/>
+    <col min="2315" max="2315" width="4.5703125" customWidth="1"/>
+    <col min="2316" max="2316" width="10.140625" customWidth="1"/>
+    <col min="2317" max="2317" width="14.7109375" customWidth="1"/>
+    <col min="2561" max="2561" width="1.28515625" customWidth="1"/>
+    <col min="2562" max="2562" width="5" customWidth="1"/>
+    <col min="2563" max="2563" width="11.140625" customWidth="1"/>
+    <col min="2564" max="2564" width="2.42578125" customWidth="1"/>
+    <col min="2565" max="2565" width="14.28515625" customWidth="1"/>
+    <col min="2566" max="2566" width="15.5703125" customWidth="1"/>
+    <col min="2567" max="2567" width="12.42578125" customWidth="1"/>
+    <col min="2568" max="2568" width="17.140625" customWidth="1"/>
+    <col min="2569" max="2569" width="1.140625" customWidth="1"/>
+    <col min="2570" max="2570" width="22.140625" customWidth="1"/>
+    <col min="2571" max="2571" width="4.5703125" customWidth="1"/>
+    <col min="2572" max="2572" width="10.140625" customWidth="1"/>
+    <col min="2573" max="2573" width="14.7109375" customWidth="1"/>
+    <col min="2817" max="2817" width="1.28515625" customWidth="1"/>
+    <col min="2818" max="2818" width="5" customWidth="1"/>
+    <col min="2819" max="2819" width="11.140625" customWidth="1"/>
+    <col min="2820" max="2820" width="2.42578125" customWidth="1"/>
+    <col min="2821" max="2821" width="14.28515625" customWidth="1"/>
+    <col min="2822" max="2822" width="15.5703125" customWidth="1"/>
+    <col min="2823" max="2823" width="12.42578125" customWidth="1"/>
+    <col min="2824" max="2824" width="17.140625" customWidth="1"/>
+    <col min="2825" max="2825" width="1.140625" customWidth="1"/>
+    <col min="2826" max="2826" width="22.140625" customWidth="1"/>
+    <col min="2827" max="2827" width="4.5703125" customWidth="1"/>
+    <col min="2828" max="2828" width="10.140625" customWidth="1"/>
+    <col min="2829" max="2829" width="14.7109375" customWidth="1"/>
+    <col min="3073" max="3073" width="1.28515625" customWidth="1"/>
+    <col min="3074" max="3074" width="5" customWidth="1"/>
+    <col min="3075" max="3075" width="11.140625" customWidth="1"/>
+    <col min="3076" max="3076" width="2.42578125" customWidth="1"/>
+    <col min="3077" max="3077" width="14.28515625" customWidth="1"/>
+    <col min="3078" max="3078" width="15.5703125" customWidth="1"/>
+    <col min="3079" max="3079" width="12.42578125" customWidth="1"/>
+    <col min="3080" max="3080" width="17.140625" customWidth="1"/>
+    <col min="3081" max="3081" width="1.140625" customWidth="1"/>
+    <col min="3082" max="3082" width="22.140625" customWidth="1"/>
+    <col min="3083" max="3083" width="4.5703125" customWidth="1"/>
+    <col min="3084" max="3084" width="10.140625" customWidth="1"/>
+    <col min="3085" max="3085" width="14.7109375" customWidth="1"/>
+    <col min="3329" max="3329" width="1.28515625" customWidth="1"/>
+    <col min="3330" max="3330" width="5" customWidth="1"/>
+    <col min="3331" max="3331" width="11.140625" customWidth="1"/>
+    <col min="3332" max="3332" width="2.42578125" customWidth="1"/>
+    <col min="3333" max="3333" width="14.28515625" customWidth="1"/>
+    <col min="3334" max="3334" width="15.5703125" customWidth="1"/>
+    <col min="3335" max="3335" width="12.42578125" customWidth="1"/>
+    <col min="3336" max="3336" width="17.140625" customWidth="1"/>
+    <col min="3337" max="3337" width="1.140625" customWidth="1"/>
+    <col min="3338" max="3338" width="22.140625" customWidth="1"/>
+    <col min="3339" max="3339" width="4.5703125" customWidth="1"/>
+    <col min="3340" max="3340" width="10.140625" customWidth="1"/>
+    <col min="3341" max="3341" width="14.7109375" customWidth="1"/>
+    <col min="3585" max="3585" width="1.28515625" customWidth="1"/>
+    <col min="3586" max="3586" width="5" customWidth="1"/>
+    <col min="3587" max="3587" width="11.140625" customWidth="1"/>
+    <col min="3588" max="3588" width="2.42578125" customWidth="1"/>
+    <col min="3589" max="3589" width="14.28515625" customWidth="1"/>
+    <col min="3590" max="3590" width="15.5703125" customWidth="1"/>
+    <col min="3591" max="3591" width="12.42578125" customWidth="1"/>
+    <col min="3592" max="3592" width="17.140625" customWidth="1"/>
+    <col min="3593" max="3593" width="1.140625" customWidth="1"/>
+    <col min="3594" max="3594" width="22.140625" customWidth="1"/>
+    <col min="3595" max="3595" width="4.5703125" customWidth="1"/>
+    <col min="3596" max="3596" width="10.140625" customWidth="1"/>
+    <col min="3597" max="3597" width="14.7109375" customWidth="1"/>
+    <col min="3841" max="3841" width="1.28515625" customWidth="1"/>
+    <col min="3842" max="3842" width="5" customWidth="1"/>
+    <col min="3843" max="3843" width="11.140625" customWidth="1"/>
+    <col min="3844" max="3844" width="2.42578125" customWidth="1"/>
+    <col min="3845" max="3845" width="14.28515625" customWidth="1"/>
+    <col min="3846" max="3846" width="15.5703125" customWidth="1"/>
+    <col min="3847" max="3847" width="12.42578125" customWidth="1"/>
+    <col min="3848" max="3848" width="17.140625" customWidth="1"/>
+    <col min="3849" max="3849" width="1.140625" customWidth="1"/>
+    <col min="3850" max="3850" width="22.140625" customWidth="1"/>
+    <col min="3851" max="3851" width="4.5703125" customWidth="1"/>
+    <col min="3852" max="3852" width="10.140625" customWidth="1"/>
+    <col min="3853" max="3853" width="14.7109375" customWidth="1"/>
+    <col min="4097" max="4097" width="1.28515625" customWidth="1"/>
+    <col min="4098" max="4098" width="5" customWidth="1"/>
+    <col min="4099" max="4099" width="11.140625" customWidth="1"/>
+    <col min="4100" max="4100" width="2.42578125" customWidth="1"/>
+    <col min="4101" max="4101" width="14.28515625" customWidth="1"/>
+    <col min="4102" max="4102" width="15.5703125" customWidth="1"/>
+    <col min="4103" max="4103" width="12.42578125" customWidth="1"/>
+    <col min="4104" max="4104" width="17.140625" customWidth="1"/>
+    <col min="4105" max="4105" width="1.140625" customWidth="1"/>
+    <col min="4106" max="4106" width="22.140625" customWidth="1"/>
+    <col min="4107" max="4107" width="4.5703125" customWidth="1"/>
+    <col min="4108" max="4108" width="10.140625" customWidth="1"/>
+    <col min="4109" max="4109" width="14.7109375" customWidth="1"/>
+    <col min="4353" max="4353" width="1.28515625" customWidth="1"/>
+    <col min="4354" max="4354" width="5" customWidth="1"/>
+    <col min="4355" max="4355" width="11.140625" customWidth="1"/>
+    <col min="4356" max="4356" width="2.42578125" customWidth="1"/>
+    <col min="4357" max="4357" width="14.28515625" customWidth="1"/>
+    <col min="4358" max="4358" width="15.5703125" customWidth="1"/>
+    <col min="4359" max="4359" width="12.42578125" customWidth="1"/>
+    <col min="4360" max="4360" width="17.140625" customWidth="1"/>
+    <col min="4361" max="4361" width="1.140625" customWidth="1"/>
+    <col min="4362" max="4362" width="22.140625" customWidth="1"/>
+    <col min="4363" max="4363" width="4.5703125" customWidth="1"/>
+    <col min="4364" max="4364" width="10.140625" customWidth="1"/>
+    <col min="4365" max="4365" width="14.7109375" customWidth="1"/>
+    <col min="4609" max="4609" width="1.28515625" customWidth="1"/>
+    <col min="4610" max="4610" width="5" customWidth="1"/>
+    <col min="4611" max="4611" width="11.140625" customWidth="1"/>
+    <col min="4612" max="4612" width="2.42578125" customWidth="1"/>
+    <col min="4613" max="4613" width="14.28515625" customWidth="1"/>
+    <col min="4614" max="4614" width="15.5703125" customWidth="1"/>
+    <col min="4615" max="4615" width="12.42578125" customWidth="1"/>
+    <col min="4616" max="4616" width="17.140625" customWidth="1"/>
+    <col min="4617" max="4617" width="1.140625" customWidth="1"/>
+    <col min="4618" max="4618" width="22.140625" customWidth="1"/>
+    <col min="4619" max="4619" width="4.5703125" customWidth="1"/>
+    <col min="4620" max="4620" width="10.140625" customWidth="1"/>
+    <col min="4621" max="4621" width="14.7109375" customWidth="1"/>
+    <col min="4865" max="4865" width="1.28515625" customWidth="1"/>
+    <col min="4866" max="4866" width="5" customWidth="1"/>
+    <col min="4867" max="4867" width="11.140625" customWidth="1"/>
+    <col min="4868" max="4868" width="2.42578125" customWidth="1"/>
+    <col min="4869" max="4869" width="14.28515625" customWidth="1"/>
+    <col min="4870" max="4870" width="15.5703125" customWidth="1"/>
+    <col min="4871" max="4871" width="12.42578125" customWidth="1"/>
+    <col min="4872" max="4872" width="17.140625" customWidth="1"/>
+    <col min="4873" max="4873" width="1.140625" customWidth="1"/>
+    <col min="4874" max="4874" width="22.140625" customWidth="1"/>
+    <col min="4875" max="4875" width="4.5703125" customWidth="1"/>
+    <col min="4876" max="4876" width="10.140625" customWidth="1"/>
+    <col min="4877" max="4877" width="14.7109375" customWidth="1"/>
+    <col min="5121" max="5121" width="1.28515625" customWidth="1"/>
+    <col min="5122" max="5122" width="5" customWidth="1"/>
+    <col min="5123" max="5123" width="11.140625" customWidth="1"/>
+    <col min="5124" max="5124" width="2.42578125" customWidth="1"/>
+    <col min="5125" max="5125" width="14.28515625" customWidth="1"/>
+    <col min="5126" max="5126" width="15.5703125" customWidth="1"/>
+    <col min="5127" max="5127" width="12.42578125" customWidth="1"/>
+    <col min="5128" max="5128" width="17.140625" customWidth="1"/>
+    <col min="5129" max="5129" width="1.140625" customWidth="1"/>
+    <col min="5130" max="5130" width="22.140625" customWidth="1"/>
+    <col min="5131" max="5131" width="4.5703125" customWidth="1"/>
+    <col min="5132" max="5132" width="10.140625" customWidth="1"/>
+    <col min="5133" max="5133" width="14.7109375" customWidth="1"/>
+    <col min="5377" max="5377" width="1.28515625" customWidth="1"/>
+    <col min="5378" max="5378" width="5" customWidth="1"/>
+    <col min="5379" max="5379" width="11.140625" customWidth="1"/>
+    <col min="5380" max="5380" width="2.42578125" customWidth="1"/>
+    <col min="5381" max="5381" width="14.28515625" customWidth="1"/>
+    <col min="5382" max="5382" width="15.5703125" customWidth="1"/>
+    <col min="5383" max="5383" width="12.42578125" customWidth="1"/>
+    <col min="5384" max="5384" width="17.140625" customWidth="1"/>
+    <col min="5385" max="5385" width="1.140625" customWidth="1"/>
+    <col min="5386" max="5386" width="22.140625" customWidth="1"/>
+    <col min="5387" max="5387" width="4.5703125" customWidth="1"/>
+    <col min="5388" max="5388" width="10.140625" customWidth="1"/>
+    <col min="5389" max="5389" width="14.7109375" customWidth="1"/>
+    <col min="5633" max="5633" width="1.28515625" customWidth="1"/>
+    <col min="5634" max="5634" width="5" customWidth="1"/>
+    <col min="5635" max="5635" width="11.140625" customWidth="1"/>
+    <col min="5636" max="5636" width="2.42578125" customWidth="1"/>
+    <col min="5637" max="5637" width="14.28515625" customWidth="1"/>
+    <col min="5638" max="5638" width="15.5703125" customWidth="1"/>
+    <col min="5639" max="5639" width="12.42578125" customWidth="1"/>
+    <col min="5640" max="5640" width="17.140625" customWidth="1"/>
+    <col min="5641" max="5641" width="1.140625" customWidth="1"/>
+    <col min="5642" max="5642" width="22.140625" customWidth="1"/>
+    <col min="5643" max="5643" width="4.5703125" customWidth="1"/>
+    <col min="5644" max="5644" width="10.140625" customWidth="1"/>
+    <col min="5645" max="5645" width="14.7109375" customWidth="1"/>
+    <col min="5889" max="5889" width="1.28515625" customWidth="1"/>
+    <col min="5890" max="5890" width="5" customWidth="1"/>
+    <col min="5891" max="5891" width="11.140625" customWidth="1"/>
+    <col min="5892" max="5892" width="2.42578125" customWidth="1"/>
+    <col min="5893" max="5893" width="14.28515625" customWidth="1"/>
+    <col min="5894" max="5894" width="15.5703125" customWidth="1"/>
+    <col min="5895" max="5895" width="12.42578125" customWidth="1"/>
+    <col min="5896" max="5896" width="17.140625" customWidth="1"/>
+    <col min="5897" max="5897" width="1.140625" customWidth="1"/>
+    <col min="5898" max="5898" width="22.140625" customWidth="1"/>
+    <col min="5899" max="5899" width="4.5703125" customWidth="1"/>
+    <col min="5900" max="5900" width="10.140625" customWidth="1"/>
+    <col min="5901" max="5901" width="14.7109375" customWidth="1"/>
+    <col min="6145" max="6145" width="1.28515625" customWidth="1"/>
+    <col min="6146" max="6146" width="5" customWidth="1"/>
+    <col min="6147" max="6147" width="11.140625" customWidth="1"/>
+    <col min="6148" max="6148" width="2.42578125" customWidth="1"/>
+    <col min="6149" max="6149" width="14.28515625" customWidth="1"/>
+    <col min="6150" max="6150" width="15.5703125" customWidth="1"/>
+    <col min="6151" max="6151" width="12.42578125" customWidth="1"/>
+    <col min="6152" max="6152" width="17.140625" customWidth="1"/>
+    <col min="6153" max="6153" width="1.140625" customWidth="1"/>
+    <col min="6154" max="6154" width="22.140625" customWidth="1"/>
+    <col min="6155" max="6155" width="4.5703125" customWidth="1"/>
+    <col min="6156" max="6156" width="10.140625" customWidth="1"/>
+    <col min="6157" max="6157" width="14.7109375" customWidth="1"/>
+    <col min="6401" max="6401" width="1.28515625" customWidth="1"/>
+    <col min="6402" max="6402" width="5" customWidth="1"/>
+    <col min="6403" max="6403" width="11.140625" customWidth="1"/>
+    <col min="6404" max="6404" width="2.42578125" customWidth="1"/>
+    <col min="6405" max="6405" width="14.28515625" customWidth="1"/>
+    <col min="6406" max="6406" width="15.5703125" customWidth="1"/>
+    <col min="6407" max="6407" width="12.42578125" customWidth="1"/>
+    <col min="6408" max="6408" width="17.140625" customWidth="1"/>
+    <col min="6409" max="6409" width="1.140625" customWidth="1"/>
+    <col min="6410" max="6410" width="22.140625" customWidth="1"/>
+    <col min="6411" max="6411" width="4.5703125" customWidth="1"/>
+    <col min="6412" max="6412" width="10.140625" customWidth="1"/>
+    <col min="6413" max="6413" width="14.7109375" customWidth="1"/>
+    <col min="6657" max="6657" width="1.28515625" customWidth="1"/>
+    <col min="6658" max="6658" width="5" customWidth="1"/>
+    <col min="6659" max="6659" width="11.140625" customWidth="1"/>
+    <col min="6660" max="6660" width="2.42578125" customWidth="1"/>
+    <col min="6661" max="6661" width="14.28515625" customWidth="1"/>
+    <col min="6662" max="6662" width="15.5703125" customWidth="1"/>
+    <col min="6663" max="6663" width="12.42578125" customWidth="1"/>
+    <col min="6664" max="6664" width="17.140625" customWidth="1"/>
+    <col min="6665" max="6665" width="1.140625" customWidth="1"/>
+    <col min="6666" max="6666" width="22.140625" customWidth="1"/>
+    <col min="6667" max="6667" width="4.5703125" customWidth="1"/>
+    <col min="6668" max="6668" width="10.140625" customWidth="1"/>
+    <col min="6669" max="6669" width="14.7109375" customWidth="1"/>
+    <col min="6913" max="6913" width="1.28515625" customWidth="1"/>
+    <col min="6914" max="6914" width="5" customWidth="1"/>
+    <col min="6915" max="6915" width="11.140625" customWidth="1"/>
+    <col min="6916" max="6916" width="2.42578125" customWidth="1"/>
+    <col min="6917" max="6917" width="14.28515625" customWidth="1"/>
+    <col min="6918" max="6918" width="15.5703125" customWidth="1"/>
+    <col min="6919" max="6919" width="12.42578125" customWidth="1"/>
+    <col min="6920" max="6920" width="17.140625" customWidth="1"/>
+    <col min="6921" max="6921" width="1.140625" customWidth="1"/>
+    <col min="6922" max="6922" width="22.140625" customWidth="1"/>
+    <col min="6923" max="6923" width="4.5703125" customWidth="1"/>
+    <col min="6924" max="6924" width="10.140625" customWidth="1"/>
+    <col min="6925" max="6925" width="14.7109375" customWidth="1"/>
+    <col min="7169" max="7169" width="1.28515625" customWidth="1"/>
+    <col min="7170" max="7170" width="5" customWidth="1"/>
+    <col min="7171" max="7171" width="11.140625" customWidth="1"/>
+    <col min="7172" max="7172" width="2.42578125" customWidth="1"/>
+    <col min="7173" max="7173" width="14.28515625" customWidth="1"/>
+    <col min="7174" max="7174" width="15.5703125" customWidth="1"/>
+    <col min="7175" max="7175" width="12.42578125" customWidth="1"/>
+    <col min="7176" max="7176" width="17.140625" customWidth="1"/>
+    <col min="7177" max="7177" width="1.140625" customWidth="1"/>
+    <col min="7178" max="7178" width="22.140625" customWidth="1"/>
+    <col min="7179" max="7179" width="4.5703125" customWidth="1"/>
+    <col min="7180" max="7180" width="10.140625" customWidth="1"/>
+    <col min="7181" max="7181" width="14.7109375" customWidth="1"/>
+    <col min="7425" max="7425" width="1.28515625" customWidth="1"/>
+    <col min="7426" max="7426" width="5" customWidth="1"/>
+    <col min="7427" max="7427" width="11.140625" customWidth="1"/>
+    <col min="7428" max="7428" width="2.42578125" customWidth="1"/>
+    <col min="7429" max="7429" width="14.28515625" customWidth="1"/>
+    <col min="7430" max="7430" width="15.5703125" customWidth="1"/>
+    <col min="7431" max="7431" width="12.42578125" customWidth="1"/>
+    <col min="7432" max="7432" width="17.140625" customWidth="1"/>
+    <col min="7433" max="7433" width="1.140625" customWidth="1"/>
+    <col min="7434" max="7434" width="22.140625" customWidth="1"/>
+    <col min="7435" max="7435" width="4.5703125" customWidth="1"/>
+    <col min="7436" max="7436" width="10.140625" customWidth="1"/>
+    <col min="7437" max="7437" width="14.7109375" customWidth="1"/>
+    <col min="7681" max="7681" width="1.28515625" customWidth="1"/>
+    <col min="7682" max="7682" width="5" customWidth="1"/>
+    <col min="7683" max="7683" width="11.140625" customWidth="1"/>
+    <col min="7684" max="7684" width="2.42578125" customWidth="1"/>
+    <col min="7685" max="7685" width="14.28515625" customWidth="1"/>
+    <col min="7686" max="7686" width="15.5703125" customWidth="1"/>
+    <col min="7687" max="7687" width="12.42578125" customWidth="1"/>
+    <col min="7688" max="7688" width="17.140625" customWidth="1"/>
+    <col min="7689" max="7689" width="1.140625" customWidth="1"/>
+    <col min="7690" max="7690" width="22.140625" customWidth="1"/>
+    <col min="7691" max="7691" width="4.5703125" customWidth="1"/>
+    <col min="7692" max="7692" width="10.140625" customWidth="1"/>
+    <col min="7693" max="7693" width="14.7109375" customWidth="1"/>
+    <col min="7937" max="7937" width="1.28515625" customWidth="1"/>
+    <col min="7938" max="7938" width="5" customWidth="1"/>
+    <col min="7939" max="7939" width="11.140625" customWidth="1"/>
+    <col min="7940" max="7940" width="2.42578125" customWidth="1"/>
+    <col min="7941" max="7941" width="14.28515625" customWidth="1"/>
+    <col min="7942" max="7942" width="15.5703125" customWidth="1"/>
+    <col min="7943" max="7943" width="12.42578125" customWidth="1"/>
+    <col min="7944" max="7944" width="17.140625" customWidth="1"/>
+    <col min="7945" max="7945" width="1.140625" customWidth="1"/>
+    <col min="7946" max="7946" width="22.140625" customWidth="1"/>
+    <col min="7947" max="7947" width="4.5703125" customWidth="1"/>
+    <col min="7948" max="7948" width="10.140625" customWidth="1"/>
+    <col min="7949" max="7949" width="14.7109375" customWidth="1"/>
+    <col min="8193" max="8193" width="1.28515625" customWidth="1"/>
+    <col min="8194" max="8194" width="5" customWidth="1"/>
+    <col min="8195" max="8195" width="11.140625" customWidth="1"/>
+    <col min="8196" max="8196" width="2.42578125" customWidth="1"/>
+    <col min="8197" max="8197" width="14.28515625" customWidth="1"/>
+    <col min="8198" max="8198" width="15.5703125" customWidth="1"/>
+    <col min="8199" max="8199" width="12.42578125" customWidth="1"/>
+    <col min="8200" max="8200" width="17.140625" customWidth="1"/>
+    <col min="8201" max="8201" width="1.140625" customWidth="1"/>
+    <col min="8202" max="8202" width="22.140625" customWidth="1"/>
+    <col min="8203" max="8203" width="4.5703125" customWidth="1"/>
+    <col min="8204" max="8204" width="10.140625" customWidth="1"/>
+    <col min="8205" max="8205" width="14.7109375" customWidth="1"/>
+    <col min="8449" max="8449" width="1.28515625" customWidth="1"/>
+    <col min="8450" max="8450" width="5" customWidth="1"/>
+    <col min="8451" max="8451" width="11.140625" customWidth="1"/>
+    <col min="8452" max="8452" width="2.42578125" customWidth="1"/>
+    <col min="8453" max="8453" width="14.28515625" customWidth="1"/>
+    <col min="8454" max="8454" width="15.5703125" customWidth="1"/>
+    <col min="8455" max="8455" width="12.42578125" customWidth="1"/>
+    <col min="8456" max="8456" width="17.140625" customWidth="1"/>
+    <col min="8457" max="8457" width="1.140625" customWidth="1"/>
+    <col min="8458" max="8458" width="22.140625" customWidth="1"/>
+    <col min="8459" max="8459" width="4.5703125" customWidth="1"/>
+    <col min="8460" max="8460" width="10.140625" customWidth="1"/>
+    <col min="8461" max="8461" width="14.7109375" customWidth="1"/>
+    <col min="8705" max="8705" width="1.28515625" customWidth="1"/>
+    <col min="8706" max="8706" width="5" customWidth="1"/>
+    <col min="8707" max="8707" width="11.140625" customWidth="1"/>
+    <col min="8708" max="8708" width="2.42578125" customWidth="1"/>
+    <col min="8709" max="8709" width="14.28515625" customWidth="1"/>
+    <col min="8710" max="8710" width="15.5703125" customWidth="1"/>
+    <col min="8711" max="8711" width="12.42578125" customWidth="1"/>
+    <col min="8712" max="8712" width="17.140625" customWidth="1"/>
+    <col min="8713" max="8713" width="1.140625" customWidth="1"/>
+    <col min="8714" max="8714" width="22.140625" customWidth="1"/>
+    <col min="8715" max="8715" width="4.5703125" customWidth="1"/>
+    <col min="8716" max="8716" width="10.140625" customWidth="1"/>
+    <col min="8717" max="8717" width="14.7109375" customWidth="1"/>
+    <col min="8961" max="8961" width="1.28515625" customWidth="1"/>
+    <col min="8962" max="8962" width="5" customWidth="1"/>
+    <col min="8963" max="8963" width="11.140625" customWidth="1"/>
+    <col min="8964" max="8964" width="2.42578125" customWidth="1"/>
+    <col min="8965" max="8965" width="14.28515625" customWidth="1"/>
+    <col min="8966" max="8966" width="15.5703125" customWidth="1"/>
+    <col min="8967" max="8967" width="12.42578125" customWidth="1"/>
+    <col min="8968" max="8968" width="17.140625" customWidth="1"/>
+    <col min="8969" max="8969" width="1.140625" customWidth="1"/>
+    <col min="8970" max="8970" width="22.140625" customWidth="1"/>
+    <col min="8971" max="8971" width="4.5703125" customWidth="1"/>
+    <col min="8972" max="8972" width="10.140625" customWidth="1"/>
+    <col min="8973" max="8973" width="14.7109375" customWidth="1"/>
+    <col min="9217" max="9217" width="1.28515625" customWidth="1"/>
+    <col min="9218" max="9218" width="5" customWidth="1"/>
+    <col min="9219" max="9219" width="11.140625" customWidth="1"/>
+    <col min="9220" max="9220" width="2.42578125" customWidth="1"/>
+    <col min="9221" max="9221" width="14.28515625" customWidth="1"/>
+    <col min="9222" max="9222" width="15.5703125" customWidth="1"/>
+    <col min="9223" max="9223" width="12.42578125" customWidth="1"/>
+    <col min="9224" max="9224" width="17.140625" customWidth="1"/>
+    <col min="9225" max="9225" width="1.140625" customWidth="1"/>
+    <col min="9226" max="9226" width="22.140625" customWidth="1"/>
+    <col min="9227" max="9227" width="4.5703125" customWidth="1"/>
+    <col min="9228" max="9228" width="10.140625" customWidth="1"/>
+    <col min="9229" max="9229" width="14.7109375" customWidth="1"/>
+    <col min="9473" max="9473" width="1.28515625" customWidth="1"/>
+    <col min="9474" max="9474" width="5" customWidth="1"/>
+    <col min="9475" max="9475" width="11.140625" customWidth="1"/>
+    <col min="9476" max="9476" width="2.42578125" customWidth="1"/>
+    <col min="9477" max="9477" width="14.28515625" customWidth="1"/>
+    <col min="9478" max="9478" width="15.5703125" customWidth="1"/>
+    <col min="9479" max="9479" width="12.42578125" customWidth="1"/>
+    <col min="9480" max="9480" width="17.140625" customWidth="1"/>
+    <col min="9481" max="9481" width="1.140625" customWidth="1"/>
+    <col min="9482" max="9482" width="22.140625" customWidth="1"/>
+    <col min="9483" max="9483" width="4.5703125" customWidth="1"/>
+    <col min="9484" max="9484" width="10.140625" customWidth="1"/>
+    <col min="9485" max="9485" width="14.7109375" customWidth="1"/>
+    <col min="9729" max="9729" width="1.28515625" customWidth="1"/>
+    <col min="9730" max="9730" width="5" customWidth="1"/>
+    <col min="9731" max="9731" width="11.140625" customWidth="1"/>
+    <col min="9732" max="9732" width="2.42578125" customWidth="1"/>
+    <col min="9733" max="9733" width="14.28515625" customWidth="1"/>
+    <col min="9734" max="9734" width="15.5703125" customWidth="1"/>
+    <col min="9735" max="9735" width="12.42578125" customWidth="1"/>
+    <col min="9736" max="9736" width="17.140625" customWidth="1"/>
+    <col min="9737" max="9737" width="1.140625" customWidth="1"/>
+    <col min="9738" max="9738" width="22.140625" customWidth="1"/>
+    <col min="9739" max="9739" width="4.5703125" customWidth="1"/>
+    <col min="9740" max="9740" width="10.140625" customWidth="1"/>
+    <col min="9741" max="9741" width="14.7109375" customWidth="1"/>
+    <col min="9985" max="9985" width="1.28515625" customWidth="1"/>
+    <col min="9986" max="9986" width="5" customWidth="1"/>
+    <col min="9987" max="9987" width="11.140625" customWidth="1"/>
+    <col min="9988" max="9988" width="2.42578125" customWidth="1"/>
+    <col min="9989" max="9989" width="14.28515625" customWidth="1"/>
+    <col min="9990" max="9990" width="15.5703125" customWidth="1"/>
+    <col min="9991" max="9991" width="12.42578125" customWidth="1"/>
+    <col min="9992" max="9992" width="17.140625" customWidth="1"/>
+    <col min="9993" max="9993" width="1.140625" customWidth="1"/>
+    <col min="9994" max="9994" width="22.140625" customWidth="1"/>
+    <col min="9995" max="9995" width="4.5703125" customWidth="1"/>
+    <col min="9996" max="9996" width="10.140625" customWidth="1"/>
+    <col min="9997" max="9997" width="14.7109375" customWidth="1"/>
+    <col min="10241" max="10241" width="1.28515625" customWidth="1"/>
+    <col min="10242" max="10242" width="5" customWidth="1"/>
+    <col min="10243" max="10243" width="11.140625" customWidth="1"/>
+    <col min="10244" max="10244" width="2.42578125" customWidth="1"/>
+    <col min="10245" max="10245" width="14.28515625" customWidth="1"/>
+    <col min="10246" max="10246" width="15.5703125" customWidth="1"/>
+    <col min="10247" max="10247" width="12.42578125" customWidth="1"/>
+    <col min="10248" max="10248" width="17.140625" customWidth="1"/>
+    <col min="10249" max="10249" width="1.140625" customWidth="1"/>
+    <col min="10250" max="10250" width="22.140625" customWidth="1"/>
+    <col min="10251" max="10251" width="4.5703125" customWidth="1"/>
+    <col min="10252" max="10252" width="10.140625" customWidth="1"/>
+    <col min="10253" max="10253" width="14.7109375" customWidth="1"/>
+    <col min="10497" max="10497" width="1.28515625" customWidth="1"/>
+    <col min="10498" max="10498" width="5" customWidth="1"/>
+    <col min="10499" max="10499" width="11.140625" customWidth="1"/>
+    <col min="10500" max="10500" width="2.42578125" customWidth="1"/>
+    <col min="10501" max="10501" width="14.28515625" customWidth="1"/>
+    <col min="10502" max="10502" width="15.5703125" customWidth="1"/>
+    <col min="10503" max="10503" width="12.42578125" customWidth="1"/>
+    <col min="10504" max="10504" width="17.140625" customWidth="1"/>
+    <col min="10505" max="10505" width="1.140625" customWidth="1"/>
+    <col min="10506" max="10506" width="22.140625" customWidth="1"/>
+    <col min="10507" max="10507" width="4.5703125" customWidth="1"/>
+    <col min="10508" max="10508" width="10.140625" customWidth="1"/>
+    <col min="10509" max="10509" width="14.7109375" customWidth="1"/>
+    <col min="10753" max="10753" width="1.28515625" customWidth="1"/>
+    <col min="10754" max="10754" width="5" customWidth="1"/>
+    <col min="10755" max="10755" width="11.140625" customWidth="1"/>
+    <col min="10756" max="10756" width="2.42578125" customWidth="1"/>
+    <col min="10757" max="10757" width="14.28515625" customWidth="1"/>
+    <col min="10758" max="10758" width="15.5703125" customWidth="1"/>
+    <col min="10759" max="10759" width="12.42578125" customWidth="1"/>
+    <col min="10760" max="10760" width="17.140625" customWidth="1"/>
+    <col min="10761" max="10761" width="1.140625" customWidth="1"/>
+    <col min="10762" max="10762" width="22.140625" customWidth="1"/>
+    <col min="10763" max="10763" width="4.5703125" customWidth="1"/>
+    <col min="10764" max="10764" width="10.140625" customWidth="1"/>
+    <col min="10765" max="10765" width="14.7109375" customWidth="1"/>
+    <col min="11009" max="11009" width="1.28515625" customWidth="1"/>
+    <col min="11010" max="11010" width="5" customWidth="1"/>
+    <col min="11011" max="11011" width="11.140625" customWidth="1"/>
+    <col min="11012" max="11012" width="2.42578125" customWidth="1"/>
+    <col min="11013" max="11013" width="14.28515625" customWidth="1"/>
+    <col min="11014" max="11014" width="15.5703125" customWidth="1"/>
+    <col min="11015" max="11015" width="12.42578125" customWidth="1"/>
+    <col min="11016" max="11016" width="17.140625" customWidth="1"/>
+    <col min="11017" max="11017" width="1.140625" customWidth="1"/>
+    <col min="11018" max="11018" width="22.140625" customWidth="1"/>
+    <col min="11019" max="11019" width="4.5703125" customWidth="1"/>
+    <col min="11020" max="11020" width="10.140625" customWidth="1"/>
+    <col min="11021" max="11021" width="14.7109375" customWidth="1"/>
+    <col min="11265" max="11265" width="1.28515625" customWidth="1"/>
+    <col min="11266" max="11266" width="5" customWidth="1"/>
+    <col min="11267" max="11267" width="11.140625" customWidth="1"/>
+    <col min="11268" max="11268" width="2.42578125" customWidth="1"/>
+    <col min="11269" max="11269" width="14.28515625" customWidth="1"/>
+    <col min="11270" max="11270" width="15.5703125" customWidth="1"/>
+    <col min="11271" max="11271" width="12.42578125" customWidth="1"/>
+    <col min="11272" max="11272" width="17.140625" customWidth="1"/>
+    <col min="11273" max="11273" width="1.140625" customWidth="1"/>
+    <col min="11274" max="11274" width="22.140625" customWidth="1"/>
+    <col min="11275" max="11275" width="4.5703125" customWidth="1"/>
+    <col min="11276" max="11276" width="10.140625" customWidth="1"/>
+    <col min="11277" max="11277" width="14.7109375" customWidth="1"/>
+    <col min="11521" max="11521" width="1.28515625" customWidth="1"/>
+    <col min="11522" max="11522" width="5" customWidth="1"/>
+    <col min="11523" max="11523" width="11.140625" customWidth="1"/>
+    <col min="11524" max="11524" width="2.42578125" customWidth="1"/>
+    <col min="11525" max="11525" width="14.28515625" customWidth="1"/>
+    <col min="11526" max="11526" width="15.5703125" customWidth="1"/>
+    <col min="11527" max="11527" width="12.42578125" customWidth="1"/>
+    <col min="11528" max="11528" width="17.140625" customWidth="1"/>
+    <col min="11529" max="11529" width="1.140625" customWidth="1"/>
+    <col min="11530" max="11530" width="22.140625" customWidth="1"/>
+    <col min="11531" max="11531" width="4.5703125" customWidth="1"/>
+    <col min="11532" max="11532" width="10.140625" customWidth="1"/>
+    <col min="11533" max="11533" width="14.7109375" customWidth="1"/>
+    <col min="11777" max="11777" width="1.28515625" customWidth="1"/>
+    <col min="11778" max="11778" width="5" customWidth="1"/>
+    <col min="11779" max="11779" width="11.140625" customWidth="1"/>
+    <col min="11780" max="11780" width="2.42578125" customWidth="1"/>
+    <col min="11781" max="11781" width="14.28515625" customWidth="1"/>
+    <col min="11782" max="11782" width="15.5703125" customWidth="1"/>
+    <col min="11783" max="11783" width="12.42578125" customWidth="1"/>
+    <col min="11784" max="11784" width="17.140625" customWidth="1"/>
+    <col min="11785" max="11785" width="1.140625" customWidth="1"/>
+    <col min="11786" max="11786" width="22.140625" customWidth="1"/>
+    <col min="11787" max="11787" width="4.5703125" customWidth="1"/>
+    <col min="11788" max="11788" width="10.140625" customWidth="1"/>
+    <col min="11789" max="11789" width="14.7109375" customWidth="1"/>
+    <col min="12033" max="12033" width="1.28515625" customWidth="1"/>
+    <col min="12034" max="12034" width="5" customWidth="1"/>
+    <col min="12035" max="12035" width="11.140625" customWidth="1"/>
+    <col min="12036" max="12036" width="2.42578125" customWidth="1"/>
+    <col min="12037" max="12037" width="14.28515625" customWidth="1"/>
+    <col min="12038" max="12038" width="15.5703125" customWidth="1"/>
+    <col min="12039" max="12039" width="12.42578125" customWidth="1"/>
+    <col min="12040" max="12040" width="17.140625" customWidth="1"/>
+    <col min="12041" max="12041" width="1.140625" customWidth="1"/>
+    <col min="12042" max="12042" width="22.140625" customWidth="1"/>
+    <col min="12043" max="12043" width="4.5703125" customWidth="1"/>
+    <col min="12044" max="12044" width="10.140625" customWidth="1"/>
+    <col min="12045" max="12045" width="14.7109375" customWidth="1"/>
+    <col min="12289" max="12289" width="1.28515625" customWidth="1"/>
+    <col min="12290" max="12290" width="5" customWidth="1"/>
+    <col min="12291" max="12291" width="11.140625" customWidth="1"/>
+    <col min="12292" max="12292" width="2.42578125" customWidth="1"/>
+    <col min="12293" max="12293" width="14.28515625" customWidth="1"/>
+    <col min="12294" max="12294" width="15.5703125" customWidth="1"/>
+    <col min="12295" max="12295" width="12.42578125" customWidth="1"/>
+    <col min="12296" max="12296" width="17.140625" customWidth="1"/>
+    <col min="12297" max="12297" width="1.140625" customWidth="1"/>
+    <col min="12298" max="12298" width="22.140625" customWidth="1"/>
+    <col min="12299" max="12299" width="4.5703125" customWidth="1"/>
+    <col min="12300" max="12300" width="10.140625" customWidth="1"/>
+    <col min="12301" max="12301" width="14.7109375" customWidth="1"/>
+    <col min="12545" max="12545" width="1.28515625" customWidth="1"/>
+    <col min="12546" max="12546" width="5" customWidth="1"/>
+    <col min="12547" max="12547" width="11.140625" customWidth="1"/>
+    <col min="12548" max="12548" width="2.42578125" customWidth="1"/>
+    <col min="12549" max="12549" width="14.28515625" customWidth="1"/>
+    <col min="12550" max="12550" width="15.5703125" customWidth="1"/>
+    <col min="12551" max="12551" width="12.42578125" customWidth="1"/>
+    <col min="12552" max="12552" width="17.140625" customWidth="1"/>
+    <col min="12553" max="12553" width="1.140625" customWidth="1"/>
+    <col min="12554" max="12554" width="22.140625" customWidth="1"/>
+    <col min="12555" max="12555" width="4.5703125" customWidth="1"/>
+    <col min="12556" max="12556" width="10.140625" customWidth="1"/>
+    <col min="12557" max="12557" width="14.7109375" customWidth="1"/>
+    <col min="12801" max="12801" width="1.28515625" customWidth="1"/>
+    <col min="12802" max="12802" width="5" customWidth="1"/>
+    <col min="12803" max="12803" width="11.140625" customWidth="1"/>
+    <col min="12804" max="12804" width="2.42578125" customWidth="1"/>
+    <col min="12805" max="12805" width="14.28515625" customWidth="1"/>
+    <col min="12806" max="12806" width="15.5703125" customWidth="1"/>
+    <col min="12807" max="12807" width="12.42578125" customWidth="1"/>
+    <col min="12808" max="12808" width="17.140625" customWidth="1"/>
+    <col min="12809" max="12809" width="1.140625" customWidth="1"/>
+    <col min="12810" max="12810" width="22.140625" customWidth="1"/>
+    <col min="12811" max="12811" width="4.5703125" customWidth="1"/>
+    <col min="12812" max="12812" width="10.140625" customWidth="1"/>
+    <col min="12813" max="12813" width="14.7109375" customWidth="1"/>
+    <col min="13057" max="13057" width="1.28515625" customWidth="1"/>
+    <col min="13058" max="13058" width="5" customWidth="1"/>
+    <col min="13059" max="13059" width="11.140625" customWidth="1"/>
+    <col min="13060" max="13060" width="2.42578125" customWidth="1"/>
+    <col min="13061" max="13061" width="14.28515625" customWidth="1"/>
+    <col min="13062" max="13062" width="15.5703125" customWidth="1"/>
+    <col min="13063" max="13063" width="12.42578125" customWidth="1"/>
+    <col min="13064" max="13064" width="17.140625" customWidth="1"/>
+    <col min="13065" max="13065" width="1.140625" customWidth="1"/>
+    <col min="13066" max="13066" width="22.140625" customWidth="1"/>
+    <col min="13067" max="13067" width="4.5703125" customWidth="1"/>
+    <col min="13068" max="13068" width="10.140625" customWidth="1"/>
+    <col min="13069" max="13069" width="14.7109375" customWidth="1"/>
+    <col min="13313" max="13313" width="1.28515625" customWidth="1"/>
+    <col min="13314" max="13314" width="5" customWidth="1"/>
+    <col min="13315" max="13315" width="11.140625" customWidth="1"/>
+    <col min="13316" max="13316" width="2.42578125" customWidth="1"/>
+    <col min="13317" max="13317" width="14.28515625" customWidth="1"/>
+    <col min="13318" max="13318" width="15.5703125" customWidth="1"/>
+    <col min="13319" max="13319" width="12.42578125" customWidth="1"/>
+    <col min="13320" max="13320" width="17.140625" customWidth="1"/>
+    <col min="13321" max="13321" width="1.140625" customWidth="1"/>
+    <col min="13322" max="13322" width="22.140625" customWidth="1"/>
+    <col min="13323" max="13323" width="4.5703125" customWidth="1"/>
+    <col min="13324" max="13324" width="10.140625" customWidth="1"/>
+    <col min="13325" max="13325" width="14.7109375" customWidth="1"/>
+    <col min="13569" max="13569" width="1.28515625" customWidth="1"/>
+    <col min="13570" max="13570" width="5" customWidth="1"/>
+    <col min="13571" max="13571" width="11.140625" customWidth="1"/>
+    <col min="13572" max="13572" width="2.42578125" customWidth="1"/>
+    <col min="13573" max="13573" width="14.28515625" customWidth="1"/>
+    <col min="13574" max="13574" width="15.5703125" customWidth="1"/>
+    <col min="13575" max="13575" width="12.42578125" customWidth="1"/>
+    <col min="13576" max="13576" width="17.140625" customWidth="1"/>
+    <col min="13577" max="13577" width="1.140625" customWidth="1"/>
+    <col min="13578" max="13578" width="22.140625" customWidth="1"/>
+    <col min="13579" max="13579" width="4.5703125" customWidth="1"/>
+    <col min="13580" max="13580" width="10.140625" customWidth="1"/>
+    <col min="13581" max="13581" width="14.7109375" customWidth="1"/>
+    <col min="13825" max="13825" width="1.28515625" customWidth="1"/>
+    <col min="13826" max="13826" width="5" customWidth="1"/>
+    <col min="13827" max="13827" width="11.140625" customWidth="1"/>
+    <col min="13828" max="13828" width="2.42578125" customWidth="1"/>
+    <col min="13829" max="13829" width="14.28515625" customWidth="1"/>
+    <col min="13830" max="13830" width="15.5703125" customWidth="1"/>
+    <col min="13831" max="13831" width="12.42578125" customWidth="1"/>
+    <col min="13832" max="13832" width="17.140625" customWidth="1"/>
+    <col min="13833" max="13833" width="1.140625" customWidth="1"/>
+    <col min="13834" max="13834" width="22.140625" customWidth="1"/>
+    <col min="13835" max="13835" width="4.5703125" customWidth="1"/>
+    <col min="13836" max="13836" width="10.140625" customWidth="1"/>
+    <col min="13837" max="13837" width="14.7109375" customWidth="1"/>
+    <col min="14081" max="14081" width="1.28515625" customWidth="1"/>
+    <col min="14082" max="14082" width="5" customWidth="1"/>
+    <col min="14083" max="14083" width="11.140625" customWidth="1"/>
+    <col min="14084" max="14084" width="2.42578125" customWidth="1"/>
+    <col min="14085" max="14085" width="14.28515625" customWidth="1"/>
+    <col min="14086" max="14086" width="15.5703125" customWidth="1"/>
+    <col min="14087" max="14087" width="12.42578125" customWidth="1"/>
+    <col min="14088" max="14088" width="17.140625" customWidth="1"/>
+    <col min="14089" max="14089" width="1.140625" customWidth="1"/>
+    <col min="14090" max="14090" width="22.140625" customWidth="1"/>
+    <col min="14091" max="14091" width="4.5703125" customWidth="1"/>
+    <col min="14092" max="14092" width="10.140625" customWidth="1"/>
+    <col min="14093" max="14093" width="14.7109375" customWidth="1"/>
+    <col min="14337" max="14337" width="1.28515625" customWidth="1"/>
+    <col min="14338" max="14338" width="5" customWidth="1"/>
+    <col min="14339" max="14339" width="11.140625" customWidth="1"/>
+    <col min="14340" max="14340" width="2.42578125" customWidth="1"/>
+    <col min="14341" max="14341" width="14.28515625" customWidth="1"/>
+    <col min="14342" max="14342" width="15.5703125" customWidth="1"/>
+    <col min="14343" max="14343" width="12.42578125" customWidth="1"/>
+    <col min="14344" max="14344" width="17.140625" customWidth="1"/>
+    <col min="14345" max="14345" width="1.140625" customWidth="1"/>
+    <col min="14346" max="14346" width="22.140625" customWidth="1"/>
+    <col min="14347" max="14347" width="4.5703125" customWidth="1"/>
+    <col min="14348" max="14348" width="10.140625" customWidth="1"/>
+    <col min="14349" max="14349" width="14.7109375" customWidth="1"/>
+    <col min="14593" max="14593" width="1.28515625" customWidth="1"/>
+    <col min="14594" max="14594" width="5" customWidth="1"/>
+    <col min="14595" max="14595" width="11.140625" customWidth="1"/>
+    <col min="14596" max="14596" width="2.42578125" customWidth="1"/>
+    <col min="14597" max="14597" width="14.28515625" customWidth="1"/>
+    <col min="14598" max="14598" width="15.5703125" customWidth="1"/>
+    <col min="14599" max="14599" width="12.42578125" customWidth="1"/>
+    <col min="14600" max="14600" width="17.140625" customWidth="1"/>
+    <col min="14601" max="14601" width="1.140625" customWidth="1"/>
+    <col min="14602" max="14602" width="22.140625" customWidth="1"/>
+    <col min="14603" max="14603" width="4.5703125" customWidth="1"/>
+    <col min="14604" max="14604" width="10.140625" customWidth="1"/>
+    <col min="14605" max="14605" width="14.7109375" customWidth="1"/>
+    <col min="14849" max="14849" width="1.28515625" customWidth="1"/>
+    <col min="14850" max="14850" width="5" customWidth="1"/>
+    <col min="14851" max="14851" width="11.140625" customWidth="1"/>
+    <col min="14852" max="14852" width="2.42578125" customWidth="1"/>
+    <col min="14853" max="14853" width="14.28515625" customWidth="1"/>
+    <col min="14854" max="14854" width="15.5703125" customWidth="1"/>
+    <col min="14855" max="14855" width="12.42578125" customWidth="1"/>
+    <col min="14856" max="14856" width="17.140625" customWidth="1"/>
+    <col min="14857" max="14857" width="1.140625" customWidth="1"/>
+    <col min="14858" max="14858" width="22.140625" customWidth="1"/>
+    <col min="14859" max="14859" width="4.5703125" customWidth="1"/>
+    <col min="14860" max="14860" width="10.140625" customWidth="1"/>
+    <col min="14861" max="14861" width="14.7109375" customWidth="1"/>
+    <col min="15105" max="15105" width="1.28515625" customWidth="1"/>
+    <col min="15106" max="15106" width="5" customWidth="1"/>
+    <col min="15107" max="15107" width="11.140625" customWidth="1"/>
+    <col min="15108" max="15108" width="2.42578125" customWidth="1"/>
+    <col min="15109" max="15109" width="14.28515625" customWidth="1"/>
+    <col min="15110" max="15110" width="15.5703125" customWidth="1"/>
+    <col min="15111" max="15111" width="12.42578125" customWidth="1"/>
+    <col min="15112" max="15112" width="17.140625" customWidth="1"/>
+    <col min="15113" max="15113" width="1.140625" customWidth="1"/>
+    <col min="15114" max="15114" width="22.140625" customWidth="1"/>
+    <col min="15115" max="15115" width="4.5703125" customWidth="1"/>
+    <col min="15116" max="15116" width="10.140625" customWidth="1"/>
+    <col min="15117" max="15117" width="14.7109375" customWidth="1"/>
+    <col min="15361" max="15361" width="1.28515625" customWidth="1"/>
+    <col min="15362" max="15362" width="5" customWidth="1"/>
+    <col min="15363" max="15363" width="11.140625" customWidth="1"/>
+    <col min="15364" max="15364" width="2.42578125" customWidth="1"/>
+    <col min="15365" max="15365" width="14.28515625" customWidth="1"/>
+    <col min="15366" max="15366" width="15.5703125" customWidth="1"/>
+    <col min="15367" max="15367" width="12.42578125" customWidth="1"/>
+    <col min="15368" max="15368" width="17.140625" customWidth="1"/>
+    <col min="15369" max="15369" width="1.140625" customWidth="1"/>
+    <col min="15370" max="15370" width="22.140625" customWidth="1"/>
+    <col min="15371" max="15371" width="4.5703125" customWidth="1"/>
+    <col min="15372" max="15372" width="10.140625" customWidth="1"/>
+    <col min="15373" max="15373" width="14.7109375" customWidth="1"/>
+    <col min="15617" max="15617" width="1.28515625" customWidth="1"/>
+    <col min="15618" max="15618" width="5" customWidth="1"/>
+    <col min="15619" max="15619" width="11.140625" customWidth="1"/>
+    <col min="15620" max="15620" width="2.42578125" customWidth="1"/>
+    <col min="15621" max="15621" width="14.28515625" customWidth="1"/>
+    <col min="15622" max="15622" width="15.5703125" customWidth="1"/>
+    <col min="15623" max="15623" width="12.42578125" customWidth="1"/>
+    <col min="15624" max="15624" width="17.140625" customWidth="1"/>
+    <col min="15625" max="15625" width="1.140625" customWidth="1"/>
+    <col min="15626" max="15626" width="22.140625" customWidth="1"/>
+    <col min="15627" max="15627" width="4.5703125" customWidth="1"/>
+    <col min="15628" max="15628" width="10.140625" customWidth="1"/>
+    <col min="15629" max="15629" width="14.7109375" customWidth="1"/>
+    <col min="15873" max="15873" width="1.28515625" customWidth="1"/>
+    <col min="15874" max="15874" width="5" customWidth="1"/>
+    <col min="15875" max="15875" width="11.140625" customWidth="1"/>
+    <col min="15876" max="15876" width="2.42578125" customWidth="1"/>
+    <col min="15877" max="15877" width="14.28515625" customWidth="1"/>
+    <col min="15878" max="15878" width="15.5703125" customWidth="1"/>
+    <col min="15879" max="15879" width="12.42578125" customWidth="1"/>
+    <col min="15880" max="15880" width="17.140625" customWidth="1"/>
+    <col min="15881" max="15881" width="1.140625" customWidth="1"/>
+    <col min="15882" max="15882" width="22.140625" customWidth="1"/>
+    <col min="15883" max="15883" width="4.5703125" customWidth="1"/>
+    <col min="15884" max="15884" width="10.140625" customWidth="1"/>
+    <col min="15885" max="15885" width="14.7109375" customWidth="1"/>
+    <col min="16129" max="16129" width="1.28515625" customWidth="1"/>
+    <col min="16130" max="16130" width="5" customWidth="1"/>
+    <col min="16131" max="16131" width="11.140625" customWidth="1"/>
+    <col min="16132" max="16132" width="2.42578125" customWidth="1"/>
+    <col min="16133" max="16133" width="14.28515625" customWidth="1"/>
+    <col min="16134" max="16134" width="15.5703125" customWidth="1"/>
+    <col min="16135" max="16135" width="12.42578125" customWidth="1"/>
+    <col min="16136" max="16136" width="17.140625" customWidth="1"/>
+    <col min="16137" max="16137" width="1.140625" customWidth="1"/>
+    <col min="16138" max="16138" width="22.140625" customWidth="1"/>
+    <col min="16139" max="16139" width="4.5703125" customWidth="1"/>
+    <col min="16140" max="16140" width="10.140625" customWidth="1"/>
+    <col min="16141" max="16141" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="85" t="e">
+        <f>WayBillList_NUM</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I1" s="68"/>
+      <c r="J1" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="70"/>
+      <c r="L1" s="152" t="e">
+        <f>WayBillList_NUM</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M1" s="152"/>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="I2" s="68"/>
+      <c r="J2" s="71"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="70"/>
+      <c r="E3" s="152" t="e">
+        <f>WayBillList_AddressSel</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="92" t="e">
+        <f>WayBillList_EntKaFullName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+    </row>
+    <row r="4" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="154" t="e">
+        <f>WayBillList_ONDATE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F4" s="154"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="I5" s="68"/>
+      <c r="J5" s="71"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B6" s="110" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="110" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="112"/>
+      <c r="E6" s="110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="112"/>
+      <c r="G6" s="143" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="144"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="145" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="110" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="112"/>
+      <c r="M6" s="155" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B7" s="141"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="68"/>
+      <c r="J7" s="146"/>
+      <c r="K7" s="141"/>
+      <c r="L7" s="142"/>
+      <c r="M7" s="156"/>
+    </row>
+    <row r="8" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="87" t="e">
+        <f>range_oz_Num</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C8" s="147" t="e">
+        <f>range_oz_InvNumber</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D8" s="147"/>
+      <c r="E8" s="150" t="e">
+        <f>range_oz_MatName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F8" s="151"/>
+      <c r="G8" s="88" t="e">
+        <f>range_oz_Remain</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H8" s="157" t="e">
+        <f>range_oz_Price</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I8" s="89"/>
+      <c r="J8" s="91" t="e">
+        <f>range_oz_MatName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K8" s="148"/>
+      <c r="L8" s="149"/>
+      <c r="M8" s="76"/>
+    </row>
+    <row r="9" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F9" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="158" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="68"/>
+      <c r="J9" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="139"/>
+      <c r="L9" s="140"/>
+      <c r="M9" s="78"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F10" s="79"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="80"/>
+    </row>
+    <row r="11" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="86" t="e">
+        <f>WayBillList_EntKaFullName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G11" s="73"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="83" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="80"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="K6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="E8:F8"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="76" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/SP_Sklad/TempLate/WayBill_Out.xlsx
+++ b/SP_Sklad/TempLate/WayBill_Out.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="Posvitcheny">'Посвідчення якості'!$A$14:$N$15</definedName>
-    <definedName name="range_oz">'Інвентаризація ОЗ'!$A$8:$M$9</definedName>
+    <definedName name="range_oz">'Інвентаризація ОЗ'!$A$8:$O$9</definedName>
     <definedName name="range1">Накладна!$A$20:$Q$21</definedName>
     <definedName name="range2">'Посвідчення якості'!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Накладна!$A$1:$Q$30</definedName>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
   <si>
     <t>sum</t>
   </si>
@@ -166,12 +166,6 @@
     <t>Назва</t>
   </si>
   <si>
-    <t>Фактично виявлено, к-сть</t>
-  </si>
-  <si>
-    <t>Результат (+ надл. - нед.), к-сть</t>
-  </si>
-  <si>
     <t>Вартість</t>
   </si>
   <si>
@@ -181,7 +175,19 @@
     <t>Матеріально відповідальне лице</t>
   </si>
   <si>
-    <t>Підпис  ________________  "_____"_______________20_____р.</t>
+    <t>Сума</t>
+  </si>
+  <si>
+    <t>Фактично виявлено</t>
+  </si>
+  <si>
+    <t>Повернуто</t>
+  </si>
+  <si>
+    <t>Залишок</t>
+  </si>
+  <si>
+    <t>Підпис  ________________  "______"________________20_____р.</t>
   </si>
 </sst>
 </file>
@@ -997,7 +1003,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1205,6 +1211,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1226,56 +1295,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1286,21 +1307,39 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1322,26 +1361,26 @@
     <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1349,12 +1388,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1382,25 +1415,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1778,9 +1796,7 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A2:R30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1805,15 +1821,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
       <c r="I2" s="56"/>
       <c r="J2" s="30" t="e">
         <f>WayBillList_NUM</f>
@@ -1823,14 +1839,14 @@
         <v>3</v>
       </c>
       <c r="L2" s="26"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
       <c r="O2" s="41"/>
-      <c r="P2" s="105" t="e">
+      <c r="P2" s="102" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="Q2" s="105"/>
+      <c r="Q2" s="102"/>
       <c r="R2" s="49"/>
     </row>
     <row r="4" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1879,16 +1895,16 @@
     </row>
     <row r="8" spans="2:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="53"/>
-      <c r="D8" s="107" t="e">
+      <c r="D8" s="104" t="e">
         <f>"Адреса: "&amp;WayBillList_AddressSel</f>
         <v>#NAME?</v>
       </c>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
     </row>
     <row r="11" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="24" t="s">
@@ -1909,16 +1925,16 @@
     <row r="12" spans="2:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="52"/>
       <c r="C12" s="21"/>
-      <c r="D12" s="108" t="e">
+      <c r="D12" s="105" t="e">
         <f>CONCATENATE("Адреса: ",WayBillList_AddressBuy)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="108"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="105"/>
     </row>
     <row r="14" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="20"/>
@@ -1973,11 +1989,11 @@
       <c r="E16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="106" t="e">
+      <c r="F16" s="103" t="e">
         <f>IF(WayBillList_AttDate&gt;0,WayBillList_AttDate,"")</f>
         <v>#NAME?</v>
       </c>
-      <c r="G16" s="106"/>
+      <c r="G16" s="103"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="10"/>
@@ -1990,29 +2006,29 @@
       <c r="Q16" s="10"/>
     </row>
     <row r="17" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="101" t="e">
+      <c r="B17" s="98" t="e">
         <f>CONCATENATE("Підстава: ",WayBillList_Reason)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="101"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="101"/>
-      <c r="P17" s="101"/>
-      <c r="Q17" s="101"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="98"/>
+      <c r="M17" s="98"/>
+      <c r="N17" s="98"/>
+      <c r="O17" s="98"/>
+      <c r="P17" s="98"/>
+      <c r="Q17" s="98"/>
     </row>
     <row r="18" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="109"/>
-      <c r="D18" s="109"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="106"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -2025,13 +2041,13 @@
       <c r="B19" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="110" t="s">
+      <c r="C19" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="111"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="111"/>
-      <c r="G19" s="112"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="109"/>
       <c r="H19" s="7" t="s">
         <v>5</v>
       </c>
@@ -2066,14 +2082,14 @@
         <f>range1_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C20" s="113" t="e">
+      <c r="C20" s="110" t="e">
         <f>range1_MATNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D20" s="114"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="114"/>
-      <c r="G20" s="115"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="112"/>
       <c r="H20" s="8" t="e">
         <f>range1_MSRNAME</f>
         <v>#NAME?</v>
@@ -2120,12 +2136,12 @@
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
-      <c r="F21" s="116" t="e">
+      <c r="F21" s="113" t="e">
         <f>IF(B22&gt;0,"Всього без ПДВ","Всього")</f>
         <v>#NAME?</v>
       </c>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
       <c r="I21" s="58" t="s">
         <v>0</v>
       </c>
@@ -2164,11 +2180,11 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="102" t="e">
+      <c r="J22" s="99" t="e">
         <f>IF(B22&gt;0,CONCATENATE("Всього ПДВ "&amp;WayBillList_NDS&amp;"%"),"Всього без знижки")</f>
         <v>#NAME?</v>
       </c>
-      <c r="K22" s="103"/>
+      <c r="K22" s="100"/>
       <c r="L22" s="44"/>
       <c r="M22" s="32"/>
       <c r="N22" s="32"/>
@@ -2184,13 +2200,13 @@
         <f>P21+Q21</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H23" s="97" t="e">
+      <c r="H23" s="118" t="e">
         <f>IF(B22&gt;0,"Разом, в т.ч ПДВ:","Всього до сплати")</f>
         <v>#NAME?</v>
       </c>
-      <c r="I23" s="97"/>
-      <c r="J23" s="97"/>
-      <c r="K23" s="98"/>
+      <c r="I23" s="118"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="119"/>
       <c r="L23" s="44"/>
       <c r="M23" s="32"/>
       <c r="N23" s="32"/>
@@ -2202,12 +2218,12 @@
       </c>
     </row>
     <row r="24" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="93"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="114"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="114"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -2323,32 +2339,38 @@
     </row>
     <row r="30" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
-      <c r="B30" s="94" t="s">
+      <c r="B30" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="94"/>
-      <c r="D30" s="96" t="e">
+      <c r="C30" s="115"/>
+      <c r="D30" s="117" t="e">
         <f>IF(B28 &lt; 0,C28," ")</f>
         <v>#NAME?</v>
       </c>
-      <c r="E30" s="96"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="96"/>
-      <c r="H30" s="99" t="s">
+      <c r="E30" s="117"/>
+      <c r="F30" s="117"/>
+      <c r="G30" s="117"/>
+      <c r="H30" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="I30" s="99"/>
-      <c r="J30" s="99"/>
-      <c r="K30" s="95"/>
-      <c r="L30" s="95"/>
-      <c r="M30" s="95"/>
-      <c r="N30" s="95"/>
-      <c r="O30" s="95"/>
-      <c r="P30" s="95"/>
-      <c r="Q30" s="95"/>
+      <c r="I30" s="120"/>
+      <c r="J30" s="120"/>
+      <c r="K30" s="116"/>
+      <c r="L30" s="116"/>
+      <c r="M30" s="116"/>
+      <c r="N30" s="116"/>
+      <c r="O30" s="116"/>
+      <c r="P30" s="116"/>
+      <c r="Q30" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="H30:J30"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B17:Q17"/>
     <mergeCell ref="J22:K22"/>
@@ -2361,12 +2383,6 @@
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="F21:H21"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="K30:Q30"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="H30:J30"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -2403,35 +2419,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="125" t="s">
+      <c r="B1" s="136" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
     </row>
     <row r="2" spans="2:14" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
       <c r="L2" s="61" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
@@ -2440,79 +2456,79 @@
       <c r="N2" s="37"/>
     </row>
     <row r="3" spans="2:14" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="130" t="s">
+      <c r="B3" s="141" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="130"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
+      <c r="L3" s="141"/>
+      <c r="M3" s="141"/>
+      <c r="N3" s="141"/>
     </row>
     <row r="4" spans="2:14" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="63"/>
-      <c r="C4" s="128" t="s">
+      <c r="C4" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128" t="e">
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139" t="e">
         <f>WayBillList_EntKaFullName</f>
         <v>#NAME?</v>
       </c>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="128"/>
-      <c r="N4" s="128"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="139"/>
+      <c r="M4" s="139"/>
+      <c r="N4" s="139"/>
     </row>
     <row r="5" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="63"/>
-      <c r="C5" s="128" t="e">
+      <c r="C5" s="139" t="e">
         <f>WayBillList_AddressSel</f>
         <v>#NAME?</v>
       </c>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="128"/>
-      <c r="L5" s="128"/>
-      <c r="M5" s="128"/>
-      <c r="N5" s="128"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="139"/>
+      <c r="K5" s="139"/>
+      <c r="L5" s="139"/>
+      <c r="M5" s="139"/>
+      <c r="N5" s="139"/>
     </row>
     <row r="6" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="63"/>
-      <c r="C6" s="128" t="s">
+      <c r="C6" s="139" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128" t="e">
+      <c r="D6" s="139"/>
+      <c r="E6" s="139" t="e">
         <f>WayBillList_EntKaFullName</f>
         <v>#NAME?</v>
       </c>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="128"/>
-      <c r="J6" s="128"/>
-      <c r="K6" s="128"/>
-      <c r="L6" s="128"/>
-      <c r="M6" s="128"/>
-      <c r="N6" s="128"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="139"/>
+      <c r="K6" s="139"/>
+      <c r="L6" s="139"/>
+      <c r="M6" s="139"/>
+      <c r="N6" s="139"/>
     </row>
     <row r="7" spans="2:14" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="63"/>
@@ -2521,40 +2537,40 @@
       </c>
       <c r="D7" s="37"/>
       <c r="E7" s="37"/>
-      <c r="F7" s="128" t="e">
+      <c r="F7" s="139" t="e">
         <f>WayBillList_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="G7" s="128"/>
-      <c r="H7" s="128"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="128"/>
-      <c r="K7" s="128"/>
-      <c r="L7" s="128"/>
-      <c r="M7" s="128"/>
-      <c r="N7" s="128"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="139"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="139"/>
+      <c r="L7" s="139"/>
+      <c r="M7" s="139"/>
+      <c r="N7" s="139"/>
     </row>
     <row r="8" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="62"/>
-      <c r="C8" s="128" t="s">
+      <c r="C8" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="128"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="129" t="e">
+      <c r="D8" s="139"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="140" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="H8" s="129"/>
-      <c r="I8" s="128" t="s">
+      <c r="H8" s="140"/>
+      <c r="I8" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="128"/>
-      <c r="K8" s="128"/>
-      <c r="L8" s="128"/>
-      <c r="M8" s="128"/>
-      <c r="N8" s="128"/>
+      <c r="J8" s="139"/>
+      <c r="K8" s="139"/>
+      <c r="L8" s="139"/>
+      <c r="M8" s="139"/>
+      <c r="N8" s="139"/>
     </row>
     <row r="9" spans="2:14" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="62"/>
@@ -2569,11 +2585,11 @@
       <c r="F9" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="131" t="e">
+      <c r="G9" s="142" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="H9" s="131"/>
+      <c r="H9" s="142"/>
       <c r="I9" s="37" t="s">
         <v>33</v>
       </c>
@@ -2600,65 +2616,65 @@
     </row>
     <row r="11" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="2:14" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="117" t="s">
+      <c r="B12" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="119" t="s">
+      <c r="C12" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="117" t="s">
+      <c r="D12" s="134"/>
+      <c r="E12" s="134"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="117" t="s">
+      <c r="H12" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="117" t="s">
+      <c r="I12" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="117" t="s">
+      <c r="J12" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="117" t="s">
+      <c r="K12" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="117" t="s">
+      <c r="L12" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="M12" s="119" t="s">
+      <c r="M12" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="N12" s="121"/>
+      <c r="N12" s="125"/>
     </row>
     <row r="13" spans="2:14" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="118"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="118"/>
-      <c r="J13" s="118"/>
-      <c r="K13" s="118"/>
-      <c r="L13" s="118"/>
-      <c r="M13" s="122"/>
-      <c r="N13" s="124"/>
+      <c r="B13" s="123"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="127"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="126"/>
+      <c r="N13" s="127"/>
     </row>
     <row r="14" spans="2:14" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="38" t="e">
         <f>Posvitcheny_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C14" s="136" t="e">
+      <c r="C14" s="131" t="e">
         <f>Posvitcheny_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D14" s="137"/>
-      <c r="E14" s="137"/>
-      <c r="F14" s="138"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="133"/>
       <c r="G14" s="39" t="e">
         <f>Posvitcheny_AMOUNT</f>
         <v>#NAME?</v>
@@ -2683,30 +2699,30 @@
         <f>Posvitcheny_CF4</f>
         <v>#NAME?</v>
       </c>
-      <c r="M14" s="133" t="e">
+      <c r="M14" s="128" t="e">
         <f>Posvitcheny_CF5</f>
         <v>#NAME?</v>
       </c>
-      <c r="N14" s="134"/>
+      <c r="N14" s="129"/>
     </row>
     <row r="15" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="3:14" ht="290.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="135" t="e">
+      <c r="C17" s="130" t="e">
         <f>WayBillList_Declaration</f>
         <v>#NAME?</v>
       </c>
-      <c r="D17" s="135"/>
-      <c r="E17" s="135"/>
-      <c r="F17" s="135"/>
-      <c r="G17" s="135"/>
-      <c r="H17" s="135"/>
-      <c r="I17" s="135"/>
-      <c r="J17" s="135"/>
-      <c r="K17" s="135"/>
-      <c r="L17" s="135"/>
-      <c r="M17" s="135"/>
-      <c r="N17" s="135"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="130"/>
+      <c r="J17" s="130"/>
+      <c r="K17" s="130"/>
+      <c r="L17" s="130"/>
+      <c r="M17" s="130"/>
+      <c r="N17" s="130"/>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="64"/>
@@ -2723,14 +2739,14 @@
       <c r="N18" s="50"/>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C20" s="132" t="s">
+      <c r="C20" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="132"/>
-      <c r="E20" s="132"/>
-      <c r="F20" s="132"/>
-      <c r="G20" s="132"/>
-      <c r="H20" s="132"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="121"/>
       <c r="K20" t="s">
         <v>34</v>
       </c>
@@ -2765,16 +2781,6 @@
     <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="C17:N17"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="C14:F14"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:F13"/>
     <mergeCell ref="G12:G13"/>
@@ -2791,6 +2797,16 @@
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="F7:N7"/>
     <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="C17:N17"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="C14:F14"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2800,9 +2816,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M11"/>
+  <dimension ref="B1:O11"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2812,835 +2830,837 @@
     <col min="4" max="4" width="2.42578125" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="1.140625" customWidth="1"/>
-    <col min="10" max="10" width="25.85546875" customWidth="1"/>
-    <col min="11" max="11" width="0.85546875" customWidth="1"/>
-    <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" customWidth="1"/>
-    <col min="257" max="257" width="1.28515625" customWidth="1"/>
-    <col min="258" max="258" width="5" customWidth="1"/>
-    <col min="259" max="259" width="11.140625" customWidth="1"/>
-    <col min="260" max="260" width="2.42578125" customWidth="1"/>
-    <col min="261" max="261" width="14.28515625" customWidth="1"/>
-    <col min="262" max="262" width="15.5703125" customWidth="1"/>
-    <col min="263" max="263" width="12.42578125" customWidth="1"/>
-    <col min="264" max="264" width="17.140625" customWidth="1"/>
-    <col min="265" max="265" width="1.140625" customWidth="1"/>
-    <col min="266" max="266" width="22.140625" customWidth="1"/>
-    <col min="267" max="267" width="4.5703125" customWidth="1"/>
-    <col min="268" max="268" width="10.140625" customWidth="1"/>
-    <col min="269" max="269" width="14.7109375" customWidth="1"/>
-    <col min="513" max="513" width="1.28515625" customWidth="1"/>
-    <col min="514" max="514" width="5" customWidth="1"/>
-    <col min="515" max="515" width="11.140625" customWidth="1"/>
-    <col min="516" max="516" width="2.42578125" customWidth="1"/>
-    <col min="517" max="517" width="14.28515625" customWidth="1"/>
-    <col min="518" max="518" width="15.5703125" customWidth="1"/>
-    <col min="519" max="519" width="12.42578125" customWidth="1"/>
-    <col min="520" max="520" width="17.140625" customWidth="1"/>
-    <col min="521" max="521" width="1.140625" customWidth="1"/>
-    <col min="522" max="522" width="22.140625" customWidth="1"/>
-    <col min="523" max="523" width="4.5703125" customWidth="1"/>
-    <col min="524" max="524" width="10.140625" customWidth="1"/>
-    <col min="525" max="525" width="14.7109375" customWidth="1"/>
-    <col min="769" max="769" width="1.28515625" customWidth="1"/>
-    <col min="770" max="770" width="5" customWidth="1"/>
-    <col min="771" max="771" width="11.140625" customWidth="1"/>
-    <col min="772" max="772" width="2.42578125" customWidth="1"/>
-    <col min="773" max="773" width="14.28515625" customWidth="1"/>
-    <col min="774" max="774" width="15.5703125" customWidth="1"/>
-    <col min="775" max="775" width="12.42578125" customWidth="1"/>
-    <col min="776" max="776" width="17.140625" customWidth="1"/>
-    <col min="777" max="777" width="1.140625" customWidth="1"/>
-    <col min="778" max="778" width="22.140625" customWidth="1"/>
-    <col min="779" max="779" width="4.5703125" customWidth="1"/>
-    <col min="780" max="780" width="10.140625" customWidth="1"/>
-    <col min="781" max="781" width="14.7109375" customWidth="1"/>
-    <col min="1025" max="1025" width="1.28515625" customWidth="1"/>
-    <col min="1026" max="1026" width="5" customWidth="1"/>
-    <col min="1027" max="1027" width="11.140625" customWidth="1"/>
-    <col min="1028" max="1028" width="2.42578125" customWidth="1"/>
-    <col min="1029" max="1029" width="14.28515625" customWidth="1"/>
-    <col min="1030" max="1030" width="15.5703125" customWidth="1"/>
-    <col min="1031" max="1031" width="12.42578125" customWidth="1"/>
-    <col min="1032" max="1032" width="17.140625" customWidth="1"/>
-    <col min="1033" max="1033" width="1.140625" customWidth="1"/>
-    <col min="1034" max="1034" width="22.140625" customWidth="1"/>
-    <col min="1035" max="1035" width="4.5703125" customWidth="1"/>
-    <col min="1036" max="1036" width="10.140625" customWidth="1"/>
-    <col min="1037" max="1037" width="14.7109375" customWidth="1"/>
-    <col min="1281" max="1281" width="1.28515625" customWidth="1"/>
-    <col min="1282" max="1282" width="5" customWidth="1"/>
-    <col min="1283" max="1283" width="11.140625" customWidth="1"/>
-    <col min="1284" max="1284" width="2.42578125" customWidth="1"/>
-    <col min="1285" max="1285" width="14.28515625" customWidth="1"/>
-    <col min="1286" max="1286" width="15.5703125" customWidth="1"/>
-    <col min="1287" max="1287" width="12.42578125" customWidth="1"/>
-    <col min="1288" max="1288" width="17.140625" customWidth="1"/>
-    <col min="1289" max="1289" width="1.140625" customWidth="1"/>
-    <col min="1290" max="1290" width="22.140625" customWidth="1"/>
-    <col min="1291" max="1291" width="4.5703125" customWidth="1"/>
-    <col min="1292" max="1292" width="10.140625" customWidth="1"/>
-    <col min="1293" max="1293" width="14.7109375" customWidth="1"/>
-    <col min="1537" max="1537" width="1.28515625" customWidth="1"/>
-    <col min="1538" max="1538" width="5" customWidth="1"/>
-    <col min="1539" max="1539" width="11.140625" customWidth="1"/>
-    <col min="1540" max="1540" width="2.42578125" customWidth="1"/>
-    <col min="1541" max="1541" width="14.28515625" customWidth="1"/>
-    <col min="1542" max="1542" width="15.5703125" customWidth="1"/>
-    <col min="1543" max="1543" width="12.42578125" customWidth="1"/>
-    <col min="1544" max="1544" width="17.140625" customWidth="1"/>
-    <col min="1545" max="1545" width="1.140625" customWidth="1"/>
-    <col min="1546" max="1546" width="22.140625" customWidth="1"/>
-    <col min="1547" max="1547" width="4.5703125" customWidth="1"/>
-    <col min="1548" max="1548" width="10.140625" customWidth="1"/>
-    <col min="1549" max="1549" width="14.7109375" customWidth="1"/>
-    <col min="1793" max="1793" width="1.28515625" customWidth="1"/>
-    <col min="1794" max="1794" width="5" customWidth="1"/>
-    <col min="1795" max="1795" width="11.140625" customWidth="1"/>
-    <col min="1796" max="1796" width="2.42578125" customWidth="1"/>
-    <col min="1797" max="1797" width="14.28515625" customWidth="1"/>
-    <col min="1798" max="1798" width="15.5703125" customWidth="1"/>
-    <col min="1799" max="1799" width="12.42578125" customWidth="1"/>
-    <col min="1800" max="1800" width="17.140625" customWidth="1"/>
-    <col min="1801" max="1801" width="1.140625" customWidth="1"/>
-    <col min="1802" max="1802" width="22.140625" customWidth="1"/>
-    <col min="1803" max="1803" width="4.5703125" customWidth="1"/>
-    <col min="1804" max="1804" width="10.140625" customWidth="1"/>
-    <col min="1805" max="1805" width="14.7109375" customWidth="1"/>
-    <col min="2049" max="2049" width="1.28515625" customWidth="1"/>
-    <col min="2050" max="2050" width="5" customWidth="1"/>
-    <col min="2051" max="2051" width="11.140625" customWidth="1"/>
-    <col min="2052" max="2052" width="2.42578125" customWidth="1"/>
-    <col min="2053" max="2053" width="14.28515625" customWidth="1"/>
-    <col min="2054" max="2054" width="15.5703125" customWidth="1"/>
-    <col min="2055" max="2055" width="12.42578125" customWidth="1"/>
-    <col min="2056" max="2056" width="17.140625" customWidth="1"/>
-    <col min="2057" max="2057" width="1.140625" customWidth="1"/>
-    <col min="2058" max="2058" width="22.140625" customWidth="1"/>
-    <col min="2059" max="2059" width="4.5703125" customWidth="1"/>
-    <col min="2060" max="2060" width="10.140625" customWidth="1"/>
-    <col min="2061" max="2061" width="14.7109375" customWidth="1"/>
-    <col min="2305" max="2305" width="1.28515625" customWidth="1"/>
-    <col min="2306" max="2306" width="5" customWidth="1"/>
-    <col min="2307" max="2307" width="11.140625" customWidth="1"/>
-    <col min="2308" max="2308" width="2.42578125" customWidth="1"/>
-    <col min="2309" max="2309" width="14.28515625" customWidth="1"/>
-    <col min="2310" max="2310" width="15.5703125" customWidth="1"/>
-    <col min="2311" max="2311" width="12.42578125" customWidth="1"/>
-    <col min="2312" max="2312" width="17.140625" customWidth="1"/>
-    <col min="2313" max="2313" width="1.140625" customWidth="1"/>
-    <col min="2314" max="2314" width="22.140625" customWidth="1"/>
-    <col min="2315" max="2315" width="4.5703125" customWidth="1"/>
-    <col min="2316" max="2316" width="10.140625" customWidth="1"/>
-    <col min="2317" max="2317" width="14.7109375" customWidth="1"/>
-    <col min="2561" max="2561" width="1.28515625" customWidth="1"/>
-    <col min="2562" max="2562" width="5" customWidth="1"/>
-    <col min="2563" max="2563" width="11.140625" customWidth="1"/>
-    <col min="2564" max="2564" width="2.42578125" customWidth="1"/>
-    <col min="2565" max="2565" width="14.28515625" customWidth="1"/>
-    <col min="2566" max="2566" width="15.5703125" customWidth="1"/>
-    <col min="2567" max="2567" width="12.42578125" customWidth="1"/>
-    <col min="2568" max="2568" width="17.140625" customWidth="1"/>
-    <col min="2569" max="2569" width="1.140625" customWidth="1"/>
-    <col min="2570" max="2570" width="22.140625" customWidth="1"/>
-    <col min="2571" max="2571" width="4.5703125" customWidth="1"/>
-    <col min="2572" max="2572" width="10.140625" customWidth="1"/>
-    <col min="2573" max="2573" width="14.7109375" customWidth="1"/>
-    <col min="2817" max="2817" width="1.28515625" customWidth="1"/>
-    <col min="2818" max="2818" width="5" customWidth="1"/>
-    <col min="2819" max="2819" width="11.140625" customWidth="1"/>
-    <col min="2820" max="2820" width="2.42578125" customWidth="1"/>
-    <col min="2821" max="2821" width="14.28515625" customWidth="1"/>
-    <col min="2822" max="2822" width="15.5703125" customWidth="1"/>
-    <col min="2823" max="2823" width="12.42578125" customWidth="1"/>
-    <col min="2824" max="2824" width="17.140625" customWidth="1"/>
-    <col min="2825" max="2825" width="1.140625" customWidth="1"/>
-    <col min="2826" max="2826" width="22.140625" customWidth="1"/>
-    <col min="2827" max="2827" width="4.5703125" customWidth="1"/>
-    <col min="2828" max="2828" width="10.140625" customWidth="1"/>
-    <col min="2829" max="2829" width="14.7109375" customWidth="1"/>
-    <col min="3073" max="3073" width="1.28515625" customWidth="1"/>
-    <col min="3074" max="3074" width="5" customWidth="1"/>
-    <col min="3075" max="3075" width="11.140625" customWidth="1"/>
-    <col min="3076" max="3076" width="2.42578125" customWidth="1"/>
-    <col min="3077" max="3077" width="14.28515625" customWidth="1"/>
-    <col min="3078" max="3078" width="15.5703125" customWidth="1"/>
-    <col min="3079" max="3079" width="12.42578125" customWidth="1"/>
-    <col min="3080" max="3080" width="17.140625" customWidth="1"/>
-    <col min="3081" max="3081" width="1.140625" customWidth="1"/>
-    <col min="3082" max="3082" width="22.140625" customWidth="1"/>
-    <col min="3083" max="3083" width="4.5703125" customWidth="1"/>
-    <col min="3084" max="3084" width="10.140625" customWidth="1"/>
-    <col min="3085" max="3085" width="14.7109375" customWidth="1"/>
-    <col min="3329" max="3329" width="1.28515625" customWidth="1"/>
-    <col min="3330" max="3330" width="5" customWidth="1"/>
-    <col min="3331" max="3331" width="11.140625" customWidth="1"/>
-    <col min="3332" max="3332" width="2.42578125" customWidth="1"/>
-    <col min="3333" max="3333" width="14.28515625" customWidth="1"/>
-    <col min="3334" max="3334" width="15.5703125" customWidth="1"/>
-    <col min="3335" max="3335" width="12.42578125" customWidth="1"/>
-    <col min="3336" max="3336" width="17.140625" customWidth="1"/>
-    <col min="3337" max="3337" width="1.140625" customWidth="1"/>
-    <col min="3338" max="3338" width="22.140625" customWidth="1"/>
-    <col min="3339" max="3339" width="4.5703125" customWidth="1"/>
-    <col min="3340" max="3340" width="10.140625" customWidth="1"/>
-    <col min="3341" max="3341" width="14.7109375" customWidth="1"/>
-    <col min="3585" max="3585" width="1.28515625" customWidth="1"/>
-    <col min="3586" max="3586" width="5" customWidth="1"/>
-    <col min="3587" max="3587" width="11.140625" customWidth="1"/>
-    <col min="3588" max="3588" width="2.42578125" customWidth="1"/>
-    <col min="3589" max="3589" width="14.28515625" customWidth="1"/>
-    <col min="3590" max="3590" width="15.5703125" customWidth="1"/>
-    <col min="3591" max="3591" width="12.42578125" customWidth="1"/>
-    <col min="3592" max="3592" width="17.140625" customWidth="1"/>
-    <col min="3593" max="3593" width="1.140625" customWidth="1"/>
-    <col min="3594" max="3594" width="22.140625" customWidth="1"/>
-    <col min="3595" max="3595" width="4.5703125" customWidth="1"/>
-    <col min="3596" max="3596" width="10.140625" customWidth="1"/>
-    <col min="3597" max="3597" width="14.7109375" customWidth="1"/>
-    <col min="3841" max="3841" width="1.28515625" customWidth="1"/>
-    <col min="3842" max="3842" width="5" customWidth="1"/>
-    <col min="3843" max="3843" width="11.140625" customWidth="1"/>
-    <col min="3844" max="3844" width="2.42578125" customWidth="1"/>
-    <col min="3845" max="3845" width="14.28515625" customWidth="1"/>
-    <col min="3846" max="3846" width="15.5703125" customWidth="1"/>
-    <col min="3847" max="3847" width="12.42578125" customWidth="1"/>
-    <col min="3848" max="3848" width="17.140625" customWidth="1"/>
-    <col min="3849" max="3849" width="1.140625" customWidth="1"/>
-    <col min="3850" max="3850" width="22.140625" customWidth="1"/>
-    <col min="3851" max="3851" width="4.5703125" customWidth="1"/>
-    <col min="3852" max="3852" width="10.140625" customWidth="1"/>
-    <col min="3853" max="3853" width="14.7109375" customWidth="1"/>
-    <col min="4097" max="4097" width="1.28515625" customWidth="1"/>
-    <col min="4098" max="4098" width="5" customWidth="1"/>
-    <col min="4099" max="4099" width="11.140625" customWidth="1"/>
-    <col min="4100" max="4100" width="2.42578125" customWidth="1"/>
-    <col min="4101" max="4101" width="14.28515625" customWidth="1"/>
-    <col min="4102" max="4102" width="15.5703125" customWidth="1"/>
-    <col min="4103" max="4103" width="12.42578125" customWidth="1"/>
-    <col min="4104" max="4104" width="17.140625" customWidth="1"/>
-    <col min="4105" max="4105" width="1.140625" customWidth="1"/>
-    <col min="4106" max="4106" width="22.140625" customWidth="1"/>
-    <col min="4107" max="4107" width="4.5703125" customWidth="1"/>
-    <col min="4108" max="4108" width="10.140625" customWidth="1"/>
-    <col min="4109" max="4109" width="14.7109375" customWidth="1"/>
-    <col min="4353" max="4353" width="1.28515625" customWidth="1"/>
-    <col min="4354" max="4354" width="5" customWidth="1"/>
-    <col min="4355" max="4355" width="11.140625" customWidth="1"/>
-    <col min="4356" max="4356" width="2.42578125" customWidth="1"/>
-    <col min="4357" max="4357" width="14.28515625" customWidth="1"/>
-    <col min="4358" max="4358" width="15.5703125" customWidth="1"/>
-    <col min="4359" max="4359" width="12.42578125" customWidth="1"/>
-    <col min="4360" max="4360" width="17.140625" customWidth="1"/>
-    <col min="4361" max="4361" width="1.140625" customWidth="1"/>
-    <col min="4362" max="4362" width="22.140625" customWidth="1"/>
-    <col min="4363" max="4363" width="4.5703125" customWidth="1"/>
-    <col min="4364" max="4364" width="10.140625" customWidth="1"/>
-    <col min="4365" max="4365" width="14.7109375" customWidth="1"/>
-    <col min="4609" max="4609" width="1.28515625" customWidth="1"/>
-    <col min="4610" max="4610" width="5" customWidth="1"/>
-    <col min="4611" max="4611" width="11.140625" customWidth="1"/>
-    <col min="4612" max="4612" width="2.42578125" customWidth="1"/>
-    <col min="4613" max="4613" width="14.28515625" customWidth="1"/>
-    <col min="4614" max="4614" width="15.5703125" customWidth="1"/>
-    <col min="4615" max="4615" width="12.42578125" customWidth="1"/>
-    <col min="4616" max="4616" width="17.140625" customWidth="1"/>
-    <col min="4617" max="4617" width="1.140625" customWidth="1"/>
-    <col min="4618" max="4618" width="22.140625" customWidth="1"/>
-    <col min="4619" max="4619" width="4.5703125" customWidth="1"/>
-    <col min="4620" max="4620" width="10.140625" customWidth="1"/>
-    <col min="4621" max="4621" width="14.7109375" customWidth="1"/>
-    <col min="4865" max="4865" width="1.28515625" customWidth="1"/>
-    <col min="4866" max="4866" width="5" customWidth="1"/>
-    <col min="4867" max="4867" width="11.140625" customWidth="1"/>
-    <col min="4868" max="4868" width="2.42578125" customWidth="1"/>
-    <col min="4869" max="4869" width="14.28515625" customWidth="1"/>
-    <col min="4870" max="4870" width="15.5703125" customWidth="1"/>
-    <col min="4871" max="4871" width="12.42578125" customWidth="1"/>
-    <col min="4872" max="4872" width="17.140625" customWidth="1"/>
-    <col min="4873" max="4873" width="1.140625" customWidth="1"/>
-    <col min="4874" max="4874" width="22.140625" customWidth="1"/>
-    <col min="4875" max="4875" width="4.5703125" customWidth="1"/>
-    <col min="4876" max="4876" width="10.140625" customWidth="1"/>
-    <col min="4877" max="4877" width="14.7109375" customWidth="1"/>
-    <col min="5121" max="5121" width="1.28515625" customWidth="1"/>
-    <col min="5122" max="5122" width="5" customWidth="1"/>
-    <col min="5123" max="5123" width="11.140625" customWidth="1"/>
-    <col min="5124" max="5124" width="2.42578125" customWidth="1"/>
-    <col min="5125" max="5125" width="14.28515625" customWidth="1"/>
-    <col min="5126" max="5126" width="15.5703125" customWidth="1"/>
-    <col min="5127" max="5127" width="12.42578125" customWidth="1"/>
-    <col min="5128" max="5128" width="17.140625" customWidth="1"/>
-    <col min="5129" max="5129" width="1.140625" customWidth="1"/>
-    <col min="5130" max="5130" width="22.140625" customWidth="1"/>
-    <col min="5131" max="5131" width="4.5703125" customWidth="1"/>
-    <col min="5132" max="5132" width="10.140625" customWidth="1"/>
-    <col min="5133" max="5133" width="14.7109375" customWidth="1"/>
-    <col min="5377" max="5377" width="1.28515625" customWidth="1"/>
-    <col min="5378" max="5378" width="5" customWidth="1"/>
-    <col min="5379" max="5379" width="11.140625" customWidth="1"/>
-    <col min="5380" max="5380" width="2.42578125" customWidth="1"/>
-    <col min="5381" max="5381" width="14.28515625" customWidth="1"/>
-    <col min="5382" max="5382" width="15.5703125" customWidth="1"/>
-    <col min="5383" max="5383" width="12.42578125" customWidth="1"/>
-    <col min="5384" max="5384" width="17.140625" customWidth="1"/>
-    <col min="5385" max="5385" width="1.140625" customWidth="1"/>
-    <col min="5386" max="5386" width="22.140625" customWidth="1"/>
-    <col min="5387" max="5387" width="4.5703125" customWidth="1"/>
-    <col min="5388" max="5388" width="10.140625" customWidth="1"/>
-    <col min="5389" max="5389" width="14.7109375" customWidth="1"/>
-    <col min="5633" max="5633" width="1.28515625" customWidth="1"/>
-    <col min="5634" max="5634" width="5" customWidth="1"/>
-    <col min="5635" max="5635" width="11.140625" customWidth="1"/>
-    <col min="5636" max="5636" width="2.42578125" customWidth="1"/>
-    <col min="5637" max="5637" width="14.28515625" customWidth="1"/>
-    <col min="5638" max="5638" width="15.5703125" customWidth="1"/>
-    <col min="5639" max="5639" width="12.42578125" customWidth="1"/>
-    <col min="5640" max="5640" width="17.140625" customWidth="1"/>
-    <col min="5641" max="5641" width="1.140625" customWidth="1"/>
-    <col min="5642" max="5642" width="22.140625" customWidth="1"/>
-    <col min="5643" max="5643" width="4.5703125" customWidth="1"/>
-    <col min="5644" max="5644" width="10.140625" customWidth="1"/>
-    <col min="5645" max="5645" width="14.7109375" customWidth="1"/>
-    <col min="5889" max="5889" width="1.28515625" customWidth="1"/>
-    <col min="5890" max="5890" width="5" customWidth="1"/>
-    <col min="5891" max="5891" width="11.140625" customWidth="1"/>
-    <col min="5892" max="5892" width="2.42578125" customWidth="1"/>
-    <col min="5893" max="5893" width="14.28515625" customWidth="1"/>
-    <col min="5894" max="5894" width="15.5703125" customWidth="1"/>
-    <col min="5895" max="5895" width="12.42578125" customWidth="1"/>
-    <col min="5896" max="5896" width="17.140625" customWidth="1"/>
-    <col min="5897" max="5897" width="1.140625" customWidth="1"/>
-    <col min="5898" max="5898" width="22.140625" customWidth="1"/>
-    <col min="5899" max="5899" width="4.5703125" customWidth="1"/>
-    <col min="5900" max="5900" width="10.140625" customWidth="1"/>
-    <col min="5901" max="5901" width="14.7109375" customWidth="1"/>
-    <col min="6145" max="6145" width="1.28515625" customWidth="1"/>
-    <col min="6146" max="6146" width="5" customWidth="1"/>
-    <col min="6147" max="6147" width="11.140625" customWidth="1"/>
-    <col min="6148" max="6148" width="2.42578125" customWidth="1"/>
-    <col min="6149" max="6149" width="14.28515625" customWidth="1"/>
-    <col min="6150" max="6150" width="15.5703125" customWidth="1"/>
-    <col min="6151" max="6151" width="12.42578125" customWidth="1"/>
-    <col min="6152" max="6152" width="17.140625" customWidth="1"/>
-    <col min="6153" max="6153" width="1.140625" customWidth="1"/>
-    <col min="6154" max="6154" width="22.140625" customWidth="1"/>
-    <col min="6155" max="6155" width="4.5703125" customWidth="1"/>
-    <col min="6156" max="6156" width="10.140625" customWidth="1"/>
-    <col min="6157" max="6157" width="14.7109375" customWidth="1"/>
-    <col min="6401" max="6401" width="1.28515625" customWidth="1"/>
-    <col min="6402" max="6402" width="5" customWidth="1"/>
-    <col min="6403" max="6403" width="11.140625" customWidth="1"/>
-    <col min="6404" max="6404" width="2.42578125" customWidth="1"/>
-    <col min="6405" max="6405" width="14.28515625" customWidth="1"/>
-    <col min="6406" max="6406" width="15.5703125" customWidth="1"/>
-    <col min="6407" max="6407" width="12.42578125" customWidth="1"/>
-    <col min="6408" max="6408" width="17.140625" customWidth="1"/>
-    <col min="6409" max="6409" width="1.140625" customWidth="1"/>
-    <col min="6410" max="6410" width="22.140625" customWidth="1"/>
-    <col min="6411" max="6411" width="4.5703125" customWidth="1"/>
-    <col min="6412" max="6412" width="10.140625" customWidth="1"/>
-    <col min="6413" max="6413" width="14.7109375" customWidth="1"/>
-    <col min="6657" max="6657" width="1.28515625" customWidth="1"/>
-    <col min="6658" max="6658" width="5" customWidth="1"/>
-    <col min="6659" max="6659" width="11.140625" customWidth="1"/>
-    <col min="6660" max="6660" width="2.42578125" customWidth="1"/>
-    <col min="6661" max="6661" width="14.28515625" customWidth="1"/>
-    <col min="6662" max="6662" width="15.5703125" customWidth="1"/>
-    <col min="6663" max="6663" width="12.42578125" customWidth="1"/>
-    <col min="6664" max="6664" width="17.140625" customWidth="1"/>
-    <col min="6665" max="6665" width="1.140625" customWidth="1"/>
-    <col min="6666" max="6666" width="22.140625" customWidth="1"/>
-    <col min="6667" max="6667" width="4.5703125" customWidth="1"/>
-    <col min="6668" max="6668" width="10.140625" customWidth="1"/>
-    <col min="6669" max="6669" width="14.7109375" customWidth="1"/>
-    <col min="6913" max="6913" width="1.28515625" customWidth="1"/>
-    <col min="6914" max="6914" width="5" customWidth="1"/>
-    <col min="6915" max="6915" width="11.140625" customWidth="1"/>
-    <col min="6916" max="6916" width="2.42578125" customWidth="1"/>
-    <col min="6917" max="6917" width="14.28515625" customWidth="1"/>
-    <col min="6918" max="6918" width="15.5703125" customWidth="1"/>
-    <col min="6919" max="6919" width="12.42578125" customWidth="1"/>
-    <col min="6920" max="6920" width="17.140625" customWidth="1"/>
-    <col min="6921" max="6921" width="1.140625" customWidth="1"/>
-    <col min="6922" max="6922" width="22.140625" customWidth="1"/>
-    <col min="6923" max="6923" width="4.5703125" customWidth="1"/>
-    <col min="6924" max="6924" width="10.140625" customWidth="1"/>
-    <col min="6925" max="6925" width="14.7109375" customWidth="1"/>
-    <col min="7169" max="7169" width="1.28515625" customWidth="1"/>
-    <col min="7170" max="7170" width="5" customWidth="1"/>
-    <col min="7171" max="7171" width="11.140625" customWidth="1"/>
-    <col min="7172" max="7172" width="2.42578125" customWidth="1"/>
-    <col min="7173" max="7173" width="14.28515625" customWidth="1"/>
-    <col min="7174" max="7174" width="15.5703125" customWidth="1"/>
-    <col min="7175" max="7175" width="12.42578125" customWidth="1"/>
-    <col min="7176" max="7176" width="17.140625" customWidth="1"/>
-    <col min="7177" max="7177" width="1.140625" customWidth="1"/>
-    <col min="7178" max="7178" width="22.140625" customWidth="1"/>
-    <col min="7179" max="7179" width="4.5703125" customWidth="1"/>
-    <col min="7180" max="7180" width="10.140625" customWidth="1"/>
-    <col min="7181" max="7181" width="14.7109375" customWidth="1"/>
-    <col min="7425" max="7425" width="1.28515625" customWidth="1"/>
-    <col min="7426" max="7426" width="5" customWidth="1"/>
-    <col min="7427" max="7427" width="11.140625" customWidth="1"/>
-    <col min="7428" max="7428" width="2.42578125" customWidth="1"/>
-    <col min="7429" max="7429" width="14.28515625" customWidth="1"/>
-    <col min="7430" max="7430" width="15.5703125" customWidth="1"/>
-    <col min="7431" max="7431" width="12.42578125" customWidth="1"/>
-    <col min="7432" max="7432" width="17.140625" customWidth="1"/>
-    <col min="7433" max="7433" width="1.140625" customWidth="1"/>
-    <col min="7434" max="7434" width="22.140625" customWidth="1"/>
-    <col min="7435" max="7435" width="4.5703125" customWidth="1"/>
-    <col min="7436" max="7436" width="10.140625" customWidth="1"/>
-    <col min="7437" max="7437" width="14.7109375" customWidth="1"/>
-    <col min="7681" max="7681" width="1.28515625" customWidth="1"/>
-    <col min="7682" max="7682" width="5" customWidth="1"/>
-    <col min="7683" max="7683" width="11.140625" customWidth="1"/>
-    <col min="7684" max="7684" width="2.42578125" customWidth="1"/>
-    <col min="7685" max="7685" width="14.28515625" customWidth="1"/>
-    <col min="7686" max="7686" width="15.5703125" customWidth="1"/>
-    <col min="7687" max="7687" width="12.42578125" customWidth="1"/>
-    <col min="7688" max="7688" width="17.140625" customWidth="1"/>
-    <col min="7689" max="7689" width="1.140625" customWidth="1"/>
-    <col min="7690" max="7690" width="22.140625" customWidth="1"/>
-    <col min="7691" max="7691" width="4.5703125" customWidth="1"/>
-    <col min="7692" max="7692" width="10.140625" customWidth="1"/>
-    <col min="7693" max="7693" width="14.7109375" customWidth="1"/>
-    <col min="7937" max="7937" width="1.28515625" customWidth="1"/>
-    <col min="7938" max="7938" width="5" customWidth="1"/>
-    <col min="7939" max="7939" width="11.140625" customWidth="1"/>
-    <col min="7940" max="7940" width="2.42578125" customWidth="1"/>
-    <col min="7941" max="7941" width="14.28515625" customWidth="1"/>
-    <col min="7942" max="7942" width="15.5703125" customWidth="1"/>
-    <col min="7943" max="7943" width="12.42578125" customWidth="1"/>
-    <col min="7944" max="7944" width="17.140625" customWidth="1"/>
-    <col min="7945" max="7945" width="1.140625" customWidth="1"/>
-    <col min="7946" max="7946" width="22.140625" customWidth="1"/>
-    <col min="7947" max="7947" width="4.5703125" customWidth="1"/>
-    <col min="7948" max="7948" width="10.140625" customWidth="1"/>
-    <col min="7949" max="7949" width="14.7109375" customWidth="1"/>
-    <col min="8193" max="8193" width="1.28515625" customWidth="1"/>
-    <col min="8194" max="8194" width="5" customWidth="1"/>
-    <col min="8195" max="8195" width="11.140625" customWidth="1"/>
-    <col min="8196" max="8196" width="2.42578125" customWidth="1"/>
-    <col min="8197" max="8197" width="14.28515625" customWidth="1"/>
-    <col min="8198" max="8198" width="15.5703125" customWidth="1"/>
-    <col min="8199" max="8199" width="12.42578125" customWidth="1"/>
-    <col min="8200" max="8200" width="17.140625" customWidth="1"/>
-    <col min="8201" max="8201" width="1.140625" customWidth="1"/>
-    <col min="8202" max="8202" width="22.140625" customWidth="1"/>
-    <col min="8203" max="8203" width="4.5703125" customWidth="1"/>
-    <col min="8204" max="8204" width="10.140625" customWidth="1"/>
-    <col min="8205" max="8205" width="14.7109375" customWidth="1"/>
-    <col min="8449" max="8449" width="1.28515625" customWidth="1"/>
-    <col min="8450" max="8450" width="5" customWidth="1"/>
-    <col min="8451" max="8451" width="11.140625" customWidth="1"/>
-    <col min="8452" max="8452" width="2.42578125" customWidth="1"/>
-    <col min="8453" max="8453" width="14.28515625" customWidth="1"/>
-    <col min="8454" max="8454" width="15.5703125" customWidth="1"/>
-    <col min="8455" max="8455" width="12.42578125" customWidth="1"/>
-    <col min="8456" max="8456" width="17.140625" customWidth="1"/>
-    <col min="8457" max="8457" width="1.140625" customWidth="1"/>
-    <col min="8458" max="8458" width="22.140625" customWidth="1"/>
-    <col min="8459" max="8459" width="4.5703125" customWidth="1"/>
-    <col min="8460" max="8460" width="10.140625" customWidth="1"/>
-    <col min="8461" max="8461" width="14.7109375" customWidth="1"/>
-    <col min="8705" max="8705" width="1.28515625" customWidth="1"/>
-    <col min="8706" max="8706" width="5" customWidth="1"/>
-    <col min="8707" max="8707" width="11.140625" customWidth="1"/>
-    <col min="8708" max="8708" width="2.42578125" customWidth="1"/>
-    <col min="8709" max="8709" width="14.28515625" customWidth="1"/>
-    <col min="8710" max="8710" width="15.5703125" customWidth="1"/>
-    <col min="8711" max="8711" width="12.42578125" customWidth="1"/>
-    <col min="8712" max="8712" width="17.140625" customWidth="1"/>
-    <col min="8713" max="8713" width="1.140625" customWidth="1"/>
-    <col min="8714" max="8714" width="22.140625" customWidth="1"/>
-    <col min="8715" max="8715" width="4.5703125" customWidth="1"/>
-    <col min="8716" max="8716" width="10.140625" customWidth="1"/>
-    <col min="8717" max="8717" width="14.7109375" customWidth="1"/>
-    <col min="8961" max="8961" width="1.28515625" customWidth="1"/>
-    <col min="8962" max="8962" width="5" customWidth="1"/>
-    <col min="8963" max="8963" width="11.140625" customWidth="1"/>
-    <col min="8964" max="8964" width="2.42578125" customWidth="1"/>
-    <col min="8965" max="8965" width="14.28515625" customWidth="1"/>
-    <col min="8966" max="8966" width="15.5703125" customWidth="1"/>
-    <col min="8967" max="8967" width="12.42578125" customWidth="1"/>
-    <col min="8968" max="8968" width="17.140625" customWidth="1"/>
-    <col min="8969" max="8969" width="1.140625" customWidth="1"/>
-    <col min="8970" max="8970" width="22.140625" customWidth="1"/>
-    <col min="8971" max="8971" width="4.5703125" customWidth="1"/>
-    <col min="8972" max="8972" width="10.140625" customWidth="1"/>
-    <col min="8973" max="8973" width="14.7109375" customWidth="1"/>
-    <col min="9217" max="9217" width="1.28515625" customWidth="1"/>
-    <col min="9218" max="9218" width="5" customWidth="1"/>
-    <col min="9219" max="9219" width="11.140625" customWidth="1"/>
-    <col min="9220" max="9220" width="2.42578125" customWidth="1"/>
-    <col min="9221" max="9221" width="14.28515625" customWidth="1"/>
-    <col min="9222" max="9222" width="15.5703125" customWidth="1"/>
-    <col min="9223" max="9223" width="12.42578125" customWidth="1"/>
-    <col min="9224" max="9224" width="17.140625" customWidth="1"/>
-    <col min="9225" max="9225" width="1.140625" customWidth="1"/>
-    <col min="9226" max="9226" width="22.140625" customWidth="1"/>
-    <col min="9227" max="9227" width="4.5703125" customWidth="1"/>
-    <col min="9228" max="9228" width="10.140625" customWidth="1"/>
-    <col min="9229" max="9229" width="14.7109375" customWidth="1"/>
-    <col min="9473" max="9473" width="1.28515625" customWidth="1"/>
-    <col min="9474" max="9474" width="5" customWidth="1"/>
-    <col min="9475" max="9475" width="11.140625" customWidth="1"/>
-    <col min="9476" max="9476" width="2.42578125" customWidth="1"/>
-    <col min="9477" max="9477" width="14.28515625" customWidth="1"/>
-    <col min="9478" max="9478" width="15.5703125" customWidth="1"/>
-    <col min="9479" max="9479" width="12.42578125" customWidth="1"/>
-    <col min="9480" max="9480" width="17.140625" customWidth="1"/>
-    <col min="9481" max="9481" width="1.140625" customWidth="1"/>
-    <col min="9482" max="9482" width="22.140625" customWidth="1"/>
-    <col min="9483" max="9483" width="4.5703125" customWidth="1"/>
-    <col min="9484" max="9484" width="10.140625" customWidth="1"/>
-    <col min="9485" max="9485" width="14.7109375" customWidth="1"/>
-    <col min="9729" max="9729" width="1.28515625" customWidth="1"/>
-    <col min="9730" max="9730" width="5" customWidth="1"/>
-    <col min="9731" max="9731" width="11.140625" customWidth="1"/>
-    <col min="9732" max="9732" width="2.42578125" customWidth="1"/>
-    <col min="9733" max="9733" width="14.28515625" customWidth="1"/>
-    <col min="9734" max="9734" width="15.5703125" customWidth="1"/>
-    <col min="9735" max="9735" width="12.42578125" customWidth="1"/>
-    <col min="9736" max="9736" width="17.140625" customWidth="1"/>
-    <col min="9737" max="9737" width="1.140625" customWidth="1"/>
-    <col min="9738" max="9738" width="22.140625" customWidth="1"/>
-    <col min="9739" max="9739" width="4.5703125" customWidth="1"/>
-    <col min="9740" max="9740" width="10.140625" customWidth="1"/>
-    <col min="9741" max="9741" width="14.7109375" customWidth="1"/>
-    <col min="9985" max="9985" width="1.28515625" customWidth="1"/>
-    <col min="9986" max="9986" width="5" customWidth="1"/>
-    <col min="9987" max="9987" width="11.140625" customWidth="1"/>
-    <col min="9988" max="9988" width="2.42578125" customWidth="1"/>
-    <col min="9989" max="9989" width="14.28515625" customWidth="1"/>
-    <col min="9990" max="9990" width="15.5703125" customWidth="1"/>
-    <col min="9991" max="9991" width="12.42578125" customWidth="1"/>
-    <col min="9992" max="9992" width="17.140625" customWidth="1"/>
-    <col min="9993" max="9993" width="1.140625" customWidth="1"/>
-    <col min="9994" max="9994" width="22.140625" customWidth="1"/>
-    <col min="9995" max="9995" width="4.5703125" customWidth="1"/>
-    <col min="9996" max="9996" width="10.140625" customWidth="1"/>
-    <col min="9997" max="9997" width="14.7109375" customWidth="1"/>
-    <col min="10241" max="10241" width="1.28515625" customWidth="1"/>
-    <col min="10242" max="10242" width="5" customWidth="1"/>
-    <col min="10243" max="10243" width="11.140625" customWidth="1"/>
-    <col min="10244" max="10244" width="2.42578125" customWidth="1"/>
-    <col min="10245" max="10245" width="14.28515625" customWidth="1"/>
-    <col min="10246" max="10246" width="15.5703125" customWidth="1"/>
-    <col min="10247" max="10247" width="12.42578125" customWidth="1"/>
-    <col min="10248" max="10248" width="17.140625" customWidth="1"/>
-    <col min="10249" max="10249" width="1.140625" customWidth="1"/>
-    <col min="10250" max="10250" width="22.140625" customWidth="1"/>
-    <col min="10251" max="10251" width="4.5703125" customWidth="1"/>
-    <col min="10252" max="10252" width="10.140625" customWidth="1"/>
-    <col min="10253" max="10253" width="14.7109375" customWidth="1"/>
-    <col min="10497" max="10497" width="1.28515625" customWidth="1"/>
-    <col min="10498" max="10498" width="5" customWidth="1"/>
-    <col min="10499" max="10499" width="11.140625" customWidth="1"/>
-    <col min="10500" max="10500" width="2.42578125" customWidth="1"/>
-    <col min="10501" max="10501" width="14.28515625" customWidth="1"/>
-    <col min="10502" max="10502" width="15.5703125" customWidth="1"/>
-    <col min="10503" max="10503" width="12.42578125" customWidth="1"/>
-    <col min="10504" max="10504" width="17.140625" customWidth="1"/>
-    <col min="10505" max="10505" width="1.140625" customWidth="1"/>
-    <col min="10506" max="10506" width="22.140625" customWidth="1"/>
-    <col min="10507" max="10507" width="4.5703125" customWidth="1"/>
-    <col min="10508" max="10508" width="10.140625" customWidth="1"/>
-    <col min="10509" max="10509" width="14.7109375" customWidth="1"/>
-    <col min="10753" max="10753" width="1.28515625" customWidth="1"/>
-    <col min="10754" max="10754" width="5" customWidth="1"/>
-    <col min="10755" max="10755" width="11.140625" customWidth="1"/>
-    <col min="10756" max="10756" width="2.42578125" customWidth="1"/>
-    <col min="10757" max="10757" width="14.28515625" customWidth="1"/>
-    <col min="10758" max="10758" width="15.5703125" customWidth="1"/>
-    <col min="10759" max="10759" width="12.42578125" customWidth="1"/>
-    <col min="10760" max="10760" width="17.140625" customWidth="1"/>
-    <col min="10761" max="10761" width="1.140625" customWidth="1"/>
-    <col min="10762" max="10762" width="22.140625" customWidth="1"/>
-    <col min="10763" max="10763" width="4.5703125" customWidth="1"/>
-    <col min="10764" max="10764" width="10.140625" customWidth="1"/>
-    <col min="10765" max="10765" width="14.7109375" customWidth="1"/>
-    <col min="11009" max="11009" width="1.28515625" customWidth="1"/>
-    <col min="11010" max="11010" width="5" customWidth="1"/>
-    <col min="11011" max="11011" width="11.140625" customWidth="1"/>
-    <col min="11012" max="11012" width="2.42578125" customWidth="1"/>
-    <col min="11013" max="11013" width="14.28515625" customWidth="1"/>
-    <col min="11014" max="11014" width="15.5703125" customWidth="1"/>
-    <col min="11015" max="11015" width="12.42578125" customWidth="1"/>
-    <col min="11016" max="11016" width="17.140625" customWidth="1"/>
-    <col min="11017" max="11017" width="1.140625" customWidth="1"/>
-    <col min="11018" max="11018" width="22.140625" customWidth="1"/>
-    <col min="11019" max="11019" width="4.5703125" customWidth="1"/>
-    <col min="11020" max="11020" width="10.140625" customWidth="1"/>
-    <col min="11021" max="11021" width="14.7109375" customWidth="1"/>
-    <col min="11265" max="11265" width="1.28515625" customWidth="1"/>
-    <col min="11266" max="11266" width="5" customWidth="1"/>
-    <col min="11267" max="11267" width="11.140625" customWidth="1"/>
-    <col min="11268" max="11268" width="2.42578125" customWidth="1"/>
-    <col min="11269" max="11269" width="14.28515625" customWidth="1"/>
-    <col min="11270" max="11270" width="15.5703125" customWidth="1"/>
-    <col min="11271" max="11271" width="12.42578125" customWidth="1"/>
-    <col min="11272" max="11272" width="17.140625" customWidth="1"/>
-    <col min="11273" max="11273" width="1.140625" customWidth="1"/>
-    <col min="11274" max="11274" width="22.140625" customWidth="1"/>
-    <col min="11275" max="11275" width="4.5703125" customWidth="1"/>
-    <col min="11276" max="11276" width="10.140625" customWidth="1"/>
-    <col min="11277" max="11277" width="14.7109375" customWidth="1"/>
-    <col min="11521" max="11521" width="1.28515625" customWidth="1"/>
-    <col min="11522" max="11522" width="5" customWidth="1"/>
-    <col min="11523" max="11523" width="11.140625" customWidth="1"/>
-    <col min="11524" max="11524" width="2.42578125" customWidth="1"/>
-    <col min="11525" max="11525" width="14.28515625" customWidth="1"/>
-    <col min="11526" max="11526" width="15.5703125" customWidth="1"/>
-    <col min="11527" max="11527" width="12.42578125" customWidth="1"/>
-    <col min="11528" max="11528" width="17.140625" customWidth="1"/>
-    <col min="11529" max="11529" width="1.140625" customWidth="1"/>
-    <col min="11530" max="11530" width="22.140625" customWidth="1"/>
-    <col min="11531" max="11531" width="4.5703125" customWidth="1"/>
-    <col min="11532" max="11532" width="10.140625" customWidth="1"/>
-    <col min="11533" max="11533" width="14.7109375" customWidth="1"/>
-    <col min="11777" max="11777" width="1.28515625" customWidth="1"/>
-    <col min="11778" max="11778" width="5" customWidth="1"/>
-    <col min="11779" max="11779" width="11.140625" customWidth="1"/>
-    <col min="11780" max="11780" width="2.42578125" customWidth="1"/>
-    <col min="11781" max="11781" width="14.28515625" customWidth="1"/>
-    <col min="11782" max="11782" width="15.5703125" customWidth="1"/>
-    <col min="11783" max="11783" width="12.42578125" customWidth="1"/>
-    <col min="11784" max="11784" width="17.140625" customWidth="1"/>
-    <col min="11785" max="11785" width="1.140625" customWidth="1"/>
-    <col min="11786" max="11786" width="22.140625" customWidth="1"/>
-    <col min="11787" max="11787" width="4.5703125" customWidth="1"/>
-    <col min="11788" max="11788" width="10.140625" customWidth="1"/>
-    <col min="11789" max="11789" width="14.7109375" customWidth="1"/>
-    <col min="12033" max="12033" width="1.28515625" customWidth="1"/>
-    <col min="12034" max="12034" width="5" customWidth="1"/>
-    <col min="12035" max="12035" width="11.140625" customWidth="1"/>
-    <col min="12036" max="12036" width="2.42578125" customWidth="1"/>
-    <col min="12037" max="12037" width="14.28515625" customWidth="1"/>
-    <col min="12038" max="12038" width="15.5703125" customWidth="1"/>
-    <col min="12039" max="12039" width="12.42578125" customWidth="1"/>
-    <col min="12040" max="12040" width="17.140625" customWidth="1"/>
-    <col min="12041" max="12041" width="1.140625" customWidth="1"/>
-    <col min="12042" max="12042" width="22.140625" customWidth="1"/>
-    <col min="12043" max="12043" width="4.5703125" customWidth="1"/>
-    <col min="12044" max="12044" width="10.140625" customWidth="1"/>
-    <col min="12045" max="12045" width="14.7109375" customWidth="1"/>
-    <col min="12289" max="12289" width="1.28515625" customWidth="1"/>
-    <col min="12290" max="12290" width="5" customWidth="1"/>
-    <col min="12291" max="12291" width="11.140625" customWidth="1"/>
-    <col min="12292" max="12292" width="2.42578125" customWidth="1"/>
-    <col min="12293" max="12293" width="14.28515625" customWidth="1"/>
-    <col min="12294" max="12294" width="15.5703125" customWidth="1"/>
-    <col min="12295" max="12295" width="12.42578125" customWidth="1"/>
-    <col min="12296" max="12296" width="17.140625" customWidth="1"/>
-    <col min="12297" max="12297" width="1.140625" customWidth="1"/>
-    <col min="12298" max="12298" width="22.140625" customWidth="1"/>
-    <col min="12299" max="12299" width="4.5703125" customWidth="1"/>
-    <col min="12300" max="12300" width="10.140625" customWidth="1"/>
-    <col min="12301" max="12301" width="14.7109375" customWidth="1"/>
-    <col min="12545" max="12545" width="1.28515625" customWidth="1"/>
-    <col min="12546" max="12546" width="5" customWidth="1"/>
-    <col min="12547" max="12547" width="11.140625" customWidth="1"/>
-    <col min="12548" max="12548" width="2.42578125" customWidth="1"/>
-    <col min="12549" max="12549" width="14.28515625" customWidth="1"/>
-    <col min="12550" max="12550" width="15.5703125" customWidth="1"/>
-    <col min="12551" max="12551" width="12.42578125" customWidth="1"/>
-    <col min="12552" max="12552" width="17.140625" customWidth="1"/>
-    <col min="12553" max="12553" width="1.140625" customWidth="1"/>
-    <col min="12554" max="12554" width="22.140625" customWidth="1"/>
-    <col min="12555" max="12555" width="4.5703125" customWidth="1"/>
-    <col min="12556" max="12556" width="10.140625" customWidth="1"/>
-    <col min="12557" max="12557" width="14.7109375" customWidth="1"/>
-    <col min="12801" max="12801" width="1.28515625" customWidth="1"/>
-    <col min="12802" max="12802" width="5" customWidth="1"/>
-    <col min="12803" max="12803" width="11.140625" customWidth="1"/>
-    <col min="12804" max="12804" width="2.42578125" customWidth="1"/>
-    <col min="12805" max="12805" width="14.28515625" customWidth="1"/>
-    <col min="12806" max="12806" width="15.5703125" customWidth="1"/>
-    <col min="12807" max="12807" width="12.42578125" customWidth="1"/>
-    <col min="12808" max="12808" width="17.140625" customWidth="1"/>
-    <col min="12809" max="12809" width="1.140625" customWidth="1"/>
-    <col min="12810" max="12810" width="22.140625" customWidth="1"/>
-    <col min="12811" max="12811" width="4.5703125" customWidth="1"/>
-    <col min="12812" max="12812" width="10.140625" customWidth="1"/>
-    <col min="12813" max="12813" width="14.7109375" customWidth="1"/>
-    <col min="13057" max="13057" width="1.28515625" customWidth="1"/>
-    <col min="13058" max="13058" width="5" customWidth="1"/>
-    <col min="13059" max="13059" width="11.140625" customWidth="1"/>
-    <col min="13060" max="13060" width="2.42578125" customWidth="1"/>
-    <col min="13061" max="13061" width="14.28515625" customWidth="1"/>
-    <col min="13062" max="13062" width="15.5703125" customWidth="1"/>
-    <col min="13063" max="13063" width="12.42578125" customWidth="1"/>
-    <col min="13064" max="13064" width="17.140625" customWidth="1"/>
-    <col min="13065" max="13065" width="1.140625" customWidth="1"/>
-    <col min="13066" max="13066" width="22.140625" customWidth="1"/>
-    <col min="13067" max="13067" width="4.5703125" customWidth="1"/>
-    <col min="13068" max="13068" width="10.140625" customWidth="1"/>
-    <col min="13069" max="13069" width="14.7109375" customWidth="1"/>
-    <col min="13313" max="13313" width="1.28515625" customWidth="1"/>
-    <col min="13314" max="13314" width="5" customWidth="1"/>
-    <col min="13315" max="13315" width="11.140625" customWidth="1"/>
-    <col min="13316" max="13316" width="2.42578125" customWidth="1"/>
-    <col min="13317" max="13317" width="14.28515625" customWidth="1"/>
-    <col min="13318" max="13318" width="15.5703125" customWidth="1"/>
-    <col min="13319" max="13319" width="12.42578125" customWidth="1"/>
-    <col min="13320" max="13320" width="17.140625" customWidth="1"/>
-    <col min="13321" max="13321" width="1.140625" customWidth="1"/>
-    <col min="13322" max="13322" width="22.140625" customWidth="1"/>
-    <col min="13323" max="13323" width="4.5703125" customWidth="1"/>
-    <col min="13324" max="13324" width="10.140625" customWidth="1"/>
-    <col min="13325" max="13325" width="14.7109375" customWidth="1"/>
-    <col min="13569" max="13569" width="1.28515625" customWidth="1"/>
-    <col min="13570" max="13570" width="5" customWidth="1"/>
-    <col min="13571" max="13571" width="11.140625" customWidth="1"/>
-    <col min="13572" max="13572" width="2.42578125" customWidth="1"/>
-    <col min="13573" max="13573" width="14.28515625" customWidth="1"/>
-    <col min="13574" max="13574" width="15.5703125" customWidth="1"/>
-    <col min="13575" max="13575" width="12.42578125" customWidth="1"/>
-    <col min="13576" max="13576" width="17.140625" customWidth="1"/>
-    <col min="13577" max="13577" width="1.140625" customWidth="1"/>
-    <col min="13578" max="13578" width="22.140625" customWidth="1"/>
-    <col min="13579" max="13579" width="4.5703125" customWidth="1"/>
-    <col min="13580" max="13580" width="10.140625" customWidth="1"/>
-    <col min="13581" max="13581" width="14.7109375" customWidth="1"/>
-    <col min="13825" max="13825" width="1.28515625" customWidth="1"/>
-    <col min="13826" max="13826" width="5" customWidth="1"/>
-    <col min="13827" max="13827" width="11.140625" customWidth="1"/>
-    <col min="13828" max="13828" width="2.42578125" customWidth="1"/>
-    <col min="13829" max="13829" width="14.28515625" customWidth="1"/>
-    <col min="13830" max="13830" width="15.5703125" customWidth="1"/>
-    <col min="13831" max="13831" width="12.42578125" customWidth="1"/>
-    <col min="13832" max="13832" width="17.140625" customWidth="1"/>
-    <col min="13833" max="13833" width="1.140625" customWidth="1"/>
-    <col min="13834" max="13834" width="22.140625" customWidth="1"/>
-    <col min="13835" max="13835" width="4.5703125" customWidth="1"/>
-    <col min="13836" max="13836" width="10.140625" customWidth="1"/>
-    <col min="13837" max="13837" width="14.7109375" customWidth="1"/>
-    <col min="14081" max="14081" width="1.28515625" customWidth="1"/>
-    <col min="14082" max="14082" width="5" customWidth="1"/>
-    <col min="14083" max="14083" width="11.140625" customWidth="1"/>
-    <col min="14084" max="14084" width="2.42578125" customWidth="1"/>
-    <col min="14085" max="14085" width="14.28515625" customWidth="1"/>
-    <col min="14086" max="14086" width="15.5703125" customWidth="1"/>
-    <col min="14087" max="14087" width="12.42578125" customWidth="1"/>
-    <col min="14088" max="14088" width="17.140625" customWidth="1"/>
-    <col min="14089" max="14089" width="1.140625" customWidth="1"/>
-    <col min="14090" max="14090" width="22.140625" customWidth="1"/>
-    <col min="14091" max="14091" width="4.5703125" customWidth="1"/>
-    <col min="14092" max="14092" width="10.140625" customWidth="1"/>
-    <col min="14093" max="14093" width="14.7109375" customWidth="1"/>
-    <col min="14337" max="14337" width="1.28515625" customWidth="1"/>
-    <col min="14338" max="14338" width="5" customWidth="1"/>
-    <col min="14339" max="14339" width="11.140625" customWidth="1"/>
-    <col min="14340" max="14340" width="2.42578125" customWidth="1"/>
-    <col min="14341" max="14341" width="14.28515625" customWidth="1"/>
-    <col min="14342" max="14342" width="15.5703125" customWidth="1"/>
-    <col min="14343" max="14343" width="12.42578125" customWidth="1"/>
-    <col min="14344" max="14344" width="17.140625" customWidth="1"/>
-    <col min="14345" max="14345" width="1.140625" customWidth="1"/>
-    <col min="14346" max="14346" width="22.140625" customWidth="1"/>
-    <col min="14347" max="14347" width="4.5703125" customWidth="1"/>
-    <col min="14348" max="14348" width="10.140625" customWidth="1"/>
-    <col min="14349" max="14349" width="14.7109375" customWidth="1"/>
-    <col min="14593" max="14593" width="1.28515625" customWidth="1"/>
-    <col min="14594" max="14594" width="5" customWidth="1"/>
-    <col min="14595" max="14595" width="11.140625" customWidth="1"/>
-    <col min="14596" max="14596" width="2.42578125" customWidth="1"/>
-    <col min="14597" max="14597" width="14.28515625" customWidth="1"/>
-    <col min="14598" max="14598" width="15.5703125" customWidth="1"/>
-    <col min="14599" max="14599" width="12.42578125" customWidth="1"/>
-    <col min="14600" max="14600" width="17.140625" customWidth="1"/>
-    <col min="14601" max="14601" width="1.140625" customWidth="1"/>
-    <col min="14602" max="14602" width="22.140625" customWidth="1"/>
-    <col min="14603" max="14603" width="4.5703125" customWidth="1"/>
-    <col min="14604" max="14604" width="10.140625" customWidth="1"/>
-    <col min="14605" max="14605" width="14.7109375" customWidth="1"/>
-    <col min="14849" max="14849" width="1.28515625" customWidth="1"/>
-    <col min="14850" max="14850" width="5" customWidth="1"/>
-    <col min="14851" max="14851" width="11.140625" customWidth="1"/>
-    <col min="14852" max="14852" width="2.42578125" customWidth="1"/>
-    <col min="14853" max="14853" width="14.28515625" customWidth="1"/>
-    <col min="14854" max="14854" width="15.5703125" customWidth="1"/>
-    <col min="14855" max="14855" width="12.42578125" customWidth="1"/>
-    <col min="14856" max="14856" width="17.140625" customWidth="1"/>
-    <col min="14857" max="14857" width="1.140625" customWidth="1"/>
-    <col min="14858" max="14858" width="22.140625" customWidth="1"/>
-    <col min="14859" max="14859" width="4.5703125" customWidth="1"/>
-    <col min="14860" max="14860" width="10.140625" customWidth="1"/>
-    <col min="14861" max="14861" width="14.7109375" customWidth="1"/>
-    <col min="15105" max="15105" width="1.28515625" customWidth="1"/>
-    <col min="15106" max="15106" width="5" customWidth="1"/>
-    <col min="15107" max="15107" width="11.140625" customWidth="1"/>
-    <col min="15108" max="15108" width="2.42578125" customWidth="1"/>
-    <col min="15109" max="15109" width="14.28515625" customWidth="1"/>
-    <col min="15110" max="15110" width="15.5703125" customWidth="1"/>
-    <col min="15111" max="15111" width="12.42578125" customWidth="1"/>
-    <col min="15112" max="15112" width="17.140625" customWidth="1"/>
-    <col min="15113" max="15113" width="1.140625" customWidth="1"/>
-    <col min="15114" max="15114" width="22.140625" customWidth="1"/>
-    <col min="15115" max="15115" width="4.5703125" customWidth="1"/>
-    <col min="15116" max="15116" width="10.140625" customWidth="1"/>
-    <col min="15117" max="15117" width="14.7109375" customWidth="1"/>
-    <col min="15361" max="15361" width="1.28515625" customWidth="1"/>
-    <col min="15362" max="15362" width="5" customWidth="1"/>
-    <col min="15363" max="15363" width="11.140625" customWidth="1"/>
-    <col min="15364" max="15364" width="2.42578125" customWidth="1"/>
-    <col min="15365" max="15365" width="14.28515625" customWidth="1"/>
-    <col min="15366" max="15366" width="15.5703125" customWidth="1"/>
-    <col min="15367" max="15367" width="12.42578125" customWidth="1"/>
-    <col min="15368" max="15368" width="17.140625" customWidth="1"/>
-    <col min="15369" max="15369" width="1.140625" customWidth="1"/>
-    <col min="15370" max="15370" width="22.140625" customWidth="1"/>
-    <col min="15371" max="15371" width="4.5703125" customWidth="1"/>
-    <col min="15372" max="15372" width="10.140625" customWidth="1"/>
-    <col min="15373" max="15373" width="14.7109375" customWidth="1"/>
-    <col min="15617" max="15617" width="1.28515625" customWidth="1"/>
-    <col min="15618" max="15618" width="5" customWidth="1"/>
-    <col min="15619" max="15619" width="11.140625" customWidth="1"/>
-    <col min="15620" max="15620" width="2.42578125" customWidth="1"/>
-    <col min="15621" max="15621" width="14.28515625" customWidth="1"/>
-    <col min="15622" max="15622" width="15.5703125" customWidth="1"/>
-    <col min="15623" max="15623" width="12.42578125" customWidth="1"/>
-    <col min="15624" max="15624" width="17.140625" customWidth="1"/>
-    <col min="15625" max="15625" width="1.140625" customWidth="1"/>
-    <col min="15626" max="15626" width="22.140625" customWidth="1"/>
-    <col min="15627" max="15627" width="4.5703125" customWidth="1"/>
-    <col min="15628" max="15628" width="10.140625" customWidth="1"/>
-    <col min="15629" max="15629" width="14.7109375" customWidth="1"/>
-    <col min="15873" max="15873" width="1.28515625" customWidth="1"/>
-    <col min="15874" max="15874" width="5" customWidth="1"/>
-    <col min="15875" max="15875" width="11.140625" customWidth="1"/>
-    <col min="15876" max="15876" width="2.42578125" customWidth="1"/>
-    <col min="15877" max="15877" width="14.28515625" customWidth="1"/>
-    <col min="15878" max="15878" width="15.5703125" customWidth="1"/>
-    <col min="15879" max="15879" width="12.42578125" customWidth="1"/>
-    <col min="15880" max="15880" width="17.140625" customWidth="1"/>
-    <col min="15881" max="15881" width="1.140625" customWidth="1"/>
-    <col min="15882" max="15882" width="22.140625" customWidth="1"/>
-    <col min="15883" max="15883" width="4.5703125" customWidth="1"/>
-    <col min="15884" max="15884" width="10.140625" customWidth="1"/>
-    <col min="15885" max="15885" width="14.7109375" customWidth="1"/>
-    <col min="16129" max="16129" width="1.28515625" customWidth="1"/>
-    <col min="16130" max="16130" width="5" customWidth="1"/>
-    <col min="16131" max="16131" width="11.140625" customWidth="1"/>
-    <col min="16132" max="16132" width="2.42578125" customWidth="1"/>
-    <col min="16133" max="16133" width="14.28515625" customWidth="1"/>
-    <col min="16134" max="16134" width="15.5703125" customWidth="1"/>
-    <col min="16135" max="16135" width="12.42578125" customWidth="1"/>
-    <col min="16136" max="16136" width="17.140625" customWidth="1"/>
-    <col min="16137" max="16137" width="1.140625" customWidth="1"/>
-    <col min="16138" max="16138" width="22.140625" customWidth="1"/>
-    <col min="16139" max="16139" width="4.5703125" customWidth="1"/>
-    <col min="16140" max="16140" width="10.140625" customWidth="1"/>
-    <col min="16141" max="16141" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="1.140625" customWidth="1"/>
+    <col min="11" max="11" width="25.85546875" customWidth="1"/>
+    <col min="12" max="12" width="0.85546875" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" customWidth="1"/>
+    <col min="259" max="259" width="1.28515625" customWidth="1"/>
+    <col min="260" max="260" width="5" customWidth="1"/>
+    <col min="261" max="261" width="11.140625" customWidth="1"/>
+    <col min="262" max="262" width="2.42578125" customWidth="1"/>
+    <col min="263" max="263" width="14.28515625" customWidth="1"/>
+    <col min="264" max="264" width="15.5703125" customWidth="1"/>
+    <col min="265" max="265" width="12.42578125" customWidth="1"/>
+    <col min="266" max="266" width="17.140625" customWidth="1"/>
+    <col min="267" max="267" width="1.140625" customWidth="1"/>
+    <col min="268" max="268" width="22.140625" customWidth="1"/>
+    <col min="269" max="269" width="4.5703125" customWidth="1"/>
+    <col min="270" max="270" width="10.140625" customWidth="1"/>
+    <col min="271" max="271" width="14.7109375" customWidth="1"/>
+    <col min="515" max="515" width="1.28515625" customWidth="1"/>
+    <col min="516" max="516" width="5" customWidth="1"/>
+    <col min="517" max="517" width="11.140625" customWidth="1"/>
+    <col min="518" max="518" width="2.42578125" customWidth="1"/>
+    <col min="519" max="519" width="14.28515625" customWidth="1"/>
+    <col min="520" max="520" width="15.5703125" customWidth="1"/>
+    <col min="521" max="521" width="12.42578125" customWidth="1"/>
+    <col min="522" max="522" width="17.140625" customWidth="1"/>
+    <col min="523" max="523" width="1.140625" customWidth="1"/>
+    <col min="524" max="524" width="22.140625" customWidth="1"/>
+    <col min="525" max="525" width="4.5703125" customWidth="1"/>
+    <col min="526" max="526" width="10.140625" customWidth="1"/>
+    <col min="527" max="527" width="14.7109375" customWidth="1"/>
+    <col min="771" max="771" width="1.28515625" customWidth="1"/>
+    <col min="772" max="772" width="5" customWidth="1"/>
+    <col min="773" max="773" width="11.140625" customWidth="1"/>
+    <col min="774" max="774" width="2.42578125" customWidth="1"/>
+    <col min="775" max="775" width="14.28515625" customWidth="1"/>
+    <col min="776" max="776" width="15.5703125" customWidth="1"/>
+    <col min="777" max="777" width="12.42578125" customWidth="1"/>
+    <col min="778" max="778" width="17.140625" customWidth="1"/>
+    <col min="779" max="779" width="1.140625" customWidth="1"/>
+    <col min="780" max="780" width="22.140625" customWidth="1"/>
+    <col min="781" max="781" width="4.5703125" customWidth="1"/>
+    <col min="782" max="782" width="10.140625" customWidth="1"/>
+    <col min="783" max="783" width="14.7109375" customWidth="1"/>
+    <col min="1027" max="1027" width="1.28515625" customWidth="1"/>
+    <col min="1028" max="1028" width="5" customWidth="1"/>
+    <col min="1029" max="1029" width="11.140625" customWidth="1"/>
+    <col min="1030" max="1030" width="2.42578125" customWidth="1"/>
+    <col min="1031" max="1031" width="14.28515625" customWidth="1"/>
+    <col min="1032" max="1032" width="15.5703125" customWidth="1"/>
+    <col min="1033" max="1033" width="12.42578125" customWidth="1"/>
+    <col min="1034" max="1034" width="17.140625" customWidth="1"/>
+    <col min="1035" max="1035" width="1.140625" customWidth="1"/>
+    <col min="1036" max="1036" width="22.140625" customWidth="1"/>
+    <col min="1037" max="1037" width="4.5703125" customWidth="1"/>
+    <col min="1038" max="1038" width="10.140625" customWidth="1"/>
+    <col min="1039" max="1039" width="14.7109375" customWidth="1"/>
+    <col min="1283" max="1283" width="1.28515625" customWidth="1"/>
+    <col min="1284" max="1284" width="5" customWidth="1"/>
+    <col min="1285" max="1285" width="11.140625" customWidth="1"/>
+    <col min="1286" max="1286" width="2.42578125" customWidth="1"/>
+    <col min="1287" max="1287" width="14.28515625" customWidth="1"/>
+    <col min="1288" max="1288" width="15.5703125" customWidth="1"/>
+    <col min="1289" max="1289" width="12.42578125" customWidth="1"/>
+    <col min="1290" max="1290" width="17.140625" customWidth="1"/>
+    <col min="1291" max="1291" width="1.140625" customWidth="1"/>
+    <col min="1292" max="1292" width="22.140625" customWidth="1"/>
+    <col min="1293" max="1293" width="4.5703125" customWidth="1"/>
+    <col min="1294" max="1294" width="10.140625" customWidth="1"/>
+    <col min="1295" max="1295" width="14.7109375" customWidth="1"/>
+    <col min="1539" max="1539" width="1.28515625" customWidth="1"/>
+    <col min="1540" max="1540" width="5" customWidth="1"/>
+    <col min="1541" max="1541" width="11.140625" customWidth="1"/>
+    <col min="1542" max="1542" width="2.42578125" customWidth="1"/>
+    <col min="1543" max="1543" width="14.28515625" customWidth="1"/>
+    <col min="1544" max="1544" width="15.5703125" customWidth="1"/>
+    <col min="1545" max="1545" width="12.42578125" customWidth="1"/>
+    <col min="1546" max="1546" width="17.140625" customWidth="1"/>
+    <col min="1547" max="1547" width="1.140625" customWidth="1"/>
+    <col min="1548" max="1548" width="22.140625" customWidth="1"/>
+    <col min="1549" max="1549" width="4.5703125" customWidth="1"/>
+    <col min="1550" max="1550" width="10.140625" customWidth="1"/>
+    <col min="1551" max="1551" width="14.7109375" customWidth="1"/>
+    <col min="1795" max="1795" width="1.28515625" customWidth="1"/>
+    <col min="1796" max="1796" width="5" customWidth="1"/>
+    <col min="1797" max="1797" width="11.140625" customWidth="1"/>
+    <col min="1798" max="1798" width="2.42578125" customWidth="1"/>
+    <col min="1799" max="1799" width="14.28515625" customWidth="1"/>
+    <col min="1800" max="1800" width="15.5703125" customWidth="1"/>
+    <col min="1801" max="1801" width="12.42578125" customWidth="1"/>
+    <col min="1802" max="1802" width="17.140625" customWidth="1"/>
+    <col min="1803" max="1803" width="1.140625" customWidth="1"/>
+    <col min="1804" max="1804" width="22.140625" customWidth="1"/>
+    <col min="1805" max="1805" width="4.5703125" customWidth="1"/>
+    <col min="1806" max="1806" width="10.140625" customWidth="1"/>
+    <col min="1807" max="1807" width="14.7109375" customWidth="1"/>
+    <col min="2051" max="2051" width="1.28515625" customWidth="1"/>
+    <col min="2052" max="2052" width="5" customWidth="1"/>
+    <col min="2053" max="2053" width="11.140625" customWidth="1"/>
+    <col min="2054" max="2054" width="2.42578125" customWidth="1"/>
+    <col min="2055" max="2055" width="14.28515625" customWidth="1"/>
+    <col min="2056" max="2056" width="15.5703125" customWidth="1"/>
+    <col min="2057" max="2057" width="12.42578125" customWidth="1"/>
+    <col min="2058" max="2058" width="17.140625" customWidth="1"/>
+    <col min="2059" max="2059" width="1.140625" customWidth="1"/>
+    <col min="2060" max="2060" width="22.140625" customWidth="1"/>
+    <col min="2061" max="2061" width="4.5703125" customWidth="1"/>
+    <col min="2062" max="2062" width="10.140625" customWidth="1"/>
+    <col min="2063" max="2063" width="14.7109375" customWidth="1"/>
+    <col min="2307" max="2307" width="1.28515625" customWidth="1"/>
+    <col min="2308" max="2308" width="5" customWidth="1"/>
+    <col min="2309" max="2309" width="11.140625" customWidth="1"/>
+    <col min="2310" max="2310" width="2.42578125" customWidth="1"/>
+    <col min="2311" max="2311" width="14.28515625" customWidth="1"/>
+    <col min="2312" max="2312" width="15.5703125" customWidth="1"/>
+    <col min="2313" max="2313" width="12.42578125" customWidth="1"/>
+    <col min="2314" max="2314" width="17.140625" customWidth="1"/>
+    <col min="2315" max="2315" width="1.140625" customWidth="1"/>
+    <col min="2316" max="2316" width="22.140625" customWidth="1"/>
+    <col min="2317" max="2317" width="4.5703125" customWidth="1"/>
+    <col min="2318" max="2318" width="10.140625" customWidth="1"/>
+    <col min="2319" max="2319" width="14.7109375" customWidth="1"/>
+    <col min="2563" max="2563" width="1.28515625" customWidth="1"/>
+    <col min="2564" max="2564" width="5" customWidth="1"/>
+    <col min="2565" max="2565" width="11.140625" customWidth="1"/>
+    <col min="2566" max="2566" width="2.42578125" customWidth="1"/>
+    <col min="2567" max="2567" width="14.28515625" customWidth="1"/>
+    <col min="2568" max="2568" width="15.5703125" customWidth="1"/>
+    <col min="2569" max="2569" width="12.42578125" customWidth="1"/>
+    <col min="2570" max="2570" width="17.140625" customWidth="1"/>
+    <col min="2571" max="2571" width="1.140625" customWidth="1"/>
+    <col min="2572" max="2572" width="22.140625" customWidth="1"/>
+    <col min="2573" max="2573" width="4.5703125" customWidth="1"/>
+    <col min="2574" max="2574" width="10.140625" customWidth="1"/>
+    <col min="2575" max="2575" width="14.7109375" customWidth="1"/>
+    <col min="2819" max="2819" width="1.28515625" customWidth="1"/>
+    <col min="2820" max="2820" width="5" customWidth="1"/>
+    <col min="2821" max="2821" width="11.140625" customWidth="1"/>
+    <col min="2822" max="2822" width="2.42578125" customWidth="1"/>
+    <col min="2823" max="2823" width="14.28515625" customWidth="1"/>
+    <col min="2824" max="2824" width="15.5703125" customWidth="1"/>
+    <col min="2825" max="2825" width="12.42578125" customWidth="1"/>
+    <col min="2826" max="2826" width="17.140625" customWidth="1"/>
+    <col min="2827" max="2827" width="1.140625" customWidth="1"/>
+    <col min="2828" max="2828" width="22.140625" customWidth="1"/>
+    <col min="2829" max="2829" width="4.5703125" customWidth="1"/>
+    <col min="2830" max="2830" width="10.140625" customWidth="1"/>
+    <col min="2831" max="2831" width="14.7109375" customWidth="1"/>
+    <col min="3075" max="3075" width="1.28515625" customWidth="1"/>
+    <col min="3076" max="3076" width="5" customWidth="1"/>
+    <col min="3077" max="3077" width="11.140625" customWidth="1"/>
+    <col min="3078" max="3078" width="2.42578125" customWidth="1"/>
+    <col min="3079" max="3079" width="14.28515625" customWidth="1"/>
+    <col min="3080" max="3080" width="15.5703125" customWidth="1"/>
+    <col min="3081" max="3081" width="12.42578125" customWidth="1"/>
+    <col min="3082" max="3082" width="17.140625" customWidth="1"/>
+    <col min="3083" max="3083" width="1.140625" customWidth="1"/>
+    <col min="3084" max="3084" width="22.140625" customWidth="1"/>
+    <col min="3085" max="3085" width="4.5703125" customWidth="1"/>
+    <col min="3086" max="3086" width="10.140625" customWidth="1"/>
+    <col min="3087" max="3087" width="14.7109375" customWidth="1"/>
+    <col min="3331" max="3331" width="1.28515625" customWidth="1"/>
+    <col min="3332" max="3332" width="5" customWidth="1"/>
+    <col min="3333" max="3333" width="11.140625" customWidth="1"/>
+    <col min="3334" max="3334" width="2.42578125" customWidth="1"/>
+    <col min="3335" max="3335" width="14.28515625" customWidth="1"/>
+    <col min="3336" max="3336" width="15.5703125" customWidth="1"/>
+    <col min="3337" max="3337" width="12.42578125" customWidth="1"/>
+    <col min="3338" max="3338" width="17.140625" customWidth="1"/>
+    <col min="3339" max="3339" width="1.140625" customWidth="1"/>
+    <col min="3340" max="3340" width="22.140625" customWidth="1"/>
+    <col min="3341" max="3341" width="4.5703125" customWidth="1"/>
+    <col min="3342" max="3342" width="10.140625" customWidth="1"/>
+    <col min="3343" max="3343" width="14.7109375" customWidth="1"/>
+    <col min="3587" max="3587" width="1.28515625" customWidth="1"/>
+    <col min="3588" max="3588" width="5" customWidth="1"/>
+    <col min="3589" max="3589" width="11.140625" customWidth="1"/>
+    <col min="3590" max="3590" width="2.42578125" customWidth="1"/>
+    <col min="3591" max="3591" width="14.28515625" customWidth="1"/>
+    <col min="3592" max="3592" width="15.5703125" customWidth="1"/>
+    <col min="3593" max="3593" width="12.42578125" customWidth="1"/>
+    <col min="3594" max="3594" width="17.140625" customWidth="1"/>
+    <col min="3595" max="3595" width="1.140625" customWidth="1"/>
+    <col min="3596" max="3596" width="22.140625" customWidth="1"/>
+    <col min="3597" max="3597" width="4.5703125" customWidth="1"/>
+    <col min="3598" max="3598" width="10.140625" customWidth="1"/>
+    <col min="3599" max="3599" width="14.7109375" customWidth="1"/>
+    <col min="3843" max="3843" width="1.28515625" customWidth="1"/>
+    <col min="3844" max="3844" width="5" customWidth="1"/>
+    <col min="3845" max="3845" width="11.140625" customWidth="1"/>
+    <col min="3846" max="3846" width="2.42578125" customWidth="1"/>
+    <col min="3847" max="3847" width="14.28515625" customWidth="1"/>
+    <col min="3848" max="3848" width="15.5703125" customWidth="1"/>
+    <col min="3849" max="3849" width="12.42578125" customWidth="1"/>
+    <col min="3850" max="3850" width="17.140625" customWidth="1"/>
+    <col min="3851" max="3851" width="1.140625" customWidth="1"/>
+    <col min="3852" max="3852" width="22.140625" customWidth="1"/>
+    <col min="3853" max="3853" width="4.5703125" customWidth="1"/>
+    <col min="3854" max="3854" width="10.140625" customWidth="1"/>
+    <col min="3855" max="3855" width="14.7109375" customWidth="1"/>
+    <col min="4099" max="4099" width="1.28515625" customWidth="1"/>
+    <col min="4100" max="4100" width="5" customWidth="1"/>
+    <col min="4101" max="4101" width="11.140625" customWidth="1"/>
+    <col min="4102" max="4102" width="2.42578125" customWidth="1"/>
+    <col min="4103" max="4103" width="14.28515625" customWidth="1"/>
+    <col min="4104" max="4104" width="15.5703125" customWidth="1"/>
+    <col min="4105" max="4105" width="12.42578125" customWidth="1"/>
+    <col min="4106" max="4106" width="17.140625" customWidth="1"/>
+    <col min="4107" max="4107" width="1.140625" customWidth="1"/>
+    <col min="4108" max="4108" width="22.140625" customWidth="1"/>
+    <col min="4109" max="4109" width="4.5703125" customWidth="1"/>
+    <col min="4110" max="4110" width="10.140625" customWidth="1"/>
+    <col min="4111" max="4111" width="14.7109375" customWidth="1"/>
+    <col min="4355" max="4355" width="1.28515625" customWidth="1"/>
+    <col min="4356" max="4356" width="5" customWidth="1"/>
+    <col min="4357" max="4357" width="11.140625" customWidth="1"/>
+    <col min="4358" max="4358" width="2.42578125" customWidth="1"/>
+    <col min="4359" max="4359" width="14.28515625" customWidth="1"/>
+    <col min="4360" max="4360" width="15.5703125" customWidth="1"/>
+    <col min="4361" max="4361" width="12.42578125" customWidth="1"/>
+    <col min="4362" max="4362" width="17.140625" customWidth="1"/>
+    <col min="4363" max="4363" width="1.140625" customWidth="1"/>
+    <col min="4364" max="4364" width="22.140625" customWidth="1"/>
+    <col min="4365" max="4365" width="4.5703125" customWidth="1"/>
+    <col min="4366" max="4366" width="10.140625" customWidth="1"/>
+    <col min="4367" max="4367" width="14.7109375" customWidth="1"/>
+    <col min="4611" max="4611" width="1.28515625" customWidth="1"/>
+    <col min="4612" max="4612" width="5" customWidth="1"/>
+    <col min="4613" max="4613" width="11.140625" customWidth="1"/>
+    <col min="4614" max="4614" width="2.42578125" customWidth="1"/>
+    <col min="4615" max="4615" width="14.28515625" customWidth="1"/>
+    <col min="4616" max="4616" width="15.5703125" customWidth="1"/>
+    <col min="4617" max="4617" width="12.42578125" customWidth="1"/>
+    <col min="4618" max="4618" width="17.140625" customWidth="1"/>
+    <col min="4619" max="4619" width="1.140625" customWidth="1"/>
+    <col min="4620" max="4620" width="22.140625" customWidth="1"/>
+    <col min="4621" max="4621" width="4.5703125" customWidth="1"/>
+    <col min="4622" max="4622" width="10.140625" customWidth="1"/>
+    <col min="4623" max="4623" width="14.7109375" customWidth="1"/>
+    <col min="4867" max="4867" width="1.28515625" customWidth="1"/>
+    <col min="4868" max="4868" width="5" customWidth="1"/>
+    <col min="4869" max="4869" width="11.140625" customWidth="1"/>
+    <col min="4870" max="4870" width="2.42578125" customWidth="1"/>
+    <col min="4871" max="4871" width="14.28515625" customWidth="1"/>
+    <col min="4872" max="4872" width="15.5703125" customWidth="1"/>
+    <col min="4873" max="4873" width="12.42578125" customWidth="1"/>
+    <col min="4874" max="4874" width="17.140625" customWidth="1"/>
+    <col min="4875" max="4875" width="1.140625" customWidth="1"/>
+    <col min="4876" max="4876" width="22.140625" customWidth="1"/>
+    <col min="4877" max="4877" width="4.5703125" customWidth="1"/>
+    <col min="4878" max="4878" width="10.140625" customWidth="1"/>
+    <col min="4879" max="4879" width="14.7109375" customWidth="1"/>
+    <col min="5123" max="5123" width="1.28515625" customWidth="1"/>
+    <col min="5124" max="5124" width="5" customWidth="1"/>
+    <col min="5125" max="5125" width="11.140625" customWidth="1"/>
+    <col min="5126" max="5126" width="2.42578125" customWidth="1"/>
+    <col min="5127" max="5127" width="14.28515625" customWidth="1"/>
+    <col min="5128" max="5128" width="15.5703125" customWidth="1"/>
+    <col min="5129" max="5129" width="12.42578125" customWidth="1"/>
+    <col min="5130" max="5130" width="17.140625" customWidth="1"/>
+    <col min="5131" max="5131" width="1.140625" customWidth="1"/>
+    <col min="5132" max="5132" width="22.140625" customWidth="1"/>
+    <col min="5133" max="5133" width="4.5703125" customWidth="1"/>
+    <col min="5134" max="5134" width="10.140625" customWidth="1"/>
+    <col min="5135" max="5135" width="14.7109375" customWidth="1"/>
+    <col min="5379" max="5379" width="1.28515625" customWidth="1"/>
+    <col min="5380" max="5380" width="5" customWidth="1"/>
+    <col min="5381" max="5381" width="11.140625" customWidth="1"/>
+    <col min="5382" max="5382" width="2.42578125" customWidth="1"/>
+    <col min="5383" max="5383" width="14.28515625" customWidth="1"/>
+    <col min="5384" max="5384" width="15.5703125" customWidth="1"/>
+    <col min="5385" max="5385" width="12.42578125" customWidth="1"/>
+    <col min="5386" max="5386" width="17.140625" customWidth="1"/>
+    <col min="5387" max="5387" width="1.140625" customWidth="1"/>
+    <col min="5388" max="5388" width="22.140625" customWidth="1"/>
+    <col min="5389" max="5389" width="4.5703125" customWidth="1"/>
+    <col min="5390" max="5390" width="10.140625" customWidth="1"/>
+    <col min="5391" max="5391" width="14.7109375" customWidth="1"/>
+    <col min="5635" max="5635" width="1.28515625" customWidth="1"/>
+    <col min="5636" max="5636" width="5" customWidth="1"/>
+    <col min="5637" max="5637" width="11.140625" customWidth="1"/>
+    <col min="5638" max="5638" width="2.42578125" customWidth="1"/>
+    <col min="5639" max="5639" width="14.28515625" customWidth="1"/>
+    <col min="5640" max="5640" width="15.5703125" customWidth="1"/>
+    <col min="5641" max="5641" width="12.42578125" customWidth="1"/>
+    <col min="5642" max="5642" width="17.140625" customWidth="1"/>
+    <col min="5643" max="5643" width="1.140625" customWidth="1"/>
+    <col min="5644" max="5644" width="22.140625" customWidth="1"/>
+    <col min="5645" max="5645" width="4.5703125" customWidth="1"/>
+    <col min="5646" max="5646" width="10.140625" customWidth="1"/>
+    <col min="5647" max="5647" width="14.7109375" customWidth="1"/>
+    <col min="5891" max="5891" width="1.28515625" customWidth="1"/>
+    <col min="5892" max="5892" width="5" customWidth="1"/>
+    <col min="5893" max="5893" width="11.140625" customWidth="1"/>
+    <col min="5894" max="5894" width="2.42578125" customWidth="1"/>
+    <col min="5895" max="5895" width="14.28515625" customWidth="1"/>
+    <col min="5896" max="5896" width="15.5703125" customWidth="1"/>
+    <col min="5897" max="5897" width="12.42578125" customWidth="1"/>
+    <col min="5898" max="5898" width="17.140625" customWidth="1"/>
+    <col min="5899" max="5899" width="1.140625" customWidth="1"/>
+    <col min="5900" max="5900" width="22.140625" customWidth="1"/>
+    <col min="5901" max="5901" width="4.5703125" customWidth="1"/>
+    <col min="5902" max="5902" width="10.140625" customWidth="1"/>
+    <col min="5903" max="5903" width="14.7109375" customWidth="1"/>
+    <col min="6147" max="6147" width="1.28515625" customWidth="1"/>
+    <col min="6148" max="6148" width="5" customWidth="1"/>
+    <col min="6149" max="6149" width="11.140625" customWidth="1"/>
+    <col min="6150" max="6150" width="2.42578125" customWidth="1"/>
+    <col min="6151" max="6151" width="14.28515625" customWidth="1"/>
+    <col min="6152" max="6152" width="15.5703125" customWidth="1"/>
+    <col min="6153" max="6153" width="12.42578125" customWidth="1"/>
+    <col min="6154" max="6154" width="17.140625" customWidth="1"/>
+    <col min="6155" max="6155" width="1.140625" customWidth="1"/>
+    <col min="6156" max="6156" width="22.140625" customWidth="1"/>
+    <col min="6157" max="6157" width="4.5703125" customWidth="1"/>
+    <col min="6158" max="6158" width="10.140625" customWidth="1"/>
+    <col min="6159" max="6159" width="14.7109375" customWidth="1"/>
+    <col min="6403" max="6403" width="1.28515625" customWidth="1"/>
+    <col min="6404" max="6404" width="5" customWidth="1"/>
+    <col min="6405" max="6405" width="11.140625" customWidth="1"/>
+    <col min="6406" max="6406" width="2.42578125" customWidth="1"/>
+    <col min="6407" max="6407" width="14.28515625" customWidth="1"/>
+    <col min="6408" max="6408" width="15.5703125" customWidth="1"/>
+    <col min="6409" max="6409" width="12.42578125" customWidth="1"/>
+    <col min="6410" max="6410" width="17.140625" customWidth="1"/>
+    <col min="6411" max="6411" width="1.140625" customWidth="1"/>
+    <col min="6412" max="6412" width="22.140625" customWidth="1"/>
+    <col min="6413" max="6413" width="4.5703125" customWidth="1"/>
+    <col min="6414" max="6414" width="10.140625" customWidth="1"/>
+    <col min="6415" max="6415" width="14.7109375" customWidth="1"/>
+    <col min="6659" max="6659" width="1.28515625" customWidth="1"/>
+    <col min="6660" max="6660" width="5" customWidth="1"/>
+    <col min="6661" max="6661" width="11.140625" customWidth="1"/>
+    <col min="6662" max="6662" width="2.42578125" customWidth="1"/>
+    <col min="6663" max="6663" width="14.28515625" customWidth="1"/>
+    <col min="6664" max="6664" width="15.5703125" customWidth="1"/>
+    <col min="6665" max="6665" width="12.42578125" customWidth="1"/>
+    <col min="6666" max="6666" width="17.140625" customWidth="1"/>
+    <col min="6667" max="6667" width="1.140625" customWidth="1"/>
+    <col min="6668" max="6668" width="22.140625" customWidth="1"/>
+    <col min="6669" max="6669" width="4.5703125" customWidth="1"/>
+    <col min="6670" max="6670" width="10.140625" customWidth="1"/>
+    <col min="6671" max="6671" width="14.7109375" customWidth="1"/>
+    <col min="6915" max="6915" width="1.28515625" customWidth="1"/>
+    <col min="6916" max="6916" width="5" customWidth="1"/>
+    <col min="6917" max="6917" width="11.140625" customWidth="1"/>
+    <col min="6918" max="6918" width="2.42578125" customWidth="1"/>
+    <col min="6919" max="6919" width="14.28515625" customWidth="1"/>
+    <col min="6920" max="6920" width="15.5703125" customWidth="1"/>
+    <col min="6921" max="6921" width="12.42578125" customWidth="1"/>
+    <col min="6922" max="6922" width="17.140625" customWidth="1"/>
+    <col min="6923" max="6923" width="1.140625" customWidth="1"/>
+    <col min="6924" max="6924" width="22.140625" customWidth="1"/>
+    <col min="6925" max="6925" width="4.5703125" customWidth="1"/>
+    <col min="6926" max="6926" width="10.140625" customWidth="1"/>
+    <col min="6927" max="6927" width="14.7109375" customWidth="1"/>
+    <col min="7171" max="7171" width="1.28515625" customWidth="1"/>
+    <col min="7172" max="7172" width="5" customWidth="1"/>
+    <col min="7173" max="7173" width="11.140625" customWidth="1"/>
+    <col min="7174" max="7174" width="2.42578125" customWidth="1"/>
+    <col min="7175" max="7175" width="14.28515625" customWidth="1"/>
+    <col min="7176" max="7176" width="15.5703125" customWidth="1"/>
+    <col min="7177" max="7177" width="12.42578125" customWidth="1"/>
+    <col min="7178" max="7178" width="17.140625" customWidth="1"/>
+    <col min="7179" max="7179" width="1.140625" customWidth="1"/>
+    <col min="7180" max="7180" width="22.140625" customWidth="1"/>
+    <col min="7181" max="7181" width="4.5703125" customWidth="1"/>
+    <col min="7182" max="7182" width="10.140625" customWidth="1"/>
+    <col min="7183" max="7183" width="14.7109375" customWidth="1"/>
+    <col min="7427" max="7427" width="1.28515625" customWidth="1"/>
+    <col min="7428" max="7428" width="5" customWidth="1"/>
+    <col min="7429" max="7429" width="11.140625" customWidth="1"/>
+    <col min="7430" max="7430" width="2.42578125" customWidth="1"/>
+    <col min="7431" max="7431" width="14.28515625" customWidth="1"/>
+    <col min="7432" max="7432" width="15.5703125" customWidth="1"/>
+    <col min="7433" max="7433" width="12.42578125" customWidth="1"/>
+    <col min="7434" max="7434" width="17.140625" customWidth="1"/>
+    <col min="7435" max="7435" width="1.140625" customWidth="1"/>
+    <col min="7436" max="7436" width="22.140625" customWidth="1"/>
+    <col min="7437" max="7437" width="4.5703125" customWidth="1"/>
+    <col min="7438" max="7438" width="10.140625" customWidth="1"/>
+    <col min="7439" max="7439" width="14.7109375" customWidth="1"/>
+    <col min="7683" max="7683" width="1.28515625" customWidth="1"/>
+    <col min="7684" max="7684" width="5" customWidth="1"/>
+    <col min="7685" max="7685" width="11.140625" customWidth="1"/>
+    <col min="7686" max="7686" width="2.42578125" customWidth="1"/>
+    <col min="7687" max="7687" width="14.28515625" customWidth="1"/>
+    <col min="7688" max="7688" width="15.5703125" customWidth="1"/>
+    <col min="7689" max="7689" width="12.42578125" customWidth="1"/>
+    <col min="7690" max="7690" width="17.140625" customWidth="1"/>
+    <col min="7691" max="7691" width="1.140625" customWidth="1"/>
+    <col min="7692" max="7692" width="22.140625" customWidth="1"/>
+    <col min="7693" max="7693" width="4.5703125" customWidth="1"/>
+    <col min="7694" max="7694" width="10.140625" customWidth="1"/>
+    <col min="7695" max="7695" width="14.7109375" customWidth="1"/>
+    <col min="7939" max="7939" width="1.28515625" customWidth="1"/>
+    <col min="7940" max="7940" width="5" customWidth="1"/>
+    <col min="7941" max="7941" width="11.140625" customWidth="1"/>
+    <col min="7942" max="7942" width="2.42578125" customWidth="1"/>
+    <col min="7943" max="7943" width="14.28515625" customWidth="1"/>
+    <col min="7944" max="7944" width="15.5703125" customWidth="1"/>
+    <col min="7945" max="7945" width="12.42578125" customWidth="1"/>
+    <col min="7946" max="7946" width="17.140625" customWidth="1"/>
+    <col min="7947" max="7947" width="1.140625" customWidth="1"/>
+    <col min="7948" max="7948" width="22.140625" customWidth="1"/>
+    <col min="7949" max="7949" width="4.5703125" customWidth="1"/>
+    <col min="7950" max="7950" width="10.140625" customWidth="1"/>
+    <col min="7951" max="7951" width="14.7109375" customWidth="1"/>
+    <col min="8195" max="8195" width="1.28515625" customWidth="1"/>
+    <col min="8196" max="8196" width="5" customWidth="1"/>
+    <col min="8197" max="8197" width="11.140625" customWidth="1"/>
+    <col min="8198" max="8198" width="2.42578125" customWidth="1"/>
+    <col min="8199" max="8199" width="14.28515625" customWidth="1"/>
+    <col min="8200" max="8200" width="15.5703125" customWidth="1"/>
+    <col min="8201" max="8201" width="12.42578125" customWidth="1"/>
+    <col min="8202" max="8202" width="17.140625" customWidth="1"/>
+    <col min="8203" max="8203" width="1.140625" customWidth="1"/>
+    <col min="8204" max="8204" width="22.140625" customWidth="1"/>
+    <col min="8205" max="8205" width="4.5703125" customWidth="1"/>
+    <col min="8206" max="8206" width="10.140625" customWidth="1"/>
+    <col min="8207" max="8207" width="14.7109375" customWidth="1"/>
+    <col min="8451" max="8451" width="1.28515625" customWidth="1"/>
+    <col min="8452" max="8452" width="5" customWidth="1"/>
+    <col min="8453" max="8453" width="11.140625" customWidth="1"/>
+    <col min="8454" max="8454" width="2.42578125" customWidth="1"/>
+    <col min="8455" max="8455" width="14.28515625" customWidth="1"/>
+    <col min="8456" max="8456" width="15.5703125" customWidth="1"/>
+    <col min="8457" max="8457" width="12.42578125" customWidth="1"/>
+    <col min="8458" max="8458" width="17.140625" customWidth="1"/>
+    <col min="8459" max="8459" width="1.140625" customWidth="1"/>
+    <col min="8460" max="8460" width="22.140625" customWidth="1"/>
+    <col min="8461" max="8461" width="4.5703125" customWidth="1"/>
+    <col min="8462" max="8462" width="10.140625" customWidth="1"/>
+    <col min="8463" max="8463" width="14.7109375" customWidth="1"/>
+    <col min="8707" max="8707" width="1.28515625" customWidth="1"/>
+    <col min="8708" max="8708" width="5" customWidth="1"/>
+    <col min="8709" max="8709" width="11.140625" customWidth="1"/>
+    <col min="8710" max="8710" width="2.42578125" customWidth="1"/>
+    <col min="8711" max="8711" width="14.28515625" customWidth="1"/>
+    <col min="8712" max="8712" width="15.5703125" customWidth="1"/>
+    <col min="8713" max="8713" width="12.42578125" customWidth="1"/>
+    <col min="8714" max="8714" width="17.140625" customWidth="1"/>
+    <col min="8715" max="8715" width="1.140625" customWidth="1"/>
+    <col min="8716" max="8716" width="22.140625" customWidth="1"/>
+    <col min="8717" max="8717" width="4.5703125" customWidth="1"/>
+    <col min="8718" max="8718" width="10.140625" customWidth="1"/>
+    <col min="8719" max="8719" width="14.7109375" customWidth="1"/>
+    <col min="8963" max="8963" width="1.28515625" customWidth="1"/>
+    <col min="8964" max="8964" width="5" customWidth="1"/>
+    <col min="8965" max="8965" width="11.140625" customWidth="1"/>
+    <col min="8966" max="8966" width="2.42578125" customWidth="1"/>
+    <col min="8967" max="8967" width="14.28515625" customWidth="1"/>
+    <col min="8968" max="8968" width="15.5703125" customWidth="1"/>
+    <col min="8969" max="8969" width="12.42578125" customWidth="1"/>
+    <col min="8970" max="8970" width="17.140625" customWidth="1"/>
+    <col min="8971" max="8971" width="1.140625" customWidth="1"/>
+    <col min="8972" max="8972" width="22.140625" customWidth="1"/>
+    <col min="8973" max="8973" width="4.5703125" customWidth="1"/>
+    <col min="8974" max="8974" width="10.140625" customWidth="1"/>
+    <col min="8975" max="8975" width="14.7109375" customWidth="1"/>
+    <col min="9219" max="9219" width="1.28515625" customWidth="1"/>
+    <col min="9220" max="9220" width="5" customWidth="1"/>
+    <col min="9221" max="9221" width="11.140625" customWidth="1"/>
+    <col min="9222" max="9222" width="2.42578125" customWidth="1"/>
+    <col min="9223" max="9223" width="14.28515625" customWidth="1"/>
+    <col min="9224" max="9224" width="15.5703125" customWidth="1"/>
+    <col min="9225" max="9225" width="12.42578125" customWidth="1"/>
+    <col min="9226" max="9226" width="17.140625" customWidth="1"/>
+    <col min="9227" max="9227" width="1.140625" customWidth="1"/>
+    <col min="9228" max="9228" width="22.140625" customWidth="1"/>
+    <col min="9229" max="9229" width="4.5703125" customWidth="1"/>
+    <col min="9230" max="9230" width="10.140625" customWidth="1"/>
+    <col min="9231" max="9231" width="14.7109375" customWidth="1"/>
+    <col min="9475" max="9475" width="1.28515625" customWidth="1"/>
+    <col min="9476" max="9476" width="5" customWidth="1"/>
+    <col min="9477" max="9477" width="11.140625" customWidth="1"/>
+    <col min="9478" max="9478" width="2.42578125" customWidth="1"/>
+    <col min="9479" max="9479" width="14.28515625" customWidth="1"/>
+    <col min="9480" max="9480" width="15.5703125" customWidth="1"/>
+    <col min="9481" max="9481" width="12.42578125" customWidth="1"/>
+    <col min="9482" max="9482" width="17.140625" customWidth="1"/>
+    <col min="9483" max="9483" width="1.140625" customWidth="1"/>
+    <col min="9484" max="9484" width="22.140625" customWidth="1"/>
+    <col min="9485" max="9485" width="4.5703125" customWidth="1"/>
+    <col min="9486" max="9486" width="10.140625" customWidth="1"/>
+    <col min="9487" max="9487" width="14.7109375" customWidth="1"/>
+    <col min="9731" max="9731" width="1.28515625" customWidth="1"/>
+    <col min="9732" max="9732" width="5" customWidth="1"/>
+    <col min="9733" max="9733" width="11.140625" customWidth="1"/>
+    <col min="9734" max="9734" width="2.42578125" customWidth="1"/>
+    <col min="9735" max="9735" width="14.28515625" customWidth="1"/>
+    <col min="9736" max="9736" width="15.5703125" customWidth="1"/>
+    <col min="9737" max="9737" width="12.42578125" customWidth="1"/>
+    <col min="9738" max="9738" width="17.140625" customWidth="1"/>
+    <col min="9739" max="9739" width="1.140625" customWidth="1"/>
+    <col min="9740" max="9740" width="22.140625" customWidth="1"/>
+    <col min="9741" max="9741" width="4.5703125" customWidth="1"/>
+    <col min="9742" max="9742" width="10.140625" customWidth="1"/>
+    <col min="9743" max="9743" width="14.7109375" customWidth="1"/>
+    <col min="9987" max="9987" width="1.28515625" customWidth="1"/>
+    <col min="9988" max="9988" width="5" customWidth="1"/>
+    <col min="9989" max="9989" width="11.140625" customWidth="1"/>
+    <col min="9990" max="9990" width="2.42578125" customWidth="1"/>
+    <col min="9991" max="9991" width="14.28515625" customWidth="1"/>
+    <col min="9992" max="9992" width="15.5703125" customWidth="1"/>
+    <col min="9993" max="9993" width="12.42578125" customWidth="1"/>
+    <col min="9994" max="9994" width="17.140625" customWidth="1"/>
+    <col min="9995" max="9995" width="1.140625" customWidth="1"/>
+    <col min="9996" max="9996" width="22.140625" customWidth="1"/>
+    <col min="9997" max="9997" width="4.5703125" customWidth="1"/>
+    <col min="9998" max="9998" width="10.140625" customWidth="1"/>
+    <col min="9999" max="9999" width="14.7109375" customWidth="1"/>
+    <col min="10243" max="10243" width="1.28515625" customWidth="1"/>
+    <col min="10244" max="10244" width="5" customWidth="1"/>
+    <col min="10245" max="10245" width="11.140625" customWidth="1"/>
+    <col min="10246" max="10246" width="2.42578125" customWidth="1"/>
+    <col min="10247" max="10247" width="14.28515625" customWidth="1"/>
+    <col min="10248" max="10248" width="15.5703125" customWidth="1"/>
+    <col min="10249" max="10249" width="12.42578125" customWidth="1"/>
+    <col min="10250" max="10250" width="17.140625" customWidth="1"/>
+    <col min="10251" max="10251" width="1.140625" customWidth="1"/>
+    <col min="10252" max="10252" width="22.140625" customWidth="1"/>
+    <col min="10253" max="10253" width="4.5703125" customWidth="1"/>
+    <col min="10254" max="10254" width="10.140625" customWidth="1"/>
+    <col min="10255" max="10255" width="14.7109375" customWidth="1"/>
+    <col min="10499" max="10499" width="1.28515625" customWidth="1"/>
+    <col min="10500" max="10500" width="5" customWidth="1"/>
+    <col min="10501" max="10501" width="11.140625" customWidth="1"/>
+    <col min="10502" max="10502" width="2.42578125" customWidth="1"/>
+    <col min="10503" max="10503" width="14.28515625" customWidth="1"/>
+    <col min="10504" max="10504" width="15.5703125" customWidth="1"/>
+    <col min="10505" max="10505" width="12.42578125" customWidth="1"/>
+    <col min="10506" max="10506" width="17.140625" customWidth="1"/>
+    <col min="10507" max="10507" width="1.140625" customWidth="1"/>
+    <col min="10508" max="10508" width="22.140625" customWidth="1"/>
+    <col min="10509" max="10509" width="4.5703125" customWidth="1"/>
+    <col min="10510" max="10510" width="10.140625" customWidth="1"/>
+    <col min="10511" max="10511" width="14.7109375" customWidth="1"/>
+    <col min="10755" max="10755" width="1.28515625" customWidth="1"/>
+    <col min="10756" max="10756" width="5" customWidth="1"/>
+    <col min="10757" max="10757" width="11.140625" customWidth="1"/>
+    <col min="10758" max="10758" width="2.42578125" customWidth="1"/>
+    <col min="10759" max="10759" width="14.28515625" customWidth="1"/>
+    <col min="10760" max="10760" width="15.5703125" customWidth="1"/>
+    <col min="10761" max="10761" width="12.42578125" customWidth="1"/>
+    <col min="10762" max="10762" width="17.140625" customWidth="1"/>
+    <col min="10763" max="10763" width="1.140625" customWidth="1"/>
+    <col min="10764" max="10764" width="22.140625" customWidth="1"/>
+    <col min="10765" max="10765" width="4.5703125" customWidth="1"/>
+    <col min="10766" max="10766" width="10.140625" customWidth="1"/>
+    <col min="10767" max="10767" width="14.7109375" customWidth="1"/>
+    <col min="11011" max="11011" width="1.28515625" customWidth="1"/>
+    <col min="11012" max="11012" width="5" customWidth="1"/>
+    <col min="11013" max="11013" width="11.140625" customWidth="1"/>
+    <col min="11014" max="11014" width="2.42578125" customWidth="1"/>
+    <col min="11015" max="11015" width="14.28515625" customWidth="1"/>
+    <col min="11016" max="11016" width="15.5703125" customWidth="1"/>
+    <col min="11017" max="11017" width="12.42578125" customWidth="1"/>
+    <col min="11018" max="11018" width="17.140625" customWidth="1"/>
+    <col min="11019" max="11019" width="1.140625" customWidth="1"/>
+    <col min="11020" max="11020" width="22.140625" customWidth="1"/>
+    <col min="11021" max="11021" width="4.5703125" customWidth="1"/>
+    <col min="11022" max="11022" width="10.140625" customWidth="1"/>
+    <col min="11023" max="11023" width="14.7109375" customWidth="1"/>
+    <col min="11267" max="11267" width="1.28515625" customWidth="1"/>
+    <col min="11268" max="11268" width="5" customWidth="1"/>
+    <col min="11269" max="11269" width="11.140625" customWidth="1"/>
+    <col min="11270" max="11270" width="2.42578125" customWidth="1"/>
+    <col min="11271" max="11271" width="14.28515625" customWidth="1"/>
+    <col min="11272" max="11272" width="15.5703125" customWidth="1"/>
+    <col min="11273" max="11273" width="12.42578125" customWidth="1"/>
+    <col min="11274" max="11274" width="17.140625" customWidth="1"/>
+    <col min="11275" max="11275" width="1.140625" customWidth="1"/>
+    <col min="11276" max="11276" width="22.140625" customWidth="1"/>
+    <col min="11277" max="11277" width="4.5703125" customWidth="1"/>
+    <col min="11278" max="11278" width="10.140625" customWidth="1"/>
+    <col min="11279" max="11279" width="14.7109375" customWidth="1"/>
+    <col min="11523" max="11523" width="1.28515625" customWidth="1"/>
+    <col min="11524" max="11524" width="5" customWidth="1"/>
+    <col min="11525" max="11525" width="11.140625" customWidth="1"/>
+    <col min="11526" max="11526" width="2.42578125" customWidth="1"/>
+    <col min="11527" max="11527" width="14.28515625" customWidth="1"/>
+    <col min="11528" max="11528" width="15.5703125" customWidth="1"/>
+    <col min="11529" max="11529" width="12.42578125" customWidth="1"/>
+    <col min="11530" max="11530" width="17.140625" customWidth="1"/>
+    <col min="11531" max="11531" width="1.140625" customWidth="1"/>
+    <col min="11532" max="11532" width="22.140625" customWidth="1"/>
+    <col min="11533" max="11533" width="4.5703125" customWidth="1"/>
+    <col min="11534" max="11534" width="10.140625" customWidth="1"/>
+    <col min="11535" max="11535" width="14.7109375" customWidth="1"/>
+    <col min="11779" max="11779" width="1.28515625" customWidth="1"/>
+    <col min="11780" max="11780" width="5" customWidth="1"/>
+    <col min="11781" max="11781" width="11.140625" customWidth="1"/>
+    <col min="11782" max="11782" width="2.42578125" customWidth="1"/>
+    <col min="11783" max="11783" width="14.28515625" customWidth="1"/>
+    <col min="11784" max="11784" width="15.5703125" customWidth="1"/>
+    <col min="11785" max="11785" width="12.42578125" customWidth="1"/>
+    <col min="11786" max="11786" width="17.140625" customWidth="1"/>
+    <col min="11787" max="11787" width="1.140625" customWidth="1"/>
+    <col min="11788" max="11788" width="22.140625" customWidth="1"/>
+    <col min="11789" max="11789" width="4.5703125" customWidth="1"/>
+    <col min="11790" max="11790" width="10.140625" customWidth="1"/>
+    <col min="11791" max="11791" width="14.7109375" customWidth="1"/>
+    <col min="12035" max="12035" width="1.28515625" customWidth="1"/>
+    <col min="12036" max="12036" width="5" customWidth="1"/>
+    <col min="12037" max="12037" width="11.140625" customWidth="1"/>
+    <col min="12038" max="12038" width="2.42578125" customWidth="1"/>
+    <col min="12039" max="12039" width="14.28515625" customWidth="1"/>
+    <col min="12040" max="12040" width="15.5703125" customWidth="1"/>
+    <col min="12041" max="12041" width="12.42578125" customWidth="1"/>
+    <col min="12042" max="12042" width="17.140625" customWidth="1"/>
+    <col min="12043" max="12043" width="1.140625" customWidth="1"/>
+    <col min="12044" max="12044" width="22.140625" customWidth="1"/>
+    <col min="12045" max="12045" width="4.5703125" customWidth="1"/>
+    <col min="12046" max="12046" width="10.140625" customWidth="1"/>
+    <col min="12047" max="12047" width="14.7109375" customWidth="1"/>
+    <col min="12291" max="12291" width="1.28515625" customWidth="1"/>
+    <col min="12292" max="12292" width="5" customWidth="1"/>
+    <col min="12293" max="12293" width="11.140625" customWidth="1"/>
+    <col min="12294" max="12294" width="2.42578125" customWidth="1"/>
+    <col min="12295" max="12295" width="14.28515625" customWidth="1"/>
+    <col min="12296" max="12296" width="15.5703125" customWidth="1"/>
+    <col min="12297" max="12297" width="12.42578125" customWidth="1"/>
+    <col min="12298" max="12298" width="17.140625" customWidth="1"/>
+    <col min="12299" max="12299" width="1.140625" customWidth="1"/>
+    <col min="12300" max="12300" width="22.140625" customWidth="1"/>
+    <col min="12301" max="12301" width="4.5703125" customWidth="1"/>
+    <col min="12302" max="12302" width="10.140625" customWidth="1"/>
+    <col min="12303" max="12303" width="14.7109375" customWidth="1"/>
+    <col min="12547" max="12547" width="1.28515625" customWidth="1"/>
+    <col min="12548" max="12548" width="5" customWidth="1"/>
+    <col min="12549" max="12549" width="11.140625" customWidth="1"/>
+    <col min="12550" max="12550" width="2.42578125" customWidth="1"/>
+    <col min="12551" max="12551" width="14.28515625" customWidth="1"/>
+    <col min="12552" max="12552" width="15.5703125" customWidth="1"/>
+    <col min="12553" max="12553" width="12.42578125" customWidth="1"/>
+    <col min="12554" max="12554" width="17.140625" customWidth="1"/>
+    <col min="12555" max="12555" width="1.140625" customWidth="1"/>
+    <col min="12556" max="12556" width="22.140625" customWidth="1"/>
+    <col min="12557" max="12557" width="4.5703125" customWidth="1"/>
+    <col min="12558" max="12558" width="10.140625" customWidth="1"/>
+    <col min="12559" max="12559" width="14.7109375" customWidth="1"/>
+    <col min="12803" max="12803" width="1.28515625" customWidth="1"/>
+    <col min="12804" max="12804" width="5" customWidth="1"/>
+    <col min="12805" max="12805" width="11.140625" customWidth="1"/>
+    <col min="12806" max="12806" width="2.42578125" customWidth="1"/>
+    <col min="12807" max="12807" width="14.28515625" customWidth="1"/>
+    <col min="12808" max="12808" width="15.5703125" customWidth="1"/>
+    <col min="12809" max="12809" width="12.42578125" customWidth="1"/>
+    <col min="12810" max="12810" width="17.140625" customWidth="1"/>
+    <col min="12811" max="12811" width="1.140625" customWidth="1"/>
+    <col min="12812" max="12812" width="22.140625" customWidth="1"/>
+    <col min="12813" max="12813" width="4.5703125" customWidth="1"/>
+    <col min="12814" max="12814" width="10.140625" customWidth="1"/>
+    <col min="12815" max="12815" width="14.7109375" customWidth="1"/>
+    <col min="13059" max="13059" width="1.28515625" customWidth="1"/>
+    <col min="13060" max="13060" width="5" customWidth="1"/>
+    <col min="13061" max="13061" width="11.140625" customWidth="1"/>
+    <col min="13062" max="13062" width="2.42578125" customWidth="1"/>
+    <col min="13063" max="13063" width="14.28515625" customWidth="1"/>
+    <col min="13064" max="13064" width="15.5703125" customWidth="1"/>
+    <col min="13065" max="13065" width="12.42578125" customWidth="1"/>
+    <col min="13066" max="13066" width="17.140625" customWidth="1"/>
+    <col min="13067" max="13067" width="1.140625" customWidth="1"/>
+    <col min="13068" max="13068" width="22.140625" customWidth="1"/>
+    <col min="13069" max="13069" width="4.5703125" customWidth="1"/>
+    <col min="13070" max="13070" width="10.140625" customWidth="1"/>
+    <col min="13071" max="13071" width="14.7109375" customWidth="1"/>
+    <col min="13315" max="13315" width="1.28515625" customWidth="1"/>
+    <col min="13316" max="13316" width="5" customWidth="1"/>
+    <col min="13317" max="13317" width="11.140625" customWidth="1"/>
+    <col min="13318" max="13318" width="2.42578125" customWidth="1"/>
+    <col min="13319" max="13319" width="14.28515625" customWidth="1"/>
+    <col min="13320" max="13320" width="15.5703125" customWidth="1"/>
+    <col min="13321" max="13321" width="12.42578125" customWidth="1"/>
+    <col min="13322" max="13322" width="17.140625" customWidth="1"/>
+    <col min="13323" max="13323" width="1.140625" customWidth="1"/>
+    <col min="13324" max="13324" width="22.140625" customWidth="1"/>
+    <col min="13325" max="13325" width="4.5703125" customWidth="1"/>
+    <col min="13326" max="13326" width="10.140625" customWidth="1"/>
+    <col min="13327" max="13327" width="14.7109375" customWidth="1"/>
+    <col min="13571" max="13571" width="1.28515625" customWidth="1"/>
+    <col min="13572" max="13572" width="5" customWidth="1"/>
+    <col min="13573" max="13573" width="11.140625" customWidth="1"/>
+    <col min="13574" max="13574" width="2.42578125" customWidth="1"/>
+    <col min="13575" max="13575" width="14.28515625" customWidth="1"/>
+    <col min="13576" max="13576" width="15.5703125" customWidth="1"/>
+    <col min="13577" max="13577" width="12.42578125" customWidth="1"/>
+    <col min="13578" max="13578" width="17.140625" customWidth="1"/>
+    <col min="13579" max="13579" width="1.140625" customWidth="1"/>
+    <col min="13580" max="13580" width="22.140625" customWidth="1"/>
+    <col min="13581" max="13581" width="4.5703125" customWidth="1"/>
+    <col min="13582" max="13582" width="10.140625" customWidth="1"/>
+    <col min="13583" max="13583" width="14.7109375" customWidth="1"/>
+    <col min="13827" max="13827" width="1.28515625" customWidth="1"/>
+    <col min="13828" max="13828" width="5" customWidth="1"/>
+    <col min="13829" max="13829" width="11.140625" customWidth="1"/>
+    <col min="13830" max="13830" width="2.42578125" customWidth="1"/>
+    <col min="13831" max="13831" width="14.28515625" customWidth="1"/>
+    <col min="13832" max="13832" width="15.5703125" customWidth="1"/>
+    <col min="13833" max="13833" width="12.42578125" customWidth="1"/>
+    <col min="13834" max="13834" width="17.140625" customWidth="1"/>
+    <col min="13835" max="13835" width="1.140625" customWidth="1"/>
+    <col min="13836" max="13836" width="22.140625" customWidth="1"/>
+    <col min="13837" max="13837" width="4.5703125" customWidth="1"/>
+    <col min="13838" max="13838" width="10.140625" customWidth="1"/>
+    <col min="13839" max="13839" width="14.7109375" customWidth="1"/>
+    <col min="14083" max="14083" width="1.28515625" customWidth="1"/>
+    <col min="14084" max="14084" width="5" customWidth="1"/>
+    <col min="14085" max="14085" width="11.140625" customWidth="1"/>
+    <col min="14086" max="14086" width="2.42578125" customWidth="1"/>
+    <col min="14087" max="14087" width="14.28515625" customWidth="1"/>
+    <col min="14088" max="14088" width="15.5703125" customWidth="1"/>
+    <col min="14089" max="14089" width="12.42578125" customWidth="1"/>
+    <col min="14090" max="14090" width="17.140625" customWidth="1"/>
+    <col min="14091" max="14091" width="1.140625" customWidth="1"/>
+    <col min="14092" max="14092" width="22.140625" customWidth="1"/>
+    <col min="14093" max="14093" width="4.5703125" customWidth="1"/>
+    <col min="14094" max="14094" width="10.140625" customWidth="1"/>
+    <col min="14095" max="14095" width="14.7109375" customWidth="1"/>
+    <col min="14339" max="14339" width="1.28515625" customWidth="1"/>
+    <col min="14340" max="14340" width="5" customWidth="1"/>
+    <col min="14341" max="14341" width="11.140625" customWidth="1"/>
+    <col min="14342" max="14342" width="2.42578125" customWidth="1"/>
+    <col min="14343" max="14343" width="14.28515625" customWidth="1"/>
+    <col min="14344" max="14344" width="15.5703125" customWidth="1"/>
+    <col min="14345" max="14345" width="12.42578125" customWidth="1"/>
+    <col min="14346" max="14346" width="17.140625" customWidth="1"/>
+    <col min="14347" max="14347" width="1.140625" customWidth="1"/>
+    <col min="14348" max="14348" width="22.140625" customWidth="1"/>
+    <col min="14349" max="14349" width="4.5703125" customWidth="1"/>
+    <col min="14350" max="14350" width="10.140625" customWidth="1"/>
+    <col min="14351" max="14351" width="14.7109375" customWidth="1"/>
+    <col min="14595" max="14595" width="1.28515625" customWidth="1"/>
+    <col min="14596" max="14596" width="5" customWidth="1"/>
+    <col min="14597" max="14597" width="11.140625" customWidth="1"/>
+    <col min="14598" max="14598" width="2.42578125" customWidth="1"/>
+    <col min="14599" max="14599" width="14.28515625" customWidth="1"/>
+    <col min="14600" max="14600" width="15.5703125" customWidth="1"/>
+    <col min="14601" max="14601" width="12.42578125" customWidth="1"/>
+    <col min="14602" max="14602" width="17.140625" customWidth="1"/>
+    <col min="14603" max="14603" width="1.140625" customWidth="1"/>
+    <col min="14604" max="14604" width="22.140625" customWidth="1"/>
+    <col min="14605" max="14605" width="4.5703125" customWidth="1"/>
+    <col min="14606" max="14606" width="10.140625" customWidth="1"/>
+    <col min="14607" max="14607" width="14.7109375" customWidth="1"/>
+    <col min="14851" max="14851" width="1.28515625" customWidth="1"/>
+    <col min="14852" max="14852" width="5" customWidth="1"/>
+    <col min="14853" max="14853" width="11.140625" customWidth="1"/>
+    <col min="14854" max="14854" width="2.42578125" customWidth="1"/>
+    <col min="14855" max="14855" width="14.28515625" customWidth="1"/>
+    <col min="14856" max="14856" width="15.5703125" customWidth="1"/>
+    <col min="14857" max="14857" width="12.42578125" customWidth="1"/>
+    <col min="14858" max="14858" width="17.140625" customWidth="1"/>
+    <col min="14859" max="14859" width="1.140625" customWidth="1"/>
+    <col min="14860" max="14860" width="22.140625" customWidth="1"/>
+    <col min="14861" max="14861" width="4.5703125" customWidth="1"/>
+    <col min="14862" max="14862" width="10.140625" customWidth="1"/>
+    <col min="14863" max="14863" width="14.7109375" customWidth="1"/>
+    <col min="15107" max="15107" width="1.28515625" customWidth="1"/>
+    <col min="15108" max="15108" width="5" customWidth="1"/>
+    <col min="15109" max="15109" width="11.140625" customWidth="1"/>
+    <col min="15110" max="15110" width="2.42578125" customWidth="1"/>
+    <col min="15111" max="15111" width="14.28515625" customWidth="1"/>
+    <col min="15112" max="15112" width="15.5703125" customWidth="1"/>
+    <col min="15113" max="15113" width="12.42578125" customWidth="1"/>
+    <col min="15114" max="15114" width="17.140625" customWidth="1"/>
+    <col min="15115" max="15115" width="1.140625" customWidth="1"/>
+    <col min="15116" max="15116" width="22.140625" customWidth="1"/>
+    <col min="15117" max="15117" width="4.5703125" customWidth="1"/>
+    <col min="15118" max="15118" width="10.140625" customWidth="1"/>
+    <col min="15119" max="15119" width="14.7109375" customWidth="1"/>
+    <col min="15363" max="15363" width="1.28515625" customWidth="1"/>
+    <col min="15364" max="15364" width="5" customWidth="1"/>
+    <col min="15365" max="15365" width="11.140625" customWidth="1"/>
+    <col min="15366" max="15366" width="2.42578125" customWidth="1"/>
+    <col min="15367" max="15367" width="14.28515625" customWidth="1"/>
+    <col min="15368" max="15368" width="15.5703125" customWidth="1"/>
+    <col min="15369" max="15369" width="12.42578125" customWidth="1"/>
+    <col min="15370" max="15370" width="17.140625" customWidth="1"/>
+    <col min="15371" max="15371" width="1.140625" customWidth="1"/>
+    <col min="15372" max="15372" width="22.140625" customWidth="1"/>
+    <col min="15373" max="15373" width="4.5703125" customWidth="1"/>
+    <col min="15374" max="15374" width="10.140625" customWidth="1"/>
+    <col min="15375" max="15375" width="14.7109375" customWidth="1"/>
+    <col min="15619" max="15619" width="1.28515625" customWidth="1"/>
+    <col min="15620" max="15620" width="5" customWidth="1"/>
+    <col min="15621" max="15621" width="11.140625" customWidth="1"/>
+    <col min="15622" max="15622" width="2.42578125" customWidth="1"/>
+    <col min="15623" max="15623" width="14.28515625" customWidth="1"/>
+    <col min="15624" max="15624" width="15.5703125" customWidth="1"/>
+    <col min="15625" max="15625" width="12.42578125" customWidth="1"/>
+    <col min="15626" max="15626" width="17.140625" customWidth="1"/>
+    <col min="15627" max="15627" width="1.140625" customWidth="1"/>
+    <col min="15628" max="15628" width="22.140625" customWidth="1"/>
+    <col min="15629" max="15629" width="4.5703125" customWidth="1"/>
+    <col min="15630" max="15630" width="10.140625" customWidth="1"/>
+    <col min="15631" max="15631" width="14.7109375" customWidth="1"/>
+    <col min="15875" max="15875" width="1.28515625" customWidth="1"/>
+    <col min="15876" max="15876" width="5" customWidth="1"/>
+    <col min="15877" max="15877" width="11.140625" customWidth="1"/>
+    <col min="15878" max="15878" width="2.42578125" customWidth="1"/>
+    <col min="15879" max="15879" width="14.28515625" customWidth="1"/>
+    <col min="15880" max="15880" width="15.5703125" customWidth="1"/>
+    <col min="15881" max="15881" width="12.42578125" customWidth="1"/>
+    <col min="15882" max="15882" width="17.140625" customWidth="1"/>
+    <col min="15883" max="15883" width="1.140625" customWidth="1"/>
+    <col min="15884" max="15884" width="22.140625" customWidth="1"/>
+    <col min="15885" max="15885" width="4.5703125" customWidth="1"/>
+    <col min="15886" max="15886" width="10.140625" customWidth="1"/>
+    <col min="15887" max="15887" width="14.7109375" customWidth="1"/>
+    <col min="16131" max="16131" width="1.28515625" customWidth="1"/>
+    <col min="16132" max="16132" width="5" customWidth="1"/>
+    <col min="16133" max="16133" width="11.140625" customWidth="1"/>
+    <col min="16134" max="16134" width="2.42578125" customWidth="1"/>
+    <col min="16135" max="16135" width="14.28515625" customWidth="1"/>
+    <col min="16136" max="16136" width="15.5703125" customWidth="1"/>
+    <col min="16137" max="16137" width="12.42578125" customWidth="1"/>
+    <col min="16138" max="16138" width="17.140625" customWidth="1"/>
+    <col min="16139" max="16139" width="1.140625" customWidth="1"/>
+    <col min="16140" max="16140" width="22.140625" customWidth="1"/>
+    <col min="16141" max="16141" width="4.5703125" customWidth="1"/>
+    <col min="16142" max="16142" width="10.140625" customWidth="1"/>
+    <col min="16143" max="16143" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="65" t="s">
         <v>39</v>
       </c>
@@ -3649,209 +3669,235 @@
       <c r="E1" s="66"/>
       <c r="F1" s="66"/>
       <c r="G1" s="67"/>
-      <c r="H1" s="85" t="e">
+      <c r="H1" s="67"/>
+      <c r="I1" s="85" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="I1" s="68"/>
-      <c r="J1" s="69" t="s">
+      <c r="J1" s="68"/>
+      <c r="K1" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="70"/>
-      <c r="L1" s="152" t="e">
+      <c r="L1" s="70"/>
+      <c r="M1" s="143" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="M1" s="152"/>
-    </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="I2" s="68"/>
-      <c r="J2" s="71"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N1" s="143"/>
+      <c r="O1" s="143"/>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="J2" s="68"/>
+      <c r="K2" s="71"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="70"/>
-      <c r="E3" s="152" t="e">
+      <c r="E3" s="143" t="e">
         <f>WayBillList_AddressSel</f>
         <v>#NAME?</v>
       </c>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="92" t="e">
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="92" t="e">
         <f>WayBillList_EntKaFullName</f>
         <v>#NAME?</v>
       </c>
-      <c r="K3" s="73"/>
       <c r="L3" s="73"/>
       <c r="M3" s="73"/>
-    </row>
-    <row r="4" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+    </row>
+    <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="154" t="e">
+      <c r="E4" s="145" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="F4" s="154"/>
+      <c r="F4" s="145"/>
       <c r="G4" s="70"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="73"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="73"/>
       <c r="M4" s="73"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="I5" s="68"/>
-      <c r="J5" s="71"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="110" t="s">
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="J5" s="68"/>
+      <c r="K5" s="71"/>
+    </row>
+    <row r="6" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="112"/>
-      <c r="E6" s="110" t="s">
+      <c r="D6" s="109"/>
+      <c r="E6" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="112"/>
-      <c r="G6" s="143" t="s">
+      <c r="F6" s="109"/>
+      <c r="G6" s="152" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="144"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="145" t="s">
+      <c r="H6" s="153"/>
+      <c r="I6" s="153"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="154" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="110" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6" s="112"/>
-      <c r="M6" s="155" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="141"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="142"/>
+      <c r="L6" s="107" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="109"/>
+      <c r="N6" s="148" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" s="148" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="146"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="147"/>
       <c r="G7" s="13" t="s">
         <v>4</v>
       </c>
       <c r="H7" s="75" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="68"/>
-      <c r="J7" s="146"/>
-      <c r="K7" s="141"/>
-      <c r="L7" s="142"/>
-      <c r="M7" s="156"/>
-    </row>
-    <row r="8" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="I7" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="68"/>
+      <c r="K7" s="155"/>
+      <c r="L7" s="146"/>
+      <c r="M7" s="147"/>
+      <c r="N7" s="149"/>
+      <c r="O7" s="149"/>
+    </row>
+    <row r="8" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="87" t="e">
         <f>range_oz_Num</f>
         <v>#NAME?</v>
       </c>
-      <c r="C8" s="147" t="e">
+      <c r="C8" s="156" t="e">
         <f>range_oz_InvNumber</f>
         <v>#NAME?</v>
       </c>
-      <c r="D8" s="147"/>
-      <c r="E8" s="150" t="e">
+      <c r="D8" s="156"/>
+      <c r="E8" s="159" t="e">
         <f>range_oz_MatName</f>
         <v>#NAME?</v>
       </c>
-      <c r="F8" s="151"/>
+      <c r="F8" s="160"/>
       <c r="G8" s="88" t="e">
         <f>range_oz_Remain</f>
         <v>#NAME?</v>
       </c>
-      <c r="H8" s="157" t="e">
+      <c r="H8" s="162" t="e">
         <f>range_oz_Price</f>
         <v>#NAME?</v>
       </c>
-      <c r="I8" s="89"/>
-      <c r="J8" s="91" t="e">
+      <c r="I8" s="95" t="e">
+        <f>G8*H8</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J8" s="89"/>
+      <c r="K8" s="91" t="e">
         <f>range_oz_MatName</f>
         <v>#NAME?</v>
       </c>
-      <c r="K8" s="148"/>
-      <c r="L8" s="149"/>
-      <c r="M8" s="76"/>
-    </row>
-    <row r="9" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L8" s="157"/>
+      <c r="M8" s="158"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="76"/>
+    </row>
+    <row r="9" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F9" s="77" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G9" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="H9" s="158" t="s">
+      <c r="H9" s="161"/>
+      <c r="I9" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="68"/>
-      <c r="J9" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="K9" s="139"/>
-      <c r="L9" s="140"/>
-      <c r="M9" s="78"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J9" s="68"/>
+      <c r="K9" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="150"/>
+      <c r="M9" s="151"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="78"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="F10" s="79"/>
       <c r="G10" s="80"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="79"/>
       <c r="L10" s="80"/>
       <c r="M10" s="80"/>
-    </row>
-    <row r="11" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N10" s="80"/>
+      <c r="O10" s="80"/>
+    </row>
+    <row r="11" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F11" s="86" t="e">
         <f>WayBillList_EntKaFullName</f>
         <v>#NAME?</v>
       </c>
       <c r="G11" s="73"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="83" t="s">
-        <v>52</v>
-      </c>
-      <c r="K11" s="84"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="83" t="s">
+        <v>54</v>
+      </c>
       <c r="L11" s="84"/>
-      <c r="M11" s="80"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="84"/>
+      <c r="O11" s="80"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="K6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="K9:L9"/>
+  <mergeCells count="15">
+    <mergeCell ref="L9:M9"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:D7"/>
     <mergeCell ref="E6:F7"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="K6:K7"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="L8:M8"/>
     <mergeCell ref="E8:F8"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="L6:M7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="N6:N7"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="76" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SP_Sklad/TempLate/WayBill_Out.xlsx
+++ b/SP_Sklad/TempLate/WayBill_Out.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="5550" yWindow="5175" windowWidth="13395" windowHeight="8310"/>
@@ -14,16 +14,16 @@
   <definedNames>
     <definedName name="Posvitcheny">'Посвідчення якості'!$A$14:$N$15</definedName>
     <definedName name="range_oz">'Інвентаризація ОЗ'!$A$8:$O$9</definedName>
-    <definedName name="range1">Накладна!$A$20:$Q$21</definedName>
+    <definedName name="range1">Накладна!$A$20:$P$21</definedName>
     <definedName name="range2">'Посвідчення якості'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Накладна!$A$1:$Q$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Накладна!$A$1:$AF$30</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
   <si>
     <t>sum</t>
   </si>
@@ -193,13 +193,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yy\ h:mm;@"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -411,7 +411,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -581,15 +581,6 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="55"/>
       </top>
@@ -1003,7 +994,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1057,7 +1048,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1121,7 +1112,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1141,7 +1132,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1160,266 +1151,284 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1581,7 +1590,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1616,7 +1624,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1792,64 +1799,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A2:R30"/>
+  <dimension ref="A2:AF30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R30" sqref="R30:S30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="0.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="14" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="8.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="2.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="0.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="1.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="4.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.140625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3" style="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="7.42578125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="7.140625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="8.28515625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="0.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="0.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="29" max="30" width="9.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="10.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="12.140625" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="97" t="s">
+    <row r="2" spans="2:32" ht="16.5" customHeight="1">
+      <c r="B2" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="30" t="e">
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="30" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="J2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="102" t="e">
+      <c r="K2" s="26"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="125" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="Q2" s="102"/>
-      <c r="R2" s="49"/>
-    </row>
-    <row r="4" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P2" s="125"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="123" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="123"/>
+      <c r="T2" s="123"/>
+      <c r="U2" s="123"/>
+      <c r="V2" s="123"/>
+      <c r="W2" s="123"/>
+      <c r="X2" s="97"/>
+      <c r="Y2" s="30" t="e">
+        <f>WayBillList_NUM</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="Z2" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="124"/>
+      <c r="AC2" s="124"/>
+      <c r="AD2" s="100"/>
+      <c r="AE2" s="125" t="e">
+        <f>WayBillList_ONDATE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AF2" s="125"/>
+    </row>
+    <row r="4" spans="2:32" ht="16.5" thickBot="1">
       <c r="B4" s="24" t="s">
         <v>7</v>
       </c>
@@ -1863,23 +1910,45 @@
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R4" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="S4" s="25"/>
+      <c r="T4" s="36" t="e">
+        <f>WayBillList_EntKaFullName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+    </row>
+    <row r="5" spans="2:32">
       <c r="B5" s="45"/>
       <c r="D5" s="11" t="e">
         <f>CONCATENATE(IF(WayBillList_EntOKPO&lt;&gt;"","ЗКПО "&amp;WayBillList_EntOKPO&amp;", ",""),"тел. ",WayBillList_EntKaPhone)</f>
         <v>#NAME?</v>
       </c>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R5" s="45"/>
+      <c r="T5" s="11" t="e">
+        <f>CONCATENATE(IF(WayBillList_EntOKPO&lt;&gt;"","ЗКПО "&amp;WayBillList_EntOKPO&amp;", ",""),"тел. ",WayBillList_EntKaPhone)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="6" spans="2:32">
       <c r="B6" s="45"/>
       <c r="D6" s="11" t="e">
         <f>IF(EntAccount_AccNum&lt;&gt;"",CONCATENATE("Р/р ",EntAccount_AccNum," в ",EntAccount_BankName, ", МФО ",EntAccount_MFO),"")</f>
         <v>#NAME?</v>
       </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R6" s="45"/>
+      <c r="T6" s="11" t="e">
+        <f>IF(EntAccount_AccNum&lt;&gt;"",CONCATENATE("Р/р ",EntAccount_AccNum," в ",EntAccount_BankName, ", МФО ",EntAccount_MFO),"")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="7" spans="2:32">
       <c r="B7" s="45" t="e">
         <f>WayBillList_EntINN</f>
         <v>#NAME?</v>
@@ -1892,21 +1961,56 @@
         <f>IF(B7&lt;&gt;"",CONCATENATE("ІПН ",B7,", номер свідотцтва ",WayBillList_EntCertNum),"")</f>
         <v>#NAME?</v>
       </c>
-    </row>
-    <row r="8" spans="2:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R7" s="45" t="e">
+        <f>WayBillList_EntINN</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="S7" s="54" t="e">
+        <f>WayBillList_EntCertNum</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="T7" s="11" t="e">
+        <f>IF(R7&lt;&gt;"",CONCATENATE("ІПН ",R7,", номер свідотцтва ",WayBillList_EntCertNum),"")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="8" spans="2:32" ht="24.75" customHeight="1">
       <c r="B8" s="53"/>
-      <c r="D8" s="104" t="e">
+      <c r="D8" s="126" t="e">
         <f>"Адреса: "&amp;WayBillList_AddressSel</f>
         <v>#NAME?</v>
       </c>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-    </row>
-    <row r="11" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="126"/>
+      <c r="M8" s="126"/>
+      <c r="N8" s="126"/>
+      <c r="O8" s="126"/>
+      <c r="P8" s="126"/>
+      <c r="R8" s="53"/>
+      <c r="T8" s="126" t="e">
+        <f>"Адреса: "&amp;WayBillList_AddressSel</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U8" s="126"/>
+      <c r="V8" s="126"/>
+      <c r="W8" s="126"/>
+      <c r="X8" s="126"/>
+      <c r="Y8" s="126"/>
+      <c r="Z8" s="126"/>
+      <c r="AA8" s="126"/>
+      <c r="AB8" s="126"/>
+      <c r="AC8" s="126"/>
+      <c r="AD8" s="126"/>
+      <c r="AE8" s="126"/>
+      <c r="AF8" s="126"/>
+    </row>
+    <row r="11" spans="2:32" ht="16.5" thickBot="1">
       <c r="B11" s="24" t="s">
         <v>11</v>
       </c>
@@ -1920,23 +2024,60 @@
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-    </row>
-    <row r="12" spans="2:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R11" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="S11" s="25"/>
+      <c r="T11" s="36" t="e">
+        <f>WayBillList_NAME</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+    </row>
+    <row r="12" spans="2:32" ht="24.75" customHeight="1">
       <c r="B12" s="52"/>
       <c r="C12" s="21"/>
-      <c r="D12" s="105" t="e">
+      <c r="D12" s="127" t="e">
         <f>CONCATENATE("Адреса: ",WayBillList_AddressBuy)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E12" s="105"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="105"/>
-      <c r="I12" s="105"/>
-      <c r="J12" s="105"/>
-    </row>
-    <row r="14" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E12" s="127"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="127"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="127"/>
+      <c r="J12" s="127"/>
+      <c r="K12" s="127"/>
+      <c r="L12" s="127"/>
+      <c r="M12" s="127"/>
+      <c r="N12" s="127"/>
+      <c r="O12" s="127"/>
+      <c r="P12" s="127"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="127" t="e">
+        <f>CONCATENATE("Адреса: ",WayBillList_AddressBuy)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U12" s="127"/>
+      <c r="V12" s="127"/>
+      <c r="W12" s="127"/>
+      <c r="X12" s="127"/>
+      <c r="Y12" s="127"/>
+      <c r="Z12" s="127"/>
+      <c r="AA12" s="127"/>
+      <c r="AB12" s="127"/>
+      <c r="AC12" s="127"/>
+      <c r="AD12" s="127"/>
+      <c r="AE12" s="127"/>
+      <c r="AF12" s="127"/>
+    </row>
+    <row r="13" spans="2:32" ht="9" customHeight="1"/>
+    <row r="14" spans="2:32" ht="10.5" hidden="1" customHeight="1">
       <c r="B14" s="20"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -1944,7 +2085,7 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
@@ -1952,9 +2093,23 @@
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-    </row>
-    <row r="15" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R14" s="20"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+    </row>
+    <row r="15" spans="2:32" ht="1.5" hidden="1" customHeight="1">
       <c r="B15" s="14" t="s">
         <v>1</v>
       </c>
@@ -1967,7 +2122,7 @@
       <c r="F15" s="22"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
+      <c r="I15" s="16"/>
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
@@ -1975,9 +2130,28 @@
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
       <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-    </row>
-    <row r="16" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R15" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="S15" s="15"/>
+      <c r="T15" s="22" t="e">
+        <f>WayBillList_RECEIVED</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="16"/>
+      <c r="AD15" s="16"/>
+      <c r="AE15" s="16"/>
+      <c r="AF15" s="16"/>
+    </row>
+    <row r="16" spans="2:32" ht="16.5" hidden="1" customHeight="1">
       <c r="B16" s="11" t="s">
         <v>13</v>
       </c>
@@ -1989,13 +2163,13 @@
       <c r="E16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="103" t="e">
+      <c r="F16" s="101" t="e">
         <f>IF(WayBillList_AttDate&gt;0,WayBillList_AttDate,"")</f>
         <v>#NAME?</v>
       </c>
-      <c r="G16" s="103"/>
+      <c r="G16" s="12"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
+      <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
@@ -2003,175 +2177,341 @@
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-    </row>
-    <row r="17" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="98" t="e">
+      <c r="R16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="S16" s="12"/>
+      <c r="T16" s="103" t="e">
+        <f>WayBillList_ATTNUM</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V16" s="101" t="e">
+        <f>IF(WayBillList_AttDate&gt;0,WayBillList_AttDate,"")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+    </row>
+    <row r="17" spans="1:32" ht="18.75" hidden="1" customHeight="1">
+      <c r="B17" s="117" t="e">
         <f>CONCATENATE("Підстава: ",WayBillList_Reason)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="98"/>
-      <c r="K17" s="98"/>
-      <c r="L17" s="98"/>
-      <c r="M17" s="98"/>
-      <c r="N17" s="98"/>
-      <c r="O17" s="98"/>
-      <c r="P17" s="98"/>
-      <c r="Q17" s="98"/>
-    </row>
-    <row r="18" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="106"/>
-      <c r="D18" s="106"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="117"/>
+      <c r="M17" s="117"/>
+      <c r="N17" s="117"/>
+      <c r="O17" s="117"/>
+      <c r="P17" s="117"/>
+      <c r="R17" s="117" t="e">
+        <f>CONCATENATE("Підстава: ",WayBillList_Reason)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="S17" s="117"/>
+      <c r="T17" s="117"/>
+      <c r="U17" s="117"/>
+      <c r="V17" s="117"/>
+      <c r="W17" s="117"/>
+      <c r="X17" s="117"/>
+      <c r="Y17" s="117"/>
+      <c r="Z17" s="117"/>
+      <c r="AA17" s="117"/>
+      <c r="AB17" s="117"/>
+      <c r="AC17" s="117"/>
+      <c r="AD17" s="117"/>
+      <c r="AE17" s="117"/>
+      <c r="AF17" s="117"/>
+    </row>
+    <row r="18" spans="1:32" ht="6" customHeight="1">
+      <c r="C18" s="118"/>
+      <c r="D18" s="118"/>
+      <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-    </row>
-    <row r="19" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S18" s="118"/>
+      <c r="T18" s="118"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+    </row>
+    <row r="19" spans="1:32" ht="30.75" customHeight="1">
       <c r="B19" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="107" t="s">
+      <c r="C19" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="7" t="s">
+      <c r="D19" s="120"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7" t="s">
+      <c r="H19" s="7"/>
+      <c r="I19" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K19" s="6" t="e">
+      <c r="J19" s="6" t="e">
         <f>IF(B22&gt;0,"Ціна без ПДВ","Ціна без знижки")</f>
         <v>#NAME?</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="K19" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="M19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="N19" s="6" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="O19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="P19" s="6" t="s">
+      <c r="P19" s="13" t="e">
+        <f>IF(B22&gt;0,"Сума без ПДВ","Сума зі знижкою")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R19" s="102" t="s">
+        <v>2</v>
+      </c>
+      <c r="S19" s="119" t="s">
+        <v>38</v>
+      </c>
+      <c r="T19" s="120"/>
+      <c r="U19" s="120"/>
+      <c r="V19" s="120"/>
+      <c r="W19" s="104" t="s">
+        <v>5</v>
+      </c>
+      <c r="X19" s="104"/>
+      <c r="Y19" s="104" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z19" s="102" t="e">
+        <f>IF(R22&gt;0,"Ціна без ПДВ","Ціна без знижки")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AA19" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB19" s="102"/>
+      <c r="AC19" s="102" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD19" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="Q19" s="13" t="e">
-        <f>IF(B22&gt;0,"Сума без ПДВ","Сума зі знижкою")</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE19" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF19" s="13" t="e">
+        <f>IF(R22&gt;0,"Сума без ПДВ","Сума зі знижкою")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" ht="12.75" customHeight="1">
       <c r="B20" s="8" t="e">
         <f>range1_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C20" s="110" t="e">
+      <c r="C20" s="121" t="e">
         <f>range1_MATNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D20" s="111"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="111"/>
-      <c r="G20" s="112"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="8" t="e">
+        <f>range1_MSRNAME</f>
+        <v>#NAME?</v>
+      </c>
       <c r="H20" s="8" t="e">
+        <f>IF(G20="кг.",I20,0)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I20" s="29" t="e">
+        <f>range1_AMOUNT</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J20" s="19" t="e">
+        <f>K20+N20</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K20" s="19" t="e">
+        <f>range1_PRICE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L20" s="23" t="e">
+        <f>range1_NDS</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M20" s="23" t="e">
+        <f>range1_SumNDS</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N20" s="19" t="e">
+        <f>range1_DISCOUNTPRICE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O20" s="19" t="e">
+        <f>I20*N20</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="P20" s="19" t="e">
+        <f>ROUND(I20*(J20-N20),2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R20" s="8" t="e">
+        <f>range1_NUM</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="S20" s="121" t="e">
+        <f>range1_MATNAME</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="T20" s="122"/>
+      <c r="U20" s="122"/>
+      <c r="V20" s="122"/>
+      <c r="W20" s="8" t="e">
         <f>range1_MSRNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="I20" s="8" t="e">
-        <f>IF(H20="кг.",J20,0)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J20" s="29" t="e">
+      <c r="X20" s="8" t="e">
+        <f>IF(W20="кг.",Y20,0)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="Y20" s="29" t="e">
         <f>range1_AMOUNT</f>
         <v>#NAME?</v>
       </c>
-      <c r="K20" s="19" t="e">
-        <f>L20+O20</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L20" s="19" t="e">
+      <c r="Z20" s="19" t="e">
+        <f>AA20+AD20</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AA20" s="19" t="e">
         <f>range1_PRICE</f>
         <v>#NAME?</v>
       </c>
-      <c r="M20" s="23" t="e">
+      <c r="AB20" s="23" t="e">
         <f>range1_NDS</f>
         <v>#NAME?</v>
       </c>
-      <c r="N20" s="23" t="e">
+      <c r="AC20" s="23" t="e">
         <f>range1_SumNDS</f>
         <v>#NAME?</v>
       </c>
-      <c r="O20" s="19" t="e">
+      <c r="AD20" s="19" t="e">
         <f>range1_DISCOUNTPRICE</f>
         <v>#NAME?</v>
       </c>
-      <c r="P20" s="19" t="e">
-        <f>J20*O20</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q20" s="19" t="e">
-        <f>ROUND(J20*(K20-O20),2)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE20" s="19" t="e">
+        <f>Y20*AD20</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AF20" s="19" t="e">
+        <f>ROUND(Y20*(Z20-AD20),2)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" ht="12.75" customHeight="1">
       <c r="B21" s="17"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
-      <c r="F21" s="113" t="e">
+      <c r="F21" s="107" t="e">
         <f>IF(B22&gt;0,"Всього без ПДВ","Всього")</f>
         <v>#NAME?</v>
       </c>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="58" t="s">
+      <c r="G21" s="107"/>
+      <c r="H21" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="J21" s="60" t="str">
-        <f>I21</f>
+      <c r="I21" s="60" t="str">
+        <f>H21</f>
         <v>sum</v>
       </c>
-      <c r="K21" s="59"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="35" t="s">
+      <c r="J21" s="59"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="N21" s="42" t="s">
         <v>0</v>
       </c>
       <c r="O21" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="P21" s="42" t="s">
+      <c r="P21" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="Q21" s="33" t="s">
+      <c r="R21" s="17"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="107" t="e">
+        <f>IF(R22&gt;0,"Всього без ПДВ","Всього")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W21" s="107"/>
+      <c r="X21" s="58" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y21" s="60" t="str">
+        <f>X21</f>
+        <v>sum</v>
+      </c>
+      <c r="Z21" s="59"/>
+      <c r="AA21" s="43"/>
+      <c r="AB21" s="32"/>
+      <c r="AC21" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" ht="12.75" customHeight="1">
       <c r="B22" s="48" t="e">
         <f>WayBillList_NDS</f>
         <v>#NAME?</v>
       </c>
       <c r="C22" s="51" t="e">
-        <f>ROUND(Q21*B22/100,2)</f>
+        <f>ROUND(P21*B22/100,2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="D22" s="21"/>
@@ -2179,51 +2519,97 @@
       <c r="F22" s="21"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="99" t="e">
+      <c r="I22" s="108" t="e">
         <f>IF(B22&gt;0,CONCATENATE("Всього ПДВ "&amp;WayBillList_NDS&amp;"%"),"Всього без знижки")</f>
         <v>#NAME?</v>
       </c>
-      <c r="K22" s="100"/>
-      <c r="L22" s="44"/>
+      <c r="J22" s="109"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="32"/>
       <c r="M22" s="32"/>
       <c r="N22" s="32"/>
       <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="34" t="e">
-        <f>IF(B22&gt;0,C22,P21+Q21)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P22" s="34" t="e">
+        <f>IF(B22&gt;0,C22,O21+P21)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R22" s="48" t="e">
+        <f>WayBillList_NDS</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="S22" s="51" t="e">
+        <f>ROUND(AF21*R22/100,2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="108" t="e">
+        <f>IF(R22&gt;0,CONCATENATE("Всього ПДВ "&amp;WayBillList_NDS&amp;"%"),"Всього без знижки")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="Z22" s="109"/>
+      <c r="AA22" s="99"/>
+      <c r="AB22" s="32"/>
+      <c r="AC22" s="32"/>
+      <c r="AD22" s="32"/>
+      <c r="AE22" s="32"/>
+      <c r="AF22" s="34" t="e">
+        <f>IF(R22&gt;0,S22,AE21+AF21)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" ht="12.75" customHeight="1">
       <c r="B23" s="46" t="e">
-        <f>P21+Q21</f>
+        <f>O21+P21</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H23" s="118" t="e">
+      <c r="G23" s="110" t="e">
         <f>IF(B22&gt;0,"Разом, в т.ч ПДВ:","Всього до сплати")</f>
         <v>#NAME?</v>
       </c>
-      <c r="I23" s="118"/>
-      <c r="J23" s="118"/>
-      <c r="K23" s="119"/>
-      <c r="L23" s="44"/>
+      <c r="H23" s="110"/>
+      <c r="I23" s="110"/>
+      <c r="J23" s="111"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="32"/>
       <c r="M23" s="32"/>
       <c r="N23" s="32"/>
       <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="47" t="e">
-        <f>IF(B22&gt;0,Q21+Q22,Q21)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="114"/>
-      <c r="C24" s="114"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="114"/>
+      <c r="P23" s="47" t="e">
+        <f>IF(B22&gt;0,P21+P22,P21)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R23" s="46" t="e">
+        <f>AE21+AF21</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W23" s="110" t="e">
+        <f>IF(R22&gt;0,"Разом, в т.ч ПДВ:","Всього до сплати")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="X23" s="110"/>
+      <c r="Y23" s="110"/>
+      <c r="Z23" s="111"/>
+      <c r="AA23" s="99"/>
+      <c r="AB23" s="32"/>
+      <c r="AC23" s="32"/>
+      <c r="AD23" s="32"/>
+      <c r="AE23" s="32"/>
+      <c r="AF23" s="47" t="e">
+        <f>IF(R22&gt;0,AF21+AF22,AF21)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" ht="12.75" customHeight="1">
+      <c r="B24" s="112"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="112"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -2233,9 +2619,23 @@
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-    </row>
-    <row r="25" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R24" s="112"/>
+      <c r="S24" s="112"/>
+      <c r="T24" s="112"/>
+      <c r="U24" s="112"/>
+      <c r="V24" s="112"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+    </row>
+    <row r="25" spans="1:32" ht="12.75" customHeight="1">
       <c r="B25" s="28" t="s">
         <v>12</v>
       </c>
@@ -2246,9 +2646,9 @@
       </c>
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="57"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="14"/>
       <c r="J25" s="14"/>
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
@@ -2256,15 +2656,34 @@
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
       <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-    </row>
-    <row r="26" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R25" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="S25" s="103"/>
+      <c r="T25" s="22" t="e">
+        <f>WayBillList_www</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="98"/>
+      <c r="X25" s="98"/>
+      <c r="Y25" s="98"/>
+      <c r="Z25" s="98"/>
+      <c r="AA25" s="98"/>
+      <c r="AB25" s="98"/>
+      <c r="AC25" s="98"/>
+      <c r="AD25" s="98"/>
+      <c r="AE25" s="98"/>
+      <c r="AF25" s="98"/>
+    </row>
+    <row r="26" spans="1:32" ht="12.75" customHeight="1">
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
       <c r="E26" s="27"/>
       <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
+      <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -2274,15 +2693,29 @@
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-    </row>
-    <row r="27" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R26" s="103"/>
+      <c r="S26" s="103"/>
+      <c r="T26" s="103"/>
+      <c r="U26" s="103"/>
+      <c r="V26" s="103"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+    </row>
+    <row r="27" spans="1:32" ht="9" customHeight="1">
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
       <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
+      <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
@@ -2292,9 +2725,23 @@
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-    </row>
-    <row r="28" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R27" s="103"/>
+      <c r="S27" s="103"/>
+      <c r="T27" s="103"/>
+      <c r="U27" s="103"/>
+      <c r="V27" s="103"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+    </row>
+    <row r="28" spans="1:32" ht="12.75" hidden="1" customHeight="1">
       <c r="B28" s="55" t="e">
         <f>WayBillList_WTYPE</f>
         <v>#NAME?</v>
@@ -2306,7 +2753,7 @@
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
       <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
+      <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
@@ -2316,9 +2763,29 @@
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-    </row>
-    <row r="29" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R28" s="55" t="e">
+        <f>WayBillList_WTYPE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="S28" s="55" t="e">
+        <f>WayBillList_PERSONNAME</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="T28" s="103"/>
+      <c r="U28" s="103"/>
+      <c r="V28" s="103"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+    </row>
+    <row r="29" spans="1:32" ht="12.75" hidden="1" customHeight="1">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -2335,64 +2802,115 @@
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-    </row>
-    <row r="30" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+    </row>
+    <row r="30" spans="1:32" ht="12.75" customHeight="1">
       <c r="A30" s="4"/>
-      <c r="B30" s="115" t="s">
+      <c r="B30" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="115"/>
-      <c r="D30" s="117" t="e">
+      <c r="C30" s="113"/>
+      <c r="D30" s="114" t="e">
         <f>IF(B28 &lt; 0,C28," ")</f>
         <v>#NAME?</v>
       </c>
-      <c r="E30" s="117"/>
-      <c r="F30" s="117"/>
-      <c r="G30" s="117"/>
-      <c r="H30" s="120" t="s">
+      <c r="E30" s="114"/>
+      <c r="F30" s="114"/>
+      <c r="G30" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="I30" s="120"/>
-      <c r="J30" s="120"/>
+      <c r="H30" s="115"/>
+      <c r="I30" s="115"/>
+      <c r="J30" s="116"/>
       <c r="K30" s="116"/>
       <c r="L30" s="116"/>
       <c r="M30" s="116"/>
       <c r="N30" s="116"/>
       <c r="O30" s="116"/>
       <c r="P30" s="116"/>
-      <c r="Q30" s="116"/>
+      <c r="R30" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="S30" s="113"/>
+      <c r="T30" s="114" t="e">
+        <f>IF(R28 &lt; 0,S28," ")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U30" s="114"/>
+      <c r="V30" s="114"/>
+      <c r="W30" s="115" t="s">
+        <v>9</v>
+      </c>
+      <c r="X30" s="115"/>
+      <c r="Y30" s="115"/>
+      <c r="Z30" s="116"/>
+      <c r="AA30" s="116"/>
+      <c r="AB30" s="116"/>
+      <c r="AC30" s="116"/>
+      <c r="AD30" s="116"/>
+      <c r="AE30" s="116"/>
+      <c r="AF30" s="116"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B24:G24"/>
+  <mergeCells count="34">
+    <mergeCell ref="B24:F24"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="K30:Q30"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B17:Q17"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B17:P17"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="O2:P2"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="D8:P8"/>
+    <mergeCell ref="D12:P12"/>
+    <mergeCell ref="R17:AF17"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="S19:V19"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="R2:W2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="T8:AF8"/>
+    <mergeCell ref="T12:AF12"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="W23:Z23"/>
+    <mergeCell ref="R24:V24"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:V30"/>
+    <mergeCell ref="W30:Y30"/>
+    <mergeCell ref="Z30:AF30"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.39370078740157483" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист2"/>
   <dimension ref="B1:N48"/>
   <sheetViews>
@@ -2400,7 +2918,7 @@
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="1.140625" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" customWidth="1"/>
@@ -2418,36 +2936,36 @@
     <col min="14" max="14" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="136" t="s">
+    <row r="1" spans="2:14" ht="35.25" customHeight="1">
+      <c r="B1" s="143" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="137"/>
-    </row>
-    <row r="2" spans="2:14" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="138" t="s">
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="144"/>
+      <c r="L1" s="144"/>
+      <c r="M1" s="144"/>
+      <c r="N1" s="144"/>
+    </row>
+    <row r="2" spans="2:14" s="1" customFormat="1" ht="27.75" customHeight="1">
+      <c r="B2" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
       <c r="L2" s="61" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
@@ -2455,124 +2973,124 @@
       <c r="M2" s="37"/>
       <c r="N2" s="37"/>
     </row>
-    <row r="3" spans="2:14" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="141" t="s">
+    <row r="3" spans="2:14" s="1" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B3" s="148" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="141"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="141"/>
-      <c r="L3" s="141"/>
-      <c r="M3" s="141"/>
-      <c r="N3" s="141"/>
-    </row>
-    <row r="4" spans="2:14" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="148"/>
+    </row>
+    <row r="4" spans="2:14" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="B4" s="63"/>
-      <c r="C4" s="139" t="s">
+      <c r="C4" s="146" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139" t="e">
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146" t="e">
         <f>WayBillList_EntKaFullName</f>
         <v>#NAME?</v>
       </c>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
-      <c r="M4" s="139"/>
-      <c r="N4" s="139"/>
-    </row>
-    <row r="5" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="146"/>
+      <c r="K4" s="146"/>
+      <c r="L4" s="146"/>
+      <c r="M4" s="146"/>
+      <c r="N4" s="146"/>
+    </row>
+    <row r="5" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="B5" s="63"/>
-      <c r="C5" s="139" t="e">
+      <c r="C5" s="146" t="e">
         <f>WayBillList_AddressSel</f>
         <v>#NAME?</v>
       </c>
-      <c r="D5" s="139"/>
-      <c r="E5" s="139"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="139"/>
-      <c r="I5" s="139"/>
-      <c r="J5" s="139"/>
-      <c r="K5" s="139"/>
-      <c r="L5" s="139"/>
-      <c r="M5" s="139"/>
-      <c r="N5" s="139"/>
-    </row>
-    <row r="6" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="146"/>
+      <c r="E5" s="146"/>
+      <c r="F5" s="146"/>
+      <c r="G5" s="146"/>
+      <c r="H5" s="146"/>
+      <c r="I5" s="146"/>
+      <c r="J5" s="146"/>
+      <c r="K5" s="146"/>
+      <c r="L5" s="146"/>
+      <c r="M5" s="146"/>
+      <c r="N5" s="146"/>
+    </row>
+    <row r="6" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="B6" s="63"/>
-      <c r="C6" s="139" t="s">
+      <c r="C6" s="146" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139" t="e">
+      <c r="D6" s="146"/>
+      <c r="E6" s="146" t="e">
         <f>WayBillList_EntKaFullName</f>
         <v>#NAME?</v>
       </c>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="139"/>
-      <c r="M6" s="139"/>
-      <c r="N6" s="139"/>
-    </row>
-    <row r="7" spans="2:14" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="146"/>
+      <c r="K6" s="146"/>
+      <c r="L6" s="146"/>
+      <c r="M6" s="146"/>
+      <c r="N6" s="146"/>
+    </row>
+    <row r="7" spans="2:14" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="B7" s="63"/>
       <c r="C7" s="37" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="37"/>
       <c r="E7" s="37"/>
-      <c r="F7" s="139" t="e">
+      <c r="F7" s="146" t="e">
         <f>WayBillList_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="G7" s="139"/>
-      <c r="H7" s="139"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="139"/>
-      <c r="L7" s="139"/>
-      <c r="M7" s="139"/>
-      <c r="N7" s="139"/>
-    </row>
-    <row r="8" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="146"/>
+      <c r="H7" s="146"/>
+      <c r="I7" s="146"/>
+      <c r="J7" s="146"/>
+      <c r="K7" s="146"/>
+      <c r="L7" s="146"/>
+      <c r="M7" s="146"/>
+      <c r="N7" s="146"/>
+    </row>
+    <row r="8" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="B8" s="62"/>
-      <c r="C8" s="139" t="s">
+      <c r="C8" s="146" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="139"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="139"/>
-      <c r="G8" s="140" t="e">
+      <c r="D8" s="146"/>
+      <c r="E8" s="146"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="147" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="H8" s="140"/>
-      <c r="I8" s="139" t="s">
+      <c r="H8" s="147"/>
+      <c r="I8" s="146" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="139"/>
-      <c r="K8" s="139"/>
-      <c r="L8" s="139"/>
-      <c r="M8" s="139"/>
-      <c r="N8" s="139"/>
-    </row>
-    <row r="9" spans="2:14" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="146"/>
+      <c r="K8" s="146"/>
+      <c r="L8" s="146"/>
+      <c r="M8" s="146"/>
+      <c r="N8" s="146"/>
+    </row>
+    <row r="9" spans="2:14" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="B9" s="62"/>
       <c r="C9" s="61" t="s">
         <v>31</v>
@@ -2585,11 +3103,11 @@
       <c r="F9" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="142" t="e">
+      <c r="G9" s="149" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="H9" s="142"/>
+      <c r="H9" s="149"/>
       <c r="I9" s="37" t="s">
         <v>33</v>
       </c>
@@ -2599,7 +3117,7 @@
       <c r="M9" s="37"/>
       <c r="N9" s="37"/>
     </row>
-    <row r="10" spans="2:14" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="B10" s="62"/>
       <c r="C10" s="61"/>
       <c r="D10" s="61"/>
@@ -2614,67 +3132,67 @@
       <c r="M10" s="37"/>
       <c r="N10" s="37"/>
     </row>
-    <row r="11" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="2:14" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="122" t="s">
+    <row r="11" spans="2:14" s="1" customFormat="1"/>
+    <row r="12" spans="2:14" s="1" customFormat="1" ht="23.25" customHeight="1">
+      <c r="B12" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="124" t="s">
+      <c r="C12" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="134"/>
-      <c r="E12" s="134"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="122" t="s">
+      <c r="D12" s="141"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="122" t="s">
+      <c r="H12" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="122" t="s">
+      <c r="I12" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="122" t="s">
+      <c r="J12" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="122" t="s">
+      <c r="K12" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="122" t="s">
+      <c r="L12" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="M12" s="124" t="s">
+      <c r="M12" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="N12" s="125"/>
-    </row>
-    <row r="13" spans="2:14" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="123"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="135"/>
-      <c r="F13" s="127"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="123"/>
-      <c r="K13" s="123"/>
-      <c r="L13" s="123"/>
-      <c r="M13" s="126"/>
-      <c r="N13" s="127"/>
-    </row>
-    <row r="14" spans="2:14" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N12" s="132"/>
+    </row>
+    <row r="13" spans="2:14" s="1" customFormat="1" ht="27" customHeight="1">
+      <c r="B13" s="130"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="142"/>
+      <c r="E13" s="142"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="130"/>
+      <c r="K13" s="130"/>
+      <c r="L13" s="130"/>
+      <c r="M13" s="133"/>
+      <c r="N13" s="134"/>
+    </row>
+    <row r="14" spans="2:14" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="B14" s="38" t="e">
         <f>Posvitcheny_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C14" s="131" t="e">
+      <c r="C14" s="138" t="e">
         <f>Posvitcheny_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D14" s="132"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="133"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="140"/>
       <c r="G14" s="39" t="e">
         <f>Posvitcheny_AMOUNT</f>
         <v>#NAME?</v>
@@ -2699,32 +3217,32 @@
         <f>Posvitcheny_CF4</f>
         <v>#NAME?</v>
       </c>
-      <c r="M14" s="128" t="e">
+      <c r="M14" s="135" t="e">
         <f>Posvitcheny_CF5</f>
         <v>#NAME?</v>
       </c>
-      <c r="N14" s="129"/>
-    </row>
-    <row r="15" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="3:14" ht="290.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="130" t="e">
+      <c r="N14" s="136"/>
+    </row>
+    <row r="15" spans="2:14" ht="12.75" customHeight="1"/>
+    <row r="16" spans="2:14" ht="12.75" customHeight="1"/>
+    <row r="17" spans="3:14" ht="290.25" customHeight="1">
+      <c r="C17" s="137" t="e">
         <f>WayBillList_Declaration</f>
         <v>#NAME?</v>
       </c>
-      <c r="D17" s="130"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="130"/>
-      <c r="G17" s="130"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="130"/>
-      <c r="K17" s="130"/>
-      <c r="L17" s="130"/>
-      <c r="M17" s="130"/>
-      <c r="N17" s="130"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D17" s="137"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="137"/>
+      <c r="J17" s="137"/>
+      <c r="K17" s="137"/>
+      <c r="L17" s="137"/>
+      <c r="M17" s="137"/>
+      <c r="N17" s="137"/>
+    </row>
+    <row r="18" spans="3:14">
       <c r="C18" s="64"/>
       <c r="D18" s="64"/>
       <c r="E18" s="64"/>
@@ -2738,47 +3256,47 @@
       <c r="M18" s="64"/>
       <c r="N18" s="50"/>
     </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C20" s="121" t="s">
+    <row r="20" spans="3:14">
+      <c r="C20" s="128" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="121"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="121"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="128"/>
+      <c r="H20" s="128"/>
       <c r="K20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="3:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="3:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="3:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="3:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="3:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="3:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="3:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="3:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="3:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="3:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="3:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="3:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="3:14" ht="12.75" customHeight="1"/>
+    <row r="22" spans="3:14" ht="12.75" customHeight="1"/>
+    <row r="23" spans="3:14" ht="12.75" customHeight="1"/>
+    <row r="24" spans="3:14" ht="12.75" customHeight="1"/>
+    <row r="25" spans="3:14" ht="12.75" customHeight="1"/>
+    <row r="26" spans="3:14" ht="12.75" customHeight="1"/>
+    <row r="27" spans="3:14" ht="12.75" customHeight="1"/>
+    <row r="28" spans="3:14" ht="12.75" customHeight="1"/>
+    <row r="29" spans="3:14" ht="12.75" customHeight="1"/>
+    <row r="30" spans="3:14" ht="12.75" customHeight="1"/>
+    <row r="31" spans="3:14" ht="12.75" customHeight="1"/>
+    <row r="32" spans="3:14" ht="12.75" customHeight="1"/>
+    <row r="33" ht="12.75" customHeight="1"/>
+    <row r="34" ht="12.75" customHeight="1"/>
+    <row r="35" ht="12.75" customHeight="1"/>
+    <row r="36" ht="12.75" customHeight="1"/>
+    <row r="37" ht="12.75" customHeight="1"/>
+    <row r="38" ht="12.75" customHeight="1"/>
+    <row r="39" ht="12.75" customHeight="1"/>
+    <row r="40" ht="12.75" customHeight="1"/>
+    <row r="41" ht="12.75" customHeight="1"/>
+    <row r="42" ht="12.75" customHeight="1"/>
+    <row r="43" ht="12.75" customHeight="1"/>
+    <row r="44" ht="12.75" customHeight="1"/>
+    <row r="45" ht="12.75" customHeight="1"/>
+    <row r="46" ht="12.75" customHeight="1"/>
+    <row r="47" ht="12.75" customHeight="1"/>
+    <row r="48" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="26">
     <mergeCell ref="B12:B13"/>
@@ -2815,14 +3333,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="0.7109375" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
@@ -3660,7 +4178,7 @@
     <col min="16143" max="16143" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" ht="15.75">
       <c r="B1" s="65" t="s">
         <v>39</v>
       </c>
@@ -3679,30 +4197,30 @@
         <v>40</v>
       </c>
       <c r="L1" s="70"/>
-      <c r="M1" s="143" t="e">
+      <c r="M1" s="150" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="N1" s="143"/>
-      <c r="O1" s="143"/>
-    </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N1" s="150"/>
+      <c r="O1" s="150"/>
+    </row>
+    <row r="2" spans="2:15">
       <c r="J2" s="68"/>
       <c r="K2" s="71"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:15">
       <c r="B3" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="70"/>
-      <c r="E3" s="143" t="e">
+      <c r="E3" s="150" t="e">
         <f>WayBillList_AddressSel</f>
         <v>#NAME?</v>
       </c>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="144"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="151"/>
       <c r="J3" s="68"/>
       <c r="K3" s="92" t="e">
         <f>WayBillList_EntKaFullName</f>
@@ -3713,15 +4231,15 @@
       <c r="N3" s="73"/>
       <c r="O3" s="73"/>
     </row>
-    <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:15" ht="15" customHeight="1">
       <c r="B4" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="145" t="e">
+      <c r="E4" s="152" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="F4" s="145"/>
+      <c r="F4" s="152"/>
       <c r="G4" s="70"/>
       <c r="H4" s="70"/>
       <c r="I4" s="74"/>
@@ -3732,48 +4250,48 @@
       <c r="N4" s="73"/>
       <c r="O4" s="73"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:15">
       <c r="J5" s="68"/>
       <c r="K5" s="71"/>
     </row>
-    <row r="6" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="107" t="s">
+    <row r="6" spans="2:15" ht="18" customHeight="1">
+      <c r="B6" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="107" t="s">
+      <c r="C6" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="109"/>
-      <c r="E6" s="107" t="s">
+      <c r="D6" s="153"/>
+      <c r="E6" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="109"/>
-      <c r="G6" s="152" t="s">
+      <c r="F6" s="153"/>
+      <c r="G6" s="160" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="153"/>
-      <c r="I6" s="153"/>
+      <c r="H6" s="161"/>
+      <c r="I6" s="161"/>
       <c r="J6" s="68"/>
-      <c r="K6" s="154" t="s">
+      <c r="K6" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="107" t="s">
+      <c r="L6" s="119" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="109"/>
-      <c r="N6" s="148" t="s">
+      <c r="M6" s="153"/>
+      <c r="N6" s="156" t="s">
         <v>52</v>
       </c>
-      <c r="O6" s="148" t="s">
+      <c r="O6" s="156" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="146"/>
-      <c r="C7" s="146"/>
-      <c r="D7" s="147"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="147"/>
+    <row r="7" spans="2:15" ht="16.5" customHeight="1">
+      <c r="B7" s="154"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="155"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="155"/>
       <c r="G7" s="13" t="s">
         <v>4</v>
       </c>
@@ -3784,32 +4302,32 @@
         <v>50</v>
       </c>
       <c r="J7" s="68"/>
-      <c r="K7" s="155"/>
-      <c r="L7" s="146"/>
-      <c r="M7" s="147"/>
-      <c r="N7" s="149"/>
-      <c r="O7" s="149"/>
-    </row>
-    <row r="8" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K7" s="163"/>
+      <c r="L7" s="154"/>
+      <c r="M7" s="155"/>
+      <c r="N7" s="157"/>
+      <c r="O7" s="157"/>
+    </row>
+    <row r="8" spans="2:15" ht="18" customHeight="1">
       <c r="B8" s="87" t="e">
         <f>range_oz_Num</f>
         <v>#NAME?</v>
       </c>
-      <c r="C8" s="156" t="e">
+      <c r="C8" s="164" t="e">
         <f>range_oz_InvNumber</f>
         <v>#NAME?</v>
       </c>
-      <c r="D8" s="156"/>
-      <c r="E8" s="159" t="e">
+      <c r="D8" s="164"/>
+      <c r="E8" s="167" t="e">
         <f>range_oz_MatName</f>
         <v>#NAME?</v>
       </c>
-      <c r="F8" s="160"/>
+      <c r="F8" s="168"/>
       <c r="G8" s="88" t="e">
         <f>range_oz_Remain</f>
         <v>#NAME?</v>
       </c>
-      <c r="H8" s="162" t="e">
+      <c r="H8" s="106" t="e">
         <f>range_oz_Price</f>
         <v>#NAME?</v>
       </c>
@@ -3822,19 +4340,19 @@
         <f>range_oz_MatName</f>
         <v>#NAME?</v>
       </c>
-      <c r="L8" s="157"/>
-      <c r="M8" s="158"/>
+      <c r="L8" s="165"/>
+      <c r="M8" s="166"/>
       <c r="N8" s="94"/>
       <c r="O8" s="76"/>
     </row>
-    <row r="9" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:15" ht="18" customHeight="1">
       <c r="F9" s="77" t="s">
         <v>48</v>
       </c>
       <c r="G9" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="H9" s="161"/>
+      <c r="H9" s="105"/>
       <c r="I9" s="96" t="s">
         <v>0</v>
       </c>
@@ -3842,12 +4360,12 @@
       <c r="K9" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="L9" s="150"/>
-      <c r="M9" s="151"/>
+      <c r="L9" s="158"/>
+      <c r="M9" s="159"/>
       <c r="N9" s="93"/>
       <c r="O9" s="78"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:15">
       <c r="F10" s="79"/>
       <c r="G10" s="80"/>
       <c r="H10" s="80"/>
@@ -3859,7 +4377,7 @@
       <c r="N10" s="80"/>
       <c r="O10" s="80"/>
     </row>
-    <row r="11" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:15" ht="19.5" customHeight="1">
       <c r="B11" t="s">
         <v>49</v>
       </c>

--- a/SP_Sklad/TempLate/WayBill_Out.xlsx
+++ b/SP_Sklad/TempLate/WayBill_Out.xlsx
@@ -14,16 +14,16 @@
   <definedNames>
     <definedName name="Posvitcheny">'Посвідчення якості'!$A$14:$N$15</definedName>
     <definedName name="range_oz">'Інвентаризація ОЗ'!$A$8:$O$9</definedName>
-    <definedName name="range1">Накладна!$A$20:$P$21</definedName>
+    <definedName name="range1">Накладна!$A$16:$Q$17</definedName>
     <definedName name="range2">'Посвідчення якості'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Накладна!$A$1:$AF$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Накладна!$A$1:$Q$26</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
   <si>
     <t>sum</t>
   </si>
@@ -34,6 +34,9 @@
     <t>№</t>
   </si>
   <si>
+    <t>Назва і сорт товара</t>
+  </si>
+  <si>
     <t xml:space="preserve">від </t>
   </si>
   <si>
@@ -139,9 +142,6 @@
     <t xml:space="preserve">            М.П.                            Головний технолог</t>
   </si>
   <si>
-    <t>Назва товара</t>
-  </si>
-  <si>
     <t xml:space="preserve">ІНВЕНТАРИЗАЦІЙНИЙ ОПИС ОСНОВНИХ ЗАСОБІВ № </t>
   </si>
   <si>
@@ -166,28 +166,31 @@
     <t>Назва</t>
   </si>
   <si>
+    <t>Фактично виявлено</t>
+  </si>
+  <si>
+    <t>Повернуто</t>
+  </si>
+  <si>
+    <t>Залишок</t>
+  </si>
+  <si>
     <t>Вартість</t>
   </si>
   <si>
+    <t>Сума</t>
+  </si>
+  <si>
     <t>Всього</t>
   </si>
   <si>
     <t>Матеріально відповідальне лице</t>
   </si>
   <si>
-    <t>Сума</t>
-  </si>
-  <si>
-    <t>Фактично виявлено</t>
-  </si>
-  <si>
-    <t>Повернуто</t>
-  </si>
-  <si>
-    <t>Залишок</t>
-  </si>
-  <si>
     <t>Підпис  ________________  "______"________________20_____р.</t>
+  </si>
+  <si>
+    <t>Автомобильный номер</t>
   </si>
 </sst>
 </file>
@@ -199,7 +202,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -253,13 +256,6 @@
       <b/>
       <sz val="12"/>
       <color indexed="18"/>
-      <name val="Times New Roman Cyr"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="9"/>
       <name val="Times New Roman Cyr"/>
       <family val="1"/>
       <charset val="204"/>
@@ -411,7 +407,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -543,16 +539,12 @@
       <right style="hair">
         <color indexed="55"/>
       </right>
-      <top style="hair">
-        <color indexed="55"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color indexed="55"/>
-      </left>
+      <left/>
       <right style="hair">
         <color indexed="55"/>
       </right>
@@ -562,10 +554,19 @@
     </border>
     <border>
       <left/>
-      <right style="hair">
-        <color indexed="55"/>
-      </right>
-      <top/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -573,14 +574,16 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color indexed="55"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color indexed="55"/>
+      </right>
       <top style="thin">
         <color indexed="55"/>
       </top>
@@ -588,31 +591,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="55"/>
-      </right>
-      <top style="thin">
-        <color indexed="55"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color indexed="55"/>
       </left>
-      <right/>
-      <top style="hair">
-        <color indexed="55"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="55"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="hair">
         <color indexed="55"/>
@@ -731,15 +712,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="hair">
-        <color indexed="55"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="dashed">
         <color indexed="64"/>
       </right>
@@ -990,11 +962,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="55"/>
+      </left>
+      <right style="hair">
+        <color indexed="55"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1013,9 +998,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1038,397 +1020,382 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="27" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1801,815 +1768,515 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A2:AF30"/>
+  <dimension ref="A2:R26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R30" sqref="R30:S30"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="0.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" customWidth="1"/>
-    <col min="5" max="5" width="2.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="0.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="1.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="4.7109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3" style="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="7.42578125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="9.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="7.140625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="8.28515625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="0.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="0.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="29" max="30" width="9.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="10.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="12.140625" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="6" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="14" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:32" ht="16.5" customHeight="1">
-      <c r="B2" s="123" t="s">
+    <row r="2" spans="2:18" ht="16.5" customHeight="1">
+      <c r="B2" s="100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="25" t="e">
+        <f>WayBillList_NUM</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="22"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="105" t="e">
+        <f>WayBillList_ONDATE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="40"/>
+    </row>
+    <row r="4" spans="2:18" ht="16.5" thickBot="1">
+      <c r="B4" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="29" t="e">
+        <f>WayBillList_EntKaFullName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+    </row>
+    <row r="5" spans="2:18">
+      <c r="B5" s="36"/>
+      <c r="D5" s="10" t="e">
+        <f>CONCATENATE(IF(WayBillList_EntOKPO&lt;&gt;"","ЗКПО "&amp;WayBillList_EntOKPO&amp;", ",""),"тел. ",WayBillList_EntKaPhone)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18">
+      <c r="B6" s="36"/>
+      <c r="D6" s="10" t="e">
+        <f>IF(EntAccount_AccNum&lt;&gt;"",CONCATENATE("Р/р ",EntAccount_AccNum," в ",EntAccount_BankName, ", МФО ",EntAccount_MFO),"")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18">
+      <c r="B7" s="36" t="e">
+        <f>WayBillList_EntINN</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C7" s="45" t="e">
+        <f>WayBillList_EntCertNum</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D7" s="10" t="e">
+        <f>IF(B7&lt;&gt;"",CONCATENATE("ІПН ",B7,", номер свідотцтва ",WayBillList_EntCertNum),"")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" ht="24.75" customHeight="1">
+      <c r="B8" s="44"/>
+      <c r="D8" s="114" t="e">
+        <f>"Адреса: "&amp;WayBillList_AddressSel</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="114"/>
+    </row>
+    <row r="9" spans="2:18" ht="33" customHeight="1" thickBot="1">
+      <c r="B9" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="115" t="e">
+        <f>WayBillList_NAME</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E9" s="115"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
+      <c r="L9" s="115"/>
+      <c r="M9" s="115"/>
+      <c r="N9" s="115"/>
+      <c r="O9" s="115"/>
+      <c r="P9" s="115"/>
+      <c r="Q9" s="115"/>
+    </row>
+    <row r="10" spans="2:18" ht="24.75" customHeight="1">
+      <c r="B10" s="43"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="107" t="e">
+        <f>CONCATENATE("Адреса: ",WayBillList_AddressBuy)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="107"/>
+    </row>
+    <row r="11" spans="2:18" ht="16.5" customHeight="1">
+      <c r="B11" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="19" t="e">
+        <f>WayBillList_RECEIVED</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15" t="e">
+        <f>WayBillList_CarNumber</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q11" s="15"/>
+    </row>
+    <row r="12" spans="2:18" ht="16.5" customHeight="1">
+      <c r="B12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="23" t="e">
+        <f>WayBillList_ATTNUM</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="106" t="e">
+        <f>IF(WayBillList_AttDate&gt;0,WayBillList_AttDate,"")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G12" s="106"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+    </row>
+    <row r="13" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B13" s="101" t="e">
+        <f>CONCATENATE("Підстава: ",WayBillList_Reason)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="101"/>
+      <c r="K13" s="101"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="101"/>
+      <c r="N13" s="101"/>
+      <c r="O13" s="101"/>
+      <c r="P13" s="101"/>
+      <c r="Q13" s="101"/>
+    </row>
+    <row r="14" spans="2:18" ht="6" customHeight="1">
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="2:18" ht="30.75" customHeight="1">
+      <c r="B15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="109" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="111"/>
+      <c r="H15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="30" t="e">
-        <f>WayBillList_NUM</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J2" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="26"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="125" t="e">
-        <f>WayBillList_ONDATE</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P2" s="125"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="123" t="s">
-        <v>6</v>
-      </c>
-      <c r="S2" s="123"/>
-      <c r="T2" s="123"/>
-      <c r="U2" s="123"/>
-      <c r="V2" s="123"/>
-      <c r="W2" s="123"/>
-      <c r="X2" s="97"/>
-      <c r="Y2" s="30" t="e">
-        <f>WayBillList_NUM</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="Z2" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="124"/>
-      <c r="AC2" s="124"/>
-      <c r="AD2" s="100"/>
-      <c r="AE2" s="125" t="e">
-        <f>WayBillList_ONDATE</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="AF2" s="125"/>
-    </row>
-    <row r="4" spans="2:32" ht="16.5" thickBot="1">
-      <c r="B4" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="36" t="e">
-        <f>WayBillList_EntKaFullName</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="R4" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="S4" s="25"/>
-      <c r="T4" s="36" t="e">
-        <f>WayBillList_EntKaFullName</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-    </row>
-    <row r="5" spans="2:32">
-      <c r="B5" s="45"/>
-      <c r="D5" s="11" t="e">
-        <f>CONCATENATE(IF(WayBillList_EntOKPO&lt;&gt;"","ЗКПО "&amp;WayBillList_EntOKPO&amp;", ",""),"тел. ",WayBillList_EntKaPhone)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="R5" s="45"/>
-      <c r="T5" s="11" t="e">
-        <f>CONCATENATE(IF(WayBillList_EntOKPO&lt;&gt;"","ЗКПО "&amp;WayBillList_EntOKPO&amp;", ",""),"тел. ",WayBillList_EntKaPhone)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="6" spans="2:32">
-      <c r="B6" s="45"/>
-      <c r="D6" s="11" t="e">
-        <f>IF(EntAccount_AccNum&lt;&gt;"",CONCATENATE("Р/р ",EntAccount_AccNum," в ",EntAccount_BankName, ", МФО ",EntAccount_MFO),"")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="R6" s="45"/>
-      <c r="T6" s="11" t="e">
-        <f>IF(EntAccount_AccNum&lt;&gt;"",CONCATENATE("Р/р ",EntAccount_AccNum," в ",EntAccount_BankName, ", МФО ",EntAccount_MFO),"")</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="7" spans="2:32">
-      <c r="B7" s="45" t="e">
-        <f>WayBillList_EntINN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C7" s="54" t="e">
-        <f>WayBillList_EntCertNum</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D7" s="11" t="e">
-        <f>IF(B7&lt;&gt;"",CONCATENATE("ІПН ",B7,", номер свідотцтва ",WayBillList_EntCertNum),"")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="R7" s="45" t="e">
-        <f>WayBillList_EntINN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="S7" s="54" t="e">
-        <f>WayBillList_EntCertNum</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="T7" s="11" t="e">
-        <f>IF(R7&lt;&gt;"",CONCATENATE("ІПН ",R7,", номер свідотцтва ",WayBillList_EntCertNum),"")</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="8" spans="2:32" ht="24.75" customHeight="1">
-      <c r="B8" s="53"/>
-      <c r="D8" s="126" t="e">
-        <f>"Адреса: "&amp;WayBillList_AddressSel</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E8" s="126"/>
-      <c r="F8" s="126"/>
-      <c r="G8" s="126"/>
-      <c r="H8" s="126"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="126"/>
-      <c r="M8" s="126"/>
-      <c r="N8" s="126"/>
-      <c r="O8" s="126"/>
-      <c r="P8" s="126"/>
-      <c r="R8" s="53"/>
-      <c r="T8" s="126" t="e">
-        <f>"Адреса: "&amp;WayBillList_AddressSel</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="U8" s="126"/>
-      <c r="V8" s="126"/>
-      <c r="W8" s="126"/>
-      <c r="X8" s="126"/>
-      <c r="Y8" s="126"/>
-      <c r="Z8" s="126"/>
-      <c r="AA8" s="126"/>
-      <c r="AB8" s="126"/>
-      <c r="AC8" s="126"/>
-      <c r="AD8" s="126"/>
-      <c r="AE8" s="126"/>
-      <c r="AF8" s="126"/>
-    </row>
-    <row r="11" spans="2:32" ht="16.5" thickBot="1">
-      <c r="B11" s="24" t="s">
+      <c r="I15" s="7"/>
+      <c r="J15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="6" t="e">
+        <f>IF(B18&gt;0,"Ціна без ПДВ","Ціна без знижки")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="36" t="e">
-        <f>WayBillList_NAME</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="R11" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="S11" s="25"/>
-      <c r="T11" s="36" t="e">
-        <f>WayBillList_NAME</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="U11" s="31"/>
-      <c r="V11" s="31"/>
-      <c r="W11" s="25"/>
-      <c r="X11" s="25"/>
-      <c r="Y11" s="25"/>
-    </row>
-    <row r="12" spans="2:32" ht="24.75" customHeight="1">
-      <c r="B12" s="52"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="127" t="e">
-        <f>CONCATENATE("Адреса: ",WayBillList_AddressBuy)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E12" s="127"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="127"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="127"/>
-      <c r="J12" s="127"/>
-      <c r="K12" s="127"/>
-      <c r="L12" s="127"/>
-      <c r="M12" s="127"/>
-      <c r="N12" s="127"/>
-      <c r="O12" s="127"/>
-      <c r="P12" s="127"/>
-      <c r="R12" s="52"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="127" t="e">
-        <f>CONCATENATE("Адреса: ",WayBillList_AddressBuy)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="U12" s="127"/>
-      <c r="V12" s="127"/>
-      <c r="W12" s="127"/>
-      <c r="X12" s="127"/>
-      <c r="Y12" s="127"/>
-      <c r="Z12" s="127"/>
-      <c r="AA12" s="127"/>
-      <c r="AB12" s="127"/>
-      <c r="AC12" s="127"/>
-      <c r="AD12" s="127"/>
-      <c r="AE12" s="127"/>
-      <c r="AF12" s="127"/>
-    </row>
-    <row r="13" spans="2:32" ht="9" customHeight="1"/>
-    <row r="14" spans="2:32" ht="10.5" hidden="1" customHeight="1">
-      <c r="B14" s="20"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="10"/>
-      <c r="AB14" s="10"/>
-      <c r="AC14" s="10"/>
-      <c r="AD14" s="10"/>
-      <c r="AE14" s="10"/>
-      <c r="AF14" s="10"/>
-    </row>
-    <row r="15" spans="2:32" ht="1.5" hidden="1" customHeight="1">
-      <c r="B15" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="22" t="e">
-        <f>WayBillList_RECEIVED</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="R15" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="S15" s="15"/>
-      <c r="T15" s="22" t="e">
-        <f>WayBillList_RECEIVED</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="U15" s="22"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="16"/>
-      <c r="AA15" s="16"/>
-      <c r="AB15" s="16"/>
-      <c r="AC15" s="16"/>
-      <c r="AD15" s="16"/>
-      <c r="AE15" s="16"/>
-      <c r="AF15" s="16"/>
-    </row>
-    <row r="16" spans="2:32" ht="16.5" hidden="1" customHeight="1">
-      <c r="B16" s="11" t="s">
+      <c r="O15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" s="89" t="e">
+        <f>IF(B18&gt;0,"Сума без ПДВ","Сума зі знижкою")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" ht="12.75" customHeight="1">
+      <c r="B16" s="96" t="e">
+        <f>range1_NUM</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C16" s="112" t="e">
+        <f>range1_MATNAME</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="112"/>
+      <c r="H16" s="96" t="e">
+        <f>range1_MSRNAME</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I16" s="96" t="e">
+        <f>IF(H16="кг.",J16,0)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J16" s="97" t="e">
+        <f>range1_AMOUNT</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K16" s="98" t="e">
+        <f>L16+O16</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L16" s="98" t="e">
+        <f>range1_PRICE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M16" s="99" t="e">
+        <f>range1_NDS</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N16" s="99" t="e">
+        <f>range1_SumNDS</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O16" s="98" t="e">
+        <f>range1_DISCOUNTPRICE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="P16" s="98" t="e">
+        <f>J16*O16</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q16" s="98" t="e">
+        <f>ROUND(J16*(K16-O16),2)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="12.75" customHeight="1">
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="113" t="e">
+        <f>IF(B18&gt;0,"Всього без ПДВ","Всього")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G17" s="113"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="90" t="str">
+        <f>I17</f>
+        <v>sum</v>
+      </c>
+      <c r="K17" s="91"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="O17" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="P17" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="95" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="12.75" customHeight="1">
+      <c r="B18" s="39" t="e">
+        <f>WayBillList_NDS</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C18" s="42" t="e">
+        <f>ROUND(Q17*B18/100,2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="102" t="e">
+        <f>IF(B18&gt;0,CONCATENATE("Всього ПДВ "&amp;WayBillList_NDS&amp;"%"),"Всього без знижки")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K18" s="103"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="28" t="e">
+        <f>IF(B18&gt;0,C18,P17+Q17)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="12.75" customHeight="1">
+      <c r="B19" s="37" t="e">
+        <f>P17+Q17</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H19" s="120" t="e">
+        <f>IF(B18&gt;0,"Разом, в т.ч ПДВ:","Всього до сплати")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I19" s="120"/>
+      <c r="J19" s="120"/>
+      <c r="K19" s="121"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="38" t="e">
+        <f>IF(B18&gt;0,Q17+Q18,Q17)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="12.75" customHeight="1">
+      <c r="B20" s="116"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="116"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+    </row>
+    <row r="21" spans="1:17" ht="12.75" customHeight="1">
+      <c r="B21" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="27" t="e">
-        <f>WayBillList_ATTNUM</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="101" t="e">
-        <f>IF(WayBillList_AttDate&gt;0,WayBillList_AttDate,"")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="R16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="S16" s="12"/>
-      <c r="T16" s="103" t="e">
-        <f>WayBillList_ATTNUM</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="U16" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="V16" s="101" t="e">
-        <f>IF(WayBillList_AttDate&gt;0,WayBillList_AttDate,"")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="10"/>
-      <c r="AA16" s="10"/>
-      <c r="AB16" s="10"/>
-      <c r="AC16" s="10"/>
-      <c r="AD16" s="10"/>
-      <c r="AE16" s="10"/>
-      <c r="AF16" s="10"/>
-    </row>
-    <row r="17" spans="1:32" ht="18.75" hidden="1" customHeight="1">
-      <c r="B17" s="117" t="e">
-        <f>CONCATENATE("Підстава: ",WayBillList_Reason)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C17" s="117"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="117"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="117"/>
-      <c r="L17" s="117"/>
-      <c r="M17" s="117"/>
-      <c r="N17" s="117"/>
-      <c r="O17" s="117"/>
-      <c r="P17" s="117"/>
-      <c r="R17" s="117" t="e">
-        <f>CONCATENATE("Підстава: ",WayBillList_Reason)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="S17" s="117"/>
-      <c r="T17" s="117"/>
-      <c r="U17" s="117"/>
-      <c r="V17" s="117"/>
-      <c r="W17" s="117"/>
-      <c r="X17" s="117"/>
-      <c r="Y17" s="117"/>
-      <c r="Z17" s="117"/>
-      <c r="AA17" s="117"/>
-      <c r="AB17" s="117"/>
-      <c r="AC17" s="117"/>
-      <c r="AD17" s="117"/>
-      <c r="AE17" s="117"/>
-      <c r="AF17" s="117"/>
-    </row>
-    <row r="18" spans="1:32" ht="6" customHeight="1">
-      <c r="C18" s="118"/>
-      <c r="D18" s="118"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="S18" s="118"/>
-      <c r="T18" s="118"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
-      <c r="AC18" s="2"/>
-      <c r="AD18" s="2"/>
-      <c r="AE18" s="2"/>
-    </row>
-    <row r="19" spans="1:32" ht="30.75" customHeight="1">
-      <c r="B19" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="119" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="120"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="6" t="e">
-        <f>IF(B22&gt;0,"Ціна без ПДВ","Ціна без знижки")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="O19" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P19" s="13" t="e">
-        <f>IF(B22&gt;0,"Сума без ПДВ","Сума зі знижкою")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="R19" s="102" t="s">
-        <v>2</v>
-      </c>
-      <c r="S19" s="119" t="s">
-        <v>38</v>
-      </c>
-      <c r="T19" s="120"/>
-      <c r="U19" s="120"/>
-      <c r="V19" s="120"/>
-      <c r="W19" s="104" t="s">
-        <v>5</v>
-      </c>
-      <c r="X19" s="104"/>
-      <c r="Y19" s="104" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z19" s="102" t="e">
-        <f>IF(R22&gt;0,"Ціна без ПДВ","Ціна без знижки")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="AA19" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB19" s="102"/>
-      <c r="AC19" s="102" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD19" s="102" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE19" s="102" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF19" s="13" t="e">
-        <f>IF(R22&gt;0,"Сума без ПДВ","Сума зі знижкою")</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32" ht="12.75" customHeight="1">
-      <c r="B20" s="8" t="e">
-        <f>range1_NUM</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C20" s="121" t="e">
-        <f>range1_MATNAME</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D20" s="122"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="122"/>
-      <c r="G20" s="8" t="e">
-        <f>range1_MSRNAME</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H20" s="8" t="e">
-        <f>IF(G20="кг.",I20,0)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I20" s="29" t="e">
-        <f>range1_AMOUNT</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J20" s="19" t="e">
-        <f>K20+N20</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K20" s="19" t="e">
-        <f>range1_PRICE</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L20" s="23" t="e">
-        <f>range1_NDS</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M20" s="23" t="e">
-        <f>range1_SumNDS</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N20" s="19" t="e">
-        <f>range1_DISCOUNTPRICE</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O20" s="19" t="e">
-        <f>I20*N20</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P20" s="19" t="e">
-        <f>ROUND(I20*(J20-N20),2)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="R20" s="8" t="e">
-        <f>range1_NUM</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="S20" s="121" t="e">
-        <f>range1_MATNAME</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="T20" s="122"/>
-      <c r="U20" s="122"/>
-      <c r="V20" s="122"/>
-      <c r="W20" s="8" t="e">
-        <f>range1_MSRNAME</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="X20" s="8" t="e">
-        <f>IF(W20="кг.",Y20,0)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="Y20" s="29" t="e">
-        <f>range1_AMOUNT</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="Z20" s="19" t="e">
-        <f>AA20+AD20</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="AA20" s="19" t="e">
-        <f>range1_PRICE</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="AB20" s="23" t="e">
-        <f>range1_NDS</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="AC20" s="23" t="e">
-        <f>range1_SumNDS</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="AD20" s="19" t="e">
-        <f>range1_DISCOUNTPRICE</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="AE20" s="19" t="e">
-        <f>Y20*AD20</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="AF20" s="19" t="e">
-        <f>ROUND(Y20*(Z20-AD20),2)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="21" spans="1:32" ht="12.75" customHeight="1">
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="107" t="e">
-        <f>IF(B22&gt;0,"Всього без ПДВ","Всього")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G21" s="107"/>
-      <c r="H21" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="I21" s="60" t="str">
-        <f>H21</f>
-        <v>sum</v>
-      </c>
-      <c r="J21" s="59"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="N21" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="O21" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="P21" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="R21" s="17"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18"/>
-      <c r="U21" s="18"/>
-      <c r="V21" s="107" t="e">
-        <f>IF(R22&gt;0,"Всього без ПДВ","Всього")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W21" s="107"/>
-      <c r="X21" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="60" t="str">
-        <f>X21</f>
-        <v>sum</v>
-      </c>
-      <c r="Z21" s="59"/>
-      <c r="AA21" s="43"/>
-      <c r="AB21" s="32"/>
-      <c r="AC21" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="33" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:32" ht="12.75" customHeight="1">
-      <c r="B22" s="48" t="e">
-        <f>WayBillList_NDS</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C22" s="51" t="e">
-        <f>ROUND(P21*B22/100,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="3"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="19" t="e">
+        <f>WayBillList_www</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" spans="1:17" ht="12.75" customHeight="1">
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="108" t="e">
-        <f>IF(B22&gt;0,CONCATENATE("Всього ПДВ "&amp;WayBillList_NDS&amp;"%"),"Всього без знижки")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J22" s="109"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="34" t="e">
-        <f>IF(B22&gt;0,C22,O21+P21)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="R22" s="48" t="e">
-        <f>WayBillList_NDS</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="S22" s="51" t="e">
-        <f>ROUND(AF21*R22/100,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="108" t="e">
-        <f>IF(R22&gt;0,CONCATENATE("Всього ПДВ "&amp;WayBillList_NDS&amp;"%"),"Всього без знижки")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="Z22" s="109"/>
-      <c r="AA22" s="99"/>
-      <c r="AB22" s="32"/>
-      <c r="AC22" s="32"/>
-      <c r="AD22" s="32"/>
-      <c r="AE22" s="32"/>
-      <c r="AF22" s="34" t="e">
-        <f>IF(R22&gt;0,S22,AE21+AF21)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="23" spans="1:32" ht="12.75" customHeight="1">
-      <c r="B23" s="46" t="e">
-        <f>O21+P21</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G23" s="110" t="e">
-        <f>IF(B22&gt;0,"Разом, в т.ч ПДВ:","Всього до сплати")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H23" s="110"/>
-      <c r="I23" s="110"/>
-      <c r="J23" s="111"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="47" t="e">
-        <f>IF(B22&gt;0,P21+P22,P21)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="R23" s="46" t="e">
-        <f>AE21+AF21</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W23" s="110" t="e">
-        <f>IF(R22&gt;0,"Разом, в т.ч ПДВ:","Всього до сплати")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="X23" s="110"/>
-      <c r="Y23" s="110"/>
-      <c r="Z23" s="111"/>
-      <c r="AA23" s="99"/>
-      <c r="AB23" s="32"/>
-      <c r="AC23" s="32"/>
-      <c r="AD23" s="32"/>
-      <c r="AE23" s="32"/>
-      <c r="AF23" s="47" t="e">
-        <f>IF(R22&gt;0,AF21+AF22,AF21)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="24" spans="1:32" ht="12.75" customHeight="1">
-      <c r="B24" s="112"/>
-      <c r="C24" s="112"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="112"/>
-      <c r="G24" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+    </row>
+    <row r="23" spans="1:17" ht="12.75" customHeight="1">
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+    </row>
+    <row r="24" spans="1:17" ht="12.75" customHeight="1">
+      <c r="B24" s="46" t="e">
+        <f>WayBillList_WTYPE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C24" s="46" t="e">
+        <f>WayBillList_PERSONNAME</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -2619,303 +2286,91 @@
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
-      <c r="R24" s="112"/>
-      <c r="S24" s="112"/>
-      <c r="T24" s="112"/>
-      <c r="U24" s="112"/>
-      <c r="V24" s="112"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
-      <c r="AD24" s="3"/>
-      <c r="AE24" s="3"/>
-      <c r="AF24" s="3"/>
-    </row>
-    <row r="25" spans="1:32" ht="12.75" customHeight="1">
-      <c r="B25" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="22" t="e">
-        <f>WayBillList_www</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="R25" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="S25" s="103"/>
-      <c r="T25" s="22" t="e">
-        <f>WayBillList_www</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="U25" s="22"/>
-      <c r="V25" s="22"/>
-      <c r="W25" s="98"/>
-      <c r="X25" s="98"/>
-      <c r="Y25" s="98"/>
-      <c r="Z25" s="98"/>
-      <c r="AA25" s="98"/>
-      <c r="AB25" s="98"/>
-      <c r="AC25" s="98"/>
-      <c r="AD25" s="98"/>
-      <c r="AE25" s="98"/>
-      <c r="AF25" s="98"/>
-    </row>
-    <row r="26" spans="1:32" ht="12.75" customHeight="1">
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="R26" s="103"/>
-      <c r="S26" s="103"/>
-      <c r="T26" s="103"/>
-      <c r="U26" s="103"/>
-      <c r="V26" s="103"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="3"/>
-      <c r="AC26" s="3"/>
-      <c r="AD26" s="3"/>
-      <c r="AE26" s="3"/>
-      <c r="AF26" s="3"/>
-    </row>
-    <row r="27" spans="1:32" ht="9" customHeight="1">
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="R27" s="103"/>
-      <c r="S27" s="103"/>
-      <c r="T27" s="103"/>
-      <c r="U27" s="103"/>
-      <c r="V27" s="103"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
-      <c r="AA27" s="3"/>
-      <c r="AB27" s="3"/>
-      <c r="AC27" s="3"/>
-      <c r="AD27" s="3"/>
-      <c r="AE27" s="3"/>
-      <c r="AF27" s="3"/>
-    </row>
-    <row r="28" spans="1:32" ht="12.75" hidden="1" customHeight="1">
-      <c r="B28" s="55" t="e">
-        <f>WayBillList_WTYPE</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C28" s="55" t="e">
-        <f>WayBillList_PERSONNAME</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="R28" s="55" t="e">
-        <f>WayBillList_WTYPE</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="S28" s="55" t="e">
-        <f>WayBillList_PERSONNAME</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="T28" s="103"/>
-      <c r="U28" s="103"/>
-      <c r="V28" s="103"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="3"/>
-      <c r="AC28" s="3"/>
-      <c r="AD28" s="3"/>
-      <c r="AE28" s="3"/>
-      <c r="AF28" s="3"/>
-    </row>
-    <row r="29" spans="1:32" ht="12.75" hidden="1" customHeight="1">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
-      <c r="AB29" s="5"/>
-      <c r="AC29" s="5"/>
-      <c r="AD29" s="5"/>
-      <c r="AE29" s="5"/>
-      <c r="AF29" s="5"/>
-    </row>
-    <row r="30" spans="1:32" ht="12.75" customHeight="1">
-      <c r="A30" s="4"/>
-      <c r="B30" s="113" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="113"/>
-      <c r="D30" s="114" t="e">
-        <f>IF(B28 &lt; 0,C28," ")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E30" s="114"/>
-      <c r="F30" s="114"/>
-      <c r="G30" s="115" t="s">
+      <c r="Q24" s="3"/>
+    </row>
+    <row r="25" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+    </row>
+    <row r="26" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A26" s="4"/>
+      <c r="B26" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="H30" s="115"/>
-      <c r="I30" s="115"/>
-      <c r="J30" s="116"/>
-      <c r="K30" s="116"/>
-      <c r="L30" s="116"/>
-      <c r="M30" s="116"/>
-      <c r="N30" s="116"/>
-      <c r="O30" s="116"/>
-      <c r="P30" s="116"/>
-      <c r="R30" s="113" t="s">
-        <v>8</v>
-      </c>
-      <c r="S30" s="113"/>
-      <c r="T30" s="114" t="e">
-        <f>IF(R28 &lt; 0,S28," ")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="U30" s="114"/>
-      <c r="V30" s="114"/>
-      <c r="W30" s="115" t="s">
-        <v>9</v>
-      </c>
-      <c r="X30" s="115"/>
-      <c r="Y30" s="115"/>
-      <c r="Z30" s="116"/>
-      <c r="AA30" s="116"/>
-      <c r="AB30" s="116"/>
-      <c r="AC30" s="116"/>
-      <c r="AD30" s="116"/>
-      <c r="AE30" s="116"/>
-      <c r="AF30" s="116"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="119" t="e">
+        <f>IF(B24 &lt; 0,C24," ")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E26" s="119"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="119"/>
+      <c r="H26" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="122"/>
+      <c r="J26" s="122"/>
+      <c r="K26" s="118"/>
+      <c r="L26" s="118"/>
+      <c r="M26" s="118"/>
+      <c r="N26" s="118"/>
+      <c r="O26" s="118"/>
+      <c r="P26" s="118"/>
+      <c r="Q26" s="118"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B17:P17"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="D8:P8"/>
-    <mergeCell ref="D12:P12"/>
-    <mergeCell ref="R17:AF17"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="S19:V19"/>
-    <mergeCell ref="S20:V20"/>
-    <mergeCell ref="R2:W2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="T8:AF8"/>
-    <mergeCell ref="T12:AF12"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="W23:Z23"/>
-    <mergeCell ref="R24:V24"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:V30"/>
-    <mergeCell ref="W30:Y30"/>
-    <mergeCell ref="Z30:AF30"/>
+  <mergeCells count="19">
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B13:Q13"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:Q9"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.39370078740157483" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Лист2"/>
+  <sheetPr codeName="Лист2">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:N48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2933,340 +2388,340 @@
     <col min="11" max="11" width="14" customWidth="1"/>
     <col min="12" max="12" width="9.5703125" customWidth="1"/>
     <col min="13" max="13" width="19.28515625" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="35.25" customHeight="1">
-      <c r="B1" s="143" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="144"/>
-      <c r="L1" s="144"/>
-      <c r="M1" s="144"/>
-      <c r="N1" s="144"/>
+      <c r="B1" s="138" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
     </row>
     <row r="2" spans="2:14" s="1" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B2" s="145" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="61" t="e">
+      <c r="B2" s="140" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="50" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
     </row>
     <row r="3" spans="2:14" s="1" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B3" s="148" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="148"/>
-      <c r="N3" s="148"/>
+      <c r="B3" s="143" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="143"/>
+      <c r="M3" s="143"/>
+      <c r="N3" s="143"/>
     </row>
     <row r="4" spans="2:14" s="1" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B4" s="63"/>
-      <c r="C4" s="146" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146" t="e">
+      <c r="B4" s="52"/>
+      <c r="C4" s="141" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="141"/>
+      <c r="I4" s="141" t="e">
         <f>WayBillList_EntKaFullName</f>
         <v>#NAME?</v>
       </c>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
-      <c r="M4" s="146"/>
-      <c r="N4" s="146"/>
+      <c r="J4" s="141"/>
+      <c r="K4" s="141"/>
+      <c r="L4" s="141"/>
+      <c r="M4" s="141"/>
+      <c r="N4" s="141"/>
     </row>
     <row r="5" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B5" s="63"/>
-      <c r="C5" s="146" t="e">
+      <c r="B5" s="52"/>
+      <c r="C5" s="141" t="e">
         <f>WayBillList_AddressSel</f>
         <v>#NAME?</v>
       </c>
-      <c r="D5" s="146"/>
-      <c r="E5" s="146"/>
-      <c r="F5" s="146"/>
-      <c r="G5" s="146"/>
-      <c r="H5" s="146"/>
-      <c r="I5" s="146"/>
-      <c r="J5" s="146"/>
-      <c r="K5" s="146"/>
-      <c r="L5" s="146"/>
-      <c r="M5" s="146"/>
-      <c r="N5" s="146"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="141"/>
+      <c r="H5" s="141"/>
+      <c r="I5" s="141"/>
+      <c r="J5" s="141"/>
+      <c r="K5" s="141"/>
+      <c r="L5" s="141"/>
+      <c r="M5" s="141"/>
+      <c r="N5" s="141"/>
     </row>
     <row r="6" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B6" s="63"/>
-      <c r="C6" s="146" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146" t="e">
+      <c r="B6" s="52"/>
+      <c r="C6" s="141" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141" t="e">
         <f>WayBillList_EntKaFullName</f>
         <v>#NAME?</v>
       </c>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="146"/>
-      <c r="K6" s="146"/>
-      <c r="L6" s="146"/>
-      <c r="M6" s="146"/>
-      <c r="N6" s="146"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="141"/>
+      <c r="K6" s="141"/>
+      <c r="L6" s="141"/>
+      <c r="M6" s="141"/>
+      <c r="N6" s="141"/>
     </row>
     <row r="7" spans="2:14" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B7" s="63"/>
-      <c r="C7" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="146" t="e">
+      <c r="B7" s="52"/>
+      <c r="C7" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="141" t="e">
         <f>WayBillList_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="G7" s="146"/>
-      <c r="H7" s="146"/>
-      <c r="I7" s="146"/>
-      <c r="J7" s="146"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="146"/>
-      <c r="M7" s="146"/>
-      <c r="N7" s="146"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="141"/>
+      <c r="L7" s="141"/>
+      <c r="M7" s="141"/>
+      <c r="N7" s="141"/>
     </row>
     <row r="8" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B8" s="62"/>
-      <c r="C8" s="146" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="146"/>
-      <c r="E8" s="146"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="147" t="e">
+      <c r="B8" s="51"/>
+      <c r="C8" s="141" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="141"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="142" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="H8" s="147"/>
-      <c r="I8" s="146" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="146"/>
-      <c r="K8" s="146"/>
-      <c r="L8" s="146"/>
-      <c r="M8" s="146"/>
-      <c r="N8" s="146"/>
+      <c r="H8" s="142"/>
+      <c r="I8" s="141" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="141"/>
+      <c r="K8" s="141"/>
+      <c r="L8" s="141"/>
+      <c r="M8" s="141"/>
+      <c r="N8" s="141"/>
     </row>
     <row r="9" spans="2:14" s="1" customFormat="1" ht="17.25" customHeight="1">
-      <c r="B9" s="62"/>
-      <c r="C9" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61" t="e">
+      <c r="B9" s="51"/>
+      <c r="C9" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="F9" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="149" t="e">
+      <c r="F9" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="144" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="H9" s="149"/>
-      <c r="I9" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
+      <c r="H9" s="144"/>
+      <c r="I9" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
     </row>
     <row r="10" spans="2:14" s="1" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B10" s="62"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
     </row>
     <row r="11" spans="2:14" s="1" customFormat="1"/>
     <row r="12" spans="2:14" s="1" customFormat="1" ht="23.25" customHeight="1">
-      <c r="B12" s="129" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="131" t="s">
+      <c r="B12" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="141"/>
-      <c r="E12" s="141"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="129" t="s">
+      <c r="C12" s="126" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="129" t="s">
+      <c r="D12" s="136"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="129" t="s">
+      <c r="H12" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="129" t="s">
+      <c r="I12" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="129" t="s">
+      <c r="J12" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="129" t="s">
+      <c r="K12" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="M12" s="131" t="s">
+      <c r="L12" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="N12" s="132"/>
+      <c r="M12" s="126" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="127"/>
     </row>
     <row r="13" spans="2:14" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="B13" s="130"/>
-      <c r="C13" s="133"/>
-      <c r="D13" s="142"/>
-      <c r="E13" s="142"/>
-      <c r="F13" s="134"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="130"/>
-      <c r="K13" s="130"/>
-      <c r="L13" s="130"/>
-      <c r="M13" s="133"/>
-      <c r="N13" s="134"/>
+      <c r="B13" s="125"/>
+      <c r="C13" s="128"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="125"/>
+      <c r="J13" s="125"/>
+      <c r="K13" s="125"/>
+      <c r="L13" s="125"/>
+      <c r="M13" s="128"/>
+      <c r="N13" s="129"/>
     </row>
     <row r="14" spans="2:14" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B14" s="38" t="e">
+      <c r="B14" s="31" t="e">
         <f>Posvitcheny_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C14" s="138" t="e">
+      <c r="C14" s="133" t="e">
         <f>Posvitcheny_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D14" s="139"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="140"/>
-      <c r="G14" s="39" t="e">
+      <c r="D14" s="134"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="32" t="e">
         <f>Posvitcheny_AMOUNT</f>
         <v>#NAME?</v>
       </c>
-      <c r="H14" s="39" t="e">
+      <c r="H14" s="32" t="e">
         <f>Posvitcheny_CF1</f>
         <v>#NAME?</v>
       </c>
-      <c r="I14" s="39" t="e">
+      <c r="I14" s="32" t="e">
         <f>Posvitcheny_CF2</f>
         <v>#NAME?</v>
       </c>
-      <c r="J14" s="40" t="e">
+      <c r="J14" s="33" t="e">
         <f>Posvitcheny_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="K14" s="39" t="e">
+      <c r="K14" s="32" t="e">
         <f>Posvitcheny_CF3</f>
         <v>#NAME?</v>
       </c>
-      <c r="L14" s="39" t="e">
+      <c r="L14" s="32" t="e">
         <f>Posvitcheny_CF4</f>
         <v>#NAME?</v>
       </c>
-      <c r="M14" s="135" t="e">
+      <c r="M14" s="130" t="e">
         <f>Posvitcheny_CF5</f>
         <v>#NAME?</v>
       </c>
-      <c r="N14" s="136"/>
+      <c r="N14" s="131"/>
     </row>
     <row r="15" spans="2:14" ht="12.75" customHeight="1"/>
     <row r="16" spans="2:14" ht="12.75" customHeight="1"/>
-    <row r="17" spans="3:14" ht="290.25" customHeight="1">
-      <c r="C17" s="137" t="e">
+    <row r="17" spans="3:14" ht="239.25" customHeight="1">
+      <c r="C17" s="132" t="e">
         <f>WayBillList_Declaration</f>
         <v>#NAME?</v>
       </c>
-      <c r="D17" s="137"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="137"/>
-      <c r="J17" s="137"/>
-      <c r="K17" s="137"/>
-      <c r="L17" s="137"/>
-      <c r="M17" s="137"/>
-      <c r="N17" s="137"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="132"/>
+      <c r="G17" s="132"/>
+      <c r="H17" s="132"/>
+      <c r="I17" s="132"/>
+      <c r="J17" s="132"/>
+      <c r="K17" s="132"/>
+      <c r="L17" s="132"/>
+      <c r="M17" s="132"/>
+      <c r="N17" s="132"/>
     </row>
     <row r="18" spans="3:14">
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="50"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="41"/>
     </row>
     <row r="20" spans="3:14">
-      <c r="C20" s="128" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="128"/>
-      <c r="E20" s="128"/>
-      <c r="F20" s="128"/>
-      <c r="G20" s="128"/>
-      <c r="H20" s="128"/>
+      <c r="C20" s="123" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="123"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="123"/>
       <c r="K20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="3:14" ht="12.75" customHeight="1"/>
@@ -3327,18 +2782,19 @@
     <mergeCell ref="C14:F14"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="78" fitToHeight="5" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:O11"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -4179,243 +3635,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="15.75">
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="85" t="e">
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="57" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="J1" s="68"/>
-      <c r="K1" s="69" t="s">
+      <c r="J1" s="58"/>
+      <c r="K1" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="70"/>
-      <c r="M1" s="150" t="e">
+      <c r="L1" s="60"/>
+      <c r="M1" s="158" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="N1" s="150"/>
-      <c r="O1" s="150"/>
+      <c r="N1" s="158"/>
+      <c r="O1" s="158"/>
     </row>
     <row r="2" spans="2:15">
-      <c r="J2" s="68"/>
-      <c r="K2" s="71"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="61"/>
     </row>
     <row r="3" spans="2:15">
       <c r="B3" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="70"/>
-      <c r="E3" s="150" t="e">
+      <c r="D3" s="60"/>
+      <c r="E3" s="158" t="e">
         <f>WayBillList_AddressSel</f>
         <v>#NAME?</v>
       </c>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="92" t="e">
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="62" t="e">
         <f>WayBillList_EntKaFullName</f>
         <v>#NAME?</v>
       </c>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-    </row>
-    <row r="4" spans="2:15" ht="15" customHeight="1">
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+    </row>
+    <row r="4" spans="2:15" ht="19.5" customHeight="1">
       <c r="B4" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="152" t="e">
+      <c r="E4" s="160" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="F4" s="152"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
     </row>
     <row r="5" spans="2:15">
-      <c r="J5" s="68"/>
-      <c r="K5" s="71"/>
-    </row>
-    <row r="6" spans="2:15" ht="18" customHeight="1">
-      <c r="B6" s="119" t="s">
+      <c r="J5" s="58"/>
+      <c r="K5" s="61"/>
+    </row>
+    <row r="6" spans="2:15" ht="16.5" customHeight="1">
+      <c r="B6" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="119" t="s">
+      <c r="C6" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="153"/>
-      <c r="E6" s="119" t="s">
+      <c r="D6" s="111"/>
+      <c r="E6" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="153"/>
-      <c r="G6" s="160" t="s">
+      <c r="F6" s="111"/>
+      <c r="G6" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="161"/>
-      <c r="I6" s="161"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="162" t="s">
+      <c r="H6" s="148"/>
+      <c r="I6" s="148"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="149" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="119" t="s">
+      <c r="L6" s="109" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="111"/>
+      <c r="N6" s="161" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" s="161" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="17.25" customHeight="1">
+      <c r="B7" s="145"/>
+      <c r="C7" s="145"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="153"/>
-      <c r="N6" s="156" t="s">
+      <c r="J7" s="58"/>
+      <c r="K7" s="150"/>
+      <c r="L7" s="145"/>
+      <c r="M7" s="146"/>
+      <c r="N7" s="162"/>
+      <c r="O7" s="162"/>
+    </row>
+    <row r="8" spans="2:15" ht="19.5" customHeight="1">
+      <c r="B8" s="67" t="e">
+        <f>range_oz_Num</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C8" s="151" t="e">
+        <f>range_oz_InvNumber</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D8" s="151"/>
+      <c r="E8" s="152" t="e">
+        <f>range_oz_MatName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F8" s="153"/>
+      <c r="G8" s="68" t="e">
+        <f>range_oz_Remain</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H8" s="69" t="e">
+        <f>range_oz_Price</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I8" s="70" t="e">
+        <f>G8*H8</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J8" s="71"/>
+      <c r="K8" s="72" t="e">
+        <f>range_oz_MatName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L8" s="154"/>
+      <c r="M8" s="155"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="74"/>
+    </row>
+    <row r="9" spans="2:15" ht="21" customHeight="1">
+      <c r="F9" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="O6" s="156" t="s">
+      <c r="G9" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="77"/>
+      <c r="I9" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="58"/>
+      <c r="K9" s="75" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="156"/>
+      <c r="M9" s="157"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="80"/>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="F10" s="81"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="7" spans="2:15" ht="16.5" customHeight="1">
-      <c r="B7" s="154"/>
-      <c r="C7" s="154"/>
-      <c r="D7" s="155"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="155"/>
-      <c r="G7" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="75" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="75" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" s="68"/>
-      <c r="K7" s="163"/>
-      <c r="L7" s="154"/>
-      <c r="M7" s="155"/>
-      <c r="N7" s="157"/>
-      <c r="O7" s="157"/>
-    </row>
-    <row r="8" spans="2:15" ht="18" customHeight="1">
-      <c r="B8" s="87" t="e">
-        <f>range_oz_Num</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C8" s="164" t="e">
-        <f>range_oz_InvNumber</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D8" s="164"/>
-      <c r="E8" s="167" t="e">
-        <f>range_oz_MatName</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F8" s="168"/>
-      <c r="G8" s="88" t="e">
-        <f>range_oz_Remain</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H8" s="106" t="e">
-        <f>range_oz_Price</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I8" s="95" t="e">
-        <f>G8*H8</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J8" s="89"/>
-      <c r="K8" s="91" t="e">
-        <f>range_oz_MatName</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L8" s="165"/>
-      <c r="M8" s="166"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="76"/>
-    </row>
-    <row r="9" spans="2:15" ht="18" customHeight="1">
-      <c r="F9" s="77" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="105"/>
-      <c r="I9" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="68"/>
-      <c r="K9" s="77" t="s">
-        <v>48</v>
-      </c>
-      <c r="L9" s="158"/>
-      <c r="M9" s="159"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="78"/>
-    </row>
-    <row r="10" spans="2:15">
-      <c r="F10" s="79"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="80"/>
-      <c r="N10" s="80"/>
-      <c r="O10" s="80"/>
-    </row>
-    <row r="11" spans="2:15" ht="19.5" customHeight="1">
-      <c r="B11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="86" t="e">
+      <c r="F11" s="84" t="e">
         <f>WayBillList_EntKaFullName</f>
         <v>#NAME?</v>
       </c>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="83" t="s">
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="L11" s="84"/>
-      <c r="M11" s="84"/>
-      <c r="N11" s="84"/>
-      <c r="O11" s="80"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="87"/>
+      <c r="N11" s="87"/>
+      <c r="O11" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="L8:M8"/>
     <mergeCell ref="L9:M9"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="L6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:D7"/>
     <mergeCell ref="E6:F7"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="K6:K7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="L6:M7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="N6:N7"/>
   </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="68" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SP_Sklad/TempLate/WayBill_Out.xlsx
+++ b/SP_Sklad/TempLate/WayBill_Out.xlsx
@@ -14,16 +14,16 @@
   <definedNames>
     <definedName name="Posvitcheny">'Посвідчення якості'!$A$14:$N$15</definedName>
     <definedName name="range_oz">'Інвентаризація ОЗ'!$A$8:$O$9</definedName>
-    <definedName name="range1">Накладна!$A$16:$Q$17</definedName>
+    <definedName name="range1">Накладна!$A$16:$R$17</definedName>
     <definedName name="range2">'Посвідчення якості'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Накладна!$A$1:$Q$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Накладна!$A$1:$R$26</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>sum</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Отримав(ла)</t>
   </si>
   <si>
-    <t>ПДВ</t>
-  </si>
-  <si>
     <t>Одержувач</t>
   </si>
   <si>
@@ -100,9 +97,6 @@
     <t>Знижка</t>
   </si>
   <si>
-    <t>Ціна зі знижкою</t>
-  </si>
-  <si>
     <t>ДЕКЛАРАЦІЯ ВИРОБНИКА</t>
   </si>
   <si>
@@ -191,6 +185,21 @@
   </si>
   <si>
     <t>Автомобильный номер</t>
+  </si>
+  <si>
+    <t>Сума без ПДВ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ціна зі знижкою </t>
+  </si>
+  <si>
+    <t>Сума ПДВ</t>
+  </si>
+  <si>
+    <t>ПДВ, %</t>
+  </si>
+  <si>
+    <t>Знижка, %</t>
   </si>
 </sst>
 </file>
@@ -202,7 +211,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -328,14 +337,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color indexed="9"/>
-      <name val="Times New Roman Cyr"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color indexed="18"/>
       <name val="Times New Roman Cyr"/>
@@ -979,7 +980,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1061,24 +1062,21 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1102,22 +1100,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1133,7 +1131,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1143,23 +1141,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="27" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1174,9 +1172,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1187,9 +1182,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="2" fontId="17" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1208,6 +1200,42 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1256,48 +1284,54 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1316,31 +1350,34 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1349,6 +1386,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1359,42 +1402,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1768,11 +1775,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A2:R26"/>
+  <dimension ref="A2:S26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -1783,30 +1788,31 @@
     <col min="5" max="5" width="6" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="5.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="10.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="14" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="8.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="10.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="0.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B2" s="100" t="s">
+    <row r="2" spans="2:19" ht="16.5" customHeight="1">
+      <c r="B2" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="47"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="46"/>
       <c r="J2" s="25" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
@@ -1814,18 +1820,19 @@
       <c r="K2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="105" t="e">
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="114" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="40"/>
-    </row>
-    <row r="4" spans="2:18" ht="16.5" thickBot="1">
+      <c r="R2" s="114"/>
+      <c r="S2" s="39"/>
+    </row>
+    <row r="4" spans="2:19" ht="16.5" thickBot="1">
       <c r="B4" s="20" t="s">
         <v>8</v>
       </c>
@@ -1841,26 +1848,26 @@
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
     </row>
-    <row r="5" spans="2:18">
-      <c r="B5" s="36"/>
+    <row r="5" spans="2:19">
+      <c r="B5" s="35"/>
       <c r="D5" s="10" t="e">
         <f>CONCATENATE(IF(WayBillList_EntOKPO&lt;&gt;"","ЗКПО "&amp;WayBillList_EntOKPO&amp;", ",""),"тел. ",WayBillList_EntKaPhone)</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="6" spans="2:18">
-      <c r="B6" s="36"/>
+    <row r="6" spans="2:19">
+      <c r="B6" s="35"/>
       <c r="D6" s="10" t="e">
         <f>IF(EntAccount_AccNum&lt;&gt;"",CONCATENATE("Р/р ",EntAccount_AccNum," в ",EntAccount_BankName, ", МФО ",EntAccount_MFO),"")</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="7" spans="2:18">
-      <c r="B7" s="36" t="e">
+    <row r="7" spans="2:19">
+      <c r="B7" s="35" t="e">
         <f>WayBillList_EntINN</f>
         <v>#NAME?</v>
       </c>
-      <c r="C7" s="45" t="e">
+      <c r="C7" s="44" t="e">
         <f>WayBillList_EntCertNum</f>
         <v>#NAME?</v>
       </c>
@@ -1869,57 +1876,58 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="8" spans="2:18" ht="24.75" customHeight="1">
-      <c r="B8" s="44"/>
-      <c r="D8" s="114" t="e">
+    <row r="8" spans="2:19" ht="24.75" customHeight="1">
+      <c r="B8" s="43"/>
+      <c r="D8" s="123" t="e">
         <f>"Адреса: "&amp;WayBillList_AddressSel</f>
         <v>#NAME?</v>
       </c>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-    </row>
-    <row r="9" spans="2:18" ht="33" customHeight="1" thickBot="1">
+      <c r="E8" s="123"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="123"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="123"/>
+    </row>
+    <row r="9" spans="2:19" ht="33" customHeight="1" thickBot="1">
       <c r="B9" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="21"/>
-      <c r="D9" s="115" t="e">
+      <c r="D9" s="124" t="e">
         <f>WayBillList_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="E9" s="115"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="115"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="115"/>
-      <c r="L9" s="115"/>
-      <c r="M9" s="115"/>
-      <c r="N9" s="115"/>
-      <c r="O9" s="115"/>
-      <c r="P9" s="115"/>
-      <c r="Q9" s="115"/>
-    </row>
-    <row r="10" spans="2:18" ht="24.75" customHeight="1">
-      <c r="B10" s="43"/>
+      <c r="E9" s="124"/>
+      <c r="F9" s="124"/>
+      <c r="G9" s="124"/>
+      <c r="H9" s="124"/>
+      <c r="I9" s="124"/>
+      <c r="J9" s="124"/>
+      <c r="K9" s="124"/>
+      <c r="L9" s="124"/>
+      <c r="M9" s="124"/>
+      <c r="N9" s="124"/>
+      <c r="O9" s="124"/>
+      <c r="P9" s="124"/>
+      <c r="Q9" s="124"/>
+      <c r="R9" s="124"/>
+    </row>
+    <row r="10" spans="2:19" ht="24.75" customHeight="1">
+      <c r="B10" s="42"/>
       <c r="C10" s="18"/>
-      <c r="D10" s="107" t="e">
+      <c r="D10" s="116" t="e">
         <f>CONCATENATE("Адреса: ",WayBillList_AddressBuy)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="107"/>
-    </row>
-    <row r="11" spans="2:18" ht="16.5" customHeight="1">
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="116"/>
+    </row>
+    <row r="11" spans="2:19" ht="16.5" customHeight="1">
       <c r="B11" s="13" t="s">
         <v>1</v>
       </c>
@@ -1934,22 +1942,23 @@
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
       <c r="O11" s="15"/>
-      <c r="P11" s="15" t="e">
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15" t="e">
         <f>WayBillList_CarNumber</f>
         <v>#NAME?</v>
       </c>
-      <c r="Q11" s="15"/>
-    </row>
-    <row r="12" spans="2:18" ht="16.5" customHeight="1">
+      <c r="R11" s="15"/>
+    </row>
+    <row r="12" spans="2:19" ht="16.5" customHeight="1">
       <c r="B12" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="23" t="e">
@@ -1959,11 +1968,11 @@
       <c r="E12" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="106" t="e">
+      <c r="F12" s="115" t="e">
         <f>IF(WayBillList_AttDate&gt;0,WayBillList_AttDate,"")</f>
         <v>#NAME?</v>
       </c>
-      <c r="G12" s="106"/>
+      <c r="G12" s="115"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="9"/>
@@ -1974,31 +1983,33 @@
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
-    </row>
-    <row r="13" spans="2:18" ht="18.75" customHeight="1">
-      <c r="B13" s="101" t="e">
+      <c r="R12" s="9"/>
+    </row>
+    <row r="13" spans="2:19" ht="18.75" customHeight="1">
+      <c r="B13" s="110" t="e">
         <f>CONCATENATE("Підстава: ",WayBillList_Reason)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="101"/>
-      <c r="P13" s="101"/>
-      <c r="Q13" s="101"/>
-    </row>
-    <row r="14" spans="2:18" ht="6" customHeight="1">
-      <c r="C14" s="108"/>
-      <c r="D14" s="108"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="110"/>
+      <c r="L13" s="110"/>
+      <c r="M13" s="110"/>
+      <c r="N13" s="110"/>
+      <c r="O13" s="110"/>
+      <c r="P13" s="110"/>
+      <c r="Q13" s="110"/>
+      <c r="R13" s="110"/>
+    </row>
+    <row r="14" spans="2:19" ht="6" customHeight="1">
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -2006,18 +2017,19 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-    </row>
-    <row r="15" spans="2:18" ht="30.75" customHeight="1">
+      <c r="Q14" s="2"/>
+    </row>
+    <row r="15" spans="2:19" ht="30.75" customHeight="1">
       <c r="B15" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="109" t="s">
+      <c r="C15" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="111"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="120"/>
       <c r="H15" s="7" t="s">
         <v>6</v>
       </c>
@@ -2026,122 +2038,133 @@
         <v>5</v>
       </c>
       <c r="K15" s="6" t="e">
-        <f>IF(B18&gt;0,"Ціна без ПДВ","Ціна без знижки")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="P15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q15" s="89" t="e">
-        <f>IF(B18&gt;0,"Сума без ПДВ","Сума зі знижкою")</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18" ht="12.75" customHeight="1">
-      <c r="B16" s="96" t="e">
+        <f>IF(B18&gt;0,"Ціна з ПДВ","Ціна без знижки")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L15" s="99" t="s">
+        <v>57</v>
+      </c>
+      <c r="M15" s="101" t="s">
+        <v>58</v>
+      </c>
+      <c r="N15" s="99" t="s">
+        <v>56</v>
+      </c>
+      <c r="O15" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="P15" s="99" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="R15" s="87" t="e">
+        <f>IF(B18&gt;0,"Сума з ПДВ","Сума зі знижкою")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" ht="12.75" customHeight="1">
+      <c r="B16" s="93" t="e">
         <f>range1_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C16" s="112" t="e">
+      <c r="C16" s="121" t="e">
         <f>range1_MATNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D16" s="112"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="112"/>
-      <c r="H16" s="96" t="e">
+      <c r="D16" s="121"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="93" t="e">
         <f>range1_MSRNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="I16" s="96" t="e">
+      <c r="I16" s="93" t="e">
         <f>IF(H16="кг.",J16,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="J16" s="97" t="e">
+      <c r="J16" s="94" t="e">
         <f>range1_AMOUNT</f>
         <v>#NAME?</v>
       </c>
-      <c r="K16" s="98" t="e">
-        <f>L16+O16</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L16" s="98" t="e">
+      <c r="K16" s="95" t="e">
+        <f>range1_BasePrice</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L16" s="96" t="e">
+        <f>range1_NDS</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M16" s="96" t="e">
+        <f>range1_Discount</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N16" s="96" t="e">
+        <f>range1_SumNDS</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O16" s="96" t="e">
+        <f>R16-N16</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="P16" s="95" t="e">
         <f>range1_PRICE</f>
         <v>#NAME?</v>
       </c>
-      <c r="M16" s="99" t="e">
-        <f>range1_NDS</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N16" s="99" t="e">
-        <f>range1_SumNDS</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O16" s="98" t="e">
-        <f>range1_DISCOUNTPRICE</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P16" s="98" t="e">
-        <f>J16*O16</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q16" s="98" t="e">
-        <f>ROUND(J16*(K16-O16),2)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="12.75" customHeight="1">
+      <c r="Q16" s="95" t="e">
+        <f>R16*M16/100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R16" s="95" t="e">
+        <f>range1_Total</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="12.75" customHeight="1">
       <c r="B17" s="16"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
-      <c r="F17" s="113" t="e">
+      <c r="F17" s="122" t="e">
         <f>IF(B18&gt;0,"Всього без ПДВ","Всього")</f>
         <v>#NAME?</v>
       </c>
-      <c r="G17" s="113"/>
-      <c r="H17" s="113"/>
-      <c r="I17" s="49" t="s">
+      <c r="G17" s="122"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="J17" s="90" t="str">
+      <c r="J17" s="88" t="str">
         <f>I17</f>
         <v>sum</v>
       </c>
-      <c r="K17" s="91"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="92"/>
-      <c r="N17" s="93" t="s">
+      <c r="K17" s="89"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="O17" s="94" t="s">
+      <c r="O17" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="P17" s="94" t="s">
+      <c r="P17" s="91"/>
+      <c r="Q17" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="Q17" s="95" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="12.75" customHeight="1">
-      <c r="B18" s="39" t="e">
+      <c r="R17" s="92" t="str">
+        <f>O17</f>
+        <v>sum</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="12.75" customHeight="1">
+      <c r="B18" s="38" t="e">
         <f>WayBillList_NDS</f>
         <v>#NAME?</v>
       </c>
-      <c r="C18" s="42" t="e">
-        <f>ROUND(Q17*B18/100,2)</f>
+      <c r="C18" s="41" t="e">
+        <f>ROUND(R17*B18/100,2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="D18" s="18"/>
@@ -2150,50 +2173,52 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="102" t="e">
-        <f>IF(B18&gt;0,CONCATENATE("Всього ПДВ "&amp;WayBillList_NDS&amp;"%"),"Всього без знижки")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K18" s="103"/>
-      <c r="L18" s="35"/>
+      <c r="J18" s="111" t="e">
+        <f>IF(B18&gt;0,"Всього ПДВ","Всього без знижки")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K18" s="112"/>
+      <c r="L18" s="27"/>
       <c r="M18" s="27"/>
       <c r="N18" s="27"/>
       <c r="O18" s="27"/>
       <c r="P18" s="27"/>
-      <c r="Q18" s="28" t="e">
-        <f>IF(B18&gt;0,C18,P17+Q17)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="12.75" customHeight="1">
-      <c r="B19" s="37" t="e">
-        <f>P17+Q17</f>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="28" t="e">
+        <f>IF(B18&gt;0,N17,Q17+R17)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="12.75" customHeight="1">
+      <c r="B19" s="36" t="e">
+        <f>Q17+R17</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H19" s="120" t="e">
+      <c r="H19" s="106" t="e">
         <f>IF(B18&gt;0,"Разом, в т.ч ПДВ:","Всього до сплати")</f>
         <v>#NAME?</v>
       </c>
-      <c r="I19" s="120"/>
-      <c r="J19" s="120"/>
-      <c r="K19" s="121"/>
-      <c r="L19" s="35"/>
+      <c r="I19" s="106"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="107"/>
+      <c r="L19" s="27"/>
       <c r="M19" s="27"/>
       <c r="N19" s="27"/>
       <c r="O19" s="27"/>
       <c r="P19" s="27"/>
-      <c r="Q19" s="38" t="e">
-        <f>IF(B18&gt;0,Q17+Q18,Q17)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="12.75" customHeight="1">
-      <c r="B20" s="116"/>
-      <c r="C20" s="116"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="37" t="e">
+        <f>IF(B18&gt;0,R17+R18,R17)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="12.75" customHeight="1">
+      <c r="B20" s="102"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -2204,10 +2229,11 @@
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
-    </row>
-    <row r="21" spans="1:17" ht="12.75" customHeight="1">
+      <c r="R20" s="3"/>
+    </row>
+    <row r="21" spans="1:18" ht="12.75" customHeight="1">
       <c r="B21" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="19" t="e">
@@ -2218,17 +2244,18 @@
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
       <c r="H21" s="13"/>
-      <c r="I21" s="48"/>
+      <c r="I21" s="47"/>
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
+      <c r="M21" s="100"/>
       <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
+      <c r="O21" s="97"/>
       <c r="P21" s="13"/>
       <c r="Q21" s="13"/>
-    </row>
-    <row r="22" spans="1:17" ht="12.75" customHeight="1">
+      <c r="R21" s="13"/>
+    </row>
+    <row r="22" spans="1:18" ht="12.75" customHeight="1">
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
@@ -2245,8 +2272,9 @@
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
-    </row>
-    <row r="23" spans="1:17" ht="12.75" customHeight="1">
+      <c r="R22" s="3"/>
+    </row>
+    <row r="23" spans="1:18" ht="12.75" customHeight="1">
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
@@ -2263,13 +2291,14 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
-    </row>
-    <row r="24" spans="1:17" ht="12.75" customHeight="1">
-      <c r="B24" s="46" t="e">
+      <c r="R23" s="3"/>
+    </row>
+    <row r="24" spans="1:18" ht="12.75" customHeight="1">
+      <c r="B24" s="45" t="e">
         <f>WayBillList_WTYPE</f>
         <v>#NAME?</v>
       </c>
-      <c r="C24" s="46" t="e">
+      <c r="C24" s="45" t="e">
         <f>WayBillList_PERSONNAME</f>
         <v>#NAME?</v>
       </c>
@@ -2287,8 +2316,9 @@
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
-    </row>
-    <row r="25" spans="1:17" ht="12.75" customHeight="1">
+      <c r="R24" s="3"/>
+    </row>
+    <row r="25" spans="1:18" ht="12.75" customHeight="1">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -2306,46 +2336,42 @@
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
-    </row>
-    <row r="26" spans="1:17" ht="12.75" customHeight="1">
+      <c r="R25" s="5"/>
+    </row>
+    <row r="26" spans="1:18" ht="12.75" customHeight="1">
       <c r="A26" s="4"/>
-      <c r="B26" s="117" t="s">
+      <c r="B26" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="117"/>
-      <c r="D26" s="119" t="e">
+      <c r="C26" s="103"/>
+      <c r="D26" s="105" t="e">
         <f>IF(B24 &lt; 0,C24," ")</f>
         <v>#NAME?</v>
       </c>
-      <c r="E26" s="119"/>
-      <c r="F26" s="119"/>
-      <c r="G26" s="119"/>
-      <c r="H26" s="122" t="s">
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="I26" s="122"/>
-      <c r="J26" s="122"/>
-      <c r="K26" s="118"/>
-      <c r="L26" s="118"/>
-      <c r="M26" s="118"/>
-      <c r="N26" s="118"/>
-      <c r="O26" s="118"/>
-      <c r="P26" s="118"/>
-      <c r="Q26" s="118"/>
+      <c r="I26" s="108"/>
+      <c r="J26" s="108"/>
+      <c r="K26" s="104"/>
+      <c r="L26" s="104"/>
+      <c r="M26" s="104"/>
+      <c r="N26" s="104"/>
+      <c r="O26" s="104"/>
+      <c r="P26" s="104"/>
+      <c r="Q26" s="104"/>
+      <c r="R26" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="K26:Q26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="H26:J26"/>
     <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B13:Q13"/>
+    <mergeCell ref="B13:R13"/>
     <mergeCell ref="J18:K18"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="Q2:R2"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="D10:J10"/>
     <mergeCell ref="C14:D14"/>
@@ -2353,7 +2379,13 @@
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:Q9"/>
+    <mergeCell ref="D9:R9"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="K26:R26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H26:J26"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -2392,36 +2424,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="35.25" customHeight="1">
-      <c r="B1" s="138" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
+      <c r="B1" s="133" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="134"/>
     </row>
     <row r="2" spans="2:14" s="1" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B2" s="140" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="50" t="e">
+      <c r="B2" s="135" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="49" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
       </c>
@@ -2429,225 +2461,225 @@
       <c r="N2" s="30"/>
     </row>
     <row r="3" spans="2:14" s="1" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B3" s="143" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="143"/>
+      <c r="B3" s="138" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="138"/>
+      <c r="M3" s="138"/>
+      <c r="N3" s="138"/>
     </row>
     <row r="4" spans="2:14" s="1" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B4" s="52"/>
-      <c r="C4" s="141" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
-      <c r="G4" s="141"/>
-      <c r="H4" s="141"/>
-      <c r="I4" s="141" t="e">
+      <c r="B4" s="51"/>
+      <c r="C4" s="136" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136" t="e">
         <f>WayBillList_EntKaFullName</f>
         <v>#NAME?</v>
       </c>
-      <c r="J4" s="141"/>
-      <c r="K4" s="141"/>
-      <c r="L4" s="141"/>
-      <c r="M4" s="141"/>
-      <c r="N4" s="141"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="136"/>
+      <c r="M4" s="136"/>
+      <c r="N4" s="136"/>
     </row>
     <row r="5" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B5" s="52"/>
-      <c r="C5" s="141" t="e">
+      <c r="B5" s="51"/>
+      <c r="C5" s="136" t="e">
         <f>WayBillList_AddressSel</f>
         <v>#NAME?</v>
       </c>
-      <c r="D5" s="141"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="141"/>
-      <c r="G5" s="141"/>
-      <c r="H5" s="141"/>
-      <c r="I5" s="141"/>
-      <c r="J5" s="141"/>
-      <c r="K5" s="141"/>
-      <c r="L5" s="141"/>
-      <c r="M5" s="141"/>
-      <c r="N5" s="141"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="136"/>
+      <c r="K5" s="136"/>
+      <c r="L5" s="136"/>
+      <c r="M5" s="136"/>
+      <c r="N5" s="136"/>
     </row>
     <row r="6" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B6" s="52"/>
-      <c r="C6" s="141" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141" t="e">
+      <c r="B6" s="51"/>
+      <c r="C6" s="136" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="136"/>
+      <c r="E6" s="136" t="e">
         <f>WayBillList_EntKaFullName</f>
         <v>#NAME?</v>
       </c>
-      <c r="F6" s="141"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="141"/>
-      <c r="K6" s="141"/>
-      <c r="L6" s="141"/>
-      <c r="M6" s="141"/>
-      <c r="N6" s="141"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="136"/>
+      <c r="K6" s="136"/>
+      <c r="L6" s="136"/>
+      <c r="M6" s="136"/>
+      <c r="N6" s="136"/>
     </row>
     <row r="7" spans="2:14" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B7" s="52"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="30"/>
       <c r="E7" s="30"/>
-      <c r="F7" s="141" t="e">
+      <c r="F7" s="136" t="e">
         <f>WayBillList_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="141"/>
-      <c r="K7" s="141"/>
-      <c r="L7" s="141"/>
-      <c r="M7" s="141"/>
-      <c r="N7" s="141"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="136"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="136"/>
+      <c r="N7" s="136"/>
     </row>
     <row r="8" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B8" s="51"/>
-      <c r="C8" s="141" t="s">
+      <c r="B8" s="50"/>
+      <c r="C8" s="136" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="137" t="e">
+        <f>WayBillList_ONDATE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H8" s="137"/>
+      <c r="I8" s="136" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="136"/>
+      <c r="K8" s="136"/>
+      <c r="L8" s="136"/>
+      <c r="M8" s="136"/>
+      <c r="N8" s="136"/>
+    </row>
+    <row r="9" spans="2:14" s="1" customFormat="1" ht="17.25" customHeight="1">
+      <c r="B9" s="50"/>
+      <c r="C9" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="141"/>
-      <c r="E8" s="141"/>
-      <c r="F8" s="141"/>
-      <c r="G8" s="142" t="e">
+      <c r="D9" s="49"/>
+      <c r="E9" s="49" t="e">
+        <f>WayBillList_NUM</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="139" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="H8" s="142"/>
-      <c r="I8" s="141" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="141"/>
-      <c r="K8" s="141"/>
-      <c r="L8" s="141"/>
-      <c r="M8" s="141"/>
-      <c r="N8" s="141"/>
-    </row>
-    <row r="9" spans="2:14" s="1" customFormat="1" ht="17.25" customHeight="1">
-      <c r="B9" s="51"/>
-      <c r="C9" s="50" t="s">
+      <c r="H9" s="139"/>
+      <c r="I9" s="30" t="s">
         <v>32</v>
-      </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50" t="e">
-        <f>WayBillList_NUM</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F9" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="144" t="e">
-        <f>WayBillList_ONDATE</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H9" s="144"/>
-      <c r="I9" s="30" t="s">
-        <v>34</v>
       </c>
       <c r="J9" s="30"/>
       <c r="K9" s="30"/>
-      <c r="L9" s="50"/>
+      <c r="L9" s="49"/>
       <c r="M9" s="30"/>
       <c r="N9" s="30"/>
     </row>
     <row r="10" spans="2:14" s="1" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B10" s="51"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
       <c r="G10" s="30"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="49"/>
       <c r="M10" s="30"/>
       <c r="N10" s="30"/>
     </row>
     <row r="11" spans="2:14" s="1" customFormat="1"/>
     <row r="12" spans="2:14" s="1" customFormat="1" ht="23.25" customHeight="1">
-      <c r="B12" s="124" t="s">
+      <c r="B12" s="125" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="126" t="s">
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="129"/>
+      <c r="G12" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="136"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="124" t="s">
+      <c r="H12" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="124" t="s">
+      <c r="I12" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="124" t="s">
+      <c r="J12" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="124" t="s">
+      <c r="K12" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="124" t="s">
+      <c r="L12" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="124" t="s">
+      <c r="M12" s="127" t="s">
         <v>22</v>
       </c>
-      <c r="M12" s="126" t="s">
-        <v>23</v>
-      </c>
-      <c r="N12" s="127"/>
+      <c r="N12" s="129"/>
     </row>
     <row r="13" spans="2:14" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="B13" s="125"/>
-      <c r="C13" s="128"/>
-      <c r="D13" s="137"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="125"/>
-      <c r="K13" s="125"/>
-      <c r="L13" s="125"/>
-      <c r="M13" s="128"/>
-      <c r="N13" s="129"/>
+      <c r="B13" s="126"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="126"/>
+      <c r="J13" s="126"/>
+      <c r="K13" s="126"/>
+      <c r="L13" s="126"/>
+      <c r="M13" s="130"/>
+      <c r="N13" s="132"/>
     </row>
     <row r="14" spans="2:14" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="B14" s="31" t="e">
         <f>Posvitcheny_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C14" s="133" t="e">
+      <c r="C14" s="144" t="e">
         <f>Posvitcheny_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D14" s="134"/>
-      <c r="E14" s="134"/>
-      <c r="F14" s="135"/>
+      <c r="D14" s="145"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="146"/>
       <c r="G14" s="32" t="e">
         <f>Posvitcheny_AMOUNT</f>
         <v>#NAME?</v>
@@ -2672,56 +2704,56 @@
         <f>Posvitcheny_CF4</f>
         <v>#NAME?</v>
       </c>
-      <c r="M14" s="130" t="e">
+      <c r="M14" s="141" t="e">
         <f>Posvitcheny_CF5</f>
         <v>#NAME?</v>
       </c>
-      <c r="N14" s="131"/>
+      <c r="N14" s="142"/>
     </row>
     <row r="15" spans="2:14" ht="12.75" customHeight="1"/>
     <row r="16" spans="2:14" ht="12.75" customHeight="1"/>
     <row r="17" spans="3:14" ht="239.25" customHeight="1">
-      <c r="C17" s="132" t="e">
+      <c r="C17" s="143" t="e">
         <f>WayBillList_Declaration</f>
         <v>#NAME?</v>
       </c>
-      <c r="D17" s="132"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="132"/>
-      <c r="G17" s="132"/>
-      <c r="H17" s="132"/>
-      <c r="I17" s="132"/>
-      <c r="J17" s="132"/>
-      <c r="K17" s="132"/>
-      <c r="L17" s="132"/>
-      <c r="M17" s="132"/>
-      <c r="N17" s="132"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="143"/>
+      <c r="H17" s="143"/>
+      <c r="I17" s="143"/>
+      <c r="J17" s="143"/>
+      <c r="K17" s="143"/>
+      <c r="L17" s="143"/>
+      <c r="M17" s="143"/>
+      <c r="N17" s="143"/>
     </row>
     <row r="18" spans="3:14">
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="41"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="40"/>
     </row>
     <row r="20" spans="3:14">
-      <c r="C20" s="123" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
+      <c r="C20" s="140" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="140"/>
+      <c r="E20" s="140"/>
+      <c r="F20" s="140"/>
+      <c r="G20" s="140"/>
+      <c r="H20" s="140"/>
       <c r="K20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="3:14" ht="12.75" customHeight="1"/>
@@ -2754,6 +2786,16 @@
     <row r="48" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="C17:N17"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="C14:F14"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:F13"/>
     <mergeCell ref="G12:G13"/>
@@ -2770,16 +2812,6 @@
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="F7:N7"/>
     <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="C17:N17"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="C14:F14"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3635,226 +3667,231 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="15.75">
-      <c r="B1" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="57" t="e">
+      <c r="B1" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="56" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="J1" s="58"/>
-      <c r="K1" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="60"/>
-      <c r="M1" s="158" t="e">
+      <c r="J1" s="57"/>
+      <c r="K1" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="59"/>
+      <c r="M1" s="154" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="N1" s="158"/>
-      <c r="O1" s="158"/>
+      <c r="N1" s="154"/>
+      <c r="O1" s="154"/>
     </row>
     <row r="2" spans="2:15">
-      <c r="J2" s="58"/>
-      <c r="K2" s="61"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="60"/>
     </row>
     <row r="3" spans="2:15">
       <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="158" t="e">
+        <v>39</v>
+      </c>
+      <c r="D3" s="59"/>
+      <c r="E3" s="154" t="e">
         <f>WayBillList_AddressSel</f>
         <v>#NAME?</v>
       </c>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="62" t="e">
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="61" t="e">
         <f>WayBillList_EntKaFullName</f>
         <v>#NAME?</v>
       </c>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
     </row>
     <row r="4" spans="2:15" ht="19.5" customHeight="1">
       <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="156" t="e">
+        <f>WayBillList_ONDATE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F4" s="156"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="J5" s="57"/>
+      <c r="K5" s="60"/>
+    </row>
+    <row r="6" spans="2:15" ht="16.5" customHeight="1">
+      <c r="B6" s="118" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="118" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="120"/>
+      <c r="E6" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="160" t="e">
-        <f>WayBillList_ONDATE</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F4" s="160"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-    </row>
-    <row r="5" spans="2:15">
-      <c r="J5" s="58"/>
-      <c r="K5" s="61"/>
-    </row>
-    <row r="6" spans="2:15" ht="16.5" customHeight="1">
-      <c r="B6" s="109" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="109" t="s">
+      <c r="F6" s="120"/>
+      <c r="G6" s="161" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="111"/>
-      <c r="E6" s="109" t="s">
+      <c r="H6" s="162"/>
+      <c r="I6" s="162"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="111"/>
-      <c r="G6" s="147" t="s">
+      <c r="L6" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="148"/>
-      <c r="I6" s="148"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="149" t="s">
+      <c r="M6" s="120"/>
+      <c r="N6" s="159" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="109" t="s">
+      <c r="O6" s="159" t="s">
         <v>47</v>
       </c>
-      <c r="M6" s="111"/>
-      <c r="N6" s="161" t="s">
-        <v>48</v>
-      </c>
-      <c r="O6" s="161" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="7" spans="2:15" ht="17.25" customHeight="1">
-      <c r="B7" s="145"/>
-      <c r="C7" s="145"/>
-      <c r="D7" s="146"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="146"/>
+      <c r="B7" s="157"/>
+      <c r="C7" s="157"/>
+      <c r="D7" s="158"/>
+      <c r="E7" s="157"/>
+      <c r="F7" s="158"/>
       <c r="G7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="66" t="s">
+      <c r="H7" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="57"/>
+      <c r="K7" s="164"/>
+      <c r="L7" s="157"/>
+      <c r="M7" s="158"/>
+      <c r="N7" s="160"/>
+      <c r="O7" s="160"/>
+    </row>
+    <row r="8" spans="2:15" ht="19.5" customHeight="1">
+      <c r="B8" s="66" t="e">
+        <f>range_oz_Num</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C8" s="147" t="e">
+        <f>range_oz_InvNumber</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D8" s="147"/>
+      <c r="E8" s="148" t="e">
+        <f>range_oz_MatName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F8" s="149"/>
+      <c r="G8" s="67" t="e">
+        <f>range_oz_Remain</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H8" s="68" t="e">
+        <f>range_oz_Price</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I8" s="69" t="e">
+        <f>G8*H8</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J8" s="70"/>
+      <c r="K8" s="71" t="e">
+        <f>range_oz_MatName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L8" s="150"/>
+      <c r="M8" s="151"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="73"/>
+    </row>
+    <row r="9" spans="2:15" ht="21" customHeight="1">
+      <c r="F9" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" s="58"/>
-      <c r="K7" s="150"/>
-      <c r="L7" s="145"/>
-      <c r="M7" s="146"/>
-      <c r="N7" s="162"/>
-      <c r="O7" s="162"/>
-    </row>
-    <row r="8" spans="2:15" ht="19.5" customHeight="1">
-      <c r="B8" s="67" t="e">
-        <f>range_oz_Num</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C8" s="151" t="e">
-        <f>range_oz_InvNumber</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D8" s="151"/>
-      <c r="E8" s="152" t="e">
-        <f>range_oz_MatName</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F8" s="153"/>
-      <c r="G8" s="68" t="e">
-        <f>range_oz_Remain</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H8" s="69" t="e">
-        <f>range_oz_Price</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I8" s="70" t="e">
-        <f>G8*H8</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J8" s="71"/>
-      <c r="K8" s="72" t="e">
-        <f>range_oz_MatName</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L8" s="154"/>
-      <c r="M8" s="155"/>
-      <c r="N8" s="73"/>
-      <c r="O8" s="74"/>
-    </row>
-    <row r="9" spans="2:15" ht="21" customHeight="1">
-      <c r="F9" s="75" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="76" t="s">
+      <c r="G9" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="H9" s="77"/>
-      <c r="I9" s="78" t="s">
+      <c r="H9" s="76"/>
+      <c r="I9" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="58"/>
-      <c r="K9" s="75" t="s">
-        <v>52</v>
-      </c>
-      <c r="L9" s="156"/>
-      <c r="M9" s="157"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="80"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="152"/>
+      <c r="M9" s="153"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="79"/>
     </row>
     <row r="10" spans="2:15">
-      <c r="F10" s="81"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="82"/>
-      <c r="O10" s="82"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="81"/>
+      <c r="O10" s="81"/>
     </row>
     <row r="11" spans="2:15">
       <c r="B11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="84" t="e">
+        <v>51</v>
+      </c>
+      <c r="F11" s="83" t="e">
         <f>WayBillList_EntKaFullName</f>
         <v>#NAME?</v>
       </c>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="86" t="s">
-        <v>54</v>
-      </c>
-      <c r="L11" s="87"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="87"/>
-      <c r="O11" s="82"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="85" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" s="86"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="K6:K7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="L8:M8"/>
@@ -3865,11 +3902,6 @@
     <mergeCell ref="L6:M7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="O6:O7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:F7"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="K6:K7"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="68" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/SP_Sklad/TempLate/WayBill_Out.xlsx
+++ b/SP_Sklad/TempLate/WayBill_Out.xlsx
@@ -1215,6 +1215,54 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1236,53 +1284,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1293,21 +1296,39 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1329,26 +1350,23 @@
     <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1380,28 +1398,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1789,29 +1789,29 @@
     <col min="6" max="6" width="8.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="5.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="7.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="1" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="10.140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="10.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="0.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="12" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="7" style="1" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="10.5703125" style="1" customWidth="1"/>
     <col min="18" max="18" width="12.42578125" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
       <c r="I2" s="46"/>
       <c r="J2" s="25" t="e">
         <f>WayBillList_NUM</f>
@@ -1820,16 +1820,16 @@
       <c r="K2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
       <c r="O2" s="98"/>
       <c r="P2" s="34"/>
-      <c r="Q2" s="114" t="e">
+      <c r="Q2" s="107" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="R2" s="114"/>
+      <c r="R2" s="107"/>
       <c r="S2" s="39"/>
     </row>
     <row r="4" spans="2:19" ht="16.5" thickBot="1">
@@ -1878,54 +1878,54 @@
     </row>
     <row r="8" spans="2:19" ht="24.75" customHeight="1">
       <c r="B8" s="43"/>
-      <c r="D8" s="123" t="e">
+      <c r="D8" s="116" t="e">
         <f>"Адреса: "&amp;WayBillList_AddressSel</f>
         <v>#NAME?</v>
       </c>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="123"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
     </row>
     <row r="9" spans="2:19" ht="33" customHeight="1" thickBot="1">
       <c r="B9" s="20" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="21"/>
-      <c r="D9" s="124" t="e">
+      <c r="D9" s="117" t="e">
         <f>WayBillList_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="E9" s="124"/>
-      <c r="F9" s="124"/>
-      <c r="G9" s="124"/>
-      <c r="H9" s="124"/>
-      <c r="I9" s="124"/>
-      <c r="J9" s="124"/>
-      <c r="K9" s="124"/>
-      <c r="L9" s="124"/>
-      <c r="M9" s="124"/>
-      <c r="N9" s="124"/>
-      <c r="O9" s="124"/>
-      <c r="P9" s="124"/>
-      <c r="Q9" s="124"/>
-      <c r="R9" s="124"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="117"/>
+      <c r="Q9" s="117"/>
+      <c r="R9" s="117"/>
     </row>
     <row r="10" spans="2:19" ht="24.75" customHeight="1">
       <c r="B10" s="42"/>
       <c r="C10" s="18"/>
-      <c r="D10" s="116" t="e">
+      <c r="D10" s="109" t="e">
         <f>CONCATENATE("Адреса: ",WayBillList_AddressBuy)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
     </row>
     <row r="11" spans="2:19" ht="16.5" customHeight="1">
       <c r="B11" s="13" t="s">
@@ -1968,11 +1968,11 @@
       <c r="E12" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="115" t="e">
+      <c r="F12" s="108" t="e">
         <f>IF(WayBillList_AttDate&gt;0,WayBillList_AttDate,"")</f>
         <v>#NAME?</v>
       </c>
-      <c r="G12" s="115"/>
+      <c r="G12" s="108"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="9"/>
@@ -1986,30 +1986,30 @@
       <c r="R12" s="9"/>
     </row>
     <row r="13" spans="2:19" ht="18.75" customHeight="1">
-      <c r="B13" s="110" t="e">
+      <c r="B13" s="103" t="e">
         <f>CONCATENATE("Підстава: ",WayBillList_Reason)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="110"/>
-      <c r="M13" s="110"/>
-      <c r="N13" s="110"/>
-      <c r="O13" s="110"/>
-      <c r="P13" s="110"/>
-      <c r="Q13" s="110"/>
-      <c r="R13" s="110"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="103"/>
+      <c r="N13" s="103"/>
+      <c r="O13" s="103"/>
+      <c r="P13" s="103"/>
+      <c r="Q13" s="103"/>
+      <c r="R13" s="103"/>
     </row>
     <row r="14" spans="2:19" ht="6" customHeight="1">
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -2023,13 +2023,13 @@
       <c r="B15" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="118" t="s">
+      <c r="C15" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="120"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="113"/>
       <c r="H15" s="7" t="s">
         <v>6</v>
       </c>
@@ -2069,14 +2069,14 @@
         <f>range1_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C16" s="121" t="e">
+      <c r="C16" s="114" t="e">
         <f>range1_MATNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D16" s="121"/>
-      <c r="E16" s="121"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="121"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
       <c r="H16" s="93" t="e">
         <f>range1_MSRNAME</f>
         <v>#NAME?</v>
@@ -2114,7 +2114,7 @@
         <v>#NAME?</v>
       </c>
       <c r="Q16" s="95" t="e">
-        <f>R16*M16/100</f>
+        <f>(J16*K16)-R16</f>
         <v>#NAME?</v>
       </c>
       <c r="R16" s="95" t="e">
@@ -2127,12 +2127,12 @@
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
-      <c r="F17" s="122" t="e">
+      <c r="F17" s="115" t="e">
         <f>IF(B18&gt;0,"Всього без ПДВ","Всього")</f>
         <v>#NAME?</v>
       </c>
-      <c r="G17" s="122"/>
-      <c r="H17" s="122"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
       <c r="I17" s="48" t="s">
         <v>0</v>
       </c>
@@ -2173,11 +2173,11 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="111" t="e">
+      <c r="J18" s="104" t="e">
         <f>IF(B18&gt;0,"Всього ПДВ","Всього без знижки")</f>
         <v>#NAME?</v>
       </c>
-      <c r="K18" s="112"/>
+      <c r="K18" s="105"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
       <c r="N18" s="27"/>
@@ -2194,13 +2194,13 @@
         <f>Q17+R17</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H19" s="106" t="e">
+      <c r="H19" s="122" t="e">
         <f>IF(B18&gt;0,"Разом, в т.ч ПДВ:","Всього до сплати")</f>
         <v>#NAME?</v>
       </c>
-      <c r="I19" s="106"/>
-      <c r="J19" s="106"/>
-      <c r="K19" s="107"/>
+      <c r="I19" s="122"/>
+      <c r="J19" s="122"/>
+      <c r="K19" s="123"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
       <c r="N19" s="27"/>
@@ -2213,12 +2213,12 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="12.75" customHeight="1">
-      <c r="B20" s="102"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="102"/>
+      <c r="B20" s="118"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -2340,33 +2340,39 @@
     </row>
     <row r="26" spans="1:18" ht="12.75" customHeight="1">
       <c r="A26" s="4"/>
-      <c r="B26" s="103" t="s">
+      <c r="B26" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="103"/>
-      <c r="D26" s="105" t="e">
+      <c r="C26" s="119"/>
+      <c r="D26" s="121" t="e">
         <f>IF(B24 &lt; 0,C24," ")</f>
         <v>#NAME?</v>
       </c>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="105"/>
-      <c r="H26" s="108" t="s">
+      <c r="E26" s="121"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="121"/>
+      <c r="H26" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="I26" s="108"/>
-      <c r="J26" s="108"/>
-      <c r="K26" s="104"/>
-      <c r="L26" s="104"/>
-      <c r="M26" s="104"/>
-      <c r="N26" s="104"/>
-      <c r="O26" s="104"/>
-      <c r="P26" s="104"/>
-      <c r="Q26" s="104"/>
-      <c r="R26" s="104"/>
+      <c r="I26" s="124"/>
+      <c r="J26" s="124"/>
+      <c r="K26" s="120"/>
+      <c r="L26" s="120"/>
+      <c r="M26" s="120"/>
+      <c r="N26" s="120"/>
+      <c r="O26" s="120"/>
+      <c r="P26" s="120"/>
+      <c r="Q26" s="120"/>
+      <c r="R26" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="K26:R26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H26:J26"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B13:R13"/>
     <mergeCell ref="J18:K18"/>
@@ -2380,12 +2386,6 @@
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="D8:J8"/>
     <mergeCell ref="D9:R9"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="K26:R26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="H26:J26"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -2424,35 +2424,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="35.25" customHeight="1">
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="140" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="134"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="141"/>
+      <c r="M1" s="141"/>
+      <c r="N1" s="141"/>
     </row>
     <row r="2" spans="2:14" s="1" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="142" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
       <c r="L2" s="49" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
@@ -2461,79 +2461,79 @@
       <c r="N2" s="30"/>
     </row>
     <row r="3" spans="2:14" s="1" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="138"/>
-      <c r="M3" s="138"/>
-      <c r="N3" s="138"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="145"/>
+      <c r="K3" s="145"/>
+      <c r="L3" s="145"/>
+      <c r="M3" s="145"/>
+      <c r="N3" s="145"/>
     </row>
     <row r="4" spans="2:14" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="B4" s="51"/>
-      <c r="C4" s="136" t="s">
+      <c r="C4" s="143" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136" t="e">
+      <c r="D4" s="143"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="143"/>
+      <c r="H4" s="143"/>
+      <c r="I4" s="143" t="e">
         <f>WayBillList_EntKaFullName</f>
         <v>#NAME?</v>
       </c>
-      <c r="J4" s="136"/>
-      <c r="K4" s="136"/>
-      <c r="L4" s="136"/>
-      <c r="M4" s="136"/>
-      <c r="N4" s="136"/>
+      <c r="J4" s="143"/>
+      <c r="K4" s="143"/>
+      <c r="L4" s="143"/>
+      <c r="M4" s="143"/>
+      <c r="N4" s="143"/>
     </row>
     <row r="5" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="B5" s="51"/>
-      <c r="C5" s="136" t="e">
+      <c r="C5" s="143" t="e">
         <f>WayBillList_AddressSel</f>
         <v>#NAME?</v>
       </c>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="136"/>
-      <c r="K5" s="136"/>
-      <c r="L5" s="136"/>
-      <c r="M5" s="136"/>
-      <c r="N5" s="136"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="143"/>
+      <c r="K5" s="143"/>
+      <c r="L5" s="143"/>
+      <c r="M5" s="143"/>
+      <c r="N5" s="143"/>
     </row>
     <row r="6" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="B6" s="51"/>
-      <c r="C6" s="136" t="s">
+      <c r="C6" s="143" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136" t="e">
+      <c r="D6" s="143"/>
+      <c r="E6" s="143" t="e">
         <f>WayBillList_EntKaFullName</f>
         <v>#NAME?</v>
       </c>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="136"/>
-      <c r="K6" s="136"/>
-      <c r="L6" s="136"/>
-      <c r="M6" s="136"/>
-      <c r="N6" s="136"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="143"/>
+      <c r="L6" s="143"/>
+      <c r="M6" s="143"/>
+      <c r="N6" s="143"/>
     </row>
     <row r="7" spans="2:14" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="B7" s="51"/>
@@ -2542,40 +2542,40 @@
       </c>
       <c r="D7" s="30"/>
       <c r="E7" s="30"/>
-      <c r="F7" s="136" t="e">
+      <c r="F7" s="143" t="e">
         <f>WayBillList_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="136"/>
-      <c r="K7" s="136"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
+      <c r="G7" s="143"/>
+      <c r="H7" s="143"/>
+      <c r="I7" s="143"/>
+      <c r="J7" s="143"/>
+      <c r="K7" s="143"/>
+      <c r="L7" s="143"/>
+      <c r="M7" s="143"/>
+      <c r="N7" s="143"/>
     </row>
     <row r="8" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="B8" s="50"/>
-      <c r="C8" s="136" t="s">
+      <c r="C8" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="136"/>
-      <c r="G8" s="137" t="e">
+      <c r="D8" s="143"/>
+      <c r="E8" s="143"/>
+      <c r="F8" s="143"/>
+      <c r="G8" s="144" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="H8" s="137"/>
-      <c r="I8" s="136" t="s">
+      <c r="H8" s="144"/>
+      <c r="I8" s="143" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="136"/>
-      <c r="K8" s="136"/>
-      <c r="L8" s="136"/>
-      <c r="M8" s="136"/>
-      <c r="N8" s="136"/>
+      <c r="J8" s="143"/>
+      <c r="K8" s="143"/>
+      <c r="L8" s="143"/>
+      <c r="M8" s="143"/>
+      <c r="N8" s="143"/>
     </row>
     <row r="9" spans="2:14" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="B9" s="50"/>
@@ -2590,11 +2590,11 @@
       <c r="F9" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="139" t="e">
+      <c r="G9" s="146" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="H9" s="139"/>
+      <c r="H9" s="146"/>
       <c r="I9" s="30" t="s">
         <v>32</v>
       </c>
@@ -2621,65 +2621,65 @@
     </row>
     <row r="11" spans="2:14" s="1" customFormat="1"/>
     <row r="12" spans="2:14" s="1" customFormat="1" ht="23.25" customHeight="1">
-      <c r="B12" s="125" t="s">
+      <c r="B12" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="127" t="s">
+      <c r="C12" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
+      <c r="D12" s="138"/>
+      <c r="E12" s="138"/>
       <c r="F12" s="129"/>
-      <c r="G12" s="125" t="s">
+      <c r="G12" s="126" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="125" t="s">
+      <c r="H12" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="125" t="s">
+      <c r="I12" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="125" t="s">
+      <c r="J12" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="125" t="s">
+      <c r="K12" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="125" t="s">
+      <c r="L12" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="M12" s="127" t="s">
+      <c r="M12" s="128" t="s">
         <v>22</v>
       </c>
       <c r="N12" s="129"/>
     </row>
     <row r="13" spans="2:14" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="B13" s="126"/>
+      <c r="B13" s="127"/>
       <c r="C13" s="130"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="131"/>
-      <c r="F13" s="132"/>
-      <c r="G13" s="126"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="126"/>
-      <c r="J13" s="126"/>
-      <c r="K13" s="126"/>
-      <c r="L13" s="126"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="131"/>
+      <c r="G13" s="127"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="127"/>
+      <c r="J13" s="127"/>
+      <c r="K13" s="127"/>
+      <c r="L13" s="127"/>
       <c r="M13" s="130"/>
-      <c r="N13" s="132"/>
+      <c r="N13" s="131"/>
     </row>
     <row r="14" spans="2:14" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="B14" s="31" t="e">
         <f>Posvitcheny_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C14" s="144" t="e">
+      <c r="C14" s="135" t="e">
         <f>Posvitcheny_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D14" s="145"/>
-      <c r="E14" s="145"/>
-      <c r="F14" s="146"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="137"/>
       <c r="G14" s="32" t="e">
         <f>Posvitcheny_AMOUNT</f>
         <v>#NAME?</v>
@@ -2704,30 +2704,30 @@
         <f>Posvitcheny_CF4</f>
         <v>#NAME?</v>
       </c>
-      <c r="M14" s="141" t="e">
+      <c r="M14" s="132" t="e">
         <f>Posvitcheny_CF5</f>
         <v>#NAME?</v>
       </c>
-      <c r="N14" s="142"/>
+      <c r="N14" s="133"/>
     </row>
     <row r="15" spans="2:14" ht="12.75" customHeight="1"/>
     <row r="16" spans="2:14" ht="12.75" customHeight="1"/>
     <row r="17" spans="3:14" ht="239.25" customHeight="1">
-      <c r="C17" s="143" t="e">
+      <c r="C17" s="134" t="e">
         <f>WayBillList_Declaration</f>
         <v>#NAME?</v>
       </c>
-      <c r="D17" s="143"/>
-      <c r="E17" s="143"/>
-      <c r="F17" s="143"/>
-      <c r="G17" s="143"/>
-      <c r="H17" s="143"/>
-      <c r="I17" s="143"/>
-      <c r="J17" s="143"/>
-      <c r="K17" s="143"/>
-      <c r="L17" s="143"/>
-      <c r="M17" s="143"/>
-      <c r="N17" s="143"/>
+      <c r="D17" s="134"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="134"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="134"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="134"/>
+      <c r="K17" s="134"/>
+      <c r="L17" s="134"/>
+      <c r="M17" s="134"/>
+      <c r="N17" s="134"/>
     </row>
     <row r="18" spans="3:14">
       <c r="C18" s="52"/>
@@ -2744,14 +2744,14 @@
       <c r="N18" s="40"/>
     </row>
     <row r="20" spans="3:14">
-      <c r="C20" s="140" t="s">
+      <c r="C20" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="140"/>
-      <c r="E20" s="140"/>
-      <c r="F20" s="140"/>
-      <c r="G20" s="140"/>
-      <c r="H20" s="140"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="125"/>
+      <c r="H20" s="125"/>
       <c r="K20" t="s">
         <v>33</v>
       </c>
@@ -2786,16 +2786,6 @@
     <row r="48" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="C17:N17"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="C14:F14"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:F13"/>
     <mergeCell ref="G12:G13"/>
@@ -2812,6 +2802,16 @@
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="F7:N7"/>
     <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="C17:N17"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="C14:F14"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3685,12 +3685,12 @@
         <v>38</v>
       </c>
       <c r="L1" s="59"/>
-      <c r="M1" s="154" t="e">
+      <c r="M1" s="160" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="N1" s="154"/>
-      <c r="O1" s="154"/>
+      <c r="N1" s="160"/>
+      <c r="O1" s="160"/>
     </row>
     <row r="2" spans="2:15">
       <c r="J2" s="57"/>
@@ -3701,14 +3701,14 @@
         <v>39</v>
       </c>
       <c r="D3" s="59"/>
-      <c r="E3" s="154" t="e">
+      <c r="E3" s="160" t="e">
         <f>WayBillList_AddressSel</f>
         <v>#NAME?</v>
       </c>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="155"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="161"/>
       <c r="J3" s="57"/>
       <c r="K3" s="61" t="e">
         <f>WayBillList_EntKaFullName</f>
@@ -3723,11 +3723,11 @@
       <c r="B4" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="156" t="e">
+      <c r="E4" s="162" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="F4" s="156"/>
+      <c r="F4" s="162"/>
       <c r="G4" s="59"/>
       <c r="H4" s="59"/>
       <c r="I4" s="63"/>
@@ -3743,43 +3743,43 @@
       <c r="K5" s="60"/>
     </row>
     <row r="6" spans="2:15" ht="16.5" customHeight="1">
-      <c r="B6" s="118" t="s">
+      <c r="B6" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="118" t="s">
+      <c r="C6" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="120"/>
-      <c r="E6" s="118" t="s">
+      <c r="D6" s="113"/>
+      <c r="E6" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="120"/>
-      <c r="G6" s="161" t="s">
+      <c r="F6" s="113"/>
+      <c r="G6" s="149" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="162"/>
-      <c r="I6" s="162"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
       <c r="J6" s="57"/>
-      <c r="K6" s="163" t="s">
+      <c r="K6" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="118" t="s">
+      <c r="L6" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="M6" s="120"/>
-      <c r="N6" s="159" t="s">
+      <c r="M6" s="113"/>
+      <c r="N6" s="163" t="s">
         <v>46</v>
       </c>
-      <c r="O6" s="159" t="s">
+      <c r="O6" s="163" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="17.25" customHeight="1">
-      <c r="B7" s="157"/>
-      <c r="C7" s="157"/>
-      <c r="D7" s="158"/>
-      <c r="E7" s="157"/>
-      <c r="F7" s="158"/>
+      <c r="B7" s="147"/>
+      <c r="C7" s="147"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="148"/>
       <c r="G7" s="12" t="s">
         <v>5</v>
       </c>
@@ -3790,27 +3790,27 @@
         <v>49</v>
       </c>
       <c r="J7" s="57"/>
-      <c r="K7" s="164"/>
-      <c r="L7" s="157"/>
-      <c r="M7" s="158"/>
-      <c r="N7" s="160"/>
-      <c r="O7" s="160"/>
+      <c r="K7" s="152"/>
+      <c r="L7" s="147"/>
+      <c r="M7" s="148"/>
+      <c r="N7" s="164"/>
+      <c r="O7" s="164"/>
     </row>
     <row r="8" spans="2:15" ht="19.5" customHeight="1">
       <c r="B8" s="66" t="e">
         <f>range_oz_Num</f>
         <v>#NAME?</v>
       </c>
-      <c r="C8" s="147" t="e">
+      <c r="C8" s="153" t="e">
         <f>range_oz_InvNumber</f>
         <v>#NAME?</v>
       </c>
-      <c r="D8" s="147"/>
-      <c r="E8" s="148" t="e">
+      <c r="D8" s="153"/>
+      <c r="E8" s="154" t="e">
         <f>range_oz_MatName</f>
         <v>#NAME?</v>
       </c>
-      <c r="F8" s="149"/>
+      <c r="F8" s="155"/>
       <c r="G8" s="67" t="e">
         <f>range_oz_Remain</f>
         <v>#NAME?</v>
@@ -3828,8 +3828,8 @@
         <f>range_oz_MatName</f>
         <v>#NAME?</v>
       </c>
-      <c r="L8" s="150"/>
-      <c r="M8" s="151"/>
+      <c r="L8" s="156"/>
+      <c r="M8" s="157"/>
       <c r="N8" s="72"/>
       <c r="O8" s="73"/>
     </row>
@@ -3848,8 +3848,8 @@
       <c r="K9" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="L9" s="152"/>
-      <c r="M9" s="153"/>
+      <c r="L9" s="158"/>
+      <c r="M9" s="159"/>
       <c r="N9" s="78"/>
       <c r="O9" s="79"/>
     </row>
@@ -3887,11 +3887,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:F7"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="K6:K7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="L8:M8"/>
@@ -3902,6 +3897,11 @@
     <mergeCell ref="L6:M7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="O6:O7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="K6:K7"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="68" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/SP_Sklad/TempLate/WayBill_Out.xlsx
+++ b/SP_Sklad/TempLate/WayBill_Out.xlsx
@@ -14,9 +14,9 @@
   <definedNames>
     <definedName name="Posvitcheny">'Посвідчення якості'!$A$14:$N$15</definedName>
     <definedName name="range_oz">'Інвентаризація ОЗ'!$A$8:$O$9</definedName>
-    <definedName name="range1">Накладна!$A$16:$R$17</definedName>
+    <definedName name="range1">Накладна!$A$17:$R$18</definedName>
     <definedName name="range2">'Посвідчення якості'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Накладна!$A$1:$R$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Накладна!$A$1:$R$25</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -211,7 +211,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -393,6 +393,10 @@
       <name val="Arial Cyr"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="48"/>
+      <name val="Free 3 of 9 Extended"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -990,9 +994,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1058,9 +1059,6 @@
     </xf>
     <xf numFmtId="14" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1203,9 +1201,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1218,6 +1213,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1227,62 +1229,62 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1775,13 +1777,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A2:S26"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" customWidth="1"/>
@@ -1802,7 +1804,8 @@
     <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="16.5" customHeight="1">
+    <row r="1" spans="2:22" ht="12" customHeight="1"/>
+    <row r="2" spans="2:22" ht="16.5" customHeight="1">
       <c r="B2" s="102" t="s">
         <v>7</v>
       </c>
@@ -1812,475 +1815,482 @@
       <c r="F2" s="102"/>
       <c r="G2" s="102"/>
       <c r="H2" s="102"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="25" t="e">
+      <c r="I2" s="44"/>
+      <c r="J2" s="24" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="117" t="e">
+        <f>"*"&amp;WayBillList_WbillId&amp;"*"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="117"/>
+      <c r="Q2" s="117"/>
+      <c r="R2" s="117"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
+      <c r="V2" s="101"/>
+    </row>
+    <row r="3" spans="2:22" ht="16.5" customHeight="1">
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="107" t="e">
+      <c r="F3" s="116" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="R2" s="107"/>
-      <c r="S2" s="39"/>
-    </row>
-    <row r="4" spans="2:19" ht="16.5" thickBot="1">
-      <c r="B4" s="20" t="s">
+      <c r="G3" s="116"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="117"/>
+      <c r="P3" s="117"/>
+      <c r="Q3" s="117"/>
+      <c r="R3" s="117"/>
+      <c r="S3" s="37"/>
+    </row>
+    <row r="5" spans="2:22" ht="16.5" thickBot="1">
+      <c r="B5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="29" t="e">
+      <c r="C5" s="20"/>
+      <c r="D5" s="28" t="e">
         <f>WayBillList_EntKaFullName</f>
         <v>#NAME?</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-    </row>
-    <row r="5" spans="2:19">
-      <c r="B5" s="35"/>
-      <c r="D5" s="10" t="e">
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+    </row>
+    <row r="6" spans="2:22">
+      <c r="B6" s="33"/>
+      <c r="D6" s="9" t="e">
         <f>CONCATENATE(IF(WayBillList_EntOKPO&lt;&gt;"","ЗКПО "&amp;WayBillList_EntOKPO&amp;", ",""),"тел. ",WayBillList_EntKaPhone)</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="6" spans="2:19">
-      <c r="B6" s="35"/>
-      <c r="D6" s="10" t="e">
+    <row r="7" spans="2:22">
+      <c r="B7" s="33"/>
+      <c r="D7" s="9" t="e">
         <f>IF(EntAccount_AccNum&lt;&gt;"",CONCATENATE("Р/р ",EntAccount_AccNum," в ",EntAccount_BankName, ", МФО ",EntAccount_MFO),"")</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="7" spans="2:19">
-      <c r="B7" s="35" t="e">
+    <row r="8" spans="2:22">
+      <c r="B8" s="33" t="e">
         <f>WayBillList_EntINN</f>
         <v>#NAME?</v>
       </c>
-      <c r="C7" s="44" t="e">
+      <c r="C8" s="42" t="e">
         <f>WayBillList_EntCertNum</f>
         <v>#NAME?</v>
       </c>
-      <c r="D7" s="10" t="e">
-        <f>IF(B7&lt;&gt;"",CONCATENATE("ІПН ",B7,", номер свідотцтва ",WayBillList_EntCertNum),"")</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" ht="24.75" customHeight="1">
-      <c r="B8" s="43"/>
-      <c r="D8" s="116" t="e">
+      <c r="D8" s="9" t="e">
+        <f>IF(B8&lt;&gt;"",CONCATENATE("ІПН ",B8,", номер свідотцтва ",WayBillList_EntCertNum),"")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" ht="24.75" customHeight="1">
+      <c r="B9" s="41"/>
+      <c r="D9" s="114" t="e">
         <f>"Адреса: "&amp;WayBillList_AddressSel</f>
         <v>#NAME?</v>
       </c>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="116"/>
-    </row>
-    <row r="9" spans="2:19" ht="33" customHeight="1" thickBot="1">
-      <c r="B9" s="20" t="s">
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="114"/>
+    </row>
+    <row r="10" spans="2:22" ht="33" customHeight="1" thickBot="1">
+      <c r="B10" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="117" t="e">
+      <c r="C10" s="20"/>
+      <c r="D10" s="115" t="e">
         <f>WayBillList_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="117"/>
-      <c r="N9" s="117"/>
-      <c r="O9" s="117"/>
-      <c r="P9" s="117"/>
-      <c r="Q9" s="117"/>
-      <c r="R9" s="117"/>
-    </row>
-    <row r="10" spans="2:19" ht="24.75" customHeight="1">
-      <c r="B10" s="42"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="109" t="e">
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="115"/>
+      <c r="L10" s="115"/>
+      <c r="M10" s="115"/>
+      <c r="N10" s="115"/>
+      <c r="O10" s="115"/>
+      <c r="P10" s="115"/>
+      <c r="Q10" s="115"/>
+      <c r="R10" s="115"/>
+    </row>
+    <row r="11" spans="2:22" ht="24.75" customHeight="1">
+      <c r="B11" s="40"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="107" t="e">
         <f>CONCATENATE("Адреса: ",WayBillList_AddressBuy)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-    </row>
-    <row r="11" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B11" s="13" t="s">
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="107"/>
+    </row>
+    <row r="12" spans="2:22" ht="16.5" customHeight="1">
+      <c r="B12" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="19" t="e">
+      <c r="C12" s="13"/>
+      <c r="D12" s="18" t="e">
         <f>WayBillList_RECEIVED</f>
         <v>#NAME?</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="15" t="s">
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15" t="e">
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14" t="e">
         <f>WayBillList_CarNumber</f>
         <v>#NAME?</v>
       </c>
-      <c r="R11" s="15"/>
-    </row>
-    <row r="12" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B12" s="10" t="s">
+      <c r="R12" s="14"/>
+    </row>
+    <row r="13" spans="2:22" ht="16.5" customHeight="1">
+      <c r="B13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="23" t="e">
+      <c r="C13" s="10"/>
+      <c r="D13" s="22" t="e">
         <f>WayBillList_ATTNUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="108" t="e">
+      <c r="F13" s="106" t="e">
         <f>IF(WayBillList_AttDate&gt;0,WayBillList_AttDate,"")</f>
         <v>#NAME?</v>
       </c>
-      <c r="G12" s="108"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-    </row>
-    <row r="13" spans="2:19" ht="18.75" customHeight="1">
-      <c r="B13" s="103" t="e">
+      <c r="G13" s="106"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+    </row>
+    <row r="14" spans="2:22" ht="18.75" customHeight="1">
+      <c r="B14" s="103" t="e">
         <f>CONCATENATE("Підстава: ",WayBillList_Reason)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="103"/>
-      <c r="M13" s="103"/>
-      <c r="N13" s="103"/>
-      <c r="O13" s="103"/>
-      <c r="P13" s="103"/>
-      <c r="Q13" s="103"/>
-      <c r="R13" s="103"/>
-    </row>
-    <row r="14" spans="2:19" ht="6" customHeight="1">
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-    </row>
-    <row r="15" spans="2:19" ht="30.75" customHeight="1">
-      <c r="B15" s="6" t="s">
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="103"/>
+      <c r="N14" s="103"/>
+      <c r="O14" s="103"/>
+      <c r="P14" s="103"/>
+      <c r="Q14" s="103"/>
+      <c r="R14" s="103"/>
+    </row>
+    <row r="15" spans="2:22" ht="6" customHeight="1">
+      <c r="C15" s="108"/>
+      <c r="D15" s="108"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+    </row>
+    <row r="16" spans="2:22" ht="30.75" customHeight="1">
+      <c r="B16" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="111" t="s">
+      <c r="C16" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="7" t="s">
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7" t="s">
+      <c r="I16" s="6"/>
+      <c r="J16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K15" s="6" t="e">
-        <f>IF(B18&gt;0,"Ціна з ПДВ","Ціна без знижки")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L15" s="99" t="s">
+      <c r="K16" s="5" t="e">
+        <f>IF(B19&gt;0,"Ціна з ПДВ","Ціна без знижки")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L16" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="M15" s="101" t="s">
+      <c r="M16" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="N15" s="99" t="s">
+      <c r="N16" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="O15" s="99" t="s">
+      <c r="O16" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="P15" s="99" t="s">
+      <c r="P16" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="Q15" s="6" t="s">
+      <c r="Q16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="R15" s="87" t="e">
-        <f>IF(B18&gt;0,"Сума з ПДВ","Сума зі знижкою")</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="16" spans="2:19" ht="12.75" customHeight="1">
-      <c r="B16" s="93" t="e">
+      <c r="R16" s="85" t="e">
+        <f>IF(B19&gt;0,"Сума з ПДВ","Сума зі знижкою")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="12.75" customHeight="1">
+      <c r="B17" s="91" t="e">
         <f>range1_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C16" s="114" t="e">
+      <c r="C17" s="112" t="e">
         <f>range1_MATNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="93" t="e">
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="112"/>
+      <c r="H17" s="91" t="e">
         <f>range1_MSRNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="I16" s="93" t="e">
-        <f>IF(H16="кг.",J16,0)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J16" s="94" t="e">
+      <c r="I17" s="91" t="e">
+        <f>IF(H17="кг.",J17,0)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J17" s="92" t="e">
         <f>range1_AMOUNT</f>
         <v>#NAME?</v>
       </c>
-      <c r="K16" s="95" t="e">
+      <c r="K17" s="93" t="e">
         <f>range1_BasePrice</f>
         <v>#NAME?</v>
       </c>
-      <c r="L16" s="96" t="e">
+      <c r="L17" s="94" t="e">
         <f>range1_NDS</f>
         <v>#NAME?</v>
       </c>
-      <c r="M16" s="96" t="e">
+      <c r="M17" s="94" t="e">
         <f>range1_Discount</f>
         <v>#NAME?</v>
       </c>
-      <c r="N16" s="96" t="e">
+      <c r="N17" s="94" t="e">
         <f>range1_SumNDS</f>
         <v>#NAME?</v>
       </c>
-      <c r="O16" s="96" t="e">
-        <f>R16-N16</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P16" s="95" t="e">
+      <c r="O17" s="94" t="e">
+        <f>R17-N17</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="P17" s="93" t="e">
         <f>range1_PRICE</f>
         <v>#NAME?</v>
       </c>
-      <c r="Q16" s="95" t="e">
-        <f>(J16*K16)-R16</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="R16" s="95" t="e">
+      <c r="Q17" s="93" t="e">
+        <f>(J17*K17)-R17</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R17" s="93" t="e">
         <f>range1_Total</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="12.75" customHeight="1">
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="115" t="e">
-        <f>IF(B18&gt;0,"Всього без ПДВ","Всього")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="48" t="s">
+    <row r="18" spans="1:18" ht="12.75" customHeight="1">
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="113" t="e">
+        <f>IF(B19&gt;0,"Всього без ПДВ","Всього")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G18" s="113"/>
+      <c r="H18" s="113"/>
+      <c r="I18" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="J17" s="88" t="str">
-        <f>I17</f>
+      <c r="J18" s="86" t="str">
+        <f>I18</f>
         <v>sum</v>
       </c>
-      <c r="K17" s="89"/>
-      <c r="L17" s="90"/>
-      <c r="M17" s="90"/>
-      <c r="N17" s="91" t="s">
+      <c r="K18" s="87"/>
+      <c r="L18" s="88"/>
+      <c r="M18" s="88"/>
+      <c r="N18" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="O17" s="91" t="s">
+      <c r="O18" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="P17" s="91"/>
-      <c r="Q17" s="91" t="s">
+      <c r="P18" s="89"/>
+      <c r="Q18" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="R17" s="92" t="str">
-        <f>O17</f>
+      <c r="R18" s="90" t="str">
+        <f>O18</f>
         <v>sum</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="12.75" customHeight="1">
-      <c r="B18" s="38" t="e">
-        <f>WayBillList_NDS</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C18" s="41" t="e">
-        <f>ROUND(R17*B18/100,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="104" t="e">
-        <f>IF(B18&gt;0,"Всього ПДВ","Всього без знижки")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K18" s="105"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="28" t="e">
-        <f>IF(B18&gt;0,N17,Q17+R17)</f>
-        <v>#NAME?</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="12.75" customHeight="1">
       <c r="B19" s="36" t="e">
-        <f>Q17+R17</f>
+        <f>WayBillList_NDS</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C19" s="39" t="e">
+        <f>ROUND(R18*B19/100,2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H19" s="122" t="e">
-        <f>IF(B18&gt;0,"Разом, в т.ч ПДВ:","Всього до сплати")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I19" s="122"/>
-      <c r="J19" s="122"/>
-      <c r="K19" s="123"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="37" t="e">
-        <f>IF(B18&gt;0,R17+R18,R17)</f>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="104" t="e">
+        <f>IF(B19&gt;0,"Всього ПДВ","Всього без знижки")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K19" s="105"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="27" t="e">
+        <f>IF(B19&gt;0,N18,Q18+R18)</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="12.75" customHeight="1">
-      <c r="B20" s="118"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
+      <c r="B20" s="34" t="e">
+        <f>Q18+R18</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H20" s="120" t="e">
+        <f>IF(B19&gt;0,"Разом, в т.ч ПДВ:","Всього до сплати")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I20" s="120"/>
+      <c r="J20" s="120"/>
+      <c r="K20" s="121"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="35" t="e">
+        <f>IF(B19&gt;0,R18+R19,R18)</f>
+        <v>#NAME?</v>
+      </c>
     </row>
     <row r="21" spans="1:18" ht="12.75" customHeight="1">
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="123"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+    </row>
+    <row r="22" spans="1:18" ht="12.75" customHeight="1">
+      <c r="B22" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="19" t="e">
+      <c r="C22" s="22"/>
+      <c r="D22" s="18" t="e">
         <f>WayBillList_www</f>
         <v>#NAME?</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="100"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="97"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-    </row>
-    <row r="22" spans="1:18" ht="12.75" customHeight="1">
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="97"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="95"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
     </row>
     <row r="23" spans="1:18" ht="12.75" customHeight="1">
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -2294,18 +2304,18 @@
       <c r="R23" s="3"/>
     </row>
     <row r="24" spans="1:18" ht="12.75" customHeight="1">
-      <c r="B24" s="45" t="e">
+      <c r="B24" s="43" t="e">
         <f>WayBillList_WTYPE</f>
         <v>#NAME?</v>
       </c>
-      <c r="C24" s="45" t="e">
+      <c r="C24" s="43" t="e">
         <f>WayBillList_PERSONNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -2320,72 +2330,52 @@
     </row>
     <row r="25" spans="1:18" ht="12.75" customHeight="1">
       <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-    </row>
-    <row r="26" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A26" s="4"/>
-      <c r="B26" s="119" t="s">
+      <c r="B25" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="119"/>
-      <c r="D26" s="121" t="e">
+      <c r="C25" s="124"/>
+      <c r="D25" s="119" t="e">
         <f>IF(B24 &lt; 0,C24," ")</f>
         <v>#NAME?</v>
       </c>
-      <c r="E26" s="121"/>
-      <c r="F26" s="121"/>
-      <c r="G26" s="121"/>
-      <c r="H26" s="124" t="s">
+      <c r="E25" s="119"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="119"/>
+      <c r="H25" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="I26" s="124"/>
-      <c r="J26" s="124"/>
-      <c r="K26" s="120"/>
-      <c r="L26" s="120"/>
-      <c r="M26" s="120"/>
-      <c r="N26" s="120"/>
-      <c r="O26" s="120"/>
-      <c r="P26" s="120"/>
-      <c r="Q26" s="120"/>
-      <c r="R26" s="120"/>
+      <c r="I25" s="122"/>
+      <c r="J25" s="122"/>
+      <c r="K25" s="118"/>
+      <c r="L25" s="118"/>
+      <c r="M25" s="118"/>
+      <c r="N25" s="118"/>
+      <c r="O25" s="118"/>
+      <c r="P25" s="118"/>
+      <c r="Q25" s="118"/>
+      <c r="R25" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="K26:R26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K25:R25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B13:R13"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="B14:R14"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:G16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:R9"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D10:R10"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="K2:R3"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -2453,12 +2443,12 @@
       <c r="I2" s="142"/>
       <c r="J2" s="142"/>
       <c r="K2" s="142"/>
-      <c r="L2" s="49" t="e">
+      <c r="L2" s="47" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
     </row>
     <row r="3" spans="2:14" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="B3" s="145" t="s">
@@ -2478,7 +2468,7 @@
       <c r="N3" s="145"/>
     </row>
     <row r="4" spans="2:14" s="1" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B4" s="51"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="143" t="s">
         <v>34</v>
       </c>
@@ -2498,7 +2488,7 @@
       <c r="N4" s="143"/>
     </row>
     <row r="5" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B5" s="51"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="143" t="e">
         <f>WayBillList_AddressSel</f>
         <v>#NAME?</v>
@@ -2516,7 +2506,7 @@
       <c r="N5" s="143"/>
     </row>
     <row r="6" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B6" s="51"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="143" t="s">
         <v>35</v>
       </c>
@@ -2536,12 +2526,12 @@
       <c r="N6" s="143"/>
     </row>
     <row r="7" spans="2:14" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B7" s="51"/>
-      <c r="C7" s="30" t="s">
+      <c r="B7" s="49"/>
+      <c r="C7" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
       <c r="F7" s="143" t="e">
         <f>WayBillList_NAME</f>
         <v>#NAME?</v>
@@ -2556,7 +2546,7 @@
       <c r="N7" s="143"/>
     </row>
     <row r="8" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B8" s="50"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="143" t="s">
         <v>28</v>
       </c>
@@ -2578,16 +2568,16 @@
       <c r="N8" s="143"/>
     </row>
     <row r="9" spans="2:14" s="1" customFormat="1" ht="17.25" customHeight="1">
-      <c r="B9" s="50"/>
-      <c r="C9" s="49" t="s">
+      <c r="B9" s="48"/>
+      <c r="C9" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49" t="e">
+      <c r="D9" s="47"/>
+      <c r="E9" s="47" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="29" t="s">
         <v>31</v>
       </c>
       <c r="G9" s="146" t="e">
@@ -2595,29 +2585,29 @@
         <v>#NAME?</v>
       </c>
       <c r="H9" s="146"/>
-      <c r="I9" s="30" t="s">
+      <c r="I9" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
     </row>
     <row r="10" spans="2:14" s="1" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B10" s="50"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
     </row>
     <row r="11" spans="2:14" s="1" customFormat="1"/>
     <row r="12" spans="2:14" s="1" customFormat="1" ht="23.25" customHeight="1">
@@ -2669,7 +2659,7 @@
       <c r="N13" s="131"/>
     </row>
     <row r="14" spans="2:14" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B14" s="31" t="e">
+      <c r="B14" s="30" t="e">
         <f>Posvitcheny_NUM</f>
         <v>#NAME?</v>
       </c>
@@ -2680,27 +2670,27 @@
       <c r="D14" s="136"/>
       <c r="E14" s="136"/>
       <c r="F14" s="137"/>
-      <c r="G14" s="32" t="e">
+      <c r="G14" s="31" t="e">
         <f>Posvitcheny_AMOUNT</f>
         <v>#NAME?</v>
       </c>
-      <c r="H14" s="32" t="e">
+      <c r="H14" s="31" t="e">
         <f>Posvitcheny_CF1</f>
         <v>#NAME?</v>
       </c>
-      <c r="I14" s="32" t="e">
+      <c r="I14" s="31" t="e">
         <f>Posvitcheny_CF2</f>
         <v>#NAME?</v>
       </c>
-      <c r="J14" s="33" t="e">
+      <c r="J14" s="32" t="e">
         <f>Posvitcheny_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="K14" s="32" t="e">
+      <c r="K14" s="31" t="e">
         <f>Posvitcheny_CF3</f>
         <v>#NAME?</v>
       </c>
-      <c r="L14" s="32" t="e">
+      <c r="L14" s="31" t="e">
         <f>Posvitcheny_CF4</f>
         <v>#NAME?</v>
       </c>
@@ -2730,18 +2720,18 @@
       <c r="N17" s="134"/>
     </row>
     <row r="18" spans="3:14">
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="40"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="38"/>
     </row>
     <row r="20" spans="3:14">
       <c r="C20" s="125" t="s">
@@ -3667,24 +3657,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="15.75">
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="56" t="e">
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="54" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="J1" s="57"/>
-      <c r="K1" s="58" t="s">
+      <c r="J1" s="55"/>
+      <c r="K1" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="59"/>
+      <c r="L1" s="57"/>
       <c r="M1" s="160" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
@@ -3693,14 +3683,14 @@
       <c r="O1" s="160"/>
     </row>
     <row r="2" spans="2:15">
-      <c r="J2" s="57"/>
-      <c r="K2" s="60"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="58"/>
     </row>
     <row r="3" spans="2:15">
       <c r="B3" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="59"/>
+      <c r="D3" s="57"/>
       <c r="E3" s="160" t="e">
         <f>WayBillList_AddressSel</f>
         <v>#NAME?</v>
@@ -3709,15 +3699,15 @@
       <c r="G3" s="160"/>
       <c r="H3" s="160"/>
       <c r="I3" s="161"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="61" t="e">
+      <c r="J3" s="55"/>
+      <c r="K3" s="59" t="e">
         <f>WayBillList_EntKaFullName</f>
         <v>#NAME?</v>
       </c>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
     </row>
     <row r="4" spans="2:15" ht="19.5" customHeight="1">
       <c r="B4" t="s">
@@ -3728,45 +3718,45 @@
         <v>#NAME?</v>
       </c>
       <c r="F4" s="162"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
     </row>
     <row r="5" spans="2:15">
-      <c r="J5" s="57"/>
-      <c r="K5" s="60"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="58"/>
     </row>
     <row r="6" spans="2:15" ht="16.5" customHeight="1">
-      <c r="B6" s="111" t="s">
+      <c r="B6" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="111" t="s">
+      <c r="C6" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="113"/>
-      <c r="E6" s="111" t="s">
+      <c r="D6" s="111"/>
+      <c r="E6" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="113"/>
+      <c r="F6" s="111"/>
       <c r="G6" s="149" t="s">
         <v>43</v>
       </c>
       <c r="H6" s="150"/>
       <c r="I6" s="150"/>
-      <c r="J6" s="57"/>
+      <c r="J6" s="55"/>
       <c r="K6" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="111" t="s">
+      <c r="L6" s="109" t="s">
         <v>45</v>
       </c>
-      <c r="M6" s="113"/>
+      <c r="M6" s="111"/>
       <c r="N6" s="163" t="s">
         <v>46</v>
       </c>
@@ -3780,16 +3770,16 @@
       <c r="D7" s="148"/>
       <c r="E7" s="147"/>
       <c r="F7" s="148"/>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="65" t="s">
+      <c r="H7" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="65" t="s">
+      <c r="I7" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="57"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="152"/>
       <c r="L7" s="147"/>
       <c r="M7" s="148"/>
@@ -3797,7 +3787,7 @@
       <c r="O7" s="164"/>
     </row>
     <row r="8" spans="2:15" ht="19.5" customHeight="1">
-      <c r="B8" s="66" t="e">
+      <c r="B8" s="64" t="e">
         <f>range_oz_Num</f>
         <v>#NAME?</v>
       </c>
@@ -3811,79 +3801,79 @@
         <v>#NAME?</v>
       </c>
       <c r="F8" s="155"/>
-      <c r="G8" s="67" t="e">
+      <c r="G8" s="65" t="e">
         <f>range_oz_Remain</f>
         <v>#NAME?</v>
       </c>
-      <c r="H8" s="68" t="e">
+      <c r="H8" s="66" t="e">
         <f>range_oz_Price</f>
         <v>#NAME?</v>
       </c>
-      <c r="I8" s="69" t="e">
+      <c r="I8" s="67" t="e">
         <f>G8*H8</f>
         <v>#NAME?</v>
       </c>
-      <c r="J8" s="70"/>
-      <c r="K8" s="71" t="e">
+      <c r="J8" s="68"/>
+      <c r="K8" s="69" t="e">
         <f>range_oz_MatName</f>
         <v>#NAME?</v>
       </c>
       <c r="L8" s="156"/>
       <c r="M8" s="157"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="73"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="71"/>
     </row>
     <row r="9" spans="2:15" ht="21" customHeight="1">
-      <c r="F9" s="74" t="s">
+      <c r="F9" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="75" t="s">
+      <c r="G9" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="H9" s="76"/>
-      <c r="I9" s="77" t="s">
+      <c r="H9" s="74"/>
+      <c r="I9" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="57"/>
-      <c r="K9" s="74" t="s">
+      <c r="J9" s="55"/>
+      <c r="K9" s="72" t="s">
         <v>50</v>
       </c>
       <c r="L9" s="158"/>
       <c r="M9" s="159"/>
-      <c r="N9" s="78"/>
-      <c r="O9" s="79"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="77"/>
     </row>
     <row r="10" spans="2:15">
-      <c r="F10" s="80"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="81"/>
-      <c r="O10" s="81"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="79"/>
     </row>
     <row r="11" spans="2:15">
       <c r="B11" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="83" t="e">
+      <c r="F11" s="81" t="e">
         <f>WayBillList_EntKaFullName</f>
         <v>#NAME?</v>
       </c>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="85" t="s">
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="L11" s="86"/>
-      <c r="M11" s="86"/>
-      <c r="N11" s="86"/>
-      <c r="O11" s="81"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="84"/>
+      <c r="O11" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/SP_Sklad/TempLate/WayBill_Out.xlsx
+++ b/SP_Sklad/TempLate/WayBill_Out.xlsx
@@ -984,7 +984,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1217,6 +1217,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1265,48 +1286,54 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1325,31 +1352,34 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1358,6 +1388,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1370,41 +1406,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1806,31 +1809,31 @@
   <sheetData>
     <row r="1" spans="2:22" ht="12" customHeight="1"/>
     <row r="2" spans="2:22" ht="16.5" customHeight="1">
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
       <c r="I2" s="44"/>
       <c r="J2" s="24" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="K2" s="117" t="e">
+      <c r="K2" s="124" t="e">
         <f>"*"&amp;WayBillList_WbillId&amp;"*"</f>
         <v>#NAME?</v>
       </c>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117"/>
-      <c r="Q2" s="117"/>
-      <c r="R2" s="117"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="124"/>
+      <c r="R2" s="124"/>
       <c r="S2" s="101"/>
       <c r="T2" s="101"/>
       <c r="U2" s="101"/>
@@ -1843,23 +1846,36 @@
       <c r="E3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="116" t="e">
+      <c r="F3" s="123" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="G3" s="116"/>
+      <c r="G3" s="123"/>
       <c r="H3" s="99"/>
       <c r="I3" s="99"/>
       <c r="J3" s="100"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="117"/>
-      <c r="O3" s="117"/>
-      <c r="P3" s="117"/>
-      <c r="Q3" s="117"/>
-      <c r="R3" s="117"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="124"/>
+      <c r="O3" s="124"/>
+      <c r="P3" s="124"/>
+      <c r="Q3" s="124"/>
+      <c r="R3" s="124"/>
       <c r="S3" s="37"/>
+    </row>
+    <row r="4" spans="2:22">
+      <c r="K4" s="165" t="e">
+        <f>WayBillList_WbillId</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L4" s="165"/>
+      <c r="M4" s="165"/>
+      <c r="N4" s="165"/>
+      <c r="O4" s="165"/>
+      <c r="P4" s="165"/>
+      <c r="Q4" s="165"/>
+      <c r="R4" s="165"/>
     </row>
     <row r="5" spans="2:22" ht="16.5" thickBot="1">
       <c r="B5" s="19" t="s">
@@ -1907,54 +1923,54 @@
     </row>
     <row r="9" spans="2:22" ht="24.75" customHeight="1">
       <c r="B9" s="41"/>
-      <c r="D9" s="114" t="e">
+      <c r="D9" s="121" t="e">
         <f>"Адреса: "&amp;WayBillList_AddressSel</f>
         <v>#NAME?</v>
       </c>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="114"/>
-      <c r="J9" s="114"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="121"/>
     </row>
     <row r="10" spans="2:22" ht="33" customHeight="1" thickBot="1">
       <c r="B10" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="20"/>
-      <c r="D10" s="115" t="e">
+      <c r="D10" s="122" t="e">
         <f>WayBillList_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="E10" s="115"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="115"/>
-      <c r="K10" s="115"/>
-      <c r="L10" s="115"/>
-      <c r="M10" s="115"/>
-      <c r="N10" s="115"/>
-      <c r="O10" s="115"/>
-      <c r="P10" s="115"/>
-      <c r="Q10" s="115"/>
-      <c r="R10" s="115"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="122"/>
+      <c r="M10" s="122"/>
+      <c r="N10" s="122"/>
+      <c r="O10" s="122"/>
+      <c r="P10" s="122"/>
+      <c r="Q10" s="122"/>
+      <c r="R10" s="122"/>
     </row>
     <row r="11" spans="2:22" ht="24.75" customHeight="1">
       <c r="B11" s="40"/>
       <c r="C11" s="17"/>
-      <c r="D11" s="107" t="e">
+      <c r="D11" s="114" t="e">
         <f>CONCATENATE("Адреса: ",WayBillList_AddressBuy)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="107"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="114"/>
     </row>
     <row r="12" spans="2:22" ht="16.5" customHeight="1">
       <c r="B12" s="12" t="s">
@@ -1997,11 +2013,11 @@
       <c r="E13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="106" t="e">
+      <c r="F13" s="113" t="e">
         <f>IF(WayBillList_AttDate&gt;0,WayBillList_AttDate,"")</f>
         <v>#NAME?</v>
       </c>
-      <c r="G13" s="106"/>
+      <c r="G13" s="113"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="8"/>
@@ -2015,30 +2031,30 @@
       <c r="R13" s="8"/>
     </row>
     <row r="14" spans="2:22" ht="18.75" customHeight="1">
-      <c r="B14" s="103" t="e">
+      <c r="B14" s="110" t="e">
         <f>CONCATENATE("Підстава: ",WayBillList_Reason)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="103"/>
-      <c r="I14" s="103"/>
-      <c r="J14" s="103"/>
-      <c r="K14" s="103"/>
-      <c r="L14" s="103"/>
-      <c r="M14" s="103"/>
-      <c r="N14" s="103"/>
-      <c r="O14" s="103"/>
-      <c r="P14" s="103"/>
-      <c r="Q14" s="103"/>
-      <c r="R14" s="103"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="110"/>
+      <c r="M14" s="110"/>
+      <c r="N14" s="110"/>
+      <c r="O14" s="110"/>
+      <c r="P14" s="110"/>
+      <c r="Q14" s="110"/>
+      <c r="R14" s="110"/>
     </row>
     <row r="15" spans="2:22" ht="6" customHeight="1">
-      <c r="C15" s="108"/>
-      <c r="D15" s="108"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="115"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -2052,13 +2068,13 @@
       <c r="B16" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="109" t="s">
+      <c r="C16" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="111"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="118"/>
       <c r="H16" s="6" t="s">
         <v>6</v>
       </c>
@@ -2098,14 +2114,14 @@
         <f>range1_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C17" s="112" t="e">
+      <c r="C17" s="119" t="e">
         <f>range1_MATNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="112"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="119"/>
       <c r="H17" s="91" t="e">
         <f>range1_MSRNAME</f>
         <v>#NAME?</v>
@@ -2156,12 +2172,12 @@
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
-      <c r="F18" s="113" t="e">
+      <c r="F18" s="120" t="e">
         <f>IF(B19&gt;0,"Всього без ПДВ","Всього")</f>
         <v>#NAME?</v>
       </c>
-      <c r="G18" s="113"/>
-      <c r="H18" s="113"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="120"/>
       <c r="I18" s="46" t="s">
         <v>0</v>
       </c>
@@ -2202,11 +2218,11 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="104" t="e">
+      <c r="J19" s="111" t="e">
         <f>IF(B19&gt;0,"Всього ПДВ","Всього без знижки")</f>
         <v>#NAME?</v>
       </c>
-      <c r="K19" s="105"/>
+      <c r="K19" s="112"/>
       <c r="L19" s="26"/>
       <c r="M19" s="26"/>
       <c r="N19" s="26"/>
@@ -2223,13 +2239,13 @@
         <f>Q18+R18</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H20" s="120" t="e">
+      <c r="H20" s="104" t="e">
         <f>IF(B19&gt;0,"Разом, в т.ч ПДВ:","Всього до сплати")</f>
         <v>#NAME?</v>
       </c>
-      <c r="I20" s="120"/>
-      <c r="J20" s="120"/>
-      <c r="K20" s="121"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="104"/>
+      <c r="K20" s="105"/>
       <c r="L20" s="26"/>
       <c r="M20" s="26"/>
       <c r="N20" s="26"/>
@@ -2242,12 +2258,12 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="12.75" customHeight="1">
-      <c r="B21" s="123"/>
-      <c r="C21" s="123"/>
-      <c r="D21" s="123"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -2330,39 +2346,33 @@
     </row>
     <row r="25" spans="1:18" ht="12.75" customHeight="1">
       <c r="A25" s="4"/>
-      <c r="B25" s="124" t="s">
+      <c r="B25" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="124"/>
-      <c r="D25" s="119" t="e">
+      <c r="C25" s="108"/>
+      <c r="D25" s="103" t="e">
         <f>IF(B24 &lt; 0,C24," ")</f>
         <v>#NAME?</v>
       </c>
-      <c r="E25" s="119"/>
-      <c r="F25" s="119"/>
-      <c r="G25" s="119"/>
-      <c r="H25" s="122" t="s">
+      <c r="E25" s="103"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="I25" s="122"/>
-      <c r="J25" s="122"/>
-      <c r="K25" s="118"/>
-      <c r="L25" s="118"/>
-      <c r="M25" s="118"/>
-      <c r="N25" s="118"/>
-      <c r="O25" s="118"/>
-      <c r="P25" s="118"/>
-      <c r="Q25" s="118"/>
-      <c r="R25" s="118"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="106"/>
+      <c r="K25" s="102"/>
+      <c r="L25" s="102"/>
+      <c r="M25" s="102"/>
+      <c r="N25" s="102"/>
+      <c r="O25" s="102"/>
+      <c r="P25" s="102"/>
+      <c r="Q25" s="102"/>
+      <c r="R25" s="102"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="K25:R25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B25:C25"/>
+  <mergeCells count="20">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="J19:K19"/>
@@ -2376,6 +2386,13 @@
     <mergeCell ref="D10:R10"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="K2:R3"/>
+    <mergeCell ref="K4:R4"/>
+    <mergeCell ref="K25:R25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B25:C25"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -2414,35 +2431,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="35.25" customHeight="1">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
-      <c r="L1" s="141"/>
-      <c r="M1" s="141"/>
-      <c r="N1" s="141"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="134"/>
     </row>
     <row r="2" spans="2:14" s="1" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B2" s="142" t="s">
+      <c r="B2" s="135" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="142"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
       <c r="L2" s="47" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
@@ -2451,79 +2468,79 @@
       <c r="N2" s="29"/>
     </row>
     <row r="3" spans="2:14" s="1" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B3" s="145" t="s">
+      <c r="B3" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="145"/>
-      <c r="K3" s="145"/>
-      <c r="L3" s="145"/>
-      <c r="M3" s="145"/>
-      <c r="N3" s="145"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="138"/>
+      <c r="M3" s="138"/>
+      <c r="N3" s="138"/>
     </row>
     <row r="4" spans="2:14" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="B4" s="49"/>
-      <c r="C4" s="143" t="s">
+      <c r="C4" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="143"/>
-      <c r="E4" s="143"/>
-      <c r="F4" s="143"/>
-      <c r="G4" s="143"/>
-      <c r="H4" s="143"/>
-      <c r="I4" s="143" t="e">
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136" t="e">
         <f>WayBillList_EntKaFullName</f>
         <v>#NAME?</v>
       </c>
-      <c r="J4" s="143"/>
-      <c r="K4" s="143"/>
-      <c r="L4" s="143"/>
-      <c r="M4" s="143"/>
-      <c r="N4" s="143"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="136"/>
+      <c r="M4" s="136"/>
+      <c r="N4" s="136"/>
     </row>
     <row r="5" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="B5" s="49"/>
-      <c r="C5" s="143" t="e">
+      <c r="C5" s="136" t="e">
         <f>WayBillList_AddressSel</f>
         <v>#NAME?</v>
       </c>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="143"/>
-      <c r="K5" s="143"/>
-      <c r="L5" s="143"/>
-      <c r="M5" s="143"/>
-      <c r="N5" s="143"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="136"/>
+      <c r="K5" s="136"/>
+      <c r="L5" s="136"/>
+      <c r="M5" s="136"/>
+      <c r="N5" s="136"/>
     </row>
     <row r="6" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="B6" s="49"/>
-      <c r="C6" s="143" t="s">
+      <c r="C6" s="136" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="143"/>
-      <c r="E6" s="143" t="e">
+      <c r="D6" s="136"/>
+      <c r="E6" s="136" t="e">
         <f>WayBillList_EntKaFullName</f>
         <v>#NAME?</v>
       </c>
-      <c r="F6" s="143"/>
-      <c r="G6" s="143"/>
-      <c r="H6" s="143"/>
-      <c r="I6" s="143"/>
-      <c r="J6" s="143"/>
-      <c r="K6" s="143"/>
-      <c r="L6" s="143"/>
-      <c r="M6" s="143"/>
-      <c r="N6" s="143"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="136"/>
+      <c r="K6" s="136"/>
+      <c r="L6" s="136"/>
+      <c r="M6" s="136"/>
+      <c r="N6" s="136"/>
     </row>
     <row r="7" spans="2:14" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="B7" s="49"/>
@@ -2532,40 +2549,40 @@
       </c>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
-      <c r="F7" s="143" t="e">
+      <c r="F7" s="136" t="e">
         <f>WayBillList_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="G7" s="143"/>
-      <c r="H7" s="143"/>
-      <c r="I7" s="143"/>
-      <c r="J7" s="143"/>
-      <c r="K7" s="143"/>
-      <c r="L7" s="143"/>
-      <c r="M7" s="143"/>
-      <c r="N7" s="143"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="136"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="136"/>
+      <c r="N7" s="136"/>
     </row>
     <row r="8" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="B8" s="48"/>
-      <c r="C8" s="143" t="s">
+      <c r="C8" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="143"/>
-      <c r="E8" s="143"/>
-      <c r="F8" s="143"/>
-      <c r="G8" s="144" t="e">
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="137" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="H8" s="144"/>
-      <c r="I8" s="143" t="s">
+      <c r="H8" s="137"/>
+      <c r="I8" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="143"/>
-      <c r="K8" s="143"/>
-      <c r="L8" s="143"/>
-      <c r="M8" s="143"/>
-      <c r="N8" s="143"/>
+      <c r="J8" s="136"/>
+      <c r="K8" s="136"/>
+      <c r="L8" s="136"/>
+      <c r="M8" s="136"/>
+      <c r="N8" s="136"/>
     </row>
     <row r="9" spans="2:14" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="B9" s="48"/>
@@ -2580,11 +2597,11 @@
       <c r="F9" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="146" t="e">
+      <c r="G9" s="139" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="H9" s="146"/>
+      <c r="H9" s="139"/>
       <c r="I9" s="29" t="s">
         <v>32</v>
       </c>
@@ -2611,65 +2628,65 @@
     </row>
     <row r="11" spans="2:14" s="1" customFormat="1"/>
     <row r="12" spans="2:14" s="1" customFormat="1" ht="23.25" customHeight="1">
-      <c r="B12" s="126" t="s">
+      <c r="B12" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="128" t="s">
+      <c r="C12" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="138"/>
-      <c r="E12" s="138"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
       <c r="F12" s="129"/>
-      <c r="G12" s="126" t="s">
+      <c r="G12" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="126" t="s">
+      <c r="H12" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="126" t="s">
+      <c r="I12" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="126" t="s">
+      <c r="J12" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="126" t="s">
+      <c r="K12" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="126" t="s">
+      <c r="L12" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="M12" s="128" t="s">
+      <c r="M12" s="127" t="s">
         <v>22</v>
       </c>
       <c r="N12" s="129"/>
     </row>
     <row r="13" spans="2:14" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="B13" s="127"/>
+      <c r="B13" s="126"/>
       <c r="C13" s="130"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="131"/>
-      <c r="G13" s="127"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="127"/>
-      <c r="J13" s="127"/>
-      <c r="K13" s="127"/>
-      <c r="L13" s="127"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="126"/>
+      <c r="J13" s="126"/>
+      <c r="K13" s="126"/>
+      <c r="L13" s="126"/>
       <c r="M13" s="130"/>
-      <c r="N13" s="131"/>
+      <c r="N13" s="132"/>
     </row>
     <row r="14" spans="2:14" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="B14" s="30" t="e">
         <f>Posvitcheny_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C14" s="135" t="e">
+      <c r="C14" s="144" t="e">
         <f>Posvitcheny_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D14" s="136"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="137"/>
+      <c r="D14" s="145"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="146"/>
       <c r="G14" s="31" t="e">
         <f>Posvitcheny_AMOUNT</f>
         <v>#NAME?</v>
@@ -2694,30 +2711,30 @@
         <f>Posvitcheny_CF4</f>
         <v>#NAME?</v>
       </c>
-      <c r="M14" s="132" t="e">
+      <c r="M14" s="141" t="e">
         <f>Posvitcheny_CF5</f>
         <v>#NAME?</v>
       </c>
-      <c r="N14" s="133"/>
+      <c r="N14" s="142"/>
     </row>
     <row r="15" spans="2:14" ht="12.75" customHeight="1"/>
     <row r="16" spans="2:14" ht="12.75" customHeight="1"/>
     <row r="17" spans="3:14" ht="239.25" customHeight="1">
-      <c r="C17" s="134" t="e">
+      <c r="C17" s="143" t="e">
         <f>WayBillList_Declaration</f>
         <v>#NAME?</v>
       </c>
-      <c r="D17" s="134"/>
-      <c r="E17" s="134"/>
-      <c r="F17" s="134"/>
-      <c r="G17" s="134"/>
-      <c r="H17" s="134"/>
-      <c r="I17" s="134"/>
-      <c r="J17" s="134"/>
-      <c r="K17" s="134"/>
-      <c r="L17" s="134"/>
-      <c r="M17" s="134"/>
-      <c r="N17" s="134"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="143"/>
+      <c r="H17" s="143"/>
+      <c r="I17" s="143"/>
+      <c r="J17" s="143"/>
+      <c r="K17" s="143"/>
+      <c r="L17" s="143"/>
+      <c r="M17" s="143"/>
+      <c r="N17" s="143"/>
     </row>
     <row r="18" spans="3:14">
       <c r="C18" s="50"/>
@@ -2734,14 +2751,14 @@
       <c r="N18" s="38"/>
     </row>
     <row r="20" spans="3:14">
-      <c r="C20" s="125" t="s">
+      <c r="C20" s="140" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="125"/>
-      <c r="E20" s="125"/>
-      <c r="F20" s="125"/>
-      <c r="G20" s="125"/>
-      <c r="H20" s="125"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="140"/>
+      <c r="F20" s="140"/>
+      <c r="G20" s="140"/>
+      <c r="H20" s="140"/>
       <c r="K20" t="s">
         <v>33</v>
       </c>
@@ -2776,6 +2793,16 @@
     <row r="48" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="C17:N17"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="C14:F14"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:F13"/>
     <mergeCell ref="G12:G13"/>
@@ -2792,16 +2819,6 @@
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="F7:N7"/>
     <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="C17:N17"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="C14:F14"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3675,12 +3692,12 @@
         <v>38</v>
       </c>
       <c r="L1" s="57"/>
-      <c r="M1" s="160" t="e">
+      <c r="M1" s="154" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="N1" s="160"/>
-      <c r="O1" s="160"/>
+      <c r="N1" s="154"/>
+      <c r="O1" s="154"/>
     </row>
     <row r="2" spans="2:15">
       <c r="J2" s="55"/>
@@ -3691,14 +3708,14 @@
         <v>39</v>
       </c>
       <c r="D3" s="57"/>
-      <c r="E3" s="160" t="e">
+      <c r="E3" s="154" t="e">
         <f>WayBillList_AddressSel</f>
         <v>#NAME?</v>
       </c>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="161"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="155"/>
       <c r="J3" s="55"/>
       <c r="K3" s="59" t="e">
         <f>WayBillList_EntKaFullName</f>
@@ -3713,11 +3730,11 @@
       <c r="B4" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="162" t="e">
+      <c r="E4" s="156" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="F4" s="162"/>
+      <c r="F4" s="156"/>
       <c r="G4" s="57"/>
       <c r="H4" s="57"/>
       <c r="I4" s="61"/>
@@ -3733,43 +3750,43 @@
       <c r="K5" s="58"/>
     </row>
     <row r="6" spans="2:15" ht="16.5" customHeight="1">
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="109" t="s">
+      <c r="C6" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="111"/>
-      <c r="E6" s="109" t="s">
+      <c r="D6" s="118"/>
+      <c r="E6" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="111"/>
-      <c r="G6" s="149" t="s">
+      <c r="F6" s="118"/>
+      <c r="G6" s="161" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
+      <c r="H6" s="162"/>
+      <c r="I6" s="162"/>
       <c r="J6" s="55"/>
-      <c r="K6" s="151" t="s">
+      <c r="K6" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="109" t="s">
+      <c r="L6" s="116" t="s">
         <v>45</v>
       </c>
-      <c r="M6" s="111"/>
-      <c r="N6" s="163" t="s">
+      <c r="M6" s="118"/>
+      <c r="N6" s="159" t="s">
         <v>46</v>
       </c>
-      <c r="O6" s="163" t="s">
+      <c r="O6" s="159" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="17.25" customHeight="1">
-      <c r="B7" s="147"/>
-      <c r="C7" s="147"/>
-      <c r="D7" s="148"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="148"/>
+      <c r="B7" s="157"/>
+      <c r="C7" s="157"/>
+      <c r="D7" s="158"/>
+      <c r="E7" s="157"/>
+      <c r="F7" s="158"/>
       <c r="G7" s="11" t="s">
         <v>5</v>
       </c>
@@ -3780,27 +3797,27 @@
         <v>49</v>
       </c>
       <c r="J7" s="55"/>
-      <c r="K7" s="152"/>
-      <c r="L7" s="147"/>
-      <c r="M7" s="148"/>
-      <c r="N7" s="164"/>
-      <c r="O7" s="164"/>
+      <c r="K7" s="164"/>
+      <c r="L7" s="157"/>
+      <c r="M7" s="158"/>
+      <c r="N7" s="160"/>
+      <c r="O7" s="160"/>
     </row>
     <row r="8" spans="2:15" ht="19.5" customHeight="1">
       <c r="B8" s="64" t="e">
         <f>range_oz_Num</f>
         <v>#NAME?</v>
       </c>
-      <c r="C8" s="153" t="e">
+      <c r="C8" s="147" t="e">
         <f>range_oz_InvNumber</f>
         <v>#NAME?</v>
       </c>
-      <c r="D8" s="153"/>
-      <c r="E8" s="154" t="e">
+      <c r="D8" s="147"/>
+      <c r="E8" s="148" t="e">
         <f>range_oz_MatName</f>
         <v>#NAME?</v>
       </c>
-      <c r="F8" s="155"/>
+      <c r="F8" s="149"/>
       <c r="G8" s="65" t="e">
         <f>range_oz_Remain</f>
         <v>#NAME?</v>
@@ -3818,8 +3835,8 @@
         <f>range_oz_MatName</f>
         <v>#NAME?</v>
       </c>
-      <c r="L8" s="156"/>
-      <c r="M8" s="157"/>
+      <c r="L8" s="150"/>
+      <c r="M8" s="151"/>
       <c r="N8" s="70"/>
       <c r="O8" s="71"/>
     </row>
@@ -3838,8 +3855,8 @@
       <c r="K9" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="L9" s="158"/>
-      <c r="M9" s="159"/>
+      <c r="L9" s="152"/>
+      <c r="M9" s="153"/>
       <c r="N9" s="76"/>
       <c r="O9" s="77"/>
     </row>
@@ -3877,6 +3894,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="K6:K7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="L8:M8"/>
@@ -3887,11 +3909,6 @@
     <mergeCell ref="L6:M7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="O6:O7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:F7"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="K6:K7"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="68" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/SP_Sklad/TempLate/WayBill_Out.xlsx
+++ b/SP_Sklad/TempLate/WayBill_Out.xlsx
@@ -1217,6 +1217,57 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1238,53 +1289,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1295,21 +1301,39 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1331,26 +1355,23 @@
     <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1382,32 +1403,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1809,31 +1809,31 @@
   <sheetData>
     <row r="1" spans="2:22" ht="12" customHeight="1"/>
     <row r="2" spans="2:22" ht="16.5" customHeight="1">
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
       <c r="I2" s="44"/>
       <c r="J2" s="24" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="K2" s="124" t="e">
+      <c r="K2" s="117" t="e">
         <f>"*"&amp;WayBillList_WbillId&amp;"*"</f>
         <v>#NAME?</v>
       </c>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="124"/>
-      <c r="P2" s="124"/>
-      <c r="Q2" s="124"/>
-      <c r="R2" s="124"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="117"/>
+      <c r="Q2" s="117"/>
+      <c r="R2" s="117"/>
       <c r="S2" s="101"/>
       <c r="T2" s="101"/>
       <c r="U2" s="101"/>
@@ -1846,36 +1846,36 @@
       <c r="E3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="123" t="e">
+      <c r="F3" s="116" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="G3" s="123"/>
-      <c r="H3" s="99"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
       <c r="I3" s="99"/>
       <c r="J3" s="100"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="124"/>
-      <c r="M3" s="124"/>
-      <c r="N3" s="124"/>
-      <c r="O3" s="124"/>
-      <c r="P3" s="124"/>
-      <c r="Q3" s="124"/>
-      <c r="R3" s="124"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="117"/>
+      <c r="P3" s="117"/>
+      <c r="Q3" s="117"/>
+      <c r="R3" s="117"/>
       <c r="S3" s="37"/>
     </row>
     <row r="4" spans="2:22">
-      <c r="K4" s="165" t="e">
+      <c r="K4" s="118" t="e">
         <f>WayBillList_WbillId</f>
         <v>#NAME?</v>
       </c>
-      <c r="L4" s="165"/>
-      <c r="M4" s="165"/>
-      <c r="N4" s="165"/>
-      <c r="O4" s="165"/>
-      <c r="P4" s="165"/>
-      <c r="Q4" s="165"/>
-      <c r="R4" s="165"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="118"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="118"/>
+      <c r="Q4" s="118"/>
+      <c r="R4" s="118"/>
     </row>
     <row r="5" spans="2:22" ht="16.5" thickBot="1">
       <c r="B5" s="19" t="s">
@@ -1923,54 +1923,54 @@
     </row>
     <row r="9" spans="2:22" ht="24.75" customHeight="1">
       <c r="B9" s="41"/>
-      <c r="D9" s="121" t="e">
+      <c r="D9" s="114" t="e">
         <f>"Адреса: "&amp;WayBillList_AddressSel</f>
         <v>#NAME?</v>
       </c>
-      <c r="E9" s="121"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="121"/>
-      <c r="I9" s="121"/>
-      <c r="J9" s="121"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="114"/>
     </row>
     <row r="10" spans="2:22" ht="33" customHeight="1" thickBot="1">
       <c r="B10" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="20"/>
-      <c r="D10" s="122" t="e">
+      <c r="D10" s="115" t="e">
         <f>WayBillList_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="E10" s="122"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="122"/>
-      <c r="K10" s="122"/>
-      <c r="L10" s="122"/>
-      <c r="M10" s="122"/>
-      <c r="N10" s="122"/>
-      <c r="O10" s="122"/>
-      <c r="P10" s="122"/>
-      <c r="Q10" s="122"/>
-      <c r="R10" s="122"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="115"/>
+      <c r="L10" s="115"/>
+      <c r="M10" s="115"/>
+      <c r="N10" s="115"/>
+      <c r="O10" s="115"/>
+      <c r="P10" s="115"/>
+      <c r="Q10" s="115"/>
+      <c r="R10" s="115"/>
     </row>
     <row r="11" spans="2:22" ht="24.75" customHeight="1">
       <c r="B11" s="40"/>
       <c r="C11" s="17"/>
-      <c r="D11" s="114" t="e">
+      <c r="D11" s="107" t="e">
         <f>CONCATENATE("Адреса: ",WayBillList_AddressBuy)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E11" s="114"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="114"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="107"/>
     </row>
     <row r="12" spans="2:22" ht="16.5" customHeight="1">
       <c r="B12" s="12" t="s">
@@ -2013,11 +2013,11 @@
       <c r="E13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="113" t="e">
+      <c r="F13" s="106" t="e">
         <f>IF(WayBillList_AttDate&gt;0,WayBillList_AttDate,"")</f>
         <v>#NAME?</v>
       </c>
-      <c r="G13" s="113"/>
+      <c r="G13" s="106"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="8"/>
@@ -2031,30 +2031,30 @@
       <c r="R13" s="8"/>
     </row>
     <row r="14" spans="2:22" ht="18.75" customHeight="1">
-      <c r="B14" s="110" t="e">
+      <c r="B14" s="103" t="e">
         <f>CONCATENATE("Підстава: ",WayBillList_Reason)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="110"/>
-      <c r="N14" s="110"/>
-      <c r="O14" s="110"/>
-      <c r="P14" s="110"/>
-      <c r="Q14" s="110"/>
-      <c r="R14" s="110"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="103"/>
+      <c r="N14" s="103"/>
+      <c r="O14" s="103"/>
+      <c r="P14" s="103"/>
+      <c r="Q14" s="103"/>
+      <c r="R14" s="103"/>
     </row>
     <row r="15" spans="2:22" ht="6" customHeight="1">
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="108"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -2068,13 +2068,13 @@
       <c r="B16" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="116" t="s">
+      <c r="C16" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="118"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="111"/>
       <c r="H16" s="6" t="s">
         <v>6</v>
       </c>
@@ -2114,14 +2114,14 @@
         <f>range1_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C17" s="119" t="e">
+      <c r="C17" s="112" t="e">
         <f>range1_MATNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D17" s="119"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="119"/>
-      <c r="G17" s="119"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="112"/>
       <c r="H17" s="91" t="e">
         <f>range1_MSRNAME</f>
         <v>#NAME?</v>
@@ -2172,12 +2172,12 @@
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
-      <c r="F18" s="120" t="e">
+      <c r="F18" s="113" t="e">
         <f>IF(B19&gt;0,"Всього без ПДВ","Всього")</f>
         <v>#NAME?</v>
       </c>
-      <c r="G18" s="120"/>
-      <c r="H18" s="120"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="113"/>
       <c r="I18" s="46" t="s">
         <v>0</v>
       </c>
@@ -2218,11 +2218,11 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="111" t="e">
+      <c r="J19" s="104" t="e">
         <f>IF(B19&gt;0,"Всього ПДВ","Всього без знижки")</f>
         <v>#NAME?</v>
       </c>
-      <c r="K19" s="112"/>
+      <c r="K19" s="105"/>
       <c r="L19" s="26"/>
       <c r="M19" s="26"/>
       <c r="N19" s="26"/>
@@ -2239,13 +2239,13 @@
         <f>Q18+R18</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H20" s="104" t="e">
+      <c r="H20" s="121" t="e">
         <f>IF(B19&gt;0,"Разом, в т.ч ПДВ:","Всього до сплати")</f>
         <v>#NAME?</v>
       </c>
-      <c r="I20" s="104"/>
-      <c r="J20" s="104"/>
-      <c r="K20" s="105"/>
+      <c r="I20" s="121"/>
+      <c r="J20" s="121"/>
+      <c r="K20" s="122"/>
       <c r="L20" s="26"/>
       <c r="M20" s="26"/>
       <c r="N20" s="26"/>
@@ -2258,12 +2258,12 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="12.75" customHeight="1">
-      <c r="B21" s="107"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
+      <c r="B21" s="124"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="124"/>
+      <c r="F21" s="124"/>
+      <c r="G21" s="124"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -2346,33 +2346,39 @@
     </row>
     <row r="25" spans="1:18" ht="12.75" customHeight="1">
       <c r="A25" s="4"/>
-      <c r="B25" s="108" t="s">
+      <c r="B25" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="108"/>
-      <c r="D25" s="103" t="e">
+      <c r="C25" s="125"/>
+      <c r="D25" s="120" t="e">
         <f>IF(B24 &lt; 0,C24," ")</f>
         <v>#NAME?</v>
       </c>
-      <c r="E25" s="103"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="106" t="s">
+      <c r="E25" s="120"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="120"/>
+      <c r="H25" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="I25" s="106"/>
-      <c r="J25" s="106"/>
-      <c r="K25" s="102"/>
-      <c r="L25" s="102"/>
-      <c r="M25" s="102"/>
-      <c r="N25" s="102"/>
-      <c r="O25" s="102"/>
-      <c r="P25" s="102"/>
-      <c r="Q25" s="102"/>
-      <c r="R25" s="102"/>
+      <c r="I25" s="123"/>
+      <c r="J25" s="123"/>
+      <c r="K25" s="119"/>
+      <c r="L25" s="119"/>
+      <c r="M25" s="119"/>
+      <c r="N25" s="119"/>
+      <c r="O25" s="119"/>
+      <c r="P25" s="119"/>
+      <c r="Q25" s="119"/>
+      <c r="R25" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="K25:R25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="J19:K19"/>
@@ -2384,15 +2390,9 @@
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="D10:R10"/>
-    <mergeCell ref="F3:G3"/>
     <mergeCell ref="K2:R3"/>
     <mergeCell ref="K4:R4"/>
-    <mergeCell ref="K25:R25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -2431,35 +2431,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="35.25" customHeight="1">
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="134"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
     </row>
     <row r="2" spans="2:14" s="1" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="143" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
       <c r="L2" s="47" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
@@ -2468,79 +2468,79 @@
       <c r="N2" s="29"/>
     </row>
     <row r="3" spans="2:14" s="1" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="146" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="138"/>
-      <c r="M3" s="138"/>
-      <c r="N3" s="138"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="146"/>
+      <c r="M3" s="146"/>
+      <c r="N3" s="146"/>
     </row>
     <row r="4" spans="2:14" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="B4" s="49"/>
-      <c r="C4" s="136" t="s">
+      <c r="C4" s="144" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136" t="e">
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144"/>
+      <c r="I4" s="144" t="e">
         <f>WayBillList_EntKaFullName</f>
         <v>#NAME?</v>
       </c>
-      <c r="J4" s="136"/>
-      <c r="K4" s="136"/>
-      <c r="L4" s="136"/>
-      <c r="M4" s="136"/>
-      <c r="N4" s="136"/>
+      <c r="J4" s="144"/>
+      <c r="K4" s="144"/>
+      <c r="L4" s="144"/>
+      <c r="M4" s="144"/>
+      <c r="N4" s="144"/>
     </row>
     <row r="5" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="B5" s="49"/>
-      <c r="C5" s="136" t="e">
+      <c r="C5" s="144" t="e">
         <f>WayBillList_AddressSel</f>
         <v>#NAME?</v>
       </c>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="136"/>
-      <c r="K5" s="136"/>
-      <c r="L5" s="136"/>
-      <c r="M5" s="136"/>
-      <c r="N5" s="136"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="144"/>
+      <c r="K5" s="144"/>
+      <c r="L5" s="144"/>
+      <c r="M5" s="144"/>
+      <c r="N5" s="144"/>
     </row>
     <row r="6" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="B6" s="49"/>
-      <c r="C6" s="136" t="s">
+      <c r="C6" s="144" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136" t="e">
+      <c r="D6" s="144"/>
+      <c r="E6" s="144" t="e">
         <f>WayBillList_EntKaFullName</f>
         <v>#NAME?</v>
       </c>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="136"/>
-      <c r="K6" s="136"/>
-      <c r="L6" s="136"/>
-      <c r="M6" s="136"/>
-      <c r="N6" s="136"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="144"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="144"/>
+      <c r="J6" s="144"/>
+      <c r="K6" s="144"/>
+      <c r="L6" s="144"/>
+      <c r="M6" s="144"/>
+      <c r="N6" s="144"/>
     </row>
     <row r="7" spans="2:14" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="B7" s="49"/>
@@ -2549,40 +2549,40 @@
       </c>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
-      <c r="F7" s="136" t="e">
+      <c r="F7" s="144" t="e">
         <f>WayBillList_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="136"/>
-      <c r="K7" s="136"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="144"/>
+      <c r="J7" s="144"/>
+      <c r="K7" s="144"/>
+      <c r="L7" s="144"/>
+      <c r="M7" s="144"/>
+      <c r="N7" s="144"/>
     </row>
     <row r="8" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="B8" s="48"/>
-      <c r="C8" s="136" t="s">
+      <c r="C8" s="144" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="136"/>
-      <c r="G8" s="137" t="e">
+      <c r="D8" s="144"/>
+      <c r="E8" s="144"/>
+      <c r="F8" s="144"/>
+      <c r="G8" s="145" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="H8" s="137"/>
-      <c r="I8" s="136" t="s">
+      <c r="H8" s="145"/>
+      <c r="I8" s="144" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="136"/>
-      <c r="K8" s="136"/>
-      <c r="L8" s="136"/>
-      <c r="M8" s="136"/>
-      <c r="N8" s="136"/>
+      <c r="J8" s="144"/>
+      <c r="K8" s="144"/>
+      <c r="L8" s="144"/>
+      <c r="M8" s="144"/>
+      <c r="N8" s="144"/>
     </row>
     <row r="9" spans="2:14" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="B9" s="48"/>
@@ -2597,11 +2597,11 @@
       <c r="F9" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="139" t="e">
+      <c r="G9" s="147" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="H9" s="139"/>
+      <c r="H9" s="147"/>
       <c r="I9" s="29" t="s">
         <v>32</v>
       </c>
@@ -2628,51 +2628,51 @@
     </row>
     <row r="11" spans="2:14" s="1" customFormat="1"/>
     <row r="12" spans="2:14" s="1" customFormat="1" ht="23.25" customHeight="1">
-      <c r="B12" s="125" t="s">
+      <c r="B12" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="127" t="s">
+      <c r="C12" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="129"/>
-      <c r="G12" s="125" t="s">
+      <c r="D12" s="139"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="125" t="s">
+      <c r="H12" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="125" t="s">
+      <c r="I12" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="125" t="s">
+      <c r="J12" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="125" t="s">
+      <c r="K12" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="125" t="s">
+      <c r="L12" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="M12" s="127" t="s">
+      <c r="M12" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="N12" s="129"/>
+      <c r="N12" s="130"/>
     </row>
     <row r="13" spans="2:14" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="B13" s="126"/>
-      <c r="C13" s="130"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="131"/>
+      <c r="B13" s="128"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="140"/>
       <c r="F13" s="132"/>
-      <c r="G13" s="126"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="126"/>
-      <c r="J13" s="126"/>
-      <c r="K13" s="126"/>
-      <c r="L13" s="126"/>
-      <c r="M13" s="130"/>
+      <c r="G13" s="128"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="128"/>
+      <c r="K13" s="128"/>
+      <c r="L13" s="128"/>
+      <c r="M13" s="131"/>
       <c r="N13" s="132"/>
     </row>
     <row r="14" spans="2:14" s="1" customFormat="1" ht="12.75" customHeight="1">
@@ -2680,13 +2680,13 @@
         <f>Posvitcheny_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C14" s="144" t="e">
+      <c r="C14" s="136" t="e">
         <f>Posvitcheny_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D14" s="145"/>
-      <c r="E14" s="145"/>
-      <c r="F14" s="146"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="138"/>
       <c r="G14" s="31" t="e">
         <f>Posvitcheny_AMOUNT</f>
         <v>#NAME?</v>
@@ -2711,30 +2711,30 @@
         <f>Posvitcheny_CF4</f>
         <v>#NAME?</v>
       </c>
-      <c r="M14" s="141" t="e">
+      <c r="M14" s="133" t="e">
         <f>Posvitcheny_CF5</f>
         <v>#NAME?</v>
       </c>
-      <c r="N14" s="142"/>
+      <c r="N14" s="134"/>
     </row>
     <row r="15" spans="2:14" ht="12.75" customHeight="1"/>
     <row r="16" spans="2:14" ht="12.75" customHeight="1"/>
     <row r="17" spans="3:14" ht="239.25" customHeight="1">
-      <c r="C17" s="143" t="e">
+      <c r="C17" s="135" t="e">
         <f>WayBillList_Declaration</f>
         <v>#NAME?</v>
       </c>
-      <c r="D17" s="143"/>
-      <c r="E17" s="143"/>
-      <c r="F17" s="143"/>
-      <c r="G17" s="143"/>
-      <c r="H17" s="143"/>
-      <c r="I17" s="143"/>
-      <c r="J17" s="143"/>
-      <c r="K17" s="143"/>
-      <c r="L17" s="143"/>
-      <c r="M17" s="143"/>
-      <c r="N17" s="143"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="135"/>
+      <c r="F17" s="135"/>
+      <c r="G17" s="135"/>
+      <c r="H17" s="135"/>
+      <c r="I17" s="135"/>
+      <c r="J17" s="135"/>
+      <c r="K17" s="135"/>
+      <c r="L17" s="135"/>
+      <c r="M17" s="135"/>
+      <c r="N17" s="135"/>
     </row>
     <row r="18" spans="3:14">
       <c r="C18" s="50"/>
@@ -2751,14 +2751,14 @@
       <c r="N18" s="38"/>
     </row>
     <row r="20" spans="3:14">
-      <c r="C20" s="140" t="s">
+      <c r="C20" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="140"/>
-      <c r="E20" s="140"/>
-      <c r="F20" s="140"/>
-      <c r="G20" s="140"/>
-      <c r="H20" s="140"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="126"/>
+      <c r="H20" s="126"/>
       <c r="K20" t="s">
         <v>33</v>
       </c>
@@ -2793,16 +2793,6 @@
     <row r="48" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="C17:N17"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="C14:F14"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:F13"/>
     <mergeCell ref="G12:G13"/>
@@ -2819,6 +2809,16 @@
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="F7:N7"/>
     <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="C17:N17"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="C14:F14"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3692,12 +3692,12 @@
         <v>38</v>
       </c>
       <c r="L1" s="57"/>
-      <c r="M1" s="154" t="e">
+      <c r="M1" s="161" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="N1" s="154"/>
-      <c r="O1" s="154"/>
+      <c r="N1" s="161"/>
+      <c r="O1" s="161"/>
     </row>
     <row r="2" spans="2:15">
       <c r="J2" s="55"/>
@@ -3708,14 +3708,14 @@
         <v>39</v>
       </c>
       <c r="D3" s="57"/>
-      <c r="E3" s="154" t="e">
+      <c r="E3" s="161" t="e">
         <f>WayBillList_AddressSel</f>
         <v>#NAME?</v>
       </c>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="155"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="162"/>
       <c r="J3" s="55"/>
       <c r="K3" s="59" t="e">
         <f>WayBillList_EntKaFullName</f>
@@ -3730,11 +3730,11 @@
       <c r="B4" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="156" t="e">
+      <c r="E4" s="163" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="F4" s="156"/>
+      <c r="F4" s="163"/>
       <c r="G4" s="57"/>
       <c r="H4" s="57"/>
       <c r="I4" s="61"/>
@@ -3750,43 +3750,43 @@
       <c r="K5" s="58"/>
     </row>
     <row r="6" spans="2:15" ht="16.5" customHeight="1">
-      <c r="B6" s="116" t="s">
+      <c r="B6" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="116" t="s">
+      <c r="C6" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="118"/>
-      <c r="E6" s="116" t="s">
+      <c r="D6" s="111"/>
+      <c r="E6" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="118"/>
-      <c r="G6" s="161" t="s">
+      <c r="F6" s="111"/>
+      <c r="G6" s="150" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="162"/>
-      <c r="I6" s="162"/>
+      <c r="H6" s="151"/>
+      <c r="I6" s="151"/>
       <c r="J6" s="55"/>
-      <c r="K6" s="163" t="s">
+      <c r="K6" s="152" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="116" t="s">
+      <c r="L6" s="109" t="s">
         <v>45</v>
       </c>
-      <c r="M6" s="118"/>
-      <c r="N6" s="159" t="s">
+      <c r="M6" s="111"/>
+      <c r="N6" s="164" t="s">
         <v>46</v>
       </c>
-      <c r="O6" s="159" t="s">
+      <c r="O6" s="164" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="17.25" customHeight="1">
-      <c r="B7" s="157"/>
-      <c r="C7" s="157"/>
-      <c r="D7" s="158"/>
-      <c r="E7" s="157"/>
-      <c r="F7" s="158"/>
+      <c r="B7" s="148"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="149"/>
       <c r="G7" s="11" t="s">
         <v>5</v>
       </c>
@@ -3797,27 +3797,27 @@
         <v>49</v>
       </c>
       <c r="J7" s="55"/>
-      <c r="K7" s="164"/>
-      <c r="L7" s="157"/>
-      <c r="M7" s="158"/>
-      <c r="N7" s="160"/>
-      <c r="O7" s="160"/>
+      <c r="K7" s="153"/>
+      <c r="L7" s="148"/>
+      <c r="M7" s="149"/>
+      <c r="N7" s="165"/>
+      <c r="O7" s="165"/>
     </row>
     <row r="8" spans="2:15" ht="19.5" customHeight="1">
       <c r="B8" s="64" t="e">
         <f>range_oz_Num</f>
         <v>#NAME?</v>
       </c>
-      <c r="C8" s="147" t="e">
+      <c r="C8" s="154" t="e">
         <f>range_oz_InvNumber</f>
         <v>#NAME?</v>
       </c>
-      <c r="D8" s="147"/>
-      <c r="E8" s="148" t="e">
+      <c r="D8" s="154"/>
+      <c r="E8" s="155" t="e">
         <f>range_oz_MatName</f>
         <v>#NAME?</v>
       </c>
-      <c r="F8" s="149"/>
+      <c r="F8" s="156"/>
       <c r="G8" s="65" t="e">
         <f>range_oz_Remain</f>
         <v>#NAME?</v>
@@ -3835,8 +3835,8 @@
         <f>range_oz_MatName</f>
         <v>#NAME?</v>
       </c>
-      <c r="L8" s="150"/>
-      <c r="M8" s="151"/>
+      <c r="L8" s="157"/>
+      <c r="M8" s="158"/>
       <c r="N8" s="70"/>
       <c r="O8" s="71"/>
     </row>
@@ -3855,8 +3855,8 @@
       <c r="K9" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="L9" s="152"/>
-      <c r="M9" s="153"/>
+      <c r="L9" s="159"/>
+      <c r="M9" s="160"/>
       <c r="N9" s="76"/>
       <c r="O9" s="77"/>
     </row>
@@ -3894,11 +3894,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:F7"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="K6:K7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="L8:M8"/>
@@ -3909,6 +3904,11 @@
     <mergeCell ref="L6:M7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="O6:O7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="K6:K7"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="68" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/SP_Sklad/TempLate/WayBill_Out.xlsx
+++ b/SP_Sklad/TempLate/WayBill_Out.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WinVSProjects\SP-Sklad\SP_Sklad\TempLate\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B8D696-2C38-4911-923B-38B0EF3F1E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5550" yWindow="5175" windowWidth="13395" windowHeight="8310"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Накладна" sheetId="1" r:id="rId1"/>
@@ -18,7 +24,18 @@
     <definedName name="range2">'Посвідчення якості'!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Накладна!$A$1:$R$25</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -124,9 +141,6 @@
     <t>для реалізації</t>
   </si>
   <si>
-    <t>Помилуйко О.В.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Наймену підприємства-виробника: </t>
   </si>
   <si>
@@ -200,18 +214,21 @@
   </si>
   <si>
     <t>Знижка, %</t>
+  </si>
+  <si>
+    <t>_______________</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -984,16 +1001,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1003,58 +1019,47 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1062,28 +1067,22 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1098,21 +1097,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1132,7 +1128,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1158,207 +1154,223 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1371,42 +1383,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1537,7 +1513,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1569,9 +1545,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1603,6 +1597,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1778,13 +1790,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:V25"/>
+  <dimension ref="B1:V25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" style="1" customWidth="1"/>
@@ -1807,254 +1819,253 @@
     <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="12" customHeight="1"/>
-    <row r="2" spans="2:22" ht="16.5" customHeight="1">
-      <c r="B2" s="102" t="s">
+    <row r="1" spans="2:22" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="24" t="e">
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="18" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="K2" s="117" t="e">
+      <c r="K2" s="102" t="e">
         <f>"*"&amp;WayBillList_WbillId&amp;"*"</f>
         <v>#NAME?</v>
       </c>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117"/>
-      <c r="Q2" s="117"/>
-      <c r="R2" s="117"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
-      <c r="U2" s="101"/>
-      <c r="V2" s="101"/>
-    </row>
-    <row r="3" spans="2:22" ht="16.5" customHeight="1">
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="21" t="s">
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+    </row>
+    <row r="3" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="116" t="e">
+      <c r="F3" s="104" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="117"/>
-      <c r="O3" s="117"/>
-      <c r="P3" s="117"/>
-      <c r="Q3" s="117"/>
-      <c r="R3" s="117"/>
-      <c r="S3" s="37"/>
-    </row>
-    <row r="4" spans="2:22">
-      <c r="K4" s="118" t="e">
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="30"/>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="K4" s="103" t="e">
         <f>WayBillList_WbillId</f>
         <v>#NAME?</v>
       </c>
-      <c r="L4" s="118"/>
-      <c r="M4" s="118"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="118"/>
-      <c r="P4" s="118"/>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="118"/>
-    </row>
-    <row r="5" spans="2:22" ht="16.5" thickBot="1">
-      <c r="B5" s="19" t="s">
+      <c r="L4" s="103"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="103"/>
+      <c r="O4" s="103"/>
+      <c r="P4" s="103"/>
+      <c r="Q4" s="103"/>
+      <c r="R4" s="103"/>
+    </row>
+    <row r="5" spans="2:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="28" t="e">
+      <c r="C5" s="15"/>
+      <c r="D5" s="22" t="e">
         <f>WayBillList_EntKaFullName</f>
         <v>#NAME?</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-    </row>
-    <row r="6" spans="2:22">
-      <c r="B6" s="33"/>
-      <c r="D6" s="9" t="e">
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B6" s="27"/>
+      <c r="D6" s="3" t="e">
         <f>CONCATENATE(IF(WayBillList_EntOKPO&lt;&gt;"","ЗКПО "&amp;WayBillList_EntOKPO&amp;", ",""),"тел. ",WayBillList_EntKaPhone)</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="7" spans="2:22">
-      <c r="B7" s="33"/>
-      <c r="D7" s="9" t="e">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B7" s="27"/>
+      <c r="D7" s="3" t="e">
         <f>IF(EntAccount_AccNum&lt;&gt;"",CONCATENATE("Р/р ",EntAccount_AccNum," в ",EntAccount_BankName, ", МФО ",EntAccount_MFO),"")</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="8" spans="2:22">
-      <c r="B8" s="33" t="e">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B8" s="27" t="e">
         <f>WayBillList_EntINN</f>
         <v>#NAME?</v>
       </c>
-      <c r="C8" s="42" t="e">
+      <c r="C8" s="33" t="e">
         <f>WayBillList_EntCertNum</f>
         <v>#NAME?</v>
       </c>
-      <c r="D8" s="9" t="e">
+      <c r="D8" s="3" t="e">
         <f>IF(B8&lt;&gt;"",CONCATENATE("ІПН ",B8,", номер свідотцтва ",WayBillList_EntCertNum),"")</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="9" spans="2:22" ht="24.75" customHeight="1">
-      <c r="B9" s="41"/>
-      <c r="D9" s="114" t="e">
+    <row r="9" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="33"/>
+      <c r="D9" s="100" t="e">
         <f>"Адреса: "&amp;WayBillList_AddressSel</f>
         <v>#NAME?</v>
       </c>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="114"/>
-      <c r="J9" s="114"/>
-    </row>
-    <row r="10" spans="2:22" ht="33" customHeight="1" thickBot="1">
-      <c r="B10" s="19" t="s">
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="100"/>
+    </row>
+    <row r="10" spans="2:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="115" t="e">
+      <c r="C10" s="15"/>
+      <c r="D10" s="101" t="e">
         <f>WayBillList_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="E10" s="115"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="115"/>
-      <c r="K10" s="115"/>
-      <c r="L10" s="115"/>
-      <c r="M10" s="115"/>
-      <c r="N10" s="115"/>
-      <c r="O10" s="115"/>
-      <c r="P10" s="115"/>
-      <c r="Q10" s="115"/>
-      <c r="R10" s="115"/>
-    </row>
-    <row r="11" spans="2:22" ht="24.75" customHeight="1">
-      <c r="B11" s="40"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="107" t="e">
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="101"/>
+      <c r="N10" s="101"/>
+      <c r="O10" s="101"/>
+      <c r="P10" s="101"/>
+      <c r="Q10" s="101"/>
+      <c r="R10" s="101"/>
+    </row>
+    <row r="11" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="32"/>
+      <c r="D11" s="93" t="e">
         <f>CONCATENATE("Адреса: ",WayBillList_AddressBuy)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="107"/>
-    </row>
-    <row r="12" spans="2:22" ht="16.5" customHeight="1">
-      <c r="B12" s="12" t="s">
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="93"/>
+    </row>
+    <row r="12" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="18" t="e">
+      <c r="C12" s="11"/>
+      <c r="D12" s="12" t="e">
         <f>WayBillList_RECEIVED</f>
         <v>#NAME?</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14" t="e">
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12" t="e">
         <f>WayBillList_CarNumber</f>
         <v>#NAME?</v>
       </c>
-      <c r="R12" s="14"/>
-    </row>
-    <row r="13" spans="2:22" ht="16.5" customHeight="1">
-      <c r="B13" s="9" t="s">
+      <c r="R12" s="12"/>
+    </row>
+    <row r="13" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="22" t="e">
+      <c r="C13" s="8"/>
+      <c r="D13" s="7" t="e">
         <f>WayBillList_ATTNUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="106" t="e">
+      <c r="F13" s="92" t="e">
         <f>IF(WayBillList_AttDate&gt;0,WayBillList_AttDate,"")</f>
         <v>#NAME?</v>
       </c>
-      <c r="G13" s="106"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-    </row>
-    <row r="14" spans="2:22" ht="18.75" customHeight="1">
-      <c r="B14" s="103" t="e">
+      <c r="G13" s="92"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+    </row>
+    <row r="14" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="89" t="e">
         <f>CONCATENATE("Підстава: ",WayBillList_Reason)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="103"/>
-      <c r="I14" s="103"/>
-      <c r="J14" s="103"/>
-      <c r="K14" s="103"/>
-      <c r="L14" s="103"/>
-      <c r="M14" s="103"/>
-      <c r="N14" s="103"/>
-      <c r="O14" s="103"/>
-      <c r="P14" s="103"/>
-      <c r="Q14" s="103"/>
-      <c r="R14" s="103"/>
-    </row>
-    <row r="15" spans="2:22" ht="6" customHeight="1">
-      <c r="C15" s="108"/>
-      <c r="D15" s="108"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="89"/>
+      <c r="N14" s="89"/>
+      <c r="O14" s="89"/>
+      <c r="P14" s="89"/>
+      <c r="Q14" s="89"/>
+      <c r="R14" s="89"/>
+    </row>
+    <row r="15" spans="2:22" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -2064,206 +2075,202 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" spans="2:22" ht="30.75" customHeight="1">
-      <c r="B16" s="5" t="s">
+    <row r="16" spans="2:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="109" t="s">
+      <c r="C16" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="6" t="s">
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6" t="s">
+      <c r="I16" s="5"/>
+      <c r="J16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K16" s="5" t="e">
+      <c r="K16" s="4" t="e">
         <f>IF(B19&gt;0,"Ціна з ПДВ","Ціна без знижки")</f>
         <v>#NAME?</v>
       </c>
-      <c r="L16" s="96" t="s">
+      <c r="L16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M16" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="M16" s="98" t="s">
-        <v>58</v>
-      </c>
-      <c r="N16" s="96" t="s">
-        <v>56</v>
-      </c>
-      <c r="O16" s="96" t="s">
+      <c r="N16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="P16" s="96" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q16" s="5" t="s">
+      <c r="Q16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="R16" s="85" t="e">
+      <c r="R16" s="5" t="e">
         <f>IF(B19&gt;0,"Сума з ПДВ","Сума зі знижкою")</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="12.75" customHeight="1">
-      <c r="B17" s="91" t="e">
+    <row r="17" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="75" t="e">
         <f>range1_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C17" s="112" t="e">
+      <c r="C17" s="98" t="e">
         <f>range1_MATNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="91" t="e">
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="75" t="e">
         <f>range1_MSRNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="I17" s="91" t="e">
+      <c r="I17" s="75" t="e">
         <f>IF(H17="кг.",J17,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="J17" s="92" t="e">
+      <c r="J17" s="76" t="e">
         <f>range1_AMOUNT</f>
         <v>#NAME?</v>
       </c>
-      <c r="K17" s="93" t="e">
+      <c r="K17" s="77" t="e">
         <f>range1_BasePrice</f>
         <v>#NAME?</v>
       </c>
-      <c r="L17" s="94" t="e">
+      <c r="L17" s="78" t="e">
         <f>range1_NDS</f>
         <v>#NAME?</v>
       </c>
-      <c r="M17" s="94" t="e">
+      <c r="M17" s="78" t="e">
         <f>range1_Discount</f>
         <v>#NAME?</v>
       </c>
-      <c r="N17" s="94" t="e">
+      <c r="N17" s="78" t="e">
         <f>range1_SumNDS</f>
         <v>#NAME?</v>
       </c>
-      <c r="O17" s="94" t="e">
+      <c r="O17" s="78" t="e">
         <f>R17-N17</f>
         <v>#NAME?</v>
       </c>
-      <c r="P17" s="93" t="e">
+      <c r="P17" s="77" t="e">
         <f>range1_PRICE</f>
         <v>#NAME?</v>
       </c>
-      <c r="Q17" s="93" t="e">
+      <c r="Q17" s="77" t="e">
         <f>(J17*K17)-R17</f>
         <v>#NAME?</v>
       </c>
-      <c r="R17" s="93" t="e">
+      <c r="R17" s="77" t="e">
         <f>range1_Total</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="12.75" customHeight="1">
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="113" t="e">
+    <row r="18" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="99" t="e">
         <f>IF(B19&gt;0,"Всього без ПДВ","Всього")</f>
         <v>#NAME?</v>
       </c>
-      <c r="G18" s="113"/>
-      <c r="H18" s="113"/>
-      <c r="I18" s="46" t="s">
+      <c r="G18" s="99"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="J18" s="86" t="str">
+      <c r="J18" s="70" t="str">
         <f>I18</f>
         <v>sum</v>
       </c>
-      <c r="K18" s="87"/>
-      <c r="L18" s="88"/>
-      <c r="M18" s="88"/>
-      <c r="N18" s="89" t="s">
+      <c r="K18" s="71"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="O18" s="89" t="s">
+      <c r="O18" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="P18" s="89"/>
-      <c r="Q18" s="89" t="s">
+      <c r="P18" s="73"/>
+      <c r="Q18" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="R18" s="90" t="str">
+      <c r="R18" s="74" t="str">
         <f>O18</f>
         <v>sum</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="12.75" customHeight="1">
-      <c r="B19" s="36" t="e">
+    <row r="19" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="28" t="e">
         <f>WayBillList_NDS</f>
         <v>#NAME?</v>
       </c>
-      <c r="C19" s="39" t="e">
+      <c r="C19" s="31" t="e">
         <f>ROUND(R18*B19/100,2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="104" t="e">
+      <c r="J19" s="90" t="e">
         <f>IF(B19&gt;0,"Всього ПДВ","Всього без знижки")</f>
         <v>#NAME?</v>
       </c>
-      <c r="K19" s="105"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="27" t="e">
+      <c r="K19" s="91"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="21" t="e">
         <f>IF(B19&gt;0,N18,Q18+R18)</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="12.75" customHeight="1">
-      <c r="B20" s="34" t="e">
+    <row r="20" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="28" t="e">
         <f>Q18+R18</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H20" s="121" t="e">
+      <c r="H20" s="83" t="e">
         <f>IF(B19&gt;0,"Разом, в т.ч ПДВ:","Всього до сплати")</f>
         <v>#NAME?</v>
       </c>
-      <c r="I20" s="121"/>
-      <c r="J20" s="121"/>
-      <c r="K20" s="122"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="35" t="e">
+      <c r="I20" s="83"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="29" t="e">
         <f>IF(B19&gt;0,R18+R19,R18)</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="12.75" customHeight="1">
-      <c r="B21" s="124"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="124"/>
-      <c r="G21" s="124"/>
+    <row r="21" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="86"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -2276,37 +2283,37 @@
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
     </row>
-    <row r="22" spans="1:18" ht="12.75" customHeight="1">
-      <c r="B22" s="23" t="s">
+    <row r="22" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="18" t="e">
+      <c r="C22" s="7"/>
+      <c r="D22" s="12" t="e">
         <f>WayBillList_www</f>
         <v>#NAME?</v>
       </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="97"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="95"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-    </row>
-    <row r="23" spans="1:18" ht="12.75" customHeight="1">
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+    </row>
+    <row r="23" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -2319,19 +2326,19 @@
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
     </row>
-    <row r="24" spans="1:18" ht="12.75" customHeight="1">
-      <c r="B24" s="43" t="e">
+    <row r="24" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="34" t="e">
         <f>WayBillList_WTYPE</f>
         <v>#NAME?</v>
       </c>
-      <c r="C24" s="43" t="e">
+      <c r="C24" s="34" t="e">
         <f>WayBillList_PERSONNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -2344,41 +2351,34 @@
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
     </row>
-    <row r="25" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A25" s="4"/>
-      <c r="B25" s="125" t="s">
+    <row r="25" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="125"/>
-      <c r="D25" s="120" t="e">
+      <c r="C25" s="87"/>
+      <c r="D25" s="82" t="e">
         <f>IF(B24 &lt; 0,C24," ")</f>
         <v>#NAME?</v>
       </c>
-      <c r="E25" s="120"/>
-      <c r="F25" s="120"/>
-      <c r="G25" s="120"/>
-      <c r="H25" s="123" t="s">
+      <c r="E25" s="82"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="I25" s="123"/>
-      <c r="J25" s="123"/>
-      <c r="K25" s="119"/>
-      <c r="L25" s="119"/>
-      <c r="M25" s="119"/>
-      <c r="N25" s="119"/>
-      <c r="O25" s="119"/>
-      <c r="P25" s="119"/>
-      <c r="Q25" s="119"/>
-      <c r="R25" s="119"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="81"/>
+      <c r="L25" s="81"/>
+      <c r="M25" s="81"/>
+      <c r="N25" s="81"/>
+      <c r="O25" s="81"/>
+      <c r="P25" s="81"/>
+      <c r="Q25" s="81"/>
+      <c r="R25" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="K25:R25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B25:C25"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="J19:K19"/>
@@ -2393,6 +2393,12 @@
     <mergeCell ref="K2:R3"/>
     <mergeCell ref="K4:R4"/>
     <mergeCell ref="F3:H3"/>
+    <mergeCell ref="K25:R25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B25:C25"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -2402,17 +2408,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Лист2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:N48"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C17" sqref="C17:N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.140625" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" customWidth="1"/>
@@ -2430,369 +2436,378 @@
     <col min="14" max="14" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="35.25" customHeight="1">
-      <c r="B1" s="141" t="s">
+    <row r="1" spans="2:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="142"/>
-      <c r="M1" s="142"/>
-      <c r="N1" s="142"/>
-    </row>
-    <row r="2" spans="2:14" s="1" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B2" s="143" t="s">
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+    </row>
+    <row r="2" spans="2:14" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="143"/>
-      <c r="L2" s="47" t="e">
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="37" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-    </row>
-    <row r="3" spans="2:14" s="1" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B3" s="146" t="s">
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+    </row>
+    <row r="3" spans="2:14" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="146"/>
-      <c r="K3" s="146"/>
-      <c r="L3" s="146"/>
-      <c r="M3" s="146"/>
-      <c r="N3" s="146"/>
-    </row>
-    <row r="4" spans="2:14" s="1" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B4" s="49"/>
-      <c r="C4" s="144" t="s">
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
+      <c r="L3" s="118"/>
+      <c r="M3" s="118"/>
+      <c r="N3" s="118"/>
+    </row>
+    <row r="4" spans="2:14" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="39"/>
+      <c r="C4" s="116" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116" t="e">
+        <f>WayBillList_EntKaFullName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="116"/>
+    </row>
+    <row r="5" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="39"/>
+      <c r="C5" s="116" t="e">
+        <f>WayBillList_AddressSel</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+    </row>
+    <row r="6" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="39"/>
+      <c r="C6" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="144"/>
-      <c r="I4" s="144" t="e">
+      <c r="D6" s="116"/>
+      <c r="E6" s="116" t="e">
         <f>WayBillList_EntKaFullName</f>
         <v>#NAME?</v>
       </c>
-      <c r="J4" s="144"/>
-      <c r="K4" s="144"/>
-      <c r="L4" s="144"/>
-      <c r="M4" s="144"/>
-      <c r="N4" s="144"/>
-    </row>
-    <row r="5" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B5" s="49"/>
-      <c r="C5" s="144" t="e">
-        <f>WayBillList_AddressSel</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="144"/>
-      <c r="K5" s="144"/>
-      <c r="L5" s="144"/>
-      <c r="M5" s="144"/>
-      <c r="N5" s="144"/>
-    </row>
-    <row r="6" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B6" s="49"/>
-      <c r="C6" s="144" t="s">
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="116"/>
+      <c r="M6" s="116"/>
+      <c r="N6" s="116"/>
+    </row>
+    <row r="7" spans="2:14" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="39"/>
+      <c r="C7" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="116" t="e">
+        <f>WayBillList_NAME</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
+    </row>
+    <row r="8" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="38"/>
+      <c r="C8" s="116" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="117" t="e">
+        <f>WayBillList_ONDATE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H8" s="117"/>
+      <c r="I8" s="116" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+    </row>
+    <row r="9" spans="2:14" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="38"/>
+      <c r="C9" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37" t="e">
+        <f>WayBillList_NUM</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="119" t="e">
+        <f>WayBillList_ONDATE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H9" s="119"/>
+      <c r="I9" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+    </row>
+    <row r="10" spans="2:14" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="38"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+    </row>
+    <row r="11" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="2:14" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="105" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="107" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="105" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="105" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="105" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="105" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="109"/>
+    </row>
+    <row r="13" spans="2:14" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="106"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="106"/>
+      <c r="L13" s="106"/>
+      <c r="M13" s="110"/>
+      <c r="N13" s="112"/>
+    </row>
+    <row r="14" spans="2:14" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="24" t="e">
+        <f>Posvitcheny_NUM</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C14" s="124" t="e">
+        <f>Posvitcheny_NAME</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="25" t="e">
+        <f>Posvitcheny_AMOUNT</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H14" s="25" t="e">
+        <f>Posvitcheny_CF1</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I14" s="25" t="e">
+        <f>Posvitcheny_CF2</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J14" s="26" t="e">
+        <f>Posvitcheny_ONDATE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K14" s="25" t="e">
+        <f>Posvitcheny_CF3</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L14" s="25" t="e">
+        <f>Posvitcheny_CF4</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M14" s="121" t="e">
+        <f>Posvitcheny_CF5</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N14" s="122"/>
+    </row>
+    <row r="15" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="3:14" ht="239.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="123" t="e">
+        <f>WayBillList_Declaration</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D17" s="123"/>
+      <c r="E17" s="123"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="123"/>
+      <c r="K17" s="123"/>
+      <c r="L17" s="123"/>
+      <c r="M17" s="123"/>
+      <c r="N17" s="123"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C20" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="144"/>
-      <c r="E6" s="144" t="e">
-        <f>WayBillList_EntKaFullName</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
-      <c r="H6" s="144"/>
-      <c r="I6" s="144"/>
-      <c r="J6" s="144"/>
-      <c r="K6" s="144"/>
-      <c r="L6" s="144"/>
-      <c r="M6" s="144"/>
-      <c r="N6" s="144"/>
-    </row>
-    <row r="7" spans="2:14" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B7" s="49"/>
-      <c r="C7" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="144" t="e">
-        <f>WayBillList_NAME</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="144"/>
-      <c r="J7" s="144"/>
-      <c r="K7" s="144"/>
-      <c r="L7" s="144"/>
-      <c r="M7" s="144"/>
-      <c r="N7" s="144"/>
-    </row>
-    <row r="8" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B8" s="48"/>
-      <c r="C8" s="144" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="144"/>
-      <c r="E8" s="144"/>
-      <c r="F8" s="144"/>
-      <c r="G8" s="145" t="e">
-        <f>WayBillList_ONDATE</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H8" s="145"/>
-      <c r="I8" s="144" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="144"/>
-      <c r="K8" s="144"/>
-      <c r="L8" s="144"/>
-      <c r="M8" s="144"/>
-      <c r="N8" s="144"/>
-    </row>
-    <row r="9" spans="2:14" s="1" customFormat="1" ht="17.25" customHeight="1">
-      <c r="B9" s="48"/>
-      <c r="C9" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47" t="e">
-        <f>WayBillList_NUM</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="147" t="e">
-        <f>WayBillList_ONDATE</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H9" s="147"/>
-      <c r="I9" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-    </row>
-    <row r="10" spans="2:14" s="1" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B10" s="48"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-    </row>
-    <row r="11" spans="2:14" s="1" customFormat="1"/>
-    <row r="12" spans="2:14" s="1" customFormat="1" ht="23.25" customHeight="1">
-      <c r="B12" s="127" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="129" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="139"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="127" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="127" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="127" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="127" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="127" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" s="127" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" s="129" t="s">
-        <v>22</v>
-      </c>
-      <c r="N12" s="130"/>
-    </row>
-    <row r="13" spans="2:14" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="B13" s="128"/>
-      <c r="C13" s="131"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="132"/>
-      <c r="G13" s="128"/>
-      <c r="H13" s="128"/>
-      <c r="I13" s="128"/>
-      <c r="J13" s="128"/>
-      <c r="K13" s="128"/>
-      <c r="L13" s="128"/>
-      <c r="M13" s="131"/>
-      <c r="N13" s="132"/>
-    </row>
-    <row r="14" spans="2:14" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B14" s="30" t="e">
-        <f>Posvitcheny_NUM</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C14" s="136" t="e">
-        <f>Posvitcheny_NAME</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D14" s="137"/>
-      <c r="E14" s="137"/>
-      <c r="F14" s="138"/>
-      <c r="G14" s="31" t="e">
-        <f>Posvitcheny_AMOUNT</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H14" s="31" t="e">
-        <f>Posvitcheny_CF1</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I14" s="31" t="e">
-        <f>Posvitcheny_CF2</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J14" s="32" t="e">
-        <f>Posvitcheny_ONDATE</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K14" s="31" t="e">
-        <f>Posvitcheny_CF3</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L14" s="31" t="e">
-        <f>Posvitcheny_CF4</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M14" s="133" t="e">
-        <f>Posvitcheny_CF5</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N14" s="134"/>
-    </row>
-    <row r="15" spans="2:14" ht="12.75" customHeight="1"/>
-    <row r="16" spans="2:14" ht="12.75" customHeight="1"/>
-    <row r="17" spans="3:14" ht="239.25" customHeight="1">
-      <c r="C17" s="135" t="e">
-        <f>WayBillList_Declaration</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D17" s="135"/>
-      <c r="E17" s="135"/>
-      <c r="F17" s="135"/>
-      <c r="G17" s="135"/>
-      <c r="H17" s="135"/>
-      <c r="I17" s="135"/>
-      <c r="J17" s="135"/>
-      <c r="K17" s="135"/>
-      <c r="L17" s="135"/>
-      <c r="M17" s="135"/>
-      <c r="N17" s="135"/>
-    </row>
-    <row r="18" spans="3:14">
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="38"/>
-    </row>
-    <row r="20" spans="3:14">
-      <c r="C20" s="126" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="126"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="126"/>
-      <c r="H20" s="126"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="120"/>
       <c r="K20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" ht="12.75" customHeight="1"/>
-    <row r="22" spans="3:14" ht="12.75" customHeight="1"/>
-    <row r="23" spans="3:14" ht="12.75" customHeight="1"/>
-    <row r="24" spans="3:14" ht="12.75" customHeight="1"/>
-    <row r="25" spans="3:14" ht="12.75" customHeight="1"/>
-    <row r="26" spans="3:14" ht="12.75" customHeight="1"/>
-    <row r="27" spans="3:14" ht="12.75" customHeight="1"/>
-    <row r="28" spans="3:14" ht="12.75" customHeight="1"/>
-    <row r="29" spans="3:14" ht="12.75" customHeight="1"/>
-    <row r="30" spans="3:14" ht="12.75" customHeight="1"/>
-    <row r="31" spans="3:14" ht="12.75" customHeight="1"/>
-    <row r="32" spans="3:14" ht="12.75" customHeight="1"/>
-    <row r="33" ht="12.75" customHeight="1"/>
-    <row r="34" ht="12.75" customHeight="1"/>
-    <row r="35" ht="12.75" customHeight="1"/>
-    <row r="36" ht="12.75" customHeight="1"/>
-    <row r="37" ht="12.75" customHeight="1"/>
-    <row r="38" ht="12.75" customHeight="1"/>
-    <row r="39" ht="12.75" customHeight="1"/>
-    <row r="40" ht="12.75" customHeight="1"/>
-    <row r="41" ht="12.75" customHeight="1"/>
-    <row r="42" ht="12.75" customHeight="1"/>
-    <row r="43" ht="12.75" customHeight="1"/>
-    <row r="44" ht="12.75" customHeight="1"/>
-    <row r="45" ht="12.75" customHeight="1"/>
-    <row r="46" ht="12.75" customHeight="1"/>
-    <row r="47" ht="12.75" customHeight="1"/>
-    <row r="48" ht="12.75" customHeight="1"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="3:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="3:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="3:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="3:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="3:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="3:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="3:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="3:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="3:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="3:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="3:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="C17:N17"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="C14:F14"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:F13"/>
     <mergeCell ref="G12:G13"/>
@@ -2809,16 +2824,6 @@
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="F7:N7"/>
     <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="C17:N17"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="C14:F14"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2827,7 +2832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2835,7 +2840,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="0.7109375" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
@@ -3673,227 +3678,221 @@
     <col min="16143" max="16143" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15.75">
-      <c r="B1" s="51" t="s">
+    <row r="1" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="43" t="e">
+        <f>WayBillList_NUM</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J1" s="44"/>
+      <c r="K1" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="54" t="e">
+      <c r="M1" s="134" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="J1" s="55"/>
-      <c r="K1" s="56" t="s">
+      <c r="N1" s="134"/>
+      <c r="O1" s="134"/>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="J2" s="44"/>
+      <c r="K2" s="45"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="57"/>
-      <c r="M1" s="161" t="e">
-        <f>WayBillList_NUM</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N1" s="161"/>
-      <c r="O1" s="161"/>
-    </row>
-    <row r="2" spans="2:15">
-      <c r="J2" s="55"/>
-      <c r="K2" s="58"/>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" t="s">
+      <c r="E3" s="134" t="e">
+        <f>WayBillList_AddressSel</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="46" t="e">
+        <f>WayBillList_EntKaFullName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+    </row>
+    <row r="4" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="161" t="e">
-        <f>WayBillList_AddressSel</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="59" t="e">
+      <c r="E4" s="136" t="e">
+        <f>WayBillList_ONDATE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F4" s="136"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="J5" s="44"/>
+      <c r="K5" s="45"/>
+    </row>
+    <row r="6" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="95" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="95" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="97"/>
+      <c r="E6" s="95" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="97"/>
+      <c r="G6" s="141" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="142"/>
+      <c r="I6" s="142"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="143" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="95" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="97"/>
+      <c r="N6" s="139" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="139" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="137"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="44"/>
+      <c r="K7" s="144"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="138"/>
+      <c r="N7" s="140"/>
+      <c r="O7" s="140"/>
+    </row>
+    <row r="8" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="51" t="e">
+        <f>range_oz_Num</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C8" s="127" t="e">
+        <f>range_oz_InvNumber</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D8" s="127"/>
+      <c r="E8" s="128" t="e">
+        <f>range_oz_MatName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F8" s="129"/>
+      <c r="G8" s="52" t="e">
+        <f>range_oz_Remain</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H8" s="53" t="e">
+        <f>range_oz_Price</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I8" s="54" t="e">
+        <f>G8*H8</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J8" s="55"/>
+      <c r="K8" s="56" t="e">
+        <f>range_oz_MatName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L8" s="130"/>
+      <c r="M8" s="131"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="58"/>
+    </row>
+    <row r="9" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F9" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="61"/>
+      <c r="I9" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="44"/>
+      <c r="K9" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" s="132"/>
+      <c r="M9" s="133"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="64"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="F10" s="65"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="65"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="66" t="e">
         <f>WayBillList_EntKaFullName</f>
         <v>#NAME?</v>
       </c>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-    </row>
-    <row r="4" spans="2:15" ht="19.5" customHeight="1">
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="163" t="e">
-        <f>WayBillList_ONDATE</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F4" s="163"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-    </row>
-    <row r="5" spans="2:15">
-      <c r="J5" s="55"/>
-      <c r="K5" s="58"/>
-    </row>
-    <row r="6" spans="2:15" ht="16.5" customHeight="1">
-      <c r="B6" s="109" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="109" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="111"/>
-      <c r="E6" s="109" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="111"/>
-      <c r="G6" s="150" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="151"/>
-      <c r="I6" s="151"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="152" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" s="109" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" s="111"/>
-      <c r="N6" s="164" t="s">
-        <v>46</v>
-      </c>
-      <c r="O6" s="164" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" ht="17.25" customHeight="1">
-      <c r="B7" s="148"/>
-      <c r="C7" s="148"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="148"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" s="55"/>
-      <c r="K7" s="153"/>
-      <c r="L7" s="148"/>
-      <c r="M7" s="149"/>
-      <c r="N7" s="165"/>
-      <c r="O7" s="165"/>
-    </row>
-    <row r="8" spans="2:15" ht="19.5" customHeight="1">
-      <c r="B8" s="64" t="e">
-        <f>range_oz_Num</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C8" s="154" t="e">
-        <f>range_oz_InvNumber</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D8" s="154"/>
-      <c r="E8" s="155" t="e">
-        <f>range_oz_MatName</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F8" s="156"/>
-      <c r="G8" s="65" t="e">
-        <f>range_oz_Remain</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H8" s="66" t="e">
-        <f>range_oz_Price</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I8" s="67" t="e">
-        <f>G8*H8</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J8" s="68"/>
-      <c r="K8" s="69" t="e">
-        <f>range_oz_MatName</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L8" s="157"/>
-      <c r="M8" s="158"/>
-      <c r="N8" s="70"/>
-      <c r="O8" s="71"/>
-    </row>
-    <row r="9" spans="2:15" ht="21" customHeight="1">
-      <c r="F9" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="74"/>
-      <c r="I9" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="55"/>
-      <c r="K9" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="L9" s="159"/>
-      <c r="M9" s="160"/>
-      <c r="N9" s="76"/>
-      <c r="O9" s="77"/>
-    </row>
-    <row r="10" spans="2:15">
-      <c r="F10" s="78"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="79"/>
-      <c r="O10" s="79"/>
-    </row>
-    <row r="11" spans="2:15">
-      <c r="B11" t="s">
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="81" t="e">
-        <f>WayBillList_EntKaFullName</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="83" t="s">
-        <v>52</v>
-      </c>
-      <c r="L11" s="84"/>
-      <c r="M11" s="84"/>
-      <c r="N11" s="84"/>
-      <c r="O11" s="79"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="K6:K7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="L8:M8"/>
@@ -3904,11 +3903,6 @@
     <mergeCell ref="L6:M7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="O6:O7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:F7"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="K6:K7"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="68" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
